--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -777,7 +777,7 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
         <v>3.2</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1317,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -2084,10 +2084,10 @@
         <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2123,10 +2123,10 @@
         <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2779,10 +2779,10 @@
         <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S13" t="n">
         <v>1.2</v>
@@ -3131,16 +3131,16 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.4</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
         <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.83</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
@@ -4053,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4071,7 +4071,7 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>7.5</v>
@@ -4131,7 +4131,7 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4405,16 +4405,16 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
@@ -4423,25 +4423,25 @@
         <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
         <v>11</v>
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -4465,10 +4465,10 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>29</v>
@@ -4504,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
         <v>4.33</v>
@@ -4611,7 +4611,7 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
         <v>2.25</v>
@@ -4668,7 +4668,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4707,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>41</v>
@@ -4775,10 +4775,10 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -4793,7 +4793,7 @@
         <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
         <v>2.25</v>
@@ -4963,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
         <v>2.4</v>
@@ -4975,7 +4975,7 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
         <v>2.1</v>
@@ -5315,10 +5315,10 @@
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
@@ -5327,10 +5327,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5509,10 +5509,10 @@
         <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5667,7 +5667,7 @@
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
@@ -5682,7 +5682,7 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
@@ -5781,13 +5781,13 @@
         <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX29" t="n">
         <v>4.75</v>
@@ -5873,10 +5873,10 @@
         <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
         <v>1.3</v>
@@ -6043,10 +6043,10 @@
         <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.67</v>
@@ -6058,7 +6058,7 @@
         <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
         <v>1.67</v>
@@ -6395,7 +6395,7 @@
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
@@ -6422,7 +6422,7 @@
         <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
         <v>1.53</v>
@@ -6506,7 +6506,7 @@
         <v>301</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU33" t="n">
         <v>9</v>
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -6604,7 +6604,7 @@
         <v>3.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
         <v>1.62</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -6771,10 +6771,10 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6801,7 +6801,7 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6816,7 +6816,7 @@
         <v>19</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -6849,7 +6849,7 @@
         <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
         <v>4.5</v>
@@ -7141,10 +7141,10 @@
         <v>17</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q37" t="n">
         <v>1.53</v>
@@ -7875,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
         <v>2.6</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8239,10 +8239,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8421,7 +8421,7 @@
         <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
         <v>2.15</v>
@@ -8982,7 +8982,7 @@
         <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
         <v>8</v>
@@ -9155,16 +9155,16 @@
         <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T48" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U48" t="n">
         <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
         <v>5.5</v>
@@ -9337,16 +9337,16 @@
         <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T49" t="n">
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
         <v>8</v>
@@ -9519,10 +9519,10 @@
         <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -10575,46 +10575,46 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
       </c>
       <c r="L56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R56" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S56" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U56" t="n">
         <v>1.91</v>
@@ -10626,13 +10626,13 @@
         <v>6.5</v>
       </c>
       <c r="X56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
         <v>19</v>
@@ -10656,10 +10656,10 @@
         <v>351</v>
       </c>
       <c r="AH56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>13</v>
@@ -10668,7 +10668,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
@@ -10677,7 +10677,7 @@
         <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP56" t="n">
         <v>23</v>
@@ -10692,7 +10692,7 @@
         <v>201</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU56" t="n">
         <v>8.5</v>
@@ -10710,7 +10710,7 @@
         <v>21</v>
       </c>
       <c r="AZ56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA56" t="n">
         <v>67</v>
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
@@ -10948,7 +10948,7 @@
         <v>2.45</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
@@ -10960,7 +10960,7 @@
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
@@ -10975,7 +10975,7 @@
         <v>1.83</v>
       </c>
       <c r="S58" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T58" t="n">
         <v>2.75</v>
@@ -10987,7 +10987,7 @@
         <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X58" t="n">
         <v>15</v>
@@ -11044,7 +11044,7 @@
         <v>15</v>
       </c>
       <c r="AP58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ58" t="n">
         <v>51</v>
@@ -11157,7 +11157,7 @@
         <v>1.8</v>
       </c>
       <c r="S59" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T59" t="n">
         <v>2.75</v>
@@ -11339,7 +11339,7 @@
         <v>2.7</v>
       </c>
       <c r="S60" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T60" t="n">
         <v>4</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>4.75</v>
@@ -11670,10 +11670,10 @@
         <v>1.53</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J62" t="n">
         <v>2.2</v>
@@ -11682,25 +11682,25 @@
         <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
         <v>1.44</v>
@@ -11718,13 +11718,13 @@
         <v>5.5</v>
       </c>
       <c r="X62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y62" t="n">
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA62" t="n">
         <v>15</v>
@@ -11748,13 +11748,13 @@
         <v>201</v>
       </c>
       <c r="AH62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI62" t="n">
         <v>29</v>
       </c>
       <c r="AJ62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK62" t="n">
         <v>67</v>
@@ -11766,7 +11766,7 @@
         <v>51</v>
       </c>
       <c r="AN62" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO62" t="n">
         <v>8</v>
@@ -11787,7 +11787,7 @@
         <v>2.63</v>
       </c>
       <c r="AU62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV62" t="n">
         <v>81</v>
@@ -11799,7 +11799,7 @@
         <v>7.5</v>
       </c>
       <c r="AY62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ62" t="n">
         <v>41</v>
@@ -11855,7 +11855,7 @@
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J63" t="n">
         <v>4.33</v>
@@ -12037,7 +12037,7 @@
         <v>4.75</v>
       </c>
       <c r="I64" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="J64" t="n">
         <v>7.5</v>
@@ -12237,16 +12237,16 @@
         <v>10</v>
       </c>
       <c r="O65" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P65" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S65" t="n">
         <v>1.44</v>
@@ -12795,7 +12795,7 @@
         <v>2.7</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T68" t="n">
         <v>4</v>
@@ -12977,7 +12977,7 @@
         <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>1.85</v>
       </c>
       <c r="S70" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T70" t="n">
         <v>2.75</v>
@@ -14051,10 +14051,10 @@
         <v>2.63</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -14063,16 +14063,16 @@
         <v>3.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S75" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T75" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U75" t="n">
         <v>1.83</v>
@@ -14239,19 +14239,19 @@
         <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S76" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T76" t="n">
         <v>2.75</v>
@@ -14362,7 +14362,7 @@
         <v>151</v>
       </c>
       <c r="BD76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
@@ -14415,25 +14415,25 @@
         <v>3.75</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R77" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S77" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T77" t="n">
         <v>2.75</v>
@@ -14597,10 +14597,10 @@
         <v>4.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>1.25</v>
@@ -14615,7 +14615,7 @@
         <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T78" t="n">
         <v>3.25</v>
@@ -14973,10 +14973,10 @@
         <v>3.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R80" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S80" t="n">
         <v>1.36</v>
@@ -15143,22 +15143,22 @@
         <v>3.25</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15313,22 +15313,22 @@
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J82" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L82" t="n">
         <v>3.2</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O82" t="n">
         <v>1.25</v>
@@ -15337,10 +15337,10 @@
         <v>4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R82" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="S82" t="n">
         <v>1.36</v>
@@ -15379,7 +15379,7 @@
         <v>6.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF82" t="n">
         <v>41</v>
@@ -15391,7 +15391,7 @@
         <v>10</v>
       </c>
       <c r="AI82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ82" t="n">
         <v>10</v>
@@ -15421,7 +15421,7 @@
         <v>51</v>
       </c>
       <c r="AS82" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT82" t="n">
         <v>3</v>
@@ -15451,7 +15451,7 @@
         <v>51</v>
       </c>
       <c r="BC82" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD82" t="n">
         <v>151</v>
@@ -15489,7 +15489,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
@@ -15510,19 +15510,19 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
         <v>1.57</v>
       </c>
       <c r="R83" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S83" t="n">
         <v>1.29</v>
@@ -15695,16 +15695,16 @@
         <v>15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P84" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R84" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S84" t="n">
         <v>1.3</v>
@@ -16056,7 +16056,7 @@
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -16247,10 +16247,10 @@
         <v>3</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S87" t="n">
         <v>1.44</v>
@@ -16399,13 +16399,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>3.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J88" t="n">
         <v>3.2</v>
@@ -16516,7 +16516,7 @@
         <v>151</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU88" t="n">
         <v>8</v>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>4.33</v>
@@ -16769,7 +16769,7 @@
         <v>3.3</v>
       </c>
       <c r="I90" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J90" t="n">
         <v>4.5</v>
@@ -16880,7 +16880,7 @@
         <v>251</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU90" t="n">
         <v>8.5</v>
@@ -16945,13 +16945,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J91" t="n">
         <v>3</v>
@@ -17160,7 +17160,7 @@
         <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="n">
         <v>1.44</v>
@@ -17339,10 +17339,10 @@
         <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R93" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S93" t="n">
         <v>1.4</v>
@@ -17491,34 +17491,34 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H94" t="n">
         <v>3.35</v>
       </c>
       <c r="I94" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J94" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K94" t="n">
         <v>2.25</v>
       </c>
       <c r="L94" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="O94" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P94" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q94" t="n">
         <v>1.55</v>
@@ -17527,16 +17527,16 @@
         <v>2.15</v>
       </c>
       <c r="S94" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T94" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="U94" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V94" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="W94" t="n">
         <v>10</v>
@@ -17560,58 +17560,58 @@
         <v>14.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE94" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG94" t="n">
         <v>120</v>
       </c>
       <c r="AH94" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI94" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP94" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>15</v>
       </c>
       <c r="AQ94" t="n">
         <v>40</v>
       </c>
       <c r="AR94" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS94" t="n">
         <v>120</v>
       </c>
       <c r="AT94" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU94" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV94" t="n">
         <v>37</v>
@@ -17623,19 +17623,19 @@
         <v>5.1</v>
       </c>
       <c r="AY94" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA94" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB94" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC94" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD94" t="n">
         <v>51</v>
@@ -18061,19 +18061,19 @@
         <v>13</v>
       </c>
       <c r="O97" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P97" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R97" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S97" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T97" t="n">
         <v>3</v>
@@ -18255,7 +18255,7 @@
         <v>2.25</v>
       </c>
       <c r="S98" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T98" t="n">
         <v>3.4</v>
@@ -18407,7 +18407,7 @@
         <v>5.75</v>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J99" t="n">
         <v>1.73</v>
@@ -18437,22 +18437,22 @@
         <v>2.6</v>
       </c>
       <c r="S99" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T99" t="n">
         <v>3.75</v>
       </c>
       <c r="U99" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V99" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X99" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y99" t="n">
         <v>9</v>
@@ -18461,7 +18461,7 @@
         <v>8.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB99" t="n">
         <v>23</v>
@@ -18470,7 +18470,7 @@
         <v>19</v>
       </c>
       <c r="AD99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE99" t="n">
         <v>21</v>
@@ -18497,10 +18497,10 @@
         <v>51</v>
       </c>
       <c r="AM99" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN99" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO99" t="n">
         <v>6</v>
@@ -18545,7 +18545,7 @@
         <v>151</v>
       </c>
       <c r="BC99" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD99" t="n">
         <v>81</v>
@@ -18619,7 +18619,7 @@
         <v>2.35</v>
       </c>
       <c r="S100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T100" t="n">
         <v>3.5</v>
@@ -18765,22 +18765,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H101" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I101" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K101" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L101" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M101" t="n">
         <v>1.02</v>
@@ -18801,25 +18801,25 @@
         <v>2.88</v>
       </c>
       <c r="S101" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T101" t="n">
         <v>4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V101" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W101" t="n">
         <v>12</v>
       </c>
       <c r="X101" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z101" t="n">
         <v>12</v>
@@ -18828,13 +18828,13 @@
         <v>11</v>
       </c>
       <c r="AB101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC101" t="n">
         <v>21</v>
       </c>
       <c r="AD101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE101" t="n">
         <v>13</v>
@@ -18894,7 +18894,7 @@
         <v>301</v>
       </c>
       <c r="AX101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY101" t="n">
         <v>26</v>
@@ -18983,7 +18983,7 @@
         <v>2.08</v>
       </c>
       <c r="S102" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T102" t="n">
         <v>3.25</v>
@@ -19162,7 +19162,7 @@
         <v>2.7</v>
       </c>
       <c r="R103" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S103" t="n">
         <v>1.62</v>
@@ -19174,7 +19174,7 @@
         <v>2.25</v>
       </c>
       <c r="V103" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W103" t="n">
         <v>5.5</v>
@@ -19717,10 +19717,10 @@
         <v>3.75</v>
       </c>
       <c r="U106" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V106" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W106" t="n">
         <v>13</v>
@@ -19899,7 +19899,7 @@
         <v>3.25</v>
       </c>
       <c r="U107" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V107" t="n">
         <v>2.1</v>
@@ -20039,7 +20039,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>3.6</v>
@@ -20048,7 +20048,7 @@
         <v>2.25</v>
       </c>
       <c r="J108" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K108" t="n">
         <v>2.4</v>
@@ -20069,28 +20069,28 @@
         <v>5.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R108" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U108" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V108" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W108" t="n">
         <v>15</v>
       </c>
       <c r="X108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
@@ -20099,13 +20099,13 @@
         <v>29</v>
       </c>
       <c r="AA108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB108" t="n">
         <v>21</v>
       </c>
-      <c r="AB108" t="n">
-        <v>23</v>
-      </c>
       <c r="AC108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD108" t="n">
         <v>7.5</v>
@@ -20114,16 +20114,16 @@
         <v>11</v>
       </c>
       <c r="AF108" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG108" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ108" t="n">
         <v>9.5</v>
@@ -20132,7 +20132,7 @@
         <v>23</v>
       </c>
       <c r="AL108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM108" t="n">
         <v>21</v>
@@ -20156,7 +20156,7 @@
         <v>101</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU108" t="n">
         <v>7</v>
@@ -20183,7 +20183,7 @@
         <v>41</v>
       </c>
       <c r="BC108" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD108" t="n">
         <v>81</v>
@@ -20263,7 +20263,7 @@
         <v>3.5</v>
       </c>
       <c r="U109" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V109" t="n">
         <v>2.5</v>
@@ -20421,13 +20421,13 @@
         <v>4.33</v>
       </c>
       <c r="M110" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N110" t="n">
         <v>9.5</v>
       </c>
       <c r="O110" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P110" t="n">
         <v>3.4</v>
@@ -20445,10 +20445,10 @@
         <v>2.75</v>
       </c>
       <c r="U110" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V110" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W110" t="n">
         <v>7.5</v>
@@ -20603,13 +20603,13 @@
         <v>3.75</v>
       </c>
       <c r="M111" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N111" t="n">
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P111" t="n">
         <v>4.5</v>
@@ -20627,7 +20627,7 @@
         <v>3.4</v>
       </c>
       <c r="U111" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V111" t="n">
         <v>2.25</v>
@@ -20785,13 +20785,13 @@
         <v>3.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N112" t="n">
         <v>13</v>
       </c>
       <c r="O112" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P112" t="n">
         <v>4.33</v>
@@ -20809,7 +20809,7 @@
         <v>3.25</v>
       </c>
       <c r="U112" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V112" t="n">
         <v>2.25</v>
@@ -20967,13 +20967,13 @@
         <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N113" t="n">
         <v>15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P113" t="n">
         <v>4.33</v>
@@ -20991,7 +20991,7 @@
         <v>3.4</v>
       </c>
       <c r="U113" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V113" t="n">
         <v>2.1</v>
@@ -21149,13 +21149,13 @@
         <v>2.5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N114" t="n">
         <v>15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P114" t="n">
         <v>4.5</v>
@@ -21173,7 +21173,7 @@
         <v>3.4</v>
       </c>
       <c r="U114" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V114" t="n">
         <v>2.25</v>
@@ -22441,7 +22441,7 @@
         <v>1.95</v>
       </c>
       <c r="S121" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T121" t="n">
         <v>2.75</v>
@@ -22608,7 +22608,7 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -22620,7 +22620,7 @@
         <v>2.05</v>
       </c>
       <c r="R122" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S122" t="n">
         <v>1.44</v>
@@ -23163,7 +23163,7 @@
         <v>4</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R125" t="n">
         <v>2.05</v>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
@@ -23333,13 +23333,13 @@
         <v>3.6</v>
       </c>
       <c r="M126" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N126" t="n">
         <v>9</v>
       </c>
       <c r="O126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P126" t="n">
         <v>3</v>
@@ -23351,7 +23351,7 @@
         <v>1.67</v>
       </c>
       <c r="S126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T126" t="n">
         <v>2.5</v>
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H127" t="n">
         <v>3.1</v>
@@ -23515,13 +23515,13 @@
         <v>3.75</v>
       </c>
       <c r="M127" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N127" t="n">
         <v>7.5</v>
       </c>
       <c r="O127" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P127" t="n">
         <v>2.75</v>
@@ -23533,7 +23533,7 @@
         <v>1.6</v>
       </c>
       <c r="S127" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T127" t="n">
         <v>2.5</v>
@@ -23679,13 +23679,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H128" t="n">
         <v>3.2</v>
       </c>
       <c r="I128" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J128" t="n">
         <v>3.4</v>
@@ -23697,13 +23697,13 @@
         <v>3.4</v>
       </c>
       <c r="M128" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N128" t="n">
         <v>9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P128" t="n">
         <v>3.25</v>
@@ -23715,10 +23715,10 @@
         <v>1.7</v>
       </c>
       <c r="S128" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T128" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U128" t="n">
         <v>1.8</v>
@@ -23864,10 +23864,10 @@
         <v>3.1</v>
       </c>
       <c r="H129" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="I129" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J129" t="n">
         <v>3.75</v>
@@ -23879,13 +23879,13 @@
         <v>3.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N129" t="n">
         <v>6.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P129" t="n">
         <v>2.5</v>
@@ -23897,7 +23897,7 @@
         <v>1.48</v>
       </c>
       <c r="S129" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T129" t="n">
         <v>2.25</v>
@@ -24619,10 +24619,10 @@
         <v>4.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S133" t="n">
         <v>1.3</v>
@@ -25350,13 +25350,13 @@
         <v>2.05</v>
       </c>
       <c r="R137" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U137" t="n">
         <v>1.8</v>
@@ -25365,7 +25365,7 @@
         <v>1.95</v>
       </c>
       <c r="W137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X137" t="n">
         <v>12</v>
@@ -25389,7 +25389,7 @@
         <v>6</v>
       </c>
       <c r="AE137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF137" t="n">
         <v>51</v>
@@ -25419,7 +25419,7 @@
         <v>4.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP137" t="n">
         <v>23</v>
@@ -25434,7 +25434,7 @@
         <v>151</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU137" t="n">
         <v>8</v>
@@ -25461,7 +25461,7 @@
         <v>67</v>
       </c>
       <c r="BC137" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD137" t="n">
         <v>81</v>
@@ -25529,10 +25529,10 @@
         <v>3.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R138" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S138" t="n">
         <v>1.36</v>
@@ -25699,22 +25699,22 @@
         <v>4.33</v>
       </c>
       <c r="M139" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N139" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O139" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P139" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R139" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S139" t="n">
         <v>1.33</v>
@@ -25881,28 +25881,28 @@
         <v>2.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N140" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P140" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R140" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S140" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="T140" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U140" t="n">
         <v>1.91</v>
@@ -26045,22 +26045,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H141" t="n">
         <v>3.7</v>
       </c>
       <c r="I141" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J141" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K141" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L141" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M141" t="n">
         <v>1.03</v>
@@ -26081,10 +26081,10 @@
         <v>2.15</v>
       </c>
       <c r="S141" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T141" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U141" t="n">
         <v>1.62</v>
@@ -26102,7 +26102,7 @@
         <v>8.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA141" t="n">
         <v>13</v>
@@ -26111,10 +26111,10 @@
         <v>21</v>
       </c>
       <c r="AC141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD141" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE141" t="n">
         <v>13</v>
@@ -26126,10 +26126,10 @@
         <v>151</v>
       </c>
       <c r="AH141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ141" t="n">
         <v>13</v>
@@ -26162,7 +26162,7 @@
         <v>101</v>
       </c>
       <c r="AT141" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU141" t="n">
         <v>7.5</v>
@@ -26180,7 +26180,7 @@
         <v>21</v>
       </c>
       <c r="AZ141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA141" t="n">
         <v>67</v>
@@ -26263,7 +26263,7 @@
         <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T142" t="n">
         <v>3.25</v>
@@ -26445,7 +26445,7 @@
         <v>1.88</v>
       </c>
       <c r="S143" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T143" t="n">
         <v>2.75</v>
@@ -26791,13 +26791,13 @@
         <v>3.4</v>
       </c>
       <c r="M145" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N145" t="n">
         <v>13</v>
       </c>
       <c r="O145" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P145" t="n">
         <v>4</v>
@@ -26991,10 +26991,10 @@
         <v>2.12</v>
       </c>
       <c r="S146" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T146" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="U146" t="n">
         <v>1.55</v>
@@ -28047,22 +28047,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H152" t="n">
         <v>5.25</v>
       </c>
       <c r="I152" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J152" t="n">
         <v>1.8</v>
       </c>
       <c r="K152" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M152" t="n">
         <v>1.01</v>
@@ -28077,10 +28077,10 @@
         <v>6.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R152" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S152" t="n">
         <v>1.2</v>
@@ -28089,10 +28089,10 @@
         <v>4.33</v>
       </c>
       <c r="U152" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V152" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W152" t="n">
         <v>11</v>
@@ -28104,7 +28104,7 @@
         <v>8.5</v>
       </c>
       <c r="Z152" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA152" t="n">
         <v>10</v>
@@ -28173,13 +28173,13 @@
         <v>41</v>
       </c>
       <c r="AW152" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX152" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ152" t="n">
         <v>29</v>
@@ -28194,7 +28194,7 @@
         <v>151</v>
       </c>
       <c r="BD152" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
@@ -28229,19 +28229,19 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H153" t="n">
         <v>3.8</v>
       </c>
       <c r="I153" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J153" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K153" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L153" t="n">
         <v>2.3</v>
@@ -28283,7 +28283,7 @@
         <v>23</v>
       </c>
       <c r="Y153" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z153" t="n">
         <v>41</v>
@@ -28298,7 +28298,7 @@
         <v>15</v>
       </c>
       <c r="AD153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE153" t="n">
         <v>13</v>
@@ -28313,7 +28313,7 @@
         <v>9.5</v>
       </c>
       <c r="AI153" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ153" t="n">
         <v>8.5</v>
@@ -28328,7 +28328,7 @@
         <v>21</v>
       </c>
       <c r="AN153" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO153" t="n">
         <v>21</v>
@@ -28367,7 +28367,7 @@
         <v>17</v>
       </c>
       <c r="BA153" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB153" t="n">
         <v>41</v>
@@ -28376,7 +28376,7 @@
         <v>101</v>
       </c>
       <c r="BD153" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
@@ -28429,13 +28429,13 @@
         <v>4</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N154" t="n">
         <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P154" t="n">
         <v>2.75</v>
@@ -28453,10 +28453,10 @@
         <v>2.5</v>
       </c>
       <c r="U154" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V154" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W154" t="n">
         <v>6.5</v>
@@ -28611,13 +28611,13 @@
         <v>2.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N155" t="n">
         <v>13</v>
       </c>
       <c r="O155" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P155" t="n">
         <v>4</v>
@@ -28635,7 +28635,7 @@
         <v>3.25</v>
       </c>
       <c r="U155" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V155" t="n">
         <v>2.2</v>
@@ -28778,7 +28778,7 @@
         <v>1.25</v>
       </c>
       <c r="H156" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I156" t="n">
         <v>12</v>
@@ -28790,25 +28790,25 @@
         <v>2.5</v>
       </c>
       <c r="L156" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M156" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N156" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O156" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P156" t="n">
         <v>4</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R156" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S156" t="n">
         <v>1.33</v>
@@ -28817,10 +28817,10 @@
         <v>3.25</v>
       </c>
       <c r="U156" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="V156" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W156" t="n">
         <v>6.5</v>
@@ -28829,10 +28829,10 @@
         <v>5.5</v>
       </c>
       <c r="Y156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z156" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA156" t="n">
         <v>12</v>
@@ -28856,13 +28856,13 @@
         <v>1000</v>
       </c>
       <c r="AH156" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI156" t="n">
         <v>51</v>
       </c>
       <c r="AJ156" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK156" t="n">
         <v>151</v>
@@ -28877,7 +28877,7 @@
         <v>3.1</v>
       </c>
       <c r="AO156" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP156" t="n">
         <v>19</v>
@@ -28975,13 +28975,13 @@
         <v>3.25</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P157" t="n">
         <v>3.75</v>
@@ -28999,7 +28999,7 @@
         <v>2.75</v>
       </c>
       <c r="U157" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V157" t="n">
         <v>2.05</v>
@@ -29181,10 +29181,10 @@
         <v>3.4</v>
       </c>
       <c r="U158" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V158" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W158" t="n">
         <v>12</v>
@@ -29363,7 +29363,7 @@
         <v>3</v>
       </c>
       <c r="U159" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V159" t="n">
         <v>2.1</v>
@@ -29545,10 +29545,10 @@
         <v>3</v>
       </c>
       <c r="U160" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V160" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W160" t="n">
         <v>7</v>
@@ -29727,7 +29727,7 @@
         <v>3</v>
       </c>
       <c r="U161" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V161" t="n">
         <v>2.1</v>
@@ -30631,10 +30631,10 @@
         <v>1.67</v>
       </c>
       <c r="S166" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T166" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U166" t="n">
         <v>1.91</v>
@@ -30813,7 +30813,7 @@
         <v>1.98</v>
       </c>
       <c r="S167" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T167" t="n">
         <v>3</v>
@@ -32415,124 +32415,124 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="H176" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I176" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J176" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K176" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L176" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M176" t="n">
         <v>1.07</v>
       </c>
       <c r="N176" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O176" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P176" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S176" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V176" t="n">
         <v>2.02</v>
       </c>
-      <c r="R176" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S176" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T176" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U176" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V176" t="n">
-        <v>1.98</v>
-      </c>
       <c r="W176" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X176" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y176" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z176" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA176" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB176" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC176" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD176" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AE176" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG176" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH176" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI176" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ176" t="n">
         <v>9.25</v>
       </c>
       <c r="AK176" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL176" t="n">
         <v>20</v>
       </c>
       <c r="AM176" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN176" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO176" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP176" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ176" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR176" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS176" t="n">
         <v>250</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU176" t="n">
         <v>6.7</v>
@@ -32544,22 +32544,22 @@
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AY176" t="n">
         <v>13</v>
       </c>
       <c r="AZ176" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB176" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC176" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD176" t="n">
         <v>51</v>
@@ -32779,37 +32779,37 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L178" t="n">
         <v>6</v>
       </c>
-      <c r="I178" t="n">
-        <v>8</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K178" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L178" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M178" t="n">
+        <v>34</v>
+      </c>
+      <c r="N178" t="n">
         <v>1.01</v>
       </c>
-      <c r="N178" t="n">
-        <v>34</v>
-      </c>
       <c r="O178" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P178" t="n">
         <v>10</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="R178" t="n">
         <v>4.2</v>
@@ -32821,22 +32821,22 @@
         <v>5.5</v>
       </c>
       <c r="U178" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V178" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W178" t="n">
         <v>17</v>
       </c>
       <c r="X178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y178" t="n">
         <v>10</v>
       </c>
       <c r="Z178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA178" t="n">
         <v>10</v>
@@ -32851,7 +32851,7 @@
         <v>15</v>
       </c>
       <c r="AE178" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF178" t="n">
         <v>34</v>
@@ -32860,7 +32860,7 @@
         <v>81</v>
       </c>
       <c r="AH178" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI178" t="n">
         <v>51</v>
@@ -32875,13 +32875,13 @@
         <v>41</v>
       </c>
       <c r="AM178" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN178" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO178" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP178" t="n">
         <v>11</v>
@@ -32899,7 +32899,7 @@
         <v>5.5</v>
       </c>
       <c r="AU178" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV178" t="n">
         <v>34</v>
@@ -32908,19 +32908,19 @@
         <v>201</v>
       </c>
       <c r="AX178" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY178" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ178" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA178" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB178" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC178" t="n">
         <v>101</v>
@@ -34814,7 +34814,7 @@
         <v>2.1</v>
       </c>
       <c r="R189" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S189" t="n">
         <v>1.44</v>
@@ -34823,10 +34823,10 @@
         <v>2.63</v>
       </c>
       <c r="U189" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V189" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W189" t="n">
         <v>6.5</v>
@@ -34996,7 +34996,7 @@
         <v>2.5</v>
       </c>
       <c r="R190" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S190" t="n">
         <v>1.57</v>
@@ -35008,7 +35008,7 @@
         <v>2.1</v>
       </c>
       <c r="V190" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W190" t="n">
         <v>7</v>
@@ -35175,7 +35175,7 @@
         <v>4.33</v>
       </c>
       <c r="Q191" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R191" t="n">
         <v>2.1</v>
@@ -35187,7 +35187,7 @@
         <v>3.25</v>
       </c>
       <c r="U191" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V191" t="n">
         <v>2.2</v>
@@ -35360,7 +35360,7 @@
         <v>2.25</v>
       </c>
       <c r="R192" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S192" t="n">
         <v>1.44</v>
@@ -35372,7 +35372,7 @@
         <v>2.1</v>
       </c>
       <c r="V192" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W192" t="n">
         <v>5.5</v>
@@ -35512,16 +35512,16 @@
         <v>3</v>
       </c>
       <c r="H193" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I193" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J193" t="n">
         <v>3.75</v>
       </c>
       <c r="K193" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L193" t="n">
         <v>3.5</v>
@@ -35533,16 +35533,16 @@
         <v>6</v>
       </c>
       <c r="O193" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P193" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R193" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S193" t="n">
         <v>1.62</v>
@@ -35557,7 +35557,7 @@
         <v>1.62</v>
       </c>
       <c r="W193" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X193" t="n">
         <v>13</v>
@@ -35566,7 +35566,7 @@
         <v>12</v>
       </c>
       <c r="Z193" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA193" t="n">
         <v>29</v>
@@ -35575,7 +35575,7 @@
         <v>41</v>
       </c>
       <c r="AC193" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD193" t="n">
         <v>5.5</v>
@@ -35584,7 +35584,7 @@
         <v>19</v>
       </c>
       <c r="AF193" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG193" t="n">
         <v>1000</v>
@@ -35602,7 +35602,7 @@
         <v>26</v>
       </c>
       <c r="AL193" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM193" t="n">
         <v>41</v>
@@ -35653,7 +35653,7 @@
         <v>101</v>
       </c>
       <c r="BC193" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD193" t="n">
         <v>81</v>
@@ -36425,7 +36425,7 @@
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J198" t="n">
         <v>3.6</v>
@@ -36449,10 +36449,10 @@
         <v>3.75</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R198" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S198" t="n">
         <v>1.36</v>
@@ -36497,7 +36497,7 @@
         <v>41</v>
       </c>
       <c r="AG198" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH198" t="n">
         <v>8.5</v>
@@ -36613,7 +36613,7 @@
         <v>2.25</v>
       </c>
       <c r="K199" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L199" t="n">
         <v>4.5</v>
@@ -36631,10 +36631,10 @@
         <v>4.33</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R199" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S199" t="n">
         <v>1.3</v>
@@ -36652,7 +36652,7 @@
         <v>9</v>
       </c>
       <c r="X199" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y199" t="n">
         <v>8.5</v>
@@ -36694,7 +36694,7 @@
         <v>41</v>
       </c>
       <c r="AL199" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM199" t="n">
         <v>34</v>
@@ -37171,10 +37171,10 @@
         <v>19</v>
       </c>
       <c r="O202" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P202" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q202" t="n">
         <v>1.48</v>
@@ -38057,22 +38057,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H207" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I207" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J207" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K207" t="n">
         <v>2.2</v>
       </c>
       <c r="L207" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M207" t="n">
         <v>1.05</v>
@@ -38111,7 +38111,7 @@
         <v>9.5</v>
       </c>
       <c r="Y207" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z207" t="n">
         <v>17</v>
@@ -38126,7 +38126,7 @@
         <v>11</v>
       </c>
       <c r="AD207" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE207" t="n">
         <v>15</v>
@@ -38138,10 +38138,10 @@
         <v>201</v>
       </c>
       <c r="AH207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI207" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ207" t="n">
         <v>13</v>
@@ -38159,7 +38159,7 @@
         <v>4</v>
       </c>
       <c r="AO207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP207" t="n">
         <v>21</v>
@@ -38192,7 +38192,7 @@
         <v>21</v>
       </c>
       <c r="AZ207" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA207" t="n">
         <v>67</v>
@@ -39185,7 +39185,7 @@
         <v>1.93</v>
       </c>
       <c r="S213" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T213" t="n">
         <v>3</v>
@@ -39334,19 +39334,19 @@
         <v>1.65</v>
       </c>
       <c r="H214" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I214" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J214" t="n">
         <v>2.2</v>
       </c>
       <c r="K214" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L214" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M214" t="n">
         <v>1.03</v>
@@ -39367,40 +39367,40 @@
         <v>1.75</v>
       </c>
       <c r="S214" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T214" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U214" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V214" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W214" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X214" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y214" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z214" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB214" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC214" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD214" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE214" t="n">
         <v>17</v>
@@ -39418,16 +39418,16 @@
         <v>29</v>
       </c>
       <c r="AJ214" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK214" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL214" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM214" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN214" t="n">
         <v>3.4</v>
@@ -39448,7 +39448,7 @@
         <v>250</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU214" t="n">
         <v>7.6</v>
@@ -39460,22 +39460,22 @@
         <v>81</v>
       </c>
       <c r="AX214" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY214" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ214" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA214" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB214" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC214" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD214" t="n">
         <v>81</v>
@@ -40059,22 +40059,22 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H218" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I218" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J218" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K218" t="n">
         <v>2.1</v>
       </c>
       <c r="L218" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M218" t="n">
         <v>1.07</v>
@@ -40101,10 +40101,10 @@
         <v>2.63</v>
       </c>
       <c r="U218" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V218" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W218" t="n">
         <v>5.5</v>
@@ -40128,13 +40128,13 @@
         <v>8.5</v>
       </c>
       <c r="AD218" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE218" t="n">
         <v>21</v>
       </c>
       <c r="AF218" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG218" t="n">
         <v>201</v>
@@ -40179,7 +40179,7 @@
         <v>2.63</v>
       </c>
       <c r="AU218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV218" t="n">
         <v>67</v>
@@ -40188,7 +40188,7 @@
         <v>51</v>
       </c>
       <c r="AX218" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY218" t="n">
         <v>29</v>
@@ -40197,7 +40197,7 @@
         <v>41</v>
       </c>
       <c r="BA218" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB218" t="n">
         <v>151</v>
@@ -40247,10 +40247,10 @@
         <v>3.7</v>
       </c>
       <c r="I219" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J219" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K219" t="n">
         <v>2.4</v>
@@ -40259,10 +40259,10 @@
         <v>2.75</v>
       </c>
       <c r="M219" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N219" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O219" t="n">
         <v>1.14</v>
@@ -40283,10 +40283,10 @@
         <v>3.5</v>
       </c>
       <c r="U219" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V219" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W219" t="n">
         <v>15</v>
@@ -40307,7 +40307,7 @@
         <v>23</v>
       </c>
       <c r="AC219" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD219" t="n">
         <v>7.5</v>
@@ -40373,7 +40373,7 @@
         <v>4.75</v>
       </c>
       <c r="AY219" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ219" t="n">
         <v>17</v>
@@ -40388,7 +40388,7 @@
         <v>81</v>
       </c>
       <c r="BD219" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="220">
@@ -40752,7 +40752,7 @@
         <v>101</v>
       </c>
       <c r="BD221" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222">
@@ -40808,7 +40808,7 @@
         <v>1.01</v>
       </c>
       <c r="N222" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O222" t="n">
         <v>1.08</v>
@@ -40934,7 +40934,7 @@
         <v>126</v>
       </c>
       <c r="BD222" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223">
@@ -41298,7 +41298,7 @@
         <v>101</v>
       </c>
       <c r="BD224" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225">
@@ -41369,7 +41369,7 @@
         <v>2.7</v>
       </c>
       <c r="S225" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T225" t="n">
         <v>4</v>
@@ -41551,7 +41551,7 @@
         <v>2.5</v>
       </c>
       <c r="S226" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T226" t="n">
         <v>3.75</v>
@@ -41697,16 +41697,16 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H227" t="n">
         <v>3.9</v>
       </c>
       <c r="I227" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J227" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K227" t="n">
         <v>2.5</v>
@@ -41733,7 +41733,7 @@
         <v>2.5</v>
       </c>
       <c r="S227" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T227" t="n">
         <v>3.75</v>
@@ -42789,22 +42789,22 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H233" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I233" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="J233" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K233" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L233" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M233" t="n">
         <v>1.04</v>
@@ -42816,19 +42816,19 @@
         <v>1.2</v>
       </c>
       <c r="P233" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q233" t="n">
         <v>1.62</v>
       </c>
       <c r="R233" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S233" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T233" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U233" t="n">
         <v>1.55</v>
@@ -42837,19 +42837,19 @@
         <v>2.3</v>
       </c>
       <c r="W233" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y233" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA233" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB233" t="n">
         <v>22</v>
@@ -42858,7 +42858,7 @@
         <v>8.75</v>
       </c>
       <c r="AD233" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE233" t="n">
         <v>12.5</v>
@@ -42870,28 +42870,28 @@
         <v>250</v>
       </c>
       <c r="AH233" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI233" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ233" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK233" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AL233" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM233" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN233" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO233" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP233" t="n">
         <v>17</v>
@@ -42906,10 +42906,10 @@
         <v>175</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU233" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV233" t="n">
         <v>45</v>
@@ -42918,19 +42918,19 @@
         <v>51</v>
       </c>
       <c r="AX233" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AY233" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ233" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA233" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB233" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC233" t="n">
         <v>200</v>
@@ -42971,82 +42971,82 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H234" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I234" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="J234" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K234" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L234" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="M234" t="n">
         <v>1.05</v>
       </c>
       <c r="N234" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O234" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P234" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R234" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S234" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T234" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U234" t="n">
         <v>1.65</v>
       </c>
       <c r="V234" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W234" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X234" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y234" t="n">
         <v>8.75</v>
       </c>
       <c r="Z234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA234" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB234" t="n">
         <v>24</v>
       </c>
       <c r="AC234" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD234" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE234" t="n">
         <v>13</v>
       </c>
       <c r="AF234" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG234" t="n">
         <v>350</v>
@@ -43055,31 +43055,31 @@
         <v>10.75</v>
       </c>
       <c r="AI234" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ234" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK234" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL234" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM234" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN234" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO234" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP234" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ234" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR234" t="n">
         <v>70</v>
@@ -43088,7 +43088,7 @@
         <v>200</v>
       </c>
       <c r="AT234" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU234" t="n">
         <v>6.8</v>
@@ -43100,19 +43100,19 @@
         <v>51</v>
       </c>
       <c r="AX234" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AY234" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ234" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA234" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB234" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC234" t="n">
         <v>250</v>
@@ -45155,22 +45155,22 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H246" t="n">
         <v>3.35</v>
       </c>
       <c r="I246" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J246" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K246" t="n">
         <v>2.07</v>
       </c>
       <c r="L246" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M246" t="n">
         <v>1.04</v>
@@ -45179,22 +45179,22 @@
         <v>8.699999999999999</v>
       </c>
       <c r="O246" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P246" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R246" t="n">
         <v>1.62</v>
       </c>
       <c r="S246" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T246" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U246" t="n">
         <v>1.87</v>
@@ -45203,10 +45203,10 @@
         <v>1.75</v>
       </c>
       <c r="W246" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X246" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y246" t="n">
         <v>12</v>
@@ -45221,7 +45221,7 @@
         <v>45</v>
       </c>
       <c r="AC246" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD246" t="n">
         <v>6.5</v>
@@ -45236,7 +45236,7 @@
         <v>800</v>
       </c>
       <c r="AH246" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI246" t="n">
         <v>9</v>
@@ -45245,25 +45245,25 @@
         <v>9</v>
       </c>
       <c r="AK246" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL246" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM246" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN246" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO246" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP246" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ246" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR246" t="n">
         <v>150</v>
@@ -45272,22 +45272,22 @@
         <v>400</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU246" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV246" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW246" t="n">
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AY246" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AZ246" t="n">
         <v>21</v>
@@ -45364,7 +45364,7 @@
         <v>1.42</v>
       </c>
       <c r="P247" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q247" t="n">
         <v>2.22</v>
@@ -45376,7 +45376,7 @@
         <v>1.47</v>
       </c>
       <c r="T247" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U247" t="n">
         <v>1.98</v>
@@ -45394,7 +45394,7 @@
         <v>9.5</v>
       </c>
       <c r="Z247" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA247" t="n">
         <v>21</v>
@@ -45403,7 +45403,7 @@
         <v>40</v>
       </c>
       <c r="AC247" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD247" t="n">
         <v>6.2</v>
@@ -45418,7 +45418,7 @@
         <v>201</v>
       </c>
       <c r="AH247" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI247" t="n">
         <v>14</v>
@@ -45430,7 +45430,7 @@
         <v>37</v>
       </c>
       <c r="AL247" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM247" t="n">
         <v>50</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
         <v>2.75</v>
@@ -765,28 +765,28 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -828,13 +828,13 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -849,22 +849,22 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>67</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -876,16 +876,16 @@
         <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>67</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,19 +1153,19 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,10 +1317,10 @@
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.5</v>
@@ -1350,7 +1350,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1478,7 +1478,7 @@
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
         <v>3.6</v>
@@ -1490,13 +1490,13 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1544,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1574,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
@@ -1953,7 +1953,7 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
         <v>3.25</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
@@ -2597,10 +2597,10 @@
         <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2800,10 +2800,10 @@
         <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
         <v>12</v>
@@ -2875,13 +2875,13 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX13" t="n">
         <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -3131,10 +3131,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
         <v>1.11</v>
@@ -3188,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>81</v>
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW15" t="n">
         <v>251</v>
@@ -3397,19 +3397,19 @@
         <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>3.4</v>
@@ -3498,7 +3498,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
         <v>1.08</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
@@ -3862,7 +3862,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -4038,7 +4038,7 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4071,7 +4071,7 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>7.5</v>
@@ -4092,16 +4092,16 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4167,7 +4167,7 @@
         <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4405,10 +4405,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H25" t="n">
         <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J25" t="n">
         <v>6.5</v>
@@ -4948,7 +4948,7 @@
         <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4963,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
         <v>2.4</v>
@@ -5014,7 +5014,7 @@
         <v>201</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -5059,7 +5059,7 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX25" t="n">
         <v>3.6</v>
@@ -5071,16 +5071,16 @@
         <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC25" t="n">
         <v>101</v>
       </c>
       <c r="BD25" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
@@ -5121,7 +5121,7 @@
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -5139,16 +5139,16 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
         <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5169,7 +5169,7 @@
         <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
         <v>51</v>
@@ -5509,10 +5509,10 @@
         <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -5709,7 +5709,7 @@
         <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
         <v>11</v>
@@ -5754,13 +5754,13 @@
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5772,7 +5772,7 @@
         <v>51</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS29" t="n">
         <v>201</v>
@@ -5787,7 +5787,7 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX29" t="n">
         <v>4.75</v>
@@ -5849,7 +5849,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -5909,13 +5909,13 @@
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -5954,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS30" t="n">
         <v>151</v>
@@ -5963,10 +5963,10 @@
         <v>3.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
         <v>451</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I31" t="n">
         <v>3.6</v>
@@ -6037,7 +6037,7 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L31" t="n">
         <v>4.5</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -6395,7 +6395,7 @@
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -6589,10 +6589,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.62</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -6771,10 +6771,10 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6801,7 +6801,7 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6816,7 +6816,7 @@
         <v>19</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -6849,7 +6849,7 @@
         <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
         <v>4.5</v>
@@ -7135,10 +7135,10 @@
         <v>2.88</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
         <v>1.14</v>
@@ -7183,13 +7183,13 @@
         <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
         <v>7.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>29</v>
@@ -7681,13 +7681,13 @@
         <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -7863,13 +7863,13 @@
         <v>2.25</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P41" t="n">
         <v>6</v>
@@ -8239,10 +8239,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
         <v>3.8</v>
@@ -8591,10 +8591,10 @@
         <v>4.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8609,22 +8609,22 @@
         <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X45" t="n">
         <v>9</v>
-      </c>
-      <c r="X45" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8639,13 +8639,13 @@
         <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
         <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8666,7 +8666,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
         <v>34</v>
@@ -8690,19 +8690,19 @@
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU45" t="n">
         <v>7.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
         <v>351</v>
       </c>
       <c r="AX45" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY45" t="n">
         <v>21</v>
@@ -8797,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V46" t="n">
         <v>2.1</v>
@@ -8982,7 +8982,7 @@
         <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W47" t="n">
         <v>8</v>
@@ -9155,16 +9155,16 @@
         <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T48" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U48" t="n">
         <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W48" t="n">
         <v>5.5</v>
@@ -9310,7 +9310,7 @@
         <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9337,16 +9337,16 @@
         <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T49" t="n">
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
         <v>8</v>
@@ -9519,16 +9519,16 @@
         <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W50" t="n">
         <v>6</v>
@@ -9707,10 +9707,10 @@
         <v>2.5</v>
       </c>
       <c r="U51" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V51" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W51" t="n">
         <v>7</v>
@@ -9892,7 +9892,7 @@
         <v>2.1</v>
       </c>
       <c r="V52" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W52" t="n">
         <v>6</v>
@@ -10047,22 +10047,22 @@
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10071,10 +10071,10 @@
         <v>2.63</v>
       </c>
       <c r="U53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V53" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W53" t="n">
         <v>9.5</v>
@@ -10223,22 +10223,22 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L54" t="n">
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
         <v>6.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P54" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q54" t="n">
         <v>2.7</v>
@@ -10393,34 +10393,34 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L55" t="n">
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
         <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q55" t="n">
         <v>2.35</v>
@@ -10510,7 +10510,7 @@
         <v>251</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU55" t="n">
         <v>8.5</v>
@@ -10575,16 +10575,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J56" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>2.05</v>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -10626,13 +10626,13 @@
         <v>6.5</v>
       </c>
       <c r="X56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y56" t="n">
         <v>9.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA56" t="n">
         <v>19</v>
@@ -10662,10 +10662,10 @@
         <v>17</v>
       </c>
       <c r="AJ56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL56" t="n">
         <v>29</v>
@@ -10677,10 +10677,10 @@
         <v>4</v>
       </c>
       <c r="AO56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ56" t="n">
         <v>41</v>
@@ -10704,10 +10704,10 @@
         <v>51</v>
       </c>
       <c r="AX56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ56" t="n">
         <v>29</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J58" t="n">
         <v>3.4</v>
@@ -10969,13 +10969,13 @@
         <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S58" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T58" t="n">
         <v>2.75</v>
@@ -11127,7 +11127,7 @@
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -11151,13 +11151,13 @@
         <v>3.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S59" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T59" t="n">
         <v>2.75</v>
@@ -11303,13 +11303,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H60" t="n">
         <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J60" t="n">
         <v>2</v>
@@ -11339,7 +11339,7 @@
         <v>2.7</v>
       </c>
       <c r="S60" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T60" t="n">
         <v>4</v>
@@ -12037,7 +12037,7 @@
         <v>4.75</v>
       </c>
       <c r="I64" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="J64" t="n">
         <v>7.5</v>
@@ -12795,7 +12795,7 @@
         <v>2.7</v>
       </c>
       <c r="S68" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T68" t="n">
         <v>4</v>
@@ -12977,7 +12977,7 @@
         <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>1.85</v>
       </c>
       <c r="S70" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T70" t="n">
         <v>2.75</v>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
@@ -13687,10 +13687,10 @@
         <v>4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O73" t="n">
         <v>1.25</v>
@@ -13720,7 +13720,7 @@
         <v>8.5</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>9</v>
@@ -13777,7 +13777,7 @@
         <v>19</v>
       </c>
       <c r="AQ73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR73" t="n">
         <v>51</v>
@@ -13804,7 +13804,7 @@
         <v>19</v>
       </c>
       <c r="AZ73" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA73" t="n">
         <v>51</v>
@@ -14039,7 +14039,7 @@
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J75" t="n">
         <v>4.33</v>
@@ -14069,10 +14069,10 @@
         <v>1.73</v>
       </c>
       <c r="S75" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T75" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U75" t="n">
         <v>1.83</v>
@@ -14150,7 +14150,7 @@
         <v>201</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU75" t="n">
         <v>8</v>
@@ -14215,19 +14215,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K76" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L76" t="n">
         <v>3.1</v>
@@ -14251,37 +14251,37 @@
         <v>1.85</v>
       </c>
       <c r="S76" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T76" t="n">
         <v>2.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V76" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X76" t="n">
         <v>15</v>
       </c>
       <c r="Y76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z76" t="n">
         <v>29</v>
       </c>
       <c r="AA76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB76" t="n">
         <v>29</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14290,19 +14290,19 @@
         <v>13</v>
       </c>
       <c r="AF76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG76" t="n">
         <v>201</v>
       </c>
       <c r="AH76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK76" t="n">
         <v>23</v>
@@ -14335,7 +14335,7 @@
         <v>2.75</v>
       </c>
       <c r="AU76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV76" t="n">
         <v>51</v>
@@ -14350,7 +14350,7 @@
         <v>13</v>
       </c>
       <c r="AZ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA76" t="n">
         <v>41</v>
@@ -14433,7 +14433,7 @@
         <v>1.88</v>
       </c>
       <c r="S77" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T77" t="n">
         <v>2.75</v>
@@ -14579,16 +14579,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H78" t="n">
         <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
         <v>2.3</v>
@@ -14600,22 +14600,22 @@
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T78" t="n">
         <v>3.25</v>
@@ -14627,7 +14627,7 @@
         <v>2</v>
       </c>
       <c r="W78" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X78" t="n">
         <v>8.5</v>
@@ -14672,7 +14672,7 @@
         <v>51</v>
       </c>
       <c r="AL78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM78" t="n">
         <v>41</v>
@@ -14681,13 +14681,13 @@
         <v>3.75</v>
       </c>
       <c r="AO78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP78" t="n">
         <v>19</v>
       </c>
       <c r="AQ78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR78" t="n">
         <v>41</v>
@@ -14782,7 +14782,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.4</v>
@@ -14791,10 +14791,10 @@
         <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="n">
         <v>1.5</v>
@@ -14908,7 +14908,7 @@
         <v>301</v>
       </c>
       <c r="BD79" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -14973,10 +14973,10 @@
         <v>3.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R80" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S80" t="n">
         <v>1.36</v>
@@ -15006,13 +15006,13 @@
         <v>15</v>
       </c>
       <c r="AB80" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC80" t="n">
         <v>11</v>
       </c>
       <c r="AD80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE80" t="n">
         <v>15</v>
@@ -15030,7 +15030,7 @@
         <v>21</v>
       </c>
       <c r="AJ80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK80" t="n">
         <v>41</v>
@@ -15048,7 +15048,7 @@
         <v>10</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ80" t="n">
         <v>34</v>
@@ -15143,22 +15143,22 @@
         <v>3.25</v>
       </c>
       <c r="M81" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R81" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15307,13 +15307,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
@@ -15367,7 +15367,7 @@
         <v>26</v>
       </c>
       <c r="AA82" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB82" t="n">
         <v>26</v>
@@ -15400,7 +15400,7 @@
         <v>26</v>
       </c>
       <c r="AL82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM82" t="n">
         <v>26</v>
@@ -15409,7 +15409,7 @@
         <v>4.75</v>
       </c>
       <c r="AO82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP82" t="n">
         <v>21</v>
@@ -15439,7 +15439,7 @@
         <v>4.75</v>
       </c>
       <c r="AY82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ82" t="n">
         <v>21</v>
@@ -15510,19 +15510,19 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q83" t="n">
         <v>1.57</v>
       </c>
       <c r="R83" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S83" t="n">
         <v>1.29</v>
@@ -15862,7 +15862,7 @@
         <v>3.5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K85" t="n">
         <v>2.3</v>
@@ -15901,13 +15901,13 @@
         <v>2.2</v>
       </c>
       <c r="W85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X85" t="n">
         <v>11</v>
       </c>
       <c r="Y85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z85" t="n">
         <v>19</v>
@@ -15937,10 +15937,10 @@
         <v>13</v>
       </c>
       <c r="AI85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK85" t="n">
         <v>41</v>
@@ -15985,7 +15985,7 @@
         <v>5.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ85" t="n">
         <v>23</v>
@@ -16781,10 +16781,10 @@
         <v>2.6</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
@@ -16963,10 +16963,10 @@
         <v>3.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
         <v>1.29</v>
@@ -16975,10 +16975,10 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S91" t="n">
         <v>1.4</v>
@@ -17673,22 +17673,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="H95" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I95" t="n">
         <v>1.65</v>
       </c>
       <c r="J95" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="K95" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L95" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
@@ -17715,67 +17715,67 @@
         <v>3.14</v>
       </c>
       <c r="U95" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V95" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X95" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA95" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB95" t="n">
         <v>30</v>
       </c>
       <c r="AC95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE95" t="n">
         <v>12</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>11.75</v>
       </c>
       <c r="AF95" t="n">
         <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI95" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AJ95" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK95" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AL95" t="n">
         <v>10.5</v>
       </c>
       <c r="AM95" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN95" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AO95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP95" t="n">
         <v>27</v>
@@ -17787,16 +17787,16 @@
         <v>150</v>
       </c>
       <c r="AS95" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT95" t="n">
         <v>2.95</v>
       </c>
       <c r="AU95" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV95" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW95" t="n">
         <v>51</v>
@@ -17811,7 +17811,7 @@
         <v>16</v>
       </c>
       <c r="BA95" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB95" t="n">
         <v>50</v>
@@ -18073,7 +18073,7 @@
         <v>2</v>
       </c>
       <c r="S97" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T97" t="n">
         <v>3</v>
@@ -18255,7 +18255,7 @@
         <v>2.25</v>
       </c>
       <c r="S98" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T98" t="n">
         <v>3.4</v>
@@ -18401,22 +18401,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="K99" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="L99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M99" t="n">
         <v>1.02</v>
@@ -18431,13 +18431,13 @@
         <v>5.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R99" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T99" t="n">
         <v>3.75</v>
@@ -18458,10 +18458,10 @@
         <v>9</v>
       </c>
       <c r="Z99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB99" t="n">
         <v>23</v>
@@ -18470,7 +18470,7 @@
         <v>19</v>
       </c>
       <c r="AD99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE99" t="n">
         <v>21</v>
@@ -18482,16 +18482,16 @@
         <v>251</v>
       </c>
       <c r="AH99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI99" t="n">
         <v>41</v>
       </c>
       <c r="AJ99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK99" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL99" t="n">
         <v>51</v>
@@ -18521,7 +18521,7 @@
         <v>3.75</v>
       </c>
       <c r="AU99" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV99" t="n">
         <v>51</v>
@@ -18530,19 +18530,19 @@
         <v>501</v>
       </c>
       <c r="AX99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY99" t="n">
         <v>41</v>
       </c>
       <c r="AZ99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA99" t="n">
         <v>151</v>
       </c>
       <c r="BB99" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC99" t="n">
         <v>201</v>
@@ -18592,10 +18592,10 @@
         <v>3.1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K100" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L100" t="n">
         <v>3.6</v>
@@ -18619,7 +18619,7 @@
         <v>2.35</v>
       </c>
       <c r="S100" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T100" t="n">
         <v>3.5</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H101" t="n">
         <v>4.5</v>
@@ -18774,7 +18774,7 @@
         <v>6.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K101" t="n">
         <v>2.75</v>
@@ -18801,7 +18801,7 @@
         <v>2.88</v>
       </c>
       <c r="S101" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T101" t="n">
         <v>4</v>
@@ -18947,7 +18947,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H102" t="n">
         <v>4.1</v>
@@ -18959,7 +18959,7 @@
         <v>2.1</v>
       </c>
       <c r="K102" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L102" t="n">
         <v>5.5</v>
@@ -18983,7 +18983,7 @@
         <v>2.08</v>
       </c>
       <c r="S102" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T102" t="n">
         <v>3.25</v>
@@ -19129,16 +19129,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H103" t="n">
         <v>2.9</v>
       </c>
       <c r="I103" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
         <v>1.91</v>
@@ -19147,10 +19147,10 @@
         <v>4.5</v>
       </c>
       <c r="M103" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N103" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O103" t="n">
         <v>1.53</v>
@@ -19180,16 +19180,16 @@
         <v>5.5</v>
       </c>
       <c r="X103" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y103" t="n">
         <v>10</v>
       </c>
       <c r="Z103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA103" t="n">
         <v>21</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>23</v>
       </c>
       <c r="AB103" t="n">
         <v>41</v>
@@ -19210,13 +19210,13 @@
         <v>301</v>
       </c>
       <c r="AH103" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI103" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ103" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>13</v>
       </c>
       <c r="AK103" t="n">
         <v>41</v>
@@ -19237,7 +19237,7 @@
         <v>29</v>
       </c>
       <c r="AQ103" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR103" t="n">
         <v>81</v>
@@ -19329,10 +19329,10 @@
         <v>5.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O104" t="n">
         <v>1.22</v>
@@ -19341,10 +19341,10 @@
         <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R104" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S104" t="n">
         <v>1.33</v>
@@ -19684,7 +19684,7 @@
         <v>2.75</v>
       </c>
       <c r="J106" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K106" t="n">
         <v>2.4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H113" t="n">
         <v>4.2</v>
@@ -21137,7 +21137,7 @@
         <v>3.9</v>
       </c>
       <c r="I114" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -21313,10 +21313,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -21370,7 +21370,7 @@
         <v>9.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA115" t="n">
         <v>17</v>
@@ -21525,7 +21525,7 @@
         <v>4.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R116" t="n">
         <v>2.15</v>
@@ -22441,7 +22441,7 @@
         <v>1.95</v>
       </c>
       <c r="S121" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T121" t="n">
         <v>2.75</v>
@@ -23139,7 +23139,7 @@
         <v>3.2</v>
       </c>
       <c r="I125" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J125" t="n">
         <v>3</v>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
@@ -23324,19 +23324,19 @@
         <v>3.1</v>
       </c>
       <c r="J126" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K126" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O126" t="n">
         <v>1.36</v>
@@ -23345,25 +23345,25 @@
         <v>3</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R126" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T126" t="n">
         <v>2.5</v>
       </c>
       <c r="U126" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V126" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X126" t="n">
         <v>11</v>
@@ -23393,7 +23393,7 @@
         <v>51</v>
       </c>
       <c r="AG126" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH126" t="n">
         <v>8.5</v>
@@ -23402,13 +23402,13 @@
         <v>15</v>
       </c>
       <c r="AJ126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK126" t="n">
         <v>34</v>
       </c>
       <c r="AL126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM126" t="n">
         <v>41</v>
@@ -23417,7 +23417,7 @@
         <v>4.33</v>
       </c>
       <c r="AO126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP126" t="n">
         <v>26</v>
@@ -23438,13 +23438,13 @@
         <v>8.5</v>
       </c>
       <c r="AV126" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW126" t="n">
         <v>81</v>
       </c>
       <c r="AX126" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY126" t="n">
         <v>17</v>
@@ -23459,7 +23459,7 @@
         <v>81</v>
       </c>
       <c r="BC126" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD126" t="n">
         <v>81</v>
@@ -23497,28 +23497,28 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H127" t="n">
         <v>3.1</v>
       </c>
       <c r="I127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J127" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.2</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
       </c>
       <c r="L127" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M127" t="n">
         <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -23527,13 +23527,13 @@
         <v>2.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R127" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T127" t="n">
         <v>2.5</v>
@@ -23545,16 +23545,16 @@
         <v>1.8</v>
       </c>
       <c r="W127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA127" t="n">
         <v>21</v>
@@ -23578,7 +23578,7 @@
         <v>401</v>
       </c>
       <c r="AH127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI127" t="n">
         <v>15</v>
@@ -23599,16 +23599,16 @@
         <v>4.33</v>
       </c>
       <c r="AO127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP127" t="n">
         <v>26</v>
       </c>
       <c r="AQ127" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR127" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS127" t="n">
         <v>201</v>
@@ -23638,7 +23638,7 @@
         <v>67</v>
       </c>
       <c r="BB127" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC127" t="n">
         <v>251</v>
@@ -23679,13 +23679,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I128" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J128" t="n">
         <v>3.4</v>
@@ -23715,10 +23715,10 @@
         <v>1.7</v>
       </c>
       <c r="S128" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T128" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U128" t="n">
         <v>1.8</v>
@@ -23879,13 +23879,13 @@
         <v>3.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N129" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P129" t="n">
         <v>2.5</v>
@@ -23897,7 +23897,7 @@
         <v>1.48</v>
       </c>
       <c r="S129" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T129" t="n">
         <v>2.25</v>
@@ -24061,13 +24061,13 @@
         <v>3.1</v>
       </c>
       <c r="M130" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N130" t="n">
         <v>10</v>
       </c>
       <c r="O130" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P130" t="n">
         <v>3.4</v>
@@ -24243,13 +24243,13 @@
         <v>5.5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N131" t="n">
         <v>7</v>
       </c>
       <c r="O131" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P131" t="n">
         <v>2.5</v>
@@ -24413,7 +24413,7 @@
         <v>3.25</v>
       </c>
       <c r="I132" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J132" t="n">
         <v>3.4</v>
@@ -24425,13 +24425,13 @@
         <v>3.25</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O132" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P132" t="n">
         <v>3.25</v>
@@ -24607,13 +24607,13 @@
         <v>4.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N133" t="n">
         <v>15</v>
       </c>
       <c r="O133" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P133" t="n">
         <v>4.5</v>
@@ -24789,13 +24789,13 @@
         <v>4</v>
       </c>
       <c r="M134" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N134" t="n">
         <v>11</v>
       </c>
       <c r="O134" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P134" t="n">
         <v>3.5</v>
@@ -24971,13 +24971,13 @@
         <v>4.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N135" t="n">
         <v>11</v>
       </c>
       <c r="O135" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P135" t="n">
         <v>3.5</v>
@@ -25153,13 +25153,13 @@
         <v>2.3</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N136" t="n">
         <v>12</v>
       </c>
       <c r="O136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P136" t="n">
         <v>3.75</v>
@@ -25529,10 +25529,10 @@
         <v>3.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R138" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S138" t="n">
         <v>1.36</v>
@@ -25899,10 +25899,10 @@
         <v>1.67</v>
       </c>
       <c r="S140" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="T140" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U140" t="n">
         <v>1.91</v>
@@ -26045,22 +26045,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="H141" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I141" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K141" t="n">
         <v>2.4</v>
       </c>
-      <c r="K141" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L141" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M141" t="n">
         <v>1.03</v>
@@ -26075,37 +26075,37 @@
         <v>4.33</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R141" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S141" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T141" t="n">
         <v>3.4</v>
       </c>
       <c r="U141" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V141" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X141" t="n">
         <v>9</v>
-      </c>
-      <c r="X141" t="n">
-        <v>10</v>
       </c>
       <c r="Y141" t="n">
         <v>8.5</v>
       </c>
       <c r="Z141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA141" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB141" t="n">
         <v>21</v>
@@ -26129,31 +26129,31 @@
         <v>15</v>
       </c>
       <c r="AI141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK141" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM141" t="n">
         <v>34</v>
       </c>
       <c r="AN141" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO141" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP141" t="n">
         <v>17</v>
       </c>
       <c r="AQ141" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR141" t="n">
         <v>41</v>
@@ -26174,16 +26174,16 @@
         <v>451</v>
       </c>
       <c r="AX141" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ141" t="n">
         <v>26</v>
       </c>
       <c r="BA141" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB141" t="n">
         <v>81</v>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H142" t="n">
         <v>4</v>
@@ -26263,7 +26263,7 @@
         <v>2.1</v>
       </c>
       <c r="S142" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T142" t="n">
         <v>3.25</v>
@@ -26293,7 +26293,7 @@
         <v>41</v>
       </c>
       <c r="AC142" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD142" t="n">
         <v>7.5</v>
@@ -26308,7 +26308,7 @@
         <v>201</v>
       </c>
       <c r="AH142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI142" t="n">
         <v>8</v>
@@ -26427,10 +26427,10 @@
         <v>3.6</v>
       </c>
       <c r="M143" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O143" t="n">
         <v>1.29</v>
@@ -26439,13 +26439,13 @@
         <v>3.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R143" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S143" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T143" t="n">
         <v>2.75</v>
@@ -26481,13 +26481,13 @@
         <v>6.5</v>
       </c>
       <c r="AE143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF143" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG143" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH143" t="n">
         <v>9.5</v>
@@ -26514,13 +26514,13 @@
         <v>13</v>
       </c>
       <c r="AP143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ143" t="n">
         <v>41</v>
       </c>
       <c r="AR143" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS143" t="n">
         <v>151</v>
@@ -26550,7 +26550,7 @@
         <v>51</v>
       </c>
       <c r="BB143" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC143" t="n">
         <v>151</v>
@@ -26773,13 +26773,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>3.5</v>
       </c>
       <c r="I145" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
         <v>2.88</v>
@@ -26815,22 +26815,22 @@
         <v>3.25</v>
       </c>
       <c r="U145" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V145" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W145" t="n">
         <v>10</v>
       </c>
       <c r="X145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y145" t="n">
         <v>9.5</v>
       </c>
       <c r="Z145" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA145" t="n">
         <v>17</v>
@@ -26857,7 +26857,7 @@
         <v>11</v>
       </c>
       <c r="AI145" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ145" t="n">
         <v>11</v>
@@ -26875,7 +26875,7 @@
         <v>4.5</v>
       </c>
       <c r="AO145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP145" t="n">
         <v>21</v>
@@ -26914,7 +26914,7 @@
         <v>51</v>
       </c>
       <c r="BB145" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC145" t="n">
         <v>126</v>
@@ -26991,10 +26991,10 @@
         <v>2.12</v>
       </c>
       <c r="S146" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T146" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U146" t="n">
         <v>1.55</v>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Meknes</t>
+          <t>COD Meknes</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -28053,7 +28053,7 @@
         <v>5.25</v>
       </c>
       <c r="I152" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J152" t="n">
         <v>1.8</v>
@@ -28778,7 +28778,7 @@
         <v>1.25</v>
       </c>
       <c r="H156" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I156" t="n">
         <v>12</v>
@@ -28787,16 +28787,16 @@
         <v>1.73</v>
       </c>
       <c r="K156" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N156" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O156" t="n">
         <v>1.22</v>
@@ -28805,10 +28805,10 @@
         <v>4</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R156" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S156" t="n">
         <v>1.33</v>
@@ -28823,16 +28823,16 @@
         <v>1.57</v>
       </c>
       <c r="W156" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X156" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y156" t="n">
         <v>10</v>
       </c>
       <c r="Z156" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA156" t="n">
         <v>12</v>
@@ -28871,13 +28871,13 @@
         <v>81</v>
       </c>
       <c r="AM156" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN156" t="n">
         <v>3.1</v>
       </c>
       <c r="AO156" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP156" t="n">
         <v>19</v>
@@ -28898,7 +28898,7 @@
         <v>11</v>
       </c>
       <c r="AV156" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW156" t="n">
         <v>126</v>
@@ -29139,22 +29139,22 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H158" t="n">
         <v>3.5</v>
       </c>
       <c r="I158" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J158" t="n">
         <v>3.1</v>
       </c>
       <c r="K158" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L158" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M158" t="n">
         <v>1.03</v>
@@ -29163,16 +29163,16 @@
         <v>15</v>
       </c>
       <c r="O158" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P158" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R158" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S158" t="n">
         <v>1.3</v>
@@ -29217,7 +29217,7 @@
         <v>34</v>
       </c>
       <c r="AG158" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH158" t="n">
         <v>12</v>
@@ -29238,7 +29238,7 @@
         <v>23</v>
       </c>
       <c r="AN158" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO158" t="n">
         <v>13</v>
@@ -29265,7 +29265,7 @@
         <v>41</v>
       </c>
       <c r="AW158" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX158" t="n">
         <v>4.75</v>
@@ -29321,13 +29321,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H159" t="n">
         <v>3.3</v>
       </c>
       <c r="I159" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J159" t="n">
         <v>3.4</v>
@@ -29342,7 +29342,7 @@
         <v>1.04</v>
       </c>
       <c r="N159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O159" t="n">
         <v>1.25</v>
@@ -29363,10 +29363,10 @@
         <v>3</v>
       </c>
       <c r="U159" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V159" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W159" t="n">
         <v>11</v>
@@ -29387,7 +29387,7 @@
         <v>29</v>
       </c>
       <c r="AC159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD159" t="n">
         <v>6.5</v>
@@ -29402,10 +29402,10 @@
         <v>151</v>
       </c>
       <c r="AH159" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ159" t="n">
         <v>9.5</v>
@@ -29465,7 +29465,7 @@
         <v>51</v>
       </c>
       <c r="BC159" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD159" t="n">
         <v>81</v>
@@ -30049,64 +30049,64 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H163" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I163" t="n">
         <v>1.55</v>
       </c>
       <c r="J163" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="K163" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L163" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M163" t="n">
         <v>1.02</v>
       </c>
       <c r="N163" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O163" t="n">
         <v>1.12</v>
       </c>
       <c r="P163" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R163" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="S163" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T163" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="U163" t="n">
         <v>1.45</v>
       </c>
       <c r="V163" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W163" t="n">
         <v>23</v>
       </c>
       <c r="X163" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y163" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z163" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA163" t="n">
         <v>40</v>
@@ -30115,10 +30115,10 @@
         <v>32</v>
       </c>
       <c r="AC163" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD163" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE163" t="n">
         <v>12.5</v>
@@ -30133,13 +30133,13 @@
         <v>12</v>
       </c>
       <c r="AI163" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ163" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK163" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL163" t="n">
         <v>10.75</v>
@@ -30148,10 +30148,10 @@
         <v>16</v>
       </c>
       <c r="AN163" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AO163" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP163" t="n">
         <v>23</v>
@@ -30160,16 +30160,16 @@
         <v>120</v>
       </c>
       <c r="AR163" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS163" t="n">
         <v>200</v>
       </c>
       <c r="AT163" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AU163" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV163" t="n">
         <v>37</v>
@@ -30181,13 +30181,13 @@
         <v>3.95</v>
       </c>
       <c r="AY163" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AZ163" t="n">
         <v>12</v>
       </c>
       <c r="BA163" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BB163" t="n">
         <v>32</v>
@@ -30631,10 +30631,10 @@
         <v>1.67</v>
       </c>
       <c r="S166" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T166" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U166" t="n">
         <v>1.91</v>
@@ -30813,7 +30813,7 @@
         <v>1.98</v>
       </c>
       <c r="S167" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T167" t="n">
         <v>3</v>
@@ -31329,7 +31329,7 @@
         <v>6.5</v>
       </c>
       <c r="I170" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J170" t="n">
         <v>1.62</v>
@@ -31717,10 +31717,10 @@
         <v>3.75</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R172" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S172" t="n">
         <v>1.36</v>
@@ -32233,82 +32233,82 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H175" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I175" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K175" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L175" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="M175" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N175" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="O175" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P175" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="R175" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S175" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T175" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U175" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="V175" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="W175" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="X175" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y175" t="n">
         <v>8.25</v>
       </c>
       <c r="Z175" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA175" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AC175" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD175" t="n">
         <v>6.9</v>
       </c>
       <c r="AE175" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AG175" t="n">
         <v>600</v>
@@ -32317,64 +32317,64 @@
         <v>11.75</v>
       </c>
       <c r="AI175" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ175" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AK175" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR175" t="n">
         <v>70</v>
       </c>
-      <c r="AL175" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM175" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN175" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO175" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ175" t="n">
+      <c r="AS175" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY175" t="n">
         <v>30</v>
       </c>
-      <c r="AR175" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS175" t="n">
+      <c r="AZ175" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB175" t="n">
         <v>250</v>
-      </c>
-      <c r="AT175" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU175" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV175" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW175" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX175" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY175" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ175" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA175" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB175" t="n">
-        <v>175</v>
       </c>
       <c r="BC175" t="n">
         <v>450</v>
@@ -32415,28 +32415,28 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="H176" t="n">
         <v>3.15</v>
       </c>
       <c r="I176" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J176" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K176" t="n">
         <v>2.1</v>
       </c>
       <c r="L176" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M176" t="n">
         <v>1.07</v>
       </c>
       <c r="N176" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O176" t="n">
         <v>1.32</v>
@@ -32451,10 +32451,10 @@
         <v>1.78</v>
       </c>
       <c r="S176" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T176" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U176" t="n">
         <v>1.72</v>
@@ -32469,22 +32469,22 @@
         <v>13.5</v>
       </c>
       <c r="Y176" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z176" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA176" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB176" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC176" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD176" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE176" t="n">
         <v>13</v>
@@ -32499,43 +32499,43 @@
         <v>8.5</v>
       </c>
       <c r="AI176" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ176" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK176" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL176" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP176" t="n">
         <v>20</v>
       </c>
-      <c r="AM176" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN176" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO176" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP176" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR176" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS176" t="n">
         <v>250</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU176" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV176" t="n">
         <v>55</v>
@@ -32544,10 +32544,10 @@
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY176" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ176" t="n">
         <v>19.5</v>
@@ -32559,7 +32559,7 @@
         <v>80</v>
       </c>
       <c r="BC176" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD176" t="n">
         <v>51</v>
@@ -32597,58 +32597,58 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H177" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I177" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J177" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="K177" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L177" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="M177" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N177" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="O177" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P177" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R177" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S177" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T177" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="U177" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="V177" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="W177" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X177" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y177" t="n">
         <v>20</v>
@@ -32660,28 +32660,28 @@
         <v>70</v>
       </c>
       <c r="AB177" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC177" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE177" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF177" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG177" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH177" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AI177" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ177" t="n">
         <v>8</v>
@@ -32690,58 +32690,58 @@
         <v>9.75</v>
       </c>
       <c r="AL177" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM177" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN177" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO177" t="n">
         <v>37</v>
       </c>
       <c r="AP177" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ177" t="n">
         <v>250</v>
       </c>
       <c r="AR177" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS177" t="n">
         <v>500</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="AU177" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV177" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AY177" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AZ177" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA177" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BB177" t="n">
         <v>50</v>
       </c>
       <c r="BC177" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD177" t="n">
         <v>51</v>
@@ -32797,13 +32797,13 @@
         <v>6</v>
       </c>
       <c r="M178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N178" t="n">
         <v>34</v>
       </c>
-      <c r="N178" t="n">
-        <v>1.01</v>
-      </c>
       <c r="O178" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P178" t="n">
         <v>10</v>
@@ -33689,22 +33689,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H183" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I183" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J183" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
         <v>2.32</v>
       </c>
       <c r="L183" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M183" t="n">
         <v>1.04</v>
@@ -33713,7 +33713,7 @@
         <v>8.25</v>
       </c>
       <c r="O183" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P183" t="n">
         <v>3.7</v>
@@ -33725,64 +33725,64 @@
         <v>2.05</v>
       </c>
       <c r="S183" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T183" t="n">
         <v>2.92</v>
       </c>
       <c r="U183" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V183" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W183" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X183" t="n">
         <v>7.1</v>
-      </c>
-      <c r="X183" t="n">
-        <v>6.9</v>
       </c>
       <c r="Y183" t="n">
         <v>8.25</v>
       </c>
       <c r="Z183" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA183" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB183" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC183" t="n">
         <v>8.25</v>
       </c>
       <c r="AD183" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE183" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ183" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF183" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH183" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI183" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AK183" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL183" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM183" t="n">
         <v>60</v>
@@ -33791,13 +33791,13 @@
         <v>3.3</v>
       </c>
       <c r="AO183" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP183" t="n">
         <v>17</v>
       </c>
       <c r="AQ183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR183" t="n">
         <v>50</v>
@@ -33809,28 +33809,28 @@
         <v>2.92</v>
       </c>
       <c r="AU183" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV183" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW183" t="n">
         <v>51</v>
       </c>
       <c r="AX183" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AY183" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ183" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA183" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB183" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC183" t="n">
         <v>500</v>
@@ -34629,10 +34629,10 @@
         <v>3.75</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R188" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S188" t="n">
         <v>1.36</v>
@@ -34802,19 +34802,19 @@
         <v>1.07</v>
       </c>
       <c r="N189" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O189" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P189" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R189" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S189" t="n">
         <v>1.44</v>
@@ -34993,10 +34993,10 @@
         <v>2.5</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R190" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S190" t="n">
         <v>1.57</v>
@@ -35703,7 +35703,7 @@
         <v>2.38</v>
       </c>
       <c r="K194" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L194" t="n">
         <v>3.75</v>
@@ -35715,16 +35715,16 @@
         <v>21</v>
       </c>
       <c r="O194" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P194" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q194" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R194" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S194" t="n">
         <v>1.22</v>
@@ -35733,10 +35733,10 @@
         <v>4</v>
       </c>
       <c r="U194" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V194" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W194" t="n">
         <v>13</v>
@@ -35757,7 +35757,7 @@
         <v>17</v>
       </c>
       <c r="AC194" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD194" t="n">
         <v>8.5</v>
@@ -35799,13 +35799,13 @@
         <v>15</v>
       </c>
       <c r="AQ194" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR194" t="n">
         <v>41</v>
       </c>
       <c r="AS194" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT194" t="n">
         <v>4</v>
@@ -35814,7 +35814,7 @@
         <v>7</v>
       </c>
       <c r="AV194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW194" t="n">
         <v>251</v>
@@ -35838,7 +35838,7 @@
         <v>101</v>
       </c>
       <c r="BD194" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195">
@@ -36064,7 +36064,7 @@
         <v>1.95</v>
       </c>
       <c r="J196" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K196" t="n">
         <v>2.2</v>
@@ -36085,10 +36085,10 @@
         <v>3.75</v>
       </c>
       <c r="Q196" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R196" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S196" t="n">
         <v>1.36</v>
@@ -36097,10 +36097,10 @@
         <v>3</v>
       </c>
       <c r="U196" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V196" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W196" t="n">
         <v>12</v>
@@ -36124,7 +36124,7 @@
         <v>11</v>
       </c>
       <c r="AD196" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE196" t="n">
         <v>13</v>
@@ -36190,7 +36190,7 @@
         <v>10</v>
       </c>
       <c r="AZ196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA196" t="n">
         <v>34</v>
@@ -37147,22 +37147,22 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I202" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J202" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K202" t="n">
         <v>2.5</v>
       </c>
       <c r="L202" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M202" t="n">
         <v>1.02</v>
@@ -37171,10 +37171,10 @@
         <v>19</v>
       </c>
       <c r="O202" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P202" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q202" t="n">
         <v>1.48</v>
@@ -37195,40 +37195,40 @@
         <v>2.63</v>
       </c>
       <c r="W202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X202" t="n">
         <v>13</v>
       </c>
       <c r="Y202" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z202" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB202" t="n">
         <v>19</v>
       </c>
       <c r="AC202" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD202" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF202" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG202" t="n">
         <v>81</v>
       </c>
       <c r="AH202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI202" t="n">
         <v>21</v>
@@ -37237,25 +37237,25 @@
         <v>12</v>
       </c>
       <c r="AK202" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL202" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM202" t="n">
         <v>23</v>
       </c>
       <c r="AN202" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO202" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ202" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR202" t="n">
         <v>41</v>
@@ -37276,16 +37276,16 @@
         <v>251</v>
       </c>
       <c r="AX202" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ202" t="n">
         <v>19</v>
       </c>
       <c r="BA202" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB202" t="n">
         <v>51</v>
@@ -38251,7 +38251,7 @@
         <v>6</v>
       </c>
       <c r="K208" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L208" t="n">
         <v>1.83</v>
@@ -38275,10 +38275,10 @@
         <v>2.7</v>
       </c>
       <c r="S208" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T208" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U208" t="n">
         <v>1.67</v>
@@ -38356,7 +38356,7 @@
         <v>151</v>
       </c>
       <c r="AT208" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU208" t="n">
         <v>8</v>
@@ -39185,7 +39185,7 @@
         <v>1.93</v>
       </c>
       <c r="S213" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T213" t="n">
         <v>3</v>
@@ -39513,19 +39513,19 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H215" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I215" t="n">
         <v>1.2</v>
       </c>
       <c r="J215" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="K215" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L215" t="n">
         <v>1.62</v>
@@ -39534,34 +39534,34 @@
         <v>1.01</v>
       </c>
       <c r="N215" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="O215" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P215" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q215" t="n">
         <v>1.7</v>
       </c>
       <c r="R215" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S215" t="n">
         <v>1.34</v>
       </c>
       <c r="T215" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="U215" t="n">
         <v>2.55</v>
       </c>
       <c r="V215" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W215" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X215" t="n">
         <v>120</v>
@@ -39570,7 +39570,7 @@
         <v>50</v>
       </c>
       <c r="Z215" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AA215" t="n">
         <v>300</v>
@@ -39579,13 +39579,13 @@
         <v>250</v>
       </c>
       <c r="AC215" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD215" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AE215" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF215" t="n">
         <v>250</v>
@@ -39594,10 +39594,10 @@
         <v>67</v>
       </c>
       <c r="AH215" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI215" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AJ215" t="n">
         <v>10.25</v>
@@ -39630,10 +39630,10 @@
         <v>67</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AU215" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AV215" t="n">
         <v>150</v>
@@ -39645,16 +39645,16 @@
         <v>2.77</v>
       </c>
       <c r="AY215" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AZ215" t="n">
         <v>20</v>
       </c>
       <c r="BA215" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BB215" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC215" t="n">
         <v>400</v>
@@ -40629,10 +40629,10 @@
         <v>19</v>
       </c>
       <c r="O221" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P221" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q221" t="n">
         <v>1.48</v>
@@ -40752,7 +40752,7 @@
         <v>101</v>
       </c>
       <c r="BD221" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="222">
@@ -40787,7 +40787,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H222" t="n">
         <v>6</v>
@@ -40808,7 +40808,7 @@
         <v>1.01</v>
       </c>
       <c r="N222" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O222" t="n">
         <v>1.08</v>
@@ -40850,7 +40850,7 @@
         <v>10</v>
       </c>
       <c r="AB222" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC222" t="n">
         <v>29</v>
@@ -40877,7 +40877,7 @@
         <v>21</v>
       </c>
       <c r="AK222" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL222" t="n">
         <v>41</v>
@@ -40934,7 +40934,7 @@
         <v>126</v>
       </c>
       <c r="BD222" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223">
@@ -40993,16 +40993,16 @@
         <v>17</v>
       </c>
       <c r="O223" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P223" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R223" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S223" t="n">
         <v>1.29</v>
@@ -41298,7 +41298,7 @@
         <v>101</v>
       </c>
       <c r="BD224" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225">
@@ -41369,7 +41369,7 @@
         <v>2.7</v>
       </c>
       <c r="S225" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T225" t="n">
         <v>4</v>
@@ -41551,7 +41551,7 @@
         <v>2.5</v>
       </c>
       <c r="S226" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T226" t="n">
         <v>3.75</v>
@@ -41733,7 +41733,7 @@
         <v>2.5</v>
       </c>
       <c r="S227" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T227" t="n">
         <v>3.75</v>
@@ -44791,22 +44791,22 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I244" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J244" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K244" t="n">
         <v>1.9</v>
       </c>
       <c r="L244" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M244" t="n">
         <v>1.1</v>
@@ -44830,40 +44830,40 @@
         <v>1.47</v>
       </c>
       <c r="T244" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U244" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V244" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W244" t="n">
         <v>5.6</v>
       </c>
       <c r="X244" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y244" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y244" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z244" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA244" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA244" t="n">
-        <v>18</v>
-      </c>
       <c r="AB244" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC244" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD244" t="n">
         <v>5.4</v>
       </c>
       <c r="AE244" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF244" t="n">
         <v>90</v>
@@ -44872,31 +44872,31 @@
         <v>900</v>
       </c>
       <c r="AH244" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI244" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ244" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK244" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL244" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM244" t="n">
         <v>60</v>
       </c>
       <c r="AN244" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO244" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP244" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ244" t="n">
         <v>40</v>
@@ -44911,7 +44911,7 @@
         <v>2.3</v>
       </c>
       <c r="AU244" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV244" t="n">
         <v>60</v>
@@ -44920,16 +44920,16 @@
         <v>51</v>
       </c>
       <c r="AX244" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY244" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ244" t="n">
         <v>30</v>
       </c>
-      <c r="AZ244" t="n">
-        <v>32</v>
-      </c>
       <c r="BA244" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB244" t="n">
         <v>200</v>
@@ -45155,13 +45155,13 @@
         </is>
       </c>
       <c r="G246" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H246" t="n">
         <v>3.3</v>
       </c>
-      <c r="H246" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I246" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J246" t="n">
         <v>3.8</v>
@@ -45170,7 +45170,7 @@
         <v>2.07</v>
       </c>
       <c r="L246" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="M246" t="n">
         <v>1.04</v>
@@ -45191,10 +45191,10 @@
         <v>1.62</v>
       </c>
       <c r="S246" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T246" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U246" t="n">
         <v>1.87</v>
@@ -45209,10 +45209,10 @@
         <v>16</v>
       </c>
       <c r="Y246" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z246" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA246" t="n">
         <v>32</v>
@@ -45221,10 +45221,10 @@
         <v>45</v>
       </c>
       <c r="AC246" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD246" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE246" t="n">
         <v>16.5</v>
@@ -45239,7 +45239,7 @@
         <v>6.6</v>
       </c>
       <c r="AI246" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ246" t="n">
         <v>9</v>
@@ -45248,7 +45248,7 @@
         <v>18.5</v>
       </c>
       <c r="AL246" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM246" t="n">
         <v>35</v>
@@ -45272,7 +45272,7 @@
         <v>400</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU246" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -959,10 +959,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -1296,7 +1296,7 @@
         <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -2024,10 +2024,10 @@
         <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -2212,7 +2212,7 @@
         <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
@@ -2281,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
         <v>5.75</v>
@@ -2433,7 +2433,7 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>8.5</v>
@@ -2451,10 +2451,10 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2481,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
         <v>3.6</v>
@@ -2597,10 +2597,10 @@
         <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2711,7 +2711,7 @@
         <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -3119,7 +3119,7 @@
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
         <v>2.2</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>1.73</v>
@@ -3498,7 +3498,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O17" t="n">
         <v>1.08</v>
@@ -3677,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -4223,16 +4223,16 @@
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.2</v>
@@ -4352,7 +4352,7 @@
         <v>251</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4781,10 +4781,10 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
         <v>1.3</v>
@@ -4811,7 +4811,7 @@
         <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
@@ -4838,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>41</v>
@@ -4850,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
         <v>10</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J25" t="n">
         <v>6.5</v>
@@ -5017,7 +5017,7 @@
         <v>8.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>8.5</v>
@@ -5041,10 +5041,10 @@
         <v>34</v>
       </c>
       <c r="AQ25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS25" t="n">
         <v>201</v>
@@ -5118,13 +5118,13 @@
         <v>4.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
         <v>1.67</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K26" t="n">
         <v>2.38</v>
@@ -5157,10 +5157,10 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W26" t="n">
         <v>13</v>
@@ -5187,7 +5187,7 @@
         <v>8.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -5235,7 +5235,7 @@
         <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
@@ -5327,10 +5327,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5339,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5363,7 +5363,7 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>8</v>
@@ -5375,10 +5375,10 @@
         <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
@@ -5396,19 +5396,19 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>21</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5417,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5429,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="AY27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
@@ -5479,10 +5479,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>2.7</v>
@@ -5551,7 +5551,7 @@
         <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
@@ -5566,7 +5566,7 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>29</v>
@@ -5667,7 +5667,7 @@
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -5697,10 +5697,10 @@
         <v>1.67</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U29" t="n">
         <v>1.95</v>
@@ -5778,7 +5778,7 @@
         <v>201</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5796,7 +5796,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>51</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -5879,10 +5879,10 @@
         <v>2.3</v>
       </c>
       <c r="S30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.7</v>
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
         <v>15</v>
@@ -5912,16 +5912,16 @@
         <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH30" t="n">
         <v>8.5</v>
@@ -5960,13 +5960,13 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW30" t="n">
         <v>451</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
         <v>3.6</v>
@@ -6037,7 +6037,7 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
         <v>4.5</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -6237,10 +6237,10 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6422,7 +6422,7 @@
         <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>1.53</v>
@@ -6604,7 +6604,7 @@
         <v>3.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S34" t="n">
         <v>1.62</v>
@@ -6935,19 +6935,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>2.75</v>
@@ -6959,37 +6959,37 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V36" t="n">
         <v>2.38</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
         <v>34</v>
@@ -7001,28 +7001,28 @@
         <v>23</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>34</v>
       </c>
       <c r="AG36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI36" t="n">
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK36" t="n">
         <v>21</v>
@@ -7040,19 +7040,19 @@
         <v>15</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
         <v>7</v>
@@ -7061,22 +7061,22 @@
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX36" t="n">
         <v>4.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC36" t="n">
         <v>101</v>
@@ -7117,10 +7117,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
         <v>2.35</v>
@@ -7141,10 +7141,10 @@
         <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
         <v>1.53</v>
@@ -7153,10 +7153,10 @@
         <v>2.5</v>
       </c>
       <c r="S37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U37" t="n">
         <v>1.44</v>
@@ -7165,10 +7165,10 @@
         <v>2.63</v>
       </c>
       <c r="W37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
         <v>11</v>
@@ -7177,10 +7177,10 @@
         <v>29</v>
       </c>
       <c r="AA37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB37" t="n">
         <v>21</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>23</v>
       </c>
       <c r="AC37" t="n">
         <v>19</v>
@@ -7189,16 +7189,16 @@
         <v>7.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
@@ -7234,7 +7234,7 @@
         <v>101</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU37" t="n">
         <v>7</v>
@@ -7258,10 +7258,10 @@
         <v>41</v>
       </c>
       <c r="BB37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7681,13 +7681,13 @@
         <v>5.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -7863,13 +7863,13 @@
         <v>2.25</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
         <v>6</v>
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
         <v>2.88</v>
@@ -8427,10 +8427,10 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U44" t="n">
         <v>1.57</v>
@@ -8442,7 +8442,7 @@
         <v>10</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
         <v>9.5</v>
@@ -8454,10 +8454,10 @@
         <v>17</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD44" t="n">
         <v>7</v>
@@ -8481,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL44" t="n">
         <v>21</v>
@@ -8508,7 +8508,7 @@
         <v>101</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU44" t="n">
         <v>7</v>
@@ -8797,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V46" t="n">
         <v>2.1</v>
@@ -8982,7 +8982,7 @@
         <v>2.1</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
         <v>8</v>
@@ -9164,7 +9164,7 @@
         <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W48" t="n">
         <v>5.5</v>
@@ -9310,7 +9310,7 @@
         <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9343,10 +9343,10 @@
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
         <v>8</v>
@@ -9528,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
         <v>6</v>
@@ -9707,10 +9707,10 @@
         <v>2.5</v>
       </c>
       <c r="U51" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V51" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W51" t="n">
         <v>7</v>
@@ -9892,7 +9892,7 @@
         <v>2.1</v>
       </c>
       <c r="V52" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W52" t="n">
         <v>6</v>
@@ -10071,10 +10071,10 @@
         <v>2.63</v>
       </c>
       <c r="U53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W53" t="n">
         <v>9.5</v>
@@ -10223,22 +10223,22 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L54" t="n">
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N54" t="n">
         <v>6.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P54" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q54" t="n">
         <v>2.7</v>
@@ -10405,22 +10405,22 @@
         <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
         <v>8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q55" t="n">
         <v>2.35</v>
@@ -10510,7 +10510,7 @@
         <v>251</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU55" t="n">
         <v>8.5</v>
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -10623,7 +10623,7 @@
         <v>1.8</v>
       </c>
       <c r="W56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X56" t="n">
         <v>10</v>
@@ -10635,7 +10635,7 @@
         <v>21</v>
       </c>
       <c r="AA56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB56" t="n">
         <v>34</v>
@@ -10656,10 +10656,10 @@
         <v>351</v>
       </c>
       <c r="AH56" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ56" t="n">
         <v>12</v>
@@ -10757,7 +10757,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
@@ -10787,10 +10787,10 @@
         <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S57" t="n">
         <v>1.44</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J58" t="n">
         <v>3.4</v>
@@ -10969,10 +10969,10 @@
         <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R58" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="n">
         <v>1.4</v>
@@ -11127,7 +11127,7 @@
         <v>3.2</v>
       </c>
       <c r="I59" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -11151,13 +11151,13 @@
         <v>3.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R59" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S59" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T59" t="n">
         <v>2.75</v>
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H60" t="n">
         <v>4.5</v>
@@ -11339,7 +11339,7 @@
         <v>2.7</v>
       </c>
       <c r="S60" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T60" t="n">
         <v>4</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H61" t="n">
         <v>4.75</v>
@@ -11521,7 +11521,7 @@
         <v>2.6</v>
       </c>
       <c r="S61" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T61" t="n">
         <v>4</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H62" t="n">
         <v>3.9</v>
@@ -11703,10 +11703,10 @@
         <v>1.65</v>
       </c>
       <c r="S62" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T62" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U62" t="n">
         <v>2.25</v>
@@ -11855,7 +11855,7 @@
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J63" t="n">
         <v>4.33</v>
@@ -12395,13 +12395,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J66" t="n">
         <v>2.75</v>
@@ -12410,7 +12410,7 @@
         <v>2.2</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M66" t="n">
         <v>1.05</v>
@@ -12431,22 +12431,22 @@
         <v>1.95</v>
       </c>
       <c r="S66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W66" t="n">
         <v>8</v>
       </c>
       <c r="X66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -12485,7 +12485,7 @@
         <v>12</v>
       </c>
       <c r="AK66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL66" t="n">
         <v>26</v>
@@ -12494,10 +12494,10 @@
         <v>34</v>
       </c>
       <c r="AN66" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP66" t="n">
         <v>21</v>
@@ -12512,7 +12512,7 @@
         <v>151</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU66" t="n">
         <v>7.5</v>
@@ -12601,16 +12601,16 @@
         <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P67" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S67" t="n">
         <v>1.36</v>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
@@ -13323,10 +13323,10 @@
         <v>2.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -13359,7 +13359,7 @@
         <v>17</v>
       </c>
       <c r="Y71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z71" t="n">
         <v>41</v>
@@ -13386,7 +13386,7 @@
         <v>351</v>
       </c>
       <c r="AH71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI71" t="n">
         <v>9</v>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
@@ -13669,7 +13669,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
@@ -13699,10 +13699,10 @@
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R73" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>1.36</v>
@@ -13810,7 +13810,7 @@
         <v>51</v>
       </c>
       <c r="BB73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC73" t="n">
         <v>151</v>
@@ -14039,7 +14039,7 @@
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J75" t="n">
         <v>4.33</v>
@@ -14150,7 +14150,7 @@
         <v>201</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU75" t="n">
         <v>8</v>
@@ -14600,7 +14600,7 @@
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>1.22</v>
@@ -14782,7 +14782,7 @@
         <v>1.08</v>
       </c>
       <c r="N79" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O79" t="n">
         <v>1.4</v>
@@ -14791,10 +14791,10 @@
         <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S79" t="n">
         <v>1.5</v>
@@ -15155,10 +15155,10 @@
         <v>3.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15489,13 +15489,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H83" t="n">
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.25</v>
@@ -15519,16 +15519,16 @@
         <v>4.5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R83" t="n">
         <v>2.3</v>
       </c>
       <c r="S83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U83" t="n">
         <v>1.62</v>
@@ -15537,7 +15537,7 @@
         <v>2.2</v>
       </c>
       <c r="W83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X83" t="n">
         <v>9.5</v>
@@ -15546,7 +15546,7 @@
         <v>8.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA83" t="n">
         <v>12</v>
@@ -15570,7 +15570,7 @@
         <v>151</v>
       </c>
       <c r="AH83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI83" t="n">
         <v>26</v>
@@ -15606,7 +15606,7 @@
         <v>101</v>
       </c>
       <c r="AT83" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU83" t="n">
         <v>7.5</v>
@@ -15621,7 +15621,7 @@
         <v>6.5</v>
       </c>
       <c r="AY83" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ83" t="n">
         <v>26</v>
@@ -16793,10 +16793,10 @@
         <v>3.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R90" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S90" t="n">
         <v>1.44</v>
@@ -16945,28 +16945,28 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J91" t="n">
         <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
         <v>3.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
         <v>1.29</v>
@@ -17008,13 +17008,13 @@
         <v>19</v>
       </c>
       <c r="AB91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
         <v>10</v>
       </c>
       <c r="AD91" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
@@ -17026,7 +17026,7 @@
         <v>201</v>
       </c>
       <c r="AH91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI91" t="n">
         <v>15</v>
@@ -17041,16 +17041,16 @@
         <v>23</v>
       </c>
       <c r="AM91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO91" t="n">
         <v>13</v>
       </c>
       <c r="AP91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ91" t="n">
         <v>41</v>
@@ -17065,7 +17065,7 @@
         <v>2.75</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17080,7 +17080,7 @@
         <v>17</v>
       </c>
       <c r="AZ91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA91" t="n">
         <v>51</v>
@@ -17309,16 +17309,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K93" t="n">
         <v>2.1</v>
@@ -17339,10 +17339,10 @@
         <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R93" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S93" t="n">
         <v>1.4</v>
@@ -17357,7 +17357,7 @@
         <v>1.95</v>
       </c>
       <c r="W93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X93" t="n">
         <v>11</v>
@@ -17411,7 +17411,7 @@
         <v>4.33</v>
       </c>
       <c r="AO93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP93" t="n">
         <v>23</v>
@@ -17420,7 +17420,7 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS93" t="n">
         <v>151</v>
@@ -17491,22 +17491,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>3.35</v>
       </c>
       <c r="I94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J94" t="n">
         <v>2.75</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.67</v>
       </c>
       <c r="K94" t="n">
         <v>2.25</v>
       </c>
       <c r="L94" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M94" t="n">
         <v>1.02</v>
@@ -17539,19 +17539,19 @@
         <v>2.66</v>
       </c>
       <c r="W94" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA94" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB94" t="n">
         <v>15.5</v>
@@ -17560,7 +17560,7 @@
         <v>14.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE94" t="n">
         <v>9.25</v>
@@ -17575,34 +17575,34 @@
         <v>10.25</v>
       </c>
       <c r="AI94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK94" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL94" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM94" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO94" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ94" t="n">
         <v>40</v>
       </c>
       <c r="AR94" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS94" t="n">
         <v>120</v>
@@ -17620,22 +17620,22 @@
         <v>500</v>
       </c>
       <c r="AX94" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AY94" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA94" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB94" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC94" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD94" t="n">
         <v>51</v>
@@ -17700,7 +17700,7 @@
         <v>1.18</v>
       </c>
       <c r="P95" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="Q95" t="n">
         <v>1.65</v>
@@ -17855,79 +17855,79 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="I96" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="J96" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="K96" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="L96" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="M96" t="n">
         <v>1.02</v>
       </c>
       <c r="N96" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="R96" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S96" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T96" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="U96" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="V96" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W96" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y96" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z96" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AA96" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC96" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE96" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF96" t="n">
         <v>80</v>
@@ -17936,46 +17936,46 @@
         <v>600</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI96" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AJ96" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AK96" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AL96" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM96" t="n">
         <v>23</v>
       </c>
       <c r="AN96" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AO96" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP96" t="n">
         <v>50</v>
       </c>
       <c r="AQ96" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AR96" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AS96" t="n">
         <v>51</v>
       </c>
       <c r="AT96" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AU96" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV96" t="n">
         <v>90</v>
@@ -17984,22 +17984,22 @@
         <v>51</v>
       </c>
       <c r="AX96" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AY96" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AZ96" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA96" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BB96" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BC96" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD96" t="n">
         <v>51</v>
@@ -18222,19 +18222,19 @@
         <v>2.05</v>
       </c>
       <c r="H98" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K98" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L98" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -18249,10 +18249,10 @@
         <v>4.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="n">
         <v>1.3</v>
@@ -18261,10 +18261,10 @@
         <v>3.4</v>
       </c>
       <c r="U98" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V98" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W98" t="n">
         <v>10</v>
@@ -18309,13 +18309,13 @@
         <v>12</v>
       </c>
       <c r="AK98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL98" t="n">
         <v>23</v>
       </c>
       <c r="AM98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN98" t="n">
         <v>4.33</v>
@@ -18330,7 +18330,7 @@
         <v>34</v>
       </c>
       <c r="AR98" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS98" t="n">
         <v>101</v>
@@ -18345,7 +18345,7 @@
         <v>41</v>
       </c>
       <c r="AW98" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX98" t="n">
         <v>5.5</v>
@@ -18401,7 +18401,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H99" t="n">
         <v>5.5</v>
@@ -18410,10 +18410,10 @@
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K99" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L99" t="n">
         <v>7</v>
@@ -18592,10 +18592,10 @@
         <v>3.1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K100" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L100" t="n">
         <v>3.6</v>
@@ -18765,22 +18765,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I101" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J101" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="K101" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M101" t="n">
         <v>1.02</v>
@@ -18807,19 +18807,19 @@
         <v>4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W101" t="n">
         <v>12</v>
       </c>
       <c r="X101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z101" t="n">
         <v>12</v>
@@ -18828,13 +18828,13 @@
         <v>11</v>
       </c>
       <c r="AB101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC101" t="n">
         <v>21</v>
       </c>
       <c r="AD101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE101" t="n">
         <v>13</v>
@@ -18894,7 +18894,7 @@
         <v>301</v>
       </c>
       <c r="AX101" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY101" t="n">
         <v>26</v>
@@ -18947,7 +18947,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
         <v>4.1</v>
@@ -18959,7 +18959,7 @@
         <v>2.1</v>
       </c>
       <c r="K102" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L102" t="n">
         <v>5.5</v>
@@ -19684,7 +19684,7 @@
         <v>2.75</v>
       </c>
       <c r="J106" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K106" t="n">
         <v>2.4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H113" t="n">
         <v>4.2</v>
@@ -21137,7 +21137,7 @@
         <v>3.9</v>
       </c>
       <c r="I114" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
@@ -21331,22 +21331,22 @@
         <v>3.4</v>
       </c>
       <c r="M115" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O115" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P115" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S115" t="n">
         <v>1.33</v>
@@ -21525,7 +21525,7 @@
         <v>4.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R116" t="n">
         <v>2.15</v>
@@ -21683,46 +21683,46 @@
         <v>3.9</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J117" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K117" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L117" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M117" t="n">
         <v>1.03</v>
       </c>
       <c r="N117" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O117" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P117" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R117" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S117" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T117" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U117" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V117" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W117" t="n">
         <v>11</v>
@@ -21743,10 +21743,10 @@
         <v>17.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE117" t="n">
         <v>12</v>
@@ -21758,22 +21758,22 @@
         <v>200</v>
       </c>
       <c r="AH117" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI117" t="n">
         <v>27</v>
       </c>
       <c r="AJ117" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK117" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL117" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM117" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN117" t="n">
         <v>4.05</v>
@@ -21782,10 +21782,10 @@
         <v>8.25</v>
       </c>
       <c r="AP117" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ117" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR117" t="n">
         <v>40</v>
@@ -21794,7 +21794,7 @@
         <v>120</v>
       </c>
       <c r="AT117" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU117" t="n">
         <v>6.5</v>
@@ -21806,19 +21806,19 @@
         <v>500</v>
       </c>
       <c r="AX117" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY117" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ117" t="n">
         <v>21</v>
       </c>
-      <c r="AZ117" t="n">
-        <v>22</v>
-      </c>
       <c r="BA117" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB117" t="n">
         <v>100</v>
-      </c>
-      <c r="BB117" t="n">
-        <v>110</v>
       </c>
       <c r="BC117" t="n">
         <v>200</v>
@@ -21859,22 +21859,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I118" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="J118" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="K118" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L118" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="M118" t="n">
         <v>1.02</v>
@@ -21883,52 +21883,52 @@
         <v>10</v>
       </c>
       <c r="O118" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P118" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R118" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="S118" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T118" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="U118" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V118" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W118" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X118" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB118" t="n">
         <v>32</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>30</v>
       </c>
       <c r="AC118" t="n">
         <v>10</v>
       </c>
       <c r="AD118" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE118" t="n">
         <v>13</v>
@@ -21940,34 +21940,34 @@
         <v>175</v>
       </c>
       <c r="AH118" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI118" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AJ118" t="n">
         <v>8.5</v>
       </c>
       <c r="AK118" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL118" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM118" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN118" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AO118" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP118" t="n">
         <v>23</v>
       </c>
-      <c r="AP118" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ118" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR118" t="n">
         <v>110</v>
@@ -21976,7 +21976,7 @@
         <v>200</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU118" t="n">
         <v>6.7</v>
@@ -21988,19 +21988,19 @@
         <v>500</v>
       </c>
       <c r="AX118" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AY118" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AZ118" t="n">
         <v>12.5</v>
       </c>
       <c r="BA118" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BB118" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BC118" t="n">
         <v>110</v>
@@ -22041,19 +22041,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H119" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I119" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J119" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K119" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L119" t="n">
         <v>2.45</v>
@@ -22068,70 +22068,70 @@
         <v>1.1</v>
       </c>
       <c r="P119" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R119" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="S119" t="n">
         <v>1.2</v>
       </c>
       <c r="T119" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="U119" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V119" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W119" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X119" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y119" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z119" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA119" t="n">
         <v>21</v>
       </c>
       <c r="AB119" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC119" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD119" t="n">
         <v>9.5</v>
       </c>
       <c r="AE119" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG119" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH119" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI119" t="n">
         <v>17</v>
       </c>
       <c r="AJ119" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK119" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL119" t="n">
         <v>14</v>
@@ -22140,10 +22140,10 @@
         <v>15</v>
       </c>
       <c r="AN119" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO119" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP119" t="n">
         <v>15</v>
@@ -22158,19 +22158,19 @@
         <v>100</v>
       </c>
       <c r="AT119" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AU119" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AV119" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW119" t="n">
         <v>250</v>
       </c>
       <c r="AX119" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY119" t="n">
         <v>10</v>
@@ -22587,7 +22587,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
@@ -22596,7 +22596,7 @@
         <v>3.4</v>
       </c>
       <c r="J122" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K122" t="n">
         <v>2.1</v>
@@ -22611,22 +22611,22 @@
         <v>10</v>
       </c>
       <c r="O122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P122" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q122" t="n">
         <v>2.05</v>
       </c>
       <c r="R122" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U122" t="n">
         <v>1.83</v>
@@ -22659,7 +22659,7 @@
         <v>6.5</v>
       </c>
       <c r="AE122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF122" t="n">
         <v>51</v>
@@ -22668,13 +22668,13 @@
         <v>301</v>
       </c>
       <c r="AH122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK122" t="n">
         <v>41</v>
@@ -22692,7 +22692,7 @@
         <v>11</v>
       </c>
       <c r="AP122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ122" t="n">
         <v>41</v>
@@ -22704,7 +22704,7 @@
         <v>151</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU122" t="n">
         <v>8</v>
@@ -22728,7 +22728,7 @@
         <v>67</v>
       </c>
       <c r="BB122" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC122" t="n">
         <v>201</v>
@@ -23139,7 +23139,7 @@
         <v>3.2</v>
       </c>
       <c r="I125" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J125" t="n">
         <v>3</v>
@@ -23169,7 +23169,7 @@
         <v>2.05</v>
       </c>
       <c r="S125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T125" t="n">
         <v>3.25</v>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
@@ -23351,7 +23351,7 @@
         <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T126" t="n">
         <v>2.5</v>
@@ -23503,10 +23503,10 @@
         <v>3.1</v>
       </c>
       <c r="I127" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
@@ -23533,7 +23533,7 @@
         <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T127" t="n">
         <v>2.5</v>
@@ -23563,7 +23563,7 @@
         <v>34</v>
       </c>
       <c r="AC127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD127" t="n">
         <v>6</v>
@@ -23575,7 +23575,7 @@
         <v>51</v>
       </c>
       <c r="AG127" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH127" t="n">
         <v>8.5</v>
@@ -23679,13 +23679,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H128" t="n">
         <v>3.25</v>
       </c>
       <c r="I128" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J128" t="n">
         <v>3.4</v>
@@ -23715,10 +23715,10 @@
         <v>1.7</v>
       </c>
       <c r="S128" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T128" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U128" t="n">
         <v>1.8</v>
@@ -23879,13 +23879,13 @@
         <v>3.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N129" t="n">
         <v>6</v>
       </c>
       <c r="O129" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P129" t="n">
         <v>2.5</v>
@@ -24061,13 +24061,13 @@
         <v>3.1</v>
       </c>
       <c r="M130" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
         <v>10</v>
       </c>
       <c r="O130" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P130" t="n">
         <v>3.4</v>
@@ -24243,13 +24243,13 @@
         <v>5.5</v>
       </c>
       <c r="M131" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N131" t="n">
         <v>7</v>
       </c>
       <c r="O131" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P131" t="n">
         <v>2.5</v>
@@ -24425,13 +24425,13 @@
         <v>3.25</v>
       </c>
       <c r="M132" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N132" t="n">
         <v>9</v>
       </c>
       <c r="O132" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P132" t="n">
         <v>3.25</v>
@@ -24607,22 +24607,22 @@
         <v>4.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N133" t="n">
         <v>15</v>
       </c>
       <c r="O133" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P133" t="n">
         <v>4.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R133" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S133" t="n">
         <v>1.3</v>
@@ -24789,13 +24789,13 @@
         <v>4</v>
       </c>
       <c r="M134" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
         <v>11</v>
       </c>
       <c r="O134" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P134" t="n">
         <v>3.5</v>
@@ -24971,13 +24971,13 @@
         <v>4.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
         <v>11</v>
       </c>
       <c r="O135" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P135" t="n">
         <v>3.5</v>
@@ -24989,7 +24989,7 @@
         <v>1.85</v>
       </c>
       <c r="S135" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T135" t="n">
         <v>2.75</v>
@@ -25153,13 +25153,13 @@
         <v>2.3</v>
       </c>
       <c r="M136" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O136" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P136" t="n">
         <v>3.75</v>
@@ -25171,7 +25171,7 @@
         <v>2.03</v>
       </c>
       <c r="S136" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T136" t="n">
         <v>3</v>
@@ -25338,7 +25338,7 @@
         <v>1.06</v>
       </c>
       <c r="N137" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O137" t="n">
         <v>1.3</v>
@@ -25347,16 +25347,16 @@
         <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R137" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S137" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T137" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U137" t="n">
         <v>1.8</v>
@@ -25365,7 +25365,7 @@
         <v>1.95</v>
       </c>
       <c r="W137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X137" t="n">
         <v>12</v>
@@ -25389,7 +25389,7 @@
         <v>6</v>
       </c>
       <c r="AE137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF137" t="n">
         <v>51</v>
@@ -25419,7 +25419,7 @@
         <v>4.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP137" t="n">
         <v>23</v>
@@ -25434,7 +25434,7 @@
         <v>151</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU137" t="n">
         <v>8</v>
@@ -25461,7 +25461,7 @@
         <v>67</v>
       </c>
       <c r="BC137" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD137" t="n">
         <v>81</v>
@@ -25529,13 +25529,13 @@
         <v>3.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R138" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S138" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T138" t="n">
         <v>3</v>
@@ -26045,22 +26045,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H141" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I141" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J141" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K141" t="n">
         <v>2.4</v>
       </c>
       <c r="L141" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M141" t="n">
         <v>1.03</v>
@@ -26069,16 +26069,16 @@
         <v>15</v>
       </c>
       <c r="O141" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P141" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R141" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S141" t="n">
         <v>1.3</v>
@@ -26096,13 +26096,13 @@
         <v>8.5</v>
       </c>
       <c r="X141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y141" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z141" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA141" t="n">
         <v>12</v>
@@ -26114,10 +26114,10 @@
         <v>15</v>
       </c>
       <c r="AD141" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF141" t="n">
         <v>41</v>
@@ -26126,34 +26126,34 @@
         <v>151</v>
       </c>
       <c r="AH141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK141" t="n">
         <v>51</v>
       </c>
       <c r="AL141" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM141" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN141" t="n">
         <v>3.75</v>
       </c>
       <c r="AO141" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP141" t="n">
         <v>17</v>
       </c>
       <c r="AQ141" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR141" t="n">
         <v>41</v>
@@ -26165,28 +26165,28 @@
         <v>3.4</v>
       </c>
       <c r="AU141" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV141" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW141" t="n">
         <v>451</v>
       </c>
       <c r="AX141" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY141" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ141" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA141" t="n">
         <v>81</v>
       </c>
       <c r="BB141" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC141" t="n">
         <v>151</v>
@@ -27173,10 +27173,10 @@
         <v>2.02</v>
       </c>
       <c r="S147" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T147" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U147" t="n">
         <v>1.87</v>
@@ -28232,7 +28232,7 @@
         <v>4.33</v>
       </c>
       <c r="H153" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I153" t="n">
         <v>1.75</v>
@@ -28307,7 +28307,7 @@
         <v>41</v>
       </c>
       <c r="AG153" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH153" t="n">
         <v>9.5</v>
@@ -28334,7 +28334,7 @@
         <v>21</v>
       </c>
       <c r="AP153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ153" t="n">
         <v>67</v>
@@ -28411,28 +28411,28 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H154" t="n">
         <v>3.1</v>
       </c>
       <c r="I154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J154" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.1</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O154" t="n">
         <v>1.4</v>
@@ -28459,16 +28459,16 @@
         <v>1.8</v>
       </c>
       <c r="W154" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y154" t="n">
         <v>10</v>
       </c>
       <c r="Z154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA154" t="n">
         <v>21</v>
@@ -28492,7 +28492,7 @@
         <v>1000</v>
       </c>
       <c r="AH154" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI154" t="n">
         <v>15</v>
@@ -28513,16 +28513,16 @@
         <v>4.33</v>
       </c>
       <c r="AO154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP154" t="n">
         <v>26</v>
       </c>
       <c r="AQ154" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR154" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS154" t="n">
         <v>201</v>
@@ -28549,10 +28549,10 @@
         <v>29</v>
       </c>
       <c r="BA154" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB154" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC154" t="n">
         <v>251</v>
@@ -28811,7 +28811,7 @@
         <v>2.1</v>
       </c>
       <c r="S156" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T156" t="n">
         <v>3.25</v>
@@ -28993,7 +28993,7 @@
         <v>1.93</v>
       </c>
       <c r="S157" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T157" t="n">
         <v>2.75</v>
@@ -29139,16 +29139,16 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>3.5</v>
       </c>
       <c r="I158" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J158" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K158" t="n">
         <v>2.38</v>
@@ -29163,28 +29163,28 @@
         <v>15</v>
       </c>
       <c r="O158" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P158" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R158" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S158" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T158" t="n">
         <v>3.4</v>
       </c>
       <c r="U158" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V158" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W158" t="n">
         <v>12</v>
@@ -29196,7 +29196,7 @@
         <v>10</v>
       </c>
       <c r="Z158" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA158" t="n">
         <v>19</v>
@@ -29229,19 +29229,19 @@
         <v>10</v>
       </c>
       <c r="AK158" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN158" t="n">
         <v>5</v>
       </c>
       <c r="AO158" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP158" t="n">
         <v>19</v>
@@ -29357,7 +29357,7 @@
         <v>2.03</v>
       </c>
       <c r="S159" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T159" t="n">
         <v>3</v>
@@ -29539,7 +29539,7 @@
         <v>1.98</v>
       </c>
       <c r="S160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T160" t="n">
         <v>3</v>
@@ -29721,7 +29721,7 @@
         <v>1.95</v>
       </c>
       <c r="S161" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T161" t="n">
         <v>3</v>
@@ -29867,130 +29867,130 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I162" t="n">
         <v>1.95</v>
       </c>
       <c r="J162" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K162" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="L162" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="M162" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N162" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O162" t="n">
         <v>1.19</v>
       </c>
       <c r="P162" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R162" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S162" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T162" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U162" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V162" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="W162" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X162" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y162" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z162" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA162" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB162" t="n">
         <v>27</v>
       </c>
-      <c r="AB162" t="n">
-        <v>26</v>
-      </c>
       <c r="AC162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ162" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD162" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE162" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF162" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG162" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH162" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI162" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ162" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK162" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL162" t="n">
         <v>14</v>
       </c>
       <c r="AM162" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN162" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO162" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP162" t="n">
         <v>21</v>
       </c>
       <c r="AQ162" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR162" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS162" t="n">
         <v>200</v>
       </c>
       <c r="AT162" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU162" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AV162" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW162" t="n">
         <v>51</v>
@@ -29999,13 +29999,13 @@
         <v>4.1</v>
       </c>
       <c r="AY162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ162" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA162" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB162" t="n">
         <v>55</v>
@@ -30231,28 +30231,28 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H164" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I164" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J164" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L164" t="n">
         <v>2.27</v>
       </c>
-      <c r="L164" t="n">
-        <v>2.32</v>
-      </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
         <v>1.19</v>
@@ -30267,22 +30267,22 @@
         <v>2.25</v>
       </c>
       <c r="S164" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T164" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U164" t="n">
         <v>1.55</v>
       </c>
       <c r="V164" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W164" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X164" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y164" t="n">
         <v>13</v>
@@ -30294,43 +30294,43 @@
         <v>32</v>
       </c>
       <c r="AB164" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC164" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD164" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE164" t="n">
         <v>12.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG164" t="n">
         <v>250</v>
       </c>
       <c r="AH164" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI164" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ164" t="n">
         <v>8.25</v>
       </c>
       <c r="AK164" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL164" t="n">
         <v>12.5</v>
       </c>
       <c r="AM164" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN164" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AO164" t="n">
         <v>21</v>
@@ -30339,7 +30339,7 @@
         <v>24</v>
       </c>
       <c r="AQ164" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR164" t="n">
         <v>120</v>
@@ -30348,7 +30348,7 @@
         <v>250</v>
       </c>
       <c r="AT164" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU164" t="n">
         <v>6.7</v>
@@ -30360,16 +30360,16 @@
         <v>51</v>
       </c>
       <c r="AX164" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AY164" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AZ164" t="n">
         <v>15</v>
       </c>
       <c r="BA164" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB164" t="n">
         <v>50</v>
@@ -30595,22 +30595,22 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H166" t="n">
         <v>3.4</v>
       </c>
       <c r="I166" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J166" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K166" t="n">
         <v>2.1</v>
       </c>
       <c r="L166" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M166" t="n">
         <v>1.07</v>
@@ -30619,16 +30619,16 @@
         <v>9</v>
       </c>
       <c r="O166" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P166" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R166" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S166" t="n">
         <v>1.44</v>
@@ -30637,10 +30637,10 @@
         <v>2.63</v>
       </c>
       <c r="U166" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V166" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W166" t="n">
         <v>11</v>
@@ -30652,7 +30652,7 @@
         <v>15</v>
       </c>
       <c r="Z166" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA166" t="n">
         <v>41</v>
@@ -30706,10 +30706,10 @@
         <v>81</v>
       </c>
       <c r="AR166" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS166" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT166" t="n">
         <v>2.63</v>
@@ -31344,7 +31344,7 @@
         <v>1.02</v>
       </c>
       <c r="N170" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O170" t="n">
         <v>1.13</v>
@@ -31353,13 +31353,13 @@
         <v>6</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R170" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S170" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T170" t="n">
         <v>4</v>
@@ -31541,7 +31541,7 @@
         <v>1.9</v>
       </c>
       <c r="S171" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T171" t="n">
         <v>2.75</v>
@@ -31687,22 +31687,22 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H172" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I172" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J172" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K172" t="n">
         <v>2.25</v>
       </c>
       <c r="L172" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M172" t="n">
         <v>1.05</v>
@@ -31711,19 +31711,19 @@
         <v>11</v>
       </c>
       <c r="O172" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P172" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R172" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T172" t="n">
         <v>3</v>
@@ -31768,16 +31768,16 @@
         <v>251</v>
       </c>
       <c r="AH172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI172" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ172" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK172" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL172" t="n">
         <v>34</v>
@@ -31905,7 +31905,7 @@
         <v>2</v>
       </c>
       <c r="S173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T173" t="n">
         <v>3</v>
@@ -32060,31 +32060,31 @@
         <v>2.7</v>
       </c>
       <c r="J174" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K174" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L174" t="n">
         <v>3.4</v>
       </c>
       <c r="M174" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O174" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P174" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R174" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S174" t="n">
         <v>1.44</v>
@@ -32093,13 +32093,13 @@
         <v>2.63</v>
       </c>
       <c r="U174" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V174" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W174" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X174" t="n">
         <v>12</v>
@@ -32114,10 +32114,10 @@
         <v>21</v>
       </c>
       <c r="AB174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD174" t="n">
         <v>6.5</v>
@@ -32129,10 +32129,10 @@
         <v>51</v>
       </c>
       <c r="AG174" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH174" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI174" t="n">
         <v>13</v>
@@ -32144,10 +32144,10 @@
         <v>29</v>
       </c>
       <c r="AL174" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM174" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN174" t="n">
         <v>4.5</v>
@@ -32156,7 +32156,7 @@
         <v>15</v>
       </c>
       <c r="AP174" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ174" t="n">
         <v>51</v>
@@ -32165,7 +32165,7 @@
         <v>67</v>
       </c>
       <c r="AS174" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT174" t="n">
         <v>2.63</v>
@@ -32186,16 +32186,16 @@
         <v>15</v>
       </c>
       <c r="AZ174" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA174" t="n">
         <v>51</v>
       </c>
       <c r="BB174" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC174" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD174" t="n">
         <v>126</v>
@@ -32233,19 +32233,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I175" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J175" t="n">
         <v>2.25</v>
       </c>
       <c r="K175" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
         <v>5.2</v>
@@ -32254,13 +32254,13 @@
         <v>1.08</v>
       </c>
       <c r="N175" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O175" t="n">
         <v>1.37</v>
       </c>
       <c r="P175" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q175" t="n">
         <v>2.07</v>
@@ -32272,25 +32272,25 @@
         <v>1.44</v>
       </c>
       <c r="T175" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U175" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V175" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W175" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X175" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y175" t="n">
         <v>8.25</v>
       </c>
       <c r="Z175" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA175" t="n">
         <v>14.5</v>
@@ -32299,31 +32299,31 @@
         <v>32</v>
       </c>
       <c r="AC175" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD175" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE175" t="n">
         <v>18.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG175" t="n">
         <v>600</v>
       </c>
       <c r="AH175" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI175" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ175" t="n">
         <v>16.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL175" t="n">
         <v>55</v>
@@ -32332,28 +32332,28 @@
         <v>65</v>
       </c>
       <c r="AN175" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO175" t="n">
         <v>8.25</v>
       </c>
       <c r="AP175" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ175" t="n">
         <v>28</v>
       </c>
       <c r="AR175" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS175" t="n">
         <v>300</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU175" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV175" t="n">
         <v>80</v>
@@ -32362,7 +32362,7 @@
         <v>51</v>
       </c>
       <c r="AX175" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY175" t="n">
         <v>30</v>
@@ -32415,151 +32415,151 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H176" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I176" t="n">
         <v>2.6</v>
       </c>
       <c r="J176" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K176" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L176" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M176" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N176" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="O176" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P176" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R176" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S176" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="T176" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="U176" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="V176" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="W176" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="X176" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y176" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ176" t="n">
         <v>9.75</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA176" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF176" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG176" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH176" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>9.5</v>
       </c>
       <c r="AK176" t="n">
         <v>29</v>
       </c>
       <c r="AL176" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM176" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN176" t="n">
         <v>4.65</v>
       </c>
       <c r="AO176" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP176" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ176" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR176" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS176" t="n">
         <v>250</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AU176" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV176" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW176" t="n">
         <v>51</v>
       </c>
       <c r="AX176" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AY176" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ176" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="BA176" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB176" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC176" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BD176" t="n">
         <v>51</v>
@@ -32597,16 +32597,16 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H177" t="n">
         <v>4.2</v>
       </c>
       <c r="I177" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J177" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="K177" t="n">
         <v>2.3</v>
@@ -32615,40 +32615,40 @@
         <v>1.95</v>
       </c>
       <c r="M177" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N177" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O177" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P177" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R177" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S177" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T177" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="U177" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V177" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W177" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="X177" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y177" t="n">
         <v>20</v>
@@ -32660,88 +32660,88 @@
         <v>70</v>
       </c>
       <c r="AB177" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC177" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD177" t="n">
         <v>8.25</v>
       </c>
       <c r="AE177" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF177" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG177" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH177" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AI177" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AJ177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK177" t="n">
         <v>9.75</v>
       </c>
       <c r="AL177" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM177" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN177" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AO177" t="n">
         <v>37</v>
       </c>
       <c r="AP177" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ177" t="n">
         <v>250</v>
       </c>
       <c r="AR177" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS177" t="n">
         <v>500</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AU177" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV177" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AY177" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AZ177" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA177" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BB177" t="n">
         <v>50</v>
       </c>
       <c r="BC177" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD177" t="n">
         <v>51</v>
@@ -33325,79 +33325,79 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="H181" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I181" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J181" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="K181" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L181" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="M181" t="n">
         <v>1.06</v>
       </c>
       <c r="N181" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O181" t="n">
         <v>1.3</v>
       </c>
       <c r="P181" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R181" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S181" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T181" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U181" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V181" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W181" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X181" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y181" t="n">
         <v>9</v>
       </c>
       <c r="Z181" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA181" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB181" t="n">
         <v>30</v>
       </c>
       <c r="AC181" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD181" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE181" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF181" t="n">
         <v>80</v>
@@ -33406,43 +33406,43 @@
         <v>700</v>
       </c>
       <c r="AH181" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI181" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ181" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK181" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL181" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM181" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN181" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AO181" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AP181" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR181" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU181" t="n">
         <v>7.7</v>
@@ -33454,19 +33454,19 @@
         <v>51</v>
       </c>
       <c r="AX181" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AY181" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ181" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA181" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB181" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC181" t="n">
         <v>400</v>
@@ -34420,10 +34420,10 @@
         <v>2.15</v>
       </c>
       <c r="H187" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J187" t="n">
         <v>2.88</v>
@@ -34435,22 +34435,22 @@
         <v>4</v>
       </c>
       <c r="M187" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N187" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O187" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P187" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R187" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S187" t="n">
         <v>1.44</v>
@@ -34459,10 +34459,10 @@
         <v>2.63</v>
       </c>
       <c r="U187" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V187" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W187" t="n">
         <v>7.5</v>
@@ -34474,7 +34474,7 @@
         <v>9</v>
       </c>
       <c r="Z187" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA187" t="n">
         <v>19</v>
@@ -34483,13 +34483,13 @@
         <v>29</v>
       </c>
       <c r="AC187" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD187" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF187" t="n">
         <v>51</v>
@@ -34498,22 +34498,22 @@
         <v>251</v>
       </c>
       <c r="AH187" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI187" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK187" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL187" t="n">
         <v>29</v>
       </c>
       <c r="AM187" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN187" t="n">
         <v>4</v>
@@ -34546,7 +34546,7 @@
         <v>51</v>
       </c>
       <c r="AX187" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY187" t="n">
         <v>19</v>
@@ -34629,10 +34629,10 @@
         <v>3.75</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R188" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S188" t="n">
         <v>1.36</v>
@@ -34781,13 +34781,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H189" t="n">
         <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J189" t="n">
         <v>2.5</v>
@@ -34796,7 +34796,7 @@
         <v>2.1</v>
       </c>
       <c r="L189" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M189" t="n">
         <v>1.07</v>
@@ -34823,40 +34823,40 @@
         <v>2.63</v>
       </c>
       <c r="U189" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V189" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W189" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X189" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y189" t="n">
         <v>9</v>
       </c>
       <c r="Z189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA189" t="n">
         <v>17</v>
       </c>
       <c r="AB189" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC189" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD189" t="n">
         <v>6.5</v>
       </c>
       <c r="AE189" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF189" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG189" t="n">
         <v>351</v>
@@ -34865,13 +34865,13 @@
         <v>11</v>
       </c>
       <c r="AI189" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ189" t="n">
         <v>15</v>
       </c>
       <c r="AK189" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL189" t="n">
         <v>41</v>
@@ -34880,10 +34880,10 @@
         <v>41</v>
       </c>
       <c r="AN189" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO189" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP189" t="n">
         <v>23</v>
@@ -34895,13 +34895,13 @@
         <v>51</v>
       </c>
       <c r="AS189" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT189" t="n">
         <v>2.63</v>
       </c>
       <c r="AU189" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV189" t="n">
         <v>67</v>
@@ -34910,22 +34910,22 @@
         <v>81</v>
       </c>
       <c r="AX189" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ189" t="n">
         <v>34</v>
       </c>
       <c r="BA189" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB189" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC189" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD189" t="n">
         <v>81</v>
@@ -34963,22 +34963,22 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J190" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K190" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L190" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M190" t="n">
         <v>1.1</v>
@@ -35011,10 +35011,10 @@
         <v>1.67</v>
       </c>
       <c r="W190" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y190" t="n">
         <v>11</v>
@@ -35035,7 +35035,7 @@
         <v>6</v>
       </c>
       <c r="AE190" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF190" t="n">
         <v>67</v>
@@ -35047,16 +35047,16 @@
         <v>7</v>
       </c>
       <c r="AI190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ190" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ190" t="n">
-        <v>11</v>
       </c>
       <c r="AK190" t="n">
         <v>29</v>
       </c>
       <c r="AL190" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM190" t="n">
         <v>41</v>
@@ -35065,7 +35065,7 @@
         <v>4.5</v>
       </c>
       <c r="AO190" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP190" t="n">
         <v>29</v>
@@ -35095,13 +35095,13 @@
         <v>4.75</v>
       </c>
       <c r="AY190" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ190" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA190" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB190" t="n">
         <v>101</v>
@@ -35145,19 +35145,19 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>3.4</v>
       </c>
       <c r="I191" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J191" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K191" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L191" t="n">
         <v>3.75</v>
@@ -35217,7 +35217,7 @@
         <v>7</v>
       </c>
       <c r="AE191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF191" t="n">
         <v>41</v>
@@ -35226,16 +35226,16 @@
         <v>151</v>
       </c>
       <c r="AH191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI191" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK191" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL191" t="n">
         <v>26</v>
@@ -35259,7 +35259,7 @@
         <v>51</v>
       </c>
       <c r="AS191" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT191" t="n">
         <v>3.25</v>
@@ -35277,7 +35277,7 @@
         <v>5.5</v>
       </c>
       <c r="AY191" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ191" t="n">
         <v>23</v>
@@ -36243,7 +36243,7 @@
         <v>3.4</v>
       </c>
       <c r="I197" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J197" t="n">
         <v>3.4</v>
@@ -36261,22 +36261,22 @@
         <v>11</v>
       </c>
       <c r="O197" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P197" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R197" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S197" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T197" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U197" t="n">
         <v>1.7</v>
@@ -36291,7 +36291,7 @@
         <v>15</v>
       </c>
       <c r="Y197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z197" t="n">
         <v>29</v>
@@ -36336,7 +36336,7 @@
         <v>26</v>
       </c>
       <c r="AN197" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO197" t="n">
         <v>15</v>
@@ -36354,7 +36354,7 @@
         <v>151</v>
       </c>
       <c r="AT197" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU197" t="n">
         <v>7.5</v>
@@ -36363,7 +36363,7 @@
         <v>51</v>
       </c>
       <c r="AW197" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX197" t="n">
         <v>4.5</v>
@@ -36449,10 +36449,10 @@
         <v>3.75</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R198" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S198" t="n">
         <v>1.36</v>
@@ -36622,19 +36622,19 @@
         <v>1.03</v>
       </c>
       <c r="N199" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O199" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P199" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R199" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S199" t="n">
         <v>1.3</v>
@@ -36658,7 +36658,7 @@
         <v>8.5</v>
       </c>
       <c r="Z199" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA199" t="n">
         <v>13</v>
@@ -36694,7 +36694,7 @@
         <v>41</v>
       </c>
       <c r="AL199" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM199" t="n">
         <v>34</v>
@@ -37511,10 +37511,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H204" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I204" t="n">
         <v>3.5</v>
@@ -37526,25 +37526,25 @@
         <v>2.15</v>
       </c>
       <c r="L204" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M204" t="n">
         <v>1.05</v>
       </c>
       <c r="N204" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O204" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P204" t="n">
         <v>3.55</v>
       </c>
       <c r="Q204" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R204" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S204" t="n">
         <v>1.38</v>
@@ -37577,10 +37577,10 @@
         <v>22</v>
       </c>
       <c r="AC204" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD204" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE204" t="n">
         <v>13</v>
@@ -37592,7 +37592,7 @@
         <v>350</v>
       </c>
       <c r="AH204" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI204" t="n">
         <v>19.5</v>
@@ -37607,7 +37607,7 @@
         <v>30</v>
       </c>
       <c r="AM204" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN204" t="n">
         <v>4</v>
@@ -37616,13 +37616,13 @@
         <v>10</v>
       </c>
       <c r="AP204" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ204" t="n">
         <v>37</v>
       </c>
       <c r="AR204" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS204" t="n">
         <v>200</v>
@@ -37693,22 +37693,22 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K205" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L205" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="M205" t="n">
         <v>1.03</v>
@@ -37741,10 +37741,10 @@
         <v>2.42</v>
       </c>
       <c r="W205" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X205" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y205" t="n">
         <v>11.25</v>
@@ -37753,19 +37753,19 @@
         <v>45</v>
       </c>
       <c r="AA205" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB205" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC205" t="n">
         <v>9</v>
       </c>
       <c r="AD205" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE205" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF205" t="n">
         <v>37</v>
@@ -37774,49 +37774,49 @@
         <v>200</v>
       </c>
       <c r="AH205" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI205" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ205" t="n">
         <v>8.5</v>
       </c>
       <c r="AK205" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL205" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM205" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN205" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO205" t="n">
         <v>17</v>
       </c>
       <c r="AP205" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ205" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR205" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS205" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT205" t="n">
         <v>3.2</v>
       </c>
       <c r="AU205" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV205" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW205" t="n">
         <v>51</v>
@@ -37825,16 +37825,16 @@
         <v>4.25</v>
       </c>
       <c r="AY205" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AZ205" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA205" t="n">
         <v>35</v>
       </c>
       <c r="BB205" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC205" t="n">
         <v>150</v>
@@ -38257,22 +38257,22 @@
         <v>1.83</v>
       </c>
       <c r="M208" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O208" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P208" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q208" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R208" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S208" t="n">
         <v>1.22</v>
@@ -38281,13 +38281,13 @@
         <v>4</v>
       </c>
       <c r="U208" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V208" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X208" t="n">
         <v>41</v>
@@ -38305,7 +38305,7 @@
         <v>41</v>
       </c>
       <c r="AC208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD208" t="n">
         <v>11</v>
@@ -38320,28 +38320,28 @@
         <v>151</v>
       </c>
       <c r="AH208" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI208" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ208" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK208" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL208" t="n">
         <v>11</v>
       </c>
       <c r="AM208" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN208" t="n">
         <v>8.5</v>
       </c>
       <c r="AO208" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP208" t="n">
         <v>29</v>
@@ -38374,7 +38374,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ208" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA208" t="n">
         <v>17</v>
@@ -39334,127 +39334,127 @@
         <v>1.65</v>
       </c>
       <c r="H214" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I214" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K214" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L214" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M214" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N214" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="O214" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P214" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R214" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S214" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T214" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U214" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V214" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W214" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X214" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y214" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z214" t="n">
         <v>12.5</v>
       </c>
       <c r="AA214" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB214" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC214" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD214" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE214" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AF214" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG214" t="n">
         <v>800</v>
       </c>
       <c r="AH214" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI214" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ214" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK214" t="n">
         <v>100</v>
       </c>
       <c r="AL214" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM214" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN214" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO214" t="n">
         <v>8</v>
       </c>
       <c r="AP214" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ214" t="n">
         <v>27</v>
       </c>
       <c r="AR214" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS214" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU214" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV214" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW214" t="n">
         <v>81</v>
@@ -39463,10 +39463,10 @@
         <v>6.6</v>
       </c>
       <c r="AY214" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ214" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA214" t="n">
         <v>200</v>
@@ -39525,7 +39525,7 @@
         <v>11</v>
       </c>
       <c r="K215" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L215" t="n">
         <v>1.62</v>
@@ -39537,16 +39537,16 @@
         <v>13</v>
       </c>
       <c r="O215" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P215" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q215" t="n">
         <v>1.7</v>
       </c>
       <c r="R215" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S215" t="n">
         <v>1.34</v>
@@ -39582,10 +39582,10 @@
         <v>10.75</v>
       </c>
       <c r="AD215" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AE215" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF215" t="n">
         <v>250</v>
@@ -39630,7 +39630,7 @@
         <v>67</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU215" t="n">
         <v>11.25</v>
@@ -39651,10 +39651,10 @@
         <v>20</v>
       </c>
       <c r="BA215" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BB215" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BC215" t="n">
         <v>400</v>
@@ -39701,7 +39701,7 @@
         <v>4.1</v>
       </c>
       <c r="I216" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="J216" t="n">
         <v>1.83</v>
@@ -39743,7 +39743,7 @@
         <v>1.52</v>
       </c>
       <c r="W216" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X216" t="n">
         <v>5.5</v>
@@ -39776,7 +39776,7 @@
         <v>67</v>
       </c>
       <c r="AH216" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI216" t="n">
         <v>65</v>
@@ -39803,7 +39803,7 @@
         <v>18</v>
       </c>
       <c r="AQ216" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AR216" t="n">
         <v>55</v>
@@ -39812,19 +39812,19 @@
         <v>300</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU216" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV216" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW216" t="n">
         <v>81</v>
       </c>
       <c r="AX216" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY216" t="n">
         <v>55</v>
@@ -40059,7 +40059,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H218" t="n">
         <v>3.6</v>
@@ -40068,7 +40068,7 @@
         <v>4.75</v>
       </c>
       <c r="J218" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K218" t="n">
         <v>2.1</v>
@@ -40080,7 +40080,7 @@
         <v>1.07</v>
       </c>
       <c r="N218" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O218" t="n">
         <v>1.36</v>
@@ -40107,7 +40107,7 @@
         <v>1.67</v>
       </c>
       <c r="W218" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X218" t="n">
         <v>7</v>
@@ -40116,7 +40116,7 @@
         <v>9</v>
       </c>
       <c r="Z218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA218" t="n">
         <v>15</v>
@@ -40158,16 +40158,16 @@
         <v>51</v>
       </c>
       <c r="AN218" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO218" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP218" t="n">
         <v>23</v>
       </c>
       <c r="AQ218" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR218" t="n">
         <v>51</v>
@@ -40459,7 +40459,7 @@
         <v>2.08</v>
       </c>
       <c r="S220" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T220" t="n">
         <v>3.25</v>
@@ -40623,10 +40623,10 @@
         <v>3.6</v>
       </c>
       <c r="M221" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N221" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O221" t="n">
         <v>1.14</v>
@@ -40635,13 +40635,13 @@
         <v>5.5</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R221" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S221" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T221" t="n">
         <v>3.75</v>
@@ -40823,7 +40823,7 @@
         <v>3.5</v>
       </c>
       <c r="S222" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="T222" t="n">
         <v>4.5</v>
@@ -41005,7 +41005,7 @@
         <v>2.4</v>
       </c>
       <c r="S223" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T223" t="n">
         <v>3.5</v>
@@ -41515,40 +41515,40 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H226" t="n">
         <v>3.75</v>
       </c>
       <c r="I226" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J226" t="n">
         <v>2.75</v>
       </c>
       <c r="K226" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L226" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M226" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N226" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O226" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P226" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q226" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R226" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S226" t="n">
         <v>1.25</v>
@@ -41563,7 +41563,7 @@
         <v>2.63</v>
       </c>
       <c r="W226" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X226" t="n">
         <v>15</v>
@@ -41581,19 +41581,19 @@
         <v>19</v>
       </c>
       <c r="AC226" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD226" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE226" t="n">
         <v>11</v>
       </c>
       <c r="AF226" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG226" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH226" t="n">
         <v>15</v>
@@ -41608,10 +41608,10 @@
         <v>29</v>
       </c>
       <c r="AL226" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM226" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN226" t="n">
         <v>4.75</v>
@@ -41623,7 +41623,7 @@
         <v>17</v>
       </c>
       <c r="AQ226" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR226" t="n">
         <v>41</v>
@@ -41641,7 +41641,7 @@
         <v>41</v>
       </c>
       <c r="AW226" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX226" t="n">
         <v>5.5</v>
@@ -41659,7 +41659,7 @@
         <v>51</v>
       </c>
       <c r="BC226" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD226" t="n">
         <v>151</v>
@@ -41697,7 +41697,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H227" t="n">
         <v>3.9</v>
@@ -41715,10 +41715,10 @@
         <v>4</v>
       </c>
       <c r="M227" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O227" t="n">
         <v>1.14</v>
@@ -41727,10 +41727,10 @@
         <v>5.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R227" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S227" t="n">
         <v>1.25</v>
@@ -41763,13 +41763,13 @@
         <v>19</v>
       </c>
       <c r="AC227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD227" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF227" t="n">
         <v>34</v>
@@ -41793,19 +41793,19 @@
         <v>26</v>
       </c>
       <c r="AM227" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN227" t="n">
         <v>4.33</v>
       </c>
       <c r="AO227" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP227" t="n">
         <v>15</v>
       </c>
       <c r="AQ227" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR227" t="n">
         <v>41</v>
@@ -41903,10 +41903,10 @@
         <v>19</v>
       </c>
       <c r="O228" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P228" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q228" t="n">
         <v>1.44</v>
@@ -42026,7 +42026,7 @@
         <v>81</v>
       </c>
       <c r="BD228" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
@@ -42064,10 +42064,10 @@
         <v>1.25</v>
       </c>
       <c r="H229" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I229" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J229" t="n">
         <v>1.62</v>
@@ -42076,7 +42076,7 @@
         <v>3</v>
       </c>
       <c r="L229" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M229" t="n">
         <v>1.01</v>
@@ -42103,10 +42103,10 @@
         <v>4.5</v>
       </c>
       <c r="U229" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V229" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W229" t="n">
         <v>12</v>
@@ -42115,7 +42115,7 @@
         <v>8.5</v>
       </c>
       <c r="Y229" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z229" t="n">
         <v>9</v>
@@ -42160,7 +42160,7 @@
         <v>41</v>
       </c>
       <c r="AN229" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO229" t="n">
         <v>5.5</v>
@@ -42169,13 +42169,13 @@
         <v>13</v>
       </c>
       <c r="AQ229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR229" t="n">
         <v>26</v>
       </c>
       <c r="AS229" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT229" t="n">
         <v>4.5</v>
@@ -42190,7 +42190,7 @@
         <v>351</v>
       </c>
       <c r="AX229" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY229" t="n">
         <v>41</v>
@@ -42208,7 +42208,7 @@
         <v>151</v>
       </c>
       <c r="BD229" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230">
@@ -42789,46 +42789,46 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H233" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I233" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J233" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K233" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L233" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M233" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N233" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O233" t="n">
         <v>1.2</v>
       </c>
       <c r="P233" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R233" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S233" t="n">
         <v>1.3</v>
       </c>
       <c r="T233" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U233" t="n">
         <v>1.55</v>
@@ -42840,25 +42840,25 @@
         <v>10.5</v>
       </c>
       <c r="X233" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z233" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA233" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB233" t="n">
         <v>22</v>
       </c>
       <c r="AC233" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD233" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE233" t="n">
         <v>12.5</v>
@@ -42870,16 +42870,16 @@
         <v>250</v>
       </c>
       <c r="AH233" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI233" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ233" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK233" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL233" t="n">
         <v>20</v>
@@ -42888,13 +42888,13 @@
         <v>24</v>
       </c>
       <c r="AN233" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO233" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP233" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ233" t="n">
         <v>40</v>
@@ -42906,7 +42906,7 @@
         <v>175</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU233" t="n">
         <v>6.7</v>
@@ -42918,10 +42918,10 @@
         <v>51</v>
       </c>
       <c r="AX233" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY233" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ233" t="n">
         <v>18.5</v>
@@ -43708,13 +43708,13 @@
         <v>1.65</v>
       </c>
       <c r="J238" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K238" t="n">
         <v>2.3</v>
       </c>
       <c r="L238" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="M238" t="n">
         <v>1.04</v>
@@ -43723,10 +43723,10 @@
         <v>8.5</v>
       </c>
       <c r="O238" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P238" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q238" t="n">
         <v>1.65</v>
@@ -43735,16 +43735,16 @@
         <v>2.15</v>
       </c>
       <c r="S238" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T238" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U238" t="n">
         <v>1.65</v>
       </c>
       <c r="V238" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W238" t="n">
         <v>14.5</v>
@@ -43768,7 +43768,7 @@
         <v>8.5</v>
       </c>
       <c r="AD238" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE238" t="n">
         <v>14</v>
@@ -43780,10 +43780,10 @@
         <v>350</v>
       </c>
       <c r="AH238" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI238" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ238" t="n">
         <v>8</v>
@@ -43795,7 +43795,7 @@
         <v>12.5</v>
       </c>
       <c r="AM238" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN238" t="n">
         <v>6.3</v>
@@ -43816,7 +43816,7 @@
         <v>300</v>
       </c>
       <c r="AT238" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU238" t="n">
         <v>7.1</v>
@@ -43831,13 +43831,13 @@
         <v>3.7</v>
       </c>
       <c r="AY238" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AZ238" t="n">
         <v>15.5</v>
       </c>
       <c r="BA238" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB238" t="n">
         <v>50</v>
@@ -43920,7 +43920,7 @@
         <v>1.39</v>
       </c>
       <c r="T239" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U239" t="n">
         <v>1.78</v>
@@ -43998,7 +43998,7 @@
         <v>300</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU239" t="n">
         <v>7.3</v>
@@ -44794,52 +44794,52 @@
         <v>2</v>
       </c>
       <c r="H244" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="I244" t="n">
         <v>4.65</v>
       </c>
       <c r="J244" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="K244" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="L244" t="n">
         <v>5</v>
       </c>
       <c r="M244" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N244" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="O244" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P244" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="Q244" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T244" t="n">
         <v>2.27</v>
       </c>
-      <c r="R244" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S244" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T244" t="n">
-        <v>2.35</v>
-      </c>
       <c r="U244" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V244" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W244" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X244" t="n">
         <v>8.75</v>
@@ -44848,22 +44848,22 @@
         <v>8.5</v>
       </c>
       <c r="Z244" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA244" t="n">
         <v>19</v>
       </c>
-      <c r="AA244" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AB244" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC244" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD244" t="n">
         <v>5.4</v>
       </c>
       <c r="AE244" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF244" t="n">
         <v>90</v>
@@ -44872,7 +44872,7 @@
         <v>900</v>
       </c>
       <c r="AH244" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AI244" t="n">
         <v>27</v>
@@ -44890,43 +44890,43 @@
         <v>60</v>
       </c>
       <c r="AN244" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO244" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP244" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ244" t="n">
         <v>40</v>
       </c>
       <c r="AR244" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS244" t="n">
         <v>250</v>
       </c>
       <c r="AT244" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AU244" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV244" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW244" t="n">
         <v>51</v>
       </c>
       <c r="AX244" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AY244" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ244" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA244" t="n">
         <v>175</v>
@@ -44935,7 +44935,7 @@
         <v>200</v>
       </c>
       <c r="BC244" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD244" t="n">
         <v>51</v>
@@ -44973,46 +44973,46 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H245" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I245" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J245" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K245" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L245" t="n">
         <v>5.4</v>
       </c>
       <c r="M245" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N245" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="O245" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P245" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R245" t="n">
         <v>1.62</v>
       </c>
       <c r="S245" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T245" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U245" t="n">
         <v>1.98</v>
@@ -45021,16 +45021,16 @@
         <v>1.65</v>
       </c>
       <c r="W245" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X245" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Y245" t="n">
         <v>8.25</v>
       </c>
       <c r="Z245" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA245" t="n">
         <v>14.5</v>
@@ -45039,10 +45039,10 @@
         <v>32</v>
       </c>
       <c r="AC245" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD245" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE245" t="n">
         <v>19</v>
@@ -45054,10 +45054,10 @@
         <v>1000</v>
       </c>
       <c r="AH245" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI245" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ245" t="n">
         <v>17.5</v>
@@ -45066,34 +45066,34 @@
         <v>110</v>
       </c>
       <c r="AL245" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM245" t="n">
         <v>65</v>
-      </c>
-      <c r="AM245" t="n">
-        <v>70</v>
       </c>
       <c r="AN245" t="n">
         <v>3.35</v>
       </c>
       <c r="AO245" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU245" t="n">
         <v>7.9</v>
-      </c>
-      <c r="AP245" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ245" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR245" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS245" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT245" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU245" t="n">
-        <v>7.8</v>
       </c>
       <c r="AV245" t="n">
         <v>80</v>
@@ -45105,7 +45105,7 @@
         <v>6.7</v>
       </c>
       <c r="AY245" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ245" t="n">
         <v>37</v>
@@ -45117,7 +45117,7 @@
         <v>250</v>
       </c>
       <c r="BC245" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD245" t="n">
         <v>51</v>
@@ -45155,76 +45155,76 @@
         </is>
       </c>
       <c r="G246" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H246" t="n">
         <v>3.25</v>
       </c>
-      <c r="H246" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I246" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="J246" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K246" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L246" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="M246" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N246" t="n">
-        <v>8.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="O246" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P246" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R246" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S246" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T246" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="U246" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V246" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W246" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="X246" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y246" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Z246" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA246" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB246" t="n">
         <v>45</v>
       </c>
       <c r="AC246" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD246" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE246" t="n">
         <v>16.5</v>
@@ -45233,73 +45233,73 @@
         <v>90</v>
       </c>
       <c r="AG246" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH246" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI246" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AJ246" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK246" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL246" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AM246" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN246" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AO246" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AP246" t="n">
         <v>27</v>
       </c>
       <c r="AQ246" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR246" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS246" t="n">
         <v>400</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU246" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV246" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW246" t="n">
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AY246" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AZ246" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA246" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB246" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC246" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD246" t="n">
         <v>51</v>
@@ -45337,151 +45337,151 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H247" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I247" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J247" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K247" t="n">
         <v>2</v>
       </c>
       <c r="L247" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M247" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N247" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="O247" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P247" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="Q247" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="R247" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S247" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T247" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U247" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V247" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W247" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X247" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y247" t="n">
         <v>9.5</v>
       </c>
       <c r="Z247" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA247" t="n">
         <v>21</v>
       </c>
       <c r="AB247" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC247" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD247" t="n">
         <v>6.2</v>
       </c>
       <c r="AE247" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF247" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG247" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH247" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI247" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ247" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK247" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL247" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM247" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN247" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AO247" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP247" t="n">
         <v>24</v>
       </c>
       <c r="AQ247" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR247" t="n">
         <v>100</v>
       </c>
       <c r="AS247" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU247" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV247" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW247" t="n">
         <v>51</v>
       </c>
       <c r="AX247" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AY247" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ247" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA247" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB247" t="n">
         <v>150</v>
       </c>
       <c r="BC247" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD247" t="n">
         <v>51</v>
@@ -45525,22 +45525,22 @@
         <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J248" t="n">
         <v>2.9</v>
       </c>
       <c r="K248" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L248" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M248" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N248" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="O248" t="n">
         <v>1.33</v>
@@ -45567,7 +45567,7 @@
         <v>1.9</v>
       </c>
       <c r="W248" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X248" t="n">
         <v>11.5</v>
@@ -45582,13 +45582,13 @@
         <v>20</v>
       </c>
       <c r="AB248" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC248" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD248" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE248" t="n">
         <v>13.5</v>
@@ -45603,10 +45603,10 @@
         <v>8.75</v>
       </c>
       <c r="AI248" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ248" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK248" t="n">
         <v>40</v>
@@ -45630,10 +45630,10 @@
         <v>50</v>
       </c>
       <c r="AR248" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS248" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT248" t="n">
         <v>2.52</v>
@@ -45657,7 +45657,7 @@
         <v>22</v>
       </c>
       <c r="BA248" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB248" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.67</v>
@@ -971,13 +971,13 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1010,31 +1010,31 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1049,13 +1049,13 @@
         <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX3" t="n">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1296,7 +1296,7 @@
         <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4.5</v>
@@ -1311,22 +1311,22 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.25</v>
@@ -1401,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX5" t="n">
         <v>6.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1657,55 +1657,55 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.1</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1720,25 +1720,25 @@
         <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1750,19 +1750,19 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
         <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1774,37 +1774,37 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
         <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1881,10 +1881,10 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1908,16 +1908,16 @@
         <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
@@ -1950,7 +1950,7 @@
         <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1959,7 +1959,7 @@
         <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -2209,7 +2209,7 @@
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
@@ -2233,10 +2233,10 @@
         <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
         <v>5.75</v>
@@ -2394,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.4</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,22 +2591,22 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.57</v>
@@ -2624,7 +2624,7 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2648,13 +2648,13 @@
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2669,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H13" t="n">
         <v>4.75</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2791,10 +2791,10 @@
         <v>4.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
         <v>12</v>
@@ -2815,22 +2815,22 @@
         <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
         <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
@@ -2949,28 +2949,28 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.67</v>
@@ -2991,19 +2991,19 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3066,7 +3066,7 @@
         <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>81</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.63</v>
@@ -3131,28 +3131,28 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U15" t="n">
         <v>1.44</v>
@@ -3179,13 +3179,13 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -3203,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3215,13 +3215,13 @@
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>34</v>
@@ -3230,7 +3230,7 @@
         <v>67</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
@@ -3239,10 +3239,10 @@
         <v>34</v>
       </c>
       <c r="AW15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3489,7 +3489,7 @@
         <v>1.73</v>
       </c>
       <c r="K17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -3513,10 +3513,10 @@
         <v>3.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -3528,10 +3528,10 @@
         <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -3558,13 +3558,13 @@
         <v>101</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
         <v>81</v>
@@ -3594,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3615,16 +3615,16 @@
         <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD17" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3889,7 +3889,7 @@
         <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3901,7 +3901,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3925,13 +3925,13 @@
         <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>9.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
@@ -3940,13 +3940,13 @@
         <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
         <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>67</v>
@@ -3973,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="AY19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3988,7 +3988,7 @@
         <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4205,19 +4205,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
         <v>4.33</v>
@@ -4235,10 +4235,10 @@
         <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4253,7 +4253,7 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
@@ -4268,25 +4268,25 @@
         <v>17</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4316,10 +4316,10 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
@@ -4328,7 +4328,7 @@
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>126</v>
@@ -4340,10 +4340,10 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
         <v>101</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J23" t="n">
         <v>4.33</v>
@@ -4593,16 +4593,16 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S23" t="n">
         <v>1.29</v>
@@ -4668,7 +4668,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4707,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>41</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.5</v>
@@ -4766,7 +4766,7 @@
         <v>2.38</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4775,16 +4775,16 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
         <v>1.3</v>
@@ -4820,10 +4820,10 @@
         <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -4880,7 +4880,7 @@
         <v>401</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY24" t="n">
         <v>19</v>
@@ -5080,7 +5080,7 @@
         <v>101</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -5327,10 +5327,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -5521,16 +5521,16 @@
         <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>10</v>
@@ -5557,7 +5557,7 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
         <v>8</v>
@@ -5566,7 +5566,7 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>29</v>
@@ -5667,7 +5667,7 @@
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -5712,13 +5712,13 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>21</v>
@@ -5742,7 +5742,7 @@
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
         <v>13</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -5864,7 +5864,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
@@ -5885,16 +5885,16 @@
         <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
         <v>15</v>
@@ -5924,7 +5924,7 @@
         <v>151</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>8.5</v>
@@ -5954,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AR30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS30" t="n">
         <v>151</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -6771,10 +6771,10 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6801,7 +6801,7 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6816,7 +6816,7 @@
         <v>19</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>12</v>
@@ -6849,7 +6849,7 @@
         <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
         <v>4.5</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -6971,16 +6971,16 @@
         <v>2.3</v>
       </c>
       <c r="S36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W36" t="n">
         <v>13</v>
@@ -7001,7 +7001,7 @@
         <v>23</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
         <v>7.5</v>
@@ -7013,7 +7013,7 @@
         <v>34</v>
       </c>
       <c r="AG36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH36" t="n">
         <v>11</v>
@@ -7049,10 +7049,10 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU36" t="n">
         <v>7</v>
@@ -7067,10 +7067,10 @@
         <v>4.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
@@ -7135,10 +7135,10 @@
         <v>2.88</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
@@ -7317,10 +7317,10 @@
         <v>3.25</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
@@ -7992,7 +7992,7 @@
         <v>81</v>
       </c>
       <c r="BD41" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42">
@@ -8209,16 +8209,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
@@ -8251,16 +8251,16 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8275,7 +8275,7 @@
         <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
         <v>7.5</v>
@@ -8290,7 +8290,7 @@
         <v>201</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI43" t="n">
         <v>26</v>
@@ -8314,7 +8314,7 @@
         <v>8.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
         <v>26</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -10411,10 +10411,10 @@
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -10444,7 +10444,7 @@
         <v>7.5</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
         <v>11</v>
@@ -10477,10 +10477,10 @@
         <v>7</v>
       </c>
       <c r="AI55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK55" t="n">
         <v>26</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
         <v>2.5</v>
@@ -10778,7 +10778,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
@@ -10817,7 +10817,7 @@
         <v>15</v>
       </c>
       <c r="AA57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB57" t="n">
         <v>29</v>
@@ -10838,10 +10838,10 @@
         <v>351</v>
       </c>
       <c r="AH57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ57" t="n">
         <v>15</v>
@@ -10862,7 +10862,7 @@
         <v>10</v>
       </c>
       <c r="AP57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ57" t="n">
         <v>34</v>
@@ -10880,7 +10880,7 @@
         <v>8.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW57" t="n">
         <v>51</v>
@@ -11151,13 +11151,13 @@
         <v>3.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T59" t="n">
         <v>2.75</v>
@@ -11303,13 +11303,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J60" t="n">
         <v>2</v>
@@ -11324,7 +11324,7 @@
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O60" t="n">
         <v>1.13</v>
@@ -11339,16 +11339,16 @@
         <v>2.7</v>
       </c>
       <c r="S60" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U60" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V60" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W60" t="n">
         <v>11</v>
@@ -11375,7 +11375,7 @@
         <v>9</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -11420,7 +11420,7 @@
         <v>81</v>
       </c>
       <c r="AT60" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU60" t="n">
         <v>7.5</v>
@@ -11429,7 +11429,7 @@
         <v>41</v>
       </c>
       <c r="AW60" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX60" t="n">
         <v>7.5</v>
@@ -11521,7 +11521,7 @@
         <v>2.6</v>
       </c>
       <c r="S61" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T61" t="n">
         <v>4</v>
@@ -11703,10 +11703,10 @@
         <v>1.65</v>
       </c>
       <c r="S62" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T62" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U62" t="n">
         <v>2.25</v>
@@ -15149,10 +15149,10 @@
         <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q81" t="n">
         <v>2.1</v>
@@ -15251,7 +15251,7 @@
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX81" t="n">
         <v>4.5</v>
@@ -16247,10 +16247,10 @@
         <v>3</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R87" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S87" t="n">
         <v>1.44</v>
@@ -16793,10 +16793,10 @@
         <v>3.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S90" t="n">
         <v>1.44</v>
@@ -16945,22 +16945,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I91" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91" t="n">
         <v>1.06</v>
@@ -16993,19 +16993,19 @@
         <v>2</v>
       </c>
       <c r="W91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y91" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB91" t="n">
         <v>26</v>
@@ -17029,25 +17029,25 @@
         <v>10</v>
       </c>
       <c r="AI91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP91" t="n">
         <v>21</v>
@@ -17056,7 +17056,7 @@
         <v>41</v>
       </c>
       <c r="AR91" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS91" t="n">
         <v>151</v>
@@ -17065,7 +17065,7 @@
         <v>2.75</v>
       </c>
       <c r="AU91" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -17080,13 +17080,13 @@
         <v>17</v>
       </c>
       <c r="AZ91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA91" t="n">
         <v>51</v>
       </c>
       <c r="BB91" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC91" t="n">
         <v>151</v>
@@ -18237,22 +18237,22 @@
         <v>3.75</v>
       </c>
       <c r="M98" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S98" t="n">
         <v>1.3</v>
@@ -18765,22 +18765,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H101" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I101" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K101" t="n">
         <v>2.63</v>
       </c>
       <c r="L101" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M101" t="n">
         <v>1.02</v>
@@ -18819,10 +18819,10 @@
         <v>10</v>
       </c>
       <c r="Y101" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA101" t="n">
         <v>11</v>
@@ -18837,7 +18837,7 @@
         <v>9</v>
       </c>
       <c r="AE101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF101" t="n">
         <v>34</v>
@@ -18849,13 +18849,13 @@
         <v>23</v>
       </c>
       <c r="AI101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ101" t="n">
         <v>19</v>
       </c>
       <c r="AK101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL101" t="n">
         <v>41</v>
@@ -18867,13 +18867,13 @@
         <v>4</v>
       </c>
       <c r="AO101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP101" t="n">
         <v>13</v>
       </c>
       <c r="AQ101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR101" t="n">
         <v>34</v>
@@ -18891,22 +18891,22 @@
         <v>41</v>
       </c>
       <c r="AW101" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX101" t="n">
         <v>7.5</v>
       </c>
       <c r="AY101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA101" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB101" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC101" t="n">
         <v>126</v>
@@ -21513,10 +21513,10 @@
         <v>4.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O116" t="n">
         <v>1.2</v>
@@ -21531,22 +21531,22 @@
         <v>2.15</v>
       </c>
       <c r="S116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U116" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V116" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y116" t="n">
         <v>8.5</v>
@@ -21561,13 +21561,13 @@
         <v>21</v>
       </c>
       <c r="AC116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD116" t="n">
         <v>7.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF116" t="n">
         <v>41</v>
@@ -21603,7 +21603,7 @@
         <v>17</v>
       </c>
       <c r="AQ116" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR116" t="n">
         <v>41</v>
@@ -21612,13 +21612,13 @@
         <v>101</v>
       </c>
       <c r="AT116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU116" t="n">
         <v>7.5</v>
       </c>
       <c r="AV116" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW116" t="n">
         <v>51</v>
@@ -21859,22 +21859,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H118" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I118" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="J118" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K118" t="n">
         <v>2.6</v>
       </c>
       <c r="L118" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M118" t="n">
         <v>1.02</v>
@@ -21886,16 +21886,16 @@
         <v>1.12</v>
       </c>
       <c r="P118" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R118" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S118" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T118" t="n">
         <v>3.8</v>
@@ -21913,34 +21913,34 @@
         <v>40</v>
       </c>
       <c r="Y118" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z118" t="n">
         <v>100</v>
       </c>
       <c r="AA118" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC118" t="n">
         <v>10</v>
       </c>
       <c r="AD118" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE118" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG118" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH118" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI118" t="n">
         <v>10</v>
@@ -21952,25 +21952,25 @@
         <v>12.5</v>
       </c>
       <c r="AL118" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM118" t="n">
         <v>17</v>
       </c>
       <c r="AN118" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AO118" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP118" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ118" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR118" t="n">
         <v>120</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>110</v>
       </c>
       <c r="AS118" t="n">
         <v>200</v>
@@ -21979,7 +21979,7 @@
         <v>3.8</v>
       </c>
       <c r="AU118" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV118" t="n">
         <v>40</v>
@@ -21988,22 +21988,22 @@
         <v>500</v>
       </c>
       <c r="AX118" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AY118" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AZ118" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BA118" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB118" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC118" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD118" t="n">
         <v>51</v>
@@ -22587,28 +22587,28 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K122" t="n">
         <v>2.1</v>
       </c>
       <c r="L122" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M122" t="n">
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.3</v>
@@ -22671,10 +22671,10 @@
         <v>10</v>
       </c>
       <c r="AI122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK122" t="n">
         <v>41</v>
@@ -23169,7 +23169,7 @@
         <v>2.05</v>
       </c>
       <c r="S125" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T125" t="n">
         <v>3.25</v>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
@@ -23324,7 +23324,7 @@
         <v>3.1</v>
       </c>
       <c r="J126" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K126" t="n">
         <v>2</v>
@@ -23351,7 +23351,7 @@
         <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T126" t="n">
         <v>2.5</v>
@@ -23408,7 +23408,7 @@
         <v>34</v>
       </c>
       <c r="AL126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM126" t="n">
         <v>41</v>
@@ -23417,7 +23417,7 @@
         <v>4.33</v>
       </c>
       <c r="AO126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP126" t="n">
         <v>26</v>
@@ -23444,7 +23444,7 @@
         <v>81</v>
       </c>
       <c r="AX126" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY126" t="n">
         <v>17</v>
@@ -23533,7 +23533,7 @@
         <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T127" t="n">
         <v>2.5</v>
@@ -23715,10 +23715,10 @@
         <v>1.7</v>
       </c>
       <c r="S128" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T128" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U128" t="n">
         <v>1.8</v>
@@ -24989,7 +24989,7 @@
         <v>1.85</v>
       </c>
       <c r="S135" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T135" t="n">
         <v>2.75</v>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H136" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I136" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J136" t="n">
         <v>5</v>
@@ -25150,13 +25150,13 @@
         <v>2.25</v>
       </c>
       <c r="L136" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.25</v>
@@ -25165,22 +25165,22 @@
         <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T136" t="n">
         <v>3</v>
       </c>
       <c r="U136" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V136" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W136" t="n">
         <v>15</v>
@@ -25189,7 +25189,7 @@
         <v>26</v>
       </c>
       <c r="Y136" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z136" t="n">
         <v>51</v>
@@ -25201,7 +25201,7 @@
         <v>41</v>
       </c>
       <c r="AC136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD136" t="n">
         <v>7</v>
@@ -25213,13 +25213,13 @@
         <v>51</v>
       </c>
       <c r="AG136" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH136" t="n">
         <v>7.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ136" t="n">
         <v>8.5</v>
@@ -25237,10 +25237,10 @@
         <v>6.5</v>
       </c>
       <c r="AO136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP136" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ136" t="n">
         <v>81</v>
@@ -25264,16 +25264,16 @@
         <v>501</v>
       </c>
       <c r="AX136" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ136" t="n">
         <v>19</v>
       </c>
       <c r="BA136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB136" t="n">
         <v>51</v>
@@ -25335,25 +25335,25 @@
         <v>3.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O137" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P137" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R137" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S137" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T137" t="n">
         <v>2.75</v>
@@ -25535,7 +25535,7 @@
         <v>1.93</v>
       </c>
       <c r="S138" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T138" t="n">
         <v>3</v>
@@ -25893,10 +25893,10 @@
         <v>3</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R140" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S140" t="n">
         <v>1.44</v>
@@ -26227,13 +26227,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H142" t="n">
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J142" t="n">
         <v>5.5</v>
@@ -26251,10 +26251,10 @@
         <v>13</v>
       </c>
       <c r="O142" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P142" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q142" t="n">
         <v>1.7</v>
@@ -26308,13 +26308,13 @@
         <v>201</v>
       </c>
       <c r="AH142" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI142" t="n">
         <v>8</v>
       </c>
       <c r="AJ142" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK142" t="n">
         <v>11</v>
@@ -26326,7 +26326,7 @@
         <v>23</v>
       </c>
       <c r="AN142" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO142" t="n">
         <v>29</v>
@@ -27137,40 +27137,40 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H147" t="n">
         <v>4.45</v>
       </c>
       <c r="I147" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="J147" t="n">
         <v>1.85</v>
       </c>
       <c r="K147" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L147" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M147" t="n">
         <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P147" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R147" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S147" t="n">
         <v>1.32</v>
@@ -27179,43 +27179,43 @@
         <v>3.2</v>
       </c>
       <c r="U147" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V147" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W147" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X147" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y147" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA147" t="n">
         <v>11.25</v>
       </c>
       <c r="AB147" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC147" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD147" t="n">
         <v>9</v>
       </c>
       <c r="AE147" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF147" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG147" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH147" t="n">
         <v>20</v>
@@ -27224,43 +27224,43 @@
         <v>50</v>
       </c>
       <c r="AJ147" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK147" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL147" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM147" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN147" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO147" t="n">
         <v>6.2</v>
       </c>
       <c r="AP147" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ147" t="n">
         <v>17.5</v>
       </c>
       <c r="AR147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS147" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AU147" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV147" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW147" t="n">
         <v>51</v>
@@ -27269,10 +27269,10 @@
         <v>8.25</v>
       </c>
       <c r="AY147" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ147" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA147" t="n">
         <v>300</v>
@@ -28411,22 +28411,22 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>3.1</v>
       </c>
       <c r="I154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J154" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.2</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
@@ -28459,16 +28459,16 @@
         <v>1.8</v>
       </c>
       <c r="W154" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X154" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y154" t="n">
         <v>10</v>
       </c>
       <c r="Z154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA154" t="n">
         <v>21</v>
@@ -28489,10 +28489,10 @@
         <v>51</v>
       </c>
       <c r="AG154" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI154" t="n">
         <v>15</v>
@@ -28513,16 +28513,16 @@
         <v>4.33</v>
       </c>
       <c r="AO154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP154" t="n">
         <v>26</v>
       </c>
       <c r="AQ154" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR154" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS154" t="n">
         <v>201</v>
@@ -28549,10 +28549,10 @@
         <v>29</v>
       </c>
       <c r="BA154" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB154" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC154" t="n">
         <v>251</v>
@@ -28593,22 +28593,22 @@
         </is>
       </c>
       <c r="G155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.6</v>
       </c>
-      <c r="H155" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I155" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J155" t="n">
         <v>4</v>
       </c>
       <c r="K155" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L155" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M155" t="n">
         <v>1.04</v>
@@ -28617,37 +28617,37 @@
         <v>13</v>
       </c>
       <c r="O155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R155" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S155" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T155" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U155" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V155" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z155" t="n">
         <v>41</v>
@@ -28656,31 +28656,31 @@
         <v>29</v>
       </c>
       <c r="AB155" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD155" t="n">
         <v>7</v>
       </c>
       <c r="AE155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF155" t="n">
         <v>41</v>
       </c>
       <c r="AG155" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI155" t="n">
         <v>10</v>
       </c>
       <c r="AJ155" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK155" t="n">
         <v>17</v>
@@ -28692,40 +28692,40 @@
         <v>23</v>
       </c>
       <c r="AN155" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO155" t="n">
         <v>19</v>
       </c>
       <c r="AP155" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ155" t="n">
         <v>51</v>
       </c>
       <c r="AR155" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS155" t="n">
         <v>151</v>
       </c>
       <c r="AT155" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU155" t="n">
         <v>7.5</v>
       </c>
       <c r="AV155" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW155" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX155" t="n">
         <v>4</v>
       </c>
       <c r="AY155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ155" t="n">
         <v>19</v>
@@ -28737,7 +28737,7 @@
         <v>51</v>
       </c>
       <c r="BC155" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD155" t="n">
         <v>151</v>
@@ -28811,7 +28811,7 @@
         <v>2.1</v>
       </c>
       <c r="S156" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T156" t="n">
         <v>3.25</v>
@@ -28993,7 +28993,7 @@
         <v>1.93</v>
       </c>
       <c r="S157" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T157" t="n">
         <v>2.75</v>
@@ -29175,7 +29175,7 @@
         <v>2.25</v>
       </c>
       <c r="S158" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T158" t="n">
         <v>3.4</v>
@@ -29321,19 +29321,19 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I159" t="n">
         <v>2.45</v>
       </c>
       <c r="J159" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K159" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L159" t="n">
         <v>3</v>
@@ -29342,7 +29342,7 @@
         <v>1.04</v>
       </c>
       <c r="N159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O159" t="n">
         <v>1.25</v>
@@ -29357,7 +29357,7 @@
         <v>2.03</v>
       </c>
       <c r="S159" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T159" t="n">
         <v>3</v>
@@ -29384,7 +29384,7 @@
         <v>21</v>
       </c>
       <c r="AB159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC159" t="n">
         <v>12</v>
@@ -29426,7 +29426,7 @@
         <v>15</v>
       </c>
       <c r="AP159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ159" t="n">
         <v>51</v>
@@ -29539,7 +29539,7 @@
         <v>1.98</v>
       </c>
       <c r="S160" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T160" t="n">
         <v>3</v>
@@ -29721,7 +29721,7 @@
         <v>1.95</v>
       </c>
       <c r="S161" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T161" t="n">
         <v>3</v>
@@ -29867,22 +29867,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H162" t="n">
         <v>3.8</v>
       </c>
       <c r="I162" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J162" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K162" t="n">
         <v>2.32</v>
       </c>
       <c r="L162" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M162" t="n">
         <v>1.03</v>
@@ -29894,7 +29894,7 @@
         <v>1.19</v>
       </c>
       <c r="P162" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q162" t="n">
         <v>1.57</v>
@@ -29912,7 +29912,7 @@
         <v>1.55</v>
       </c>
       <c r="V162" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W162" t="n">
         <v>13.5</v>
@@ -29927,10 +29927,10 @@
         <v>45</v>
       </c>
       <c r="AA162" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB162" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC162" t="n">
         <v>9</v>
@@ -29948,10 +29948,10 @@
         <v>250</v>
       </c>
       <c r="AH162" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI162" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ162" t="n">
         <v>8.5</v>
@@ -29960,7 +29960,7 @@
         <v>18</v>
       </c>
       <c r="AL162" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM162" t="n">
         <v>20</v>
@@ -29969,16 +29969,16 @@
         <v>5.5</v>
       </c>
       <c r="AO162" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP162" t="n">
         <v>21</v>
       </c>
       <c r="AQ162" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR162" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS162" t="n">
         <v>200</v>
@@ -30008,10 +30008,10 @@
         <v>32</v>
       </c>
       <c r="BB162" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BC162" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD162" t="n">
         <v>51</v>
@@ -30413,13 +30413,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J165" t="n">
         <v>2.3</v>
@@ -30431,10 +30431,10 @@
         <v>5</v>
       </c>
       <c r="M165" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O165" t="n">
         <v>1.29</v>
@@ -30497,10 +30497,10 @@
         <v>13</v>
       </c>
       <c r="AI165" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ165" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK165" t="n">
         <v>51</v>
@@ -30512,7 +30512,7 @@
         <v>41</v>
       </c>
       <c r="AN165" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO165" t="n">
         <v>9</v>
@@ -30551,10 +30551,10 @@
         <v>34</v>
       </c>
       <c r="BA165" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB165" t="n">
         <v>101</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>126</v>
       </c>
       <c r="BC165" t="n">
         <v>251</v>
@@ -30595,13 +30595,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H166" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I166" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J166" t="n">
         <v>5</v>
@@ -30610,7 +30610,7 @@
         <v>2.1</v>
       </c>
       <c r="L166" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M166" t="n">
         <v>1.07</v>
@@ -30625,10 +30625,10 @@
         <v>3.25</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R166" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S166" t="n">
         <v>1.44</v>
@@ -30637,16 +30637,16 @@
         <v>2.63</v>
       </c>
       <c r="U166" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V166" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W166" t="n">
         <v>11</v>
       </c>
       <c r="X166" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y166" t="n">
         <v>15</v>
@@ -30661,7 +30661,7 @@
         <v>41</v>
       </c>
       <c r="AC166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD166" t="n">
         <v>6.5</v>
@@ -30682,13 +30682,13 @@
         <v>8</v>
       </c>
       <c r="AJ166" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK166" t="n">
         <v>15</v>
       </c>
       <c r="AL166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM166" t="n">
         <v>29</v>
@@ -30697,7 +30697,7 @@
         <v>6</v>
       </c>
       <c r="AO166" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP166" t="n">
         <v>34</v>
@@ -30709,7 +30709,7 @@
         <v>126</v>
       </c>
       <c r="AS166" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT166" t="n">
         <v>2.63</v>
@@ -30718,7 +30718,7 @@
         <v>8.5</v>
       </c>
       <c r="AV166" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW166" t="n">
         <v>51</v>
@@ -30727,10 +30727,10 @@
         <v>3.75</v>
       </c>
       <c r="AY166" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ166" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA166" t="n">
         <v>34</v>
@@ -30739,7 +30739,7 @@
         <v>51</v>
       </c>
       <c r="BC166" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD166" t="n">
         <v>51</v>
@@ -30977,10 +30977,10 @@
         <v>3</v>
       </c>
       <c r="M168" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O168" t="n">
         <v>1.33</v>
@@ -31359,7 +31359,7 @@
         <v>3</v>
       </c>
       <c r="S170" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T170" t="n">
         <v>4</v>
@@ -31541,7 +31541,7 @@
         <v>1.9</v>
       </c>
       <c r="S171" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T171" t="n">
         <v>2.75</v>
@@ -31711,19 +31711,19 @@
         <v>11</v>
       </c>
       <c r="O172" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P172" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R172" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S172" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T172" t="n">
         <v>3</v>
@@ -31905,7 +31905,7 @@
         <v>2</v>
       </c>
       <c r="S173" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T173" t="n">
         <v>3</v>
@@ -32072,7 +32072,7 @@
         <v>1.06</v>
       </c>
       <c r="N174" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O174" t="n">
         <v>1.33</v>
@@ -32081,10 +32081,10 @@
         <v>3.4</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R174" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S174" t="n">
         <v>1.44</v>
@@ -32597,79 +32597,79 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H177" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I177" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J177" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="K177" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L177" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M177" t="n">
         <v>1.05</v>
       </c>
       <c r="N177" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O177" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P177" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R177" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S177" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T177" t="n">
         <v>2.87</v>
       </c>
       <c r="U177" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V177" t="n">
         <v>1.8</v>
       </c>
       <c r="W177" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X177" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y177" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z177" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AA177" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB177" t="n">
         <v>65</v>
       </c>
       <c r="AC177" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD177" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE177" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF177" t="n">
         <v>90</v>
@@ -32678,37 +32678,37 @@
         <v>700</v>
       </c>
       <c r="AH177" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI177" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AJ177" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK177" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AL177" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM177" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN177" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO177" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP177" t="n">
         <v>37</v>
-      </c>
-      <c r="AP177" t="n">
-        <v>40</v>
       </c>
       <c r="AQ177" t="n">
         <v>250</v>
       </c>
       <c r="AR177" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS177" t="n">
         <v>500</v>
@@ -32717,25 +32717,25 @@
         <v>2.87</v>
       </c>
       <c r="AU177" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV177" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AY177" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AZ177" t="n">
         <v>17</v>
       </c>
       <c r="BA177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB177" t="n">
         <v>50</v>
@@ -33692,13 +33692,13 @@
         <v>1.47</v>
       </c>
       <c r="H183" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I183" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K183" t="n">
         <v>2.32</v>
@@ -33725,10 +33725,10 @@
         <v>2.05</v>
       </c>
       <c r="S183" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T183" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U183" t="n">
         <v>1.85</v>
@@ -33749,7 +33749,7 @@
         <v>10</v>
       </c>
       <c r="AA183" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB183" t="n">
         <v>25</v>
@@ -33773,13 +33773,13 @@
         <v>16</v>
       </c>
       <c r="AI183" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ183" t="n">
         <v>18.5</v>
       </c>
       <c r="AK183" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL183" t="n">
         <v>60</v>
@@ -33794,19 +33794,19 @@
         <v>6.9</v>
       </c>
       <c r="AP183" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR183" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS183" t="n">
         <v>250</v>
       </c>
       <c r="AT183" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU183" t="n">
         <v>8</v>
@@ -33830,7 +33830,7 @@
         <v>200</v>
       </c>
       <c r="BB183" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC183" t="n">
         <v>500</v>
@@ -33871,10 +33871,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="H184" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I184" t="n">
         <v>1.31</v>
@@ -33898,7 +33898,7 @@
         <v>1.21</v>
       </c>
       <c r="P184" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q184" t="n">
         <v>1.65</v>
@@ -33916,13 +33916,13 @@
         <v>2.02</v>
       </c>
       <c r="V184" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W184" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X184" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y184" t="n">
         <v>27</v>
@@ -33943,19 +33943,19 @@
         <v>9.75</v>
       </c>
       <c r="AE184" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF184" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG184" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH184" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI184" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ184" t="n">
         <v>8.5</v>
@@ -33967,7 +33967,7 @@
         <v>11</v>
       </c>
       <c r="AM184" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN184" t="n">
         <v>9.25</v>
@@ -33982,7 +33982,7 @@
         <v>400</v>
       </c>
       <c r="AR184" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AS184" t="n">
         <v>51</v>
@@ -33991,7 +33991,7 @@
         <v>3</v>
       </c>
       <c r="AU184" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV184" t="n">
         <v>90</v>
@@ -34003,13 +34003,13 @@
         <v>3.1</v>
       </c>
       <c r="AY184" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AZ184" t="n">
         <v>17</v>
       </c>
       <c r="BA184" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BB184" t="n">
         <v>45</v>
@@ -34053,40 +34053,40 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H185" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I185" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="J185" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K185" t="n">
         <v>2.18</v>
       </c>
       <c r="L185" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M185" t="n">
         <v>1.06</v>
       </c>
       <c r="N185" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O185" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P185" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q185" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R185" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S185" t="n">
         <v>1.42</v>
@@ -34101,31 +34101,31 @@
         <v>1.72</v>
       </c>
       <c r="W185" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X185" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y185" t="n">
         <v>8.25</v>
       </c>
       <c r="Z185" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA185" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB185" t="n">
         <v>30</v>
       </c>
       <c r="AC185" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD185" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE185" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF185" t="n">
         <v>100</v>
@@ -34134,37 +34134,37 @@
         <v>900</v>
       </c>
       <c r="AH185" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI185" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ185" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK185" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL185" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM185" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN185" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO185" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AP185" t="n">
         <v>19</v>
       </c>
       <c r="AQ185" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR185" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS185" t="n">
         <v>300</v>
@@ -34173,7 +34173,7 @@
         <v>2.67</v>
       </c>
       <c r="AU185" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV185" t="n">
         <v>90</v>
@@ -34182,13 +34182,13 @@
         <v>51</v>
       </c>
       <c r="AX185" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY185" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ185" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA185" t="n">
         <v>250</v>
@@ -34438,7 +34438,7 @@
         <v>1.07</v>
       </c>
       <c r="N187" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O187" t="n">
         <v>1.3</v>
@@ -34534,7 +34534,7 @@
         <v>151</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU187" t="n">
         <v>8</v>
@@ -34781,28 +34781,28 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H189" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I189" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J189" t="n">
         <v>2.5</v>
       </c>
       <c r="K189" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L189" t="n">
         <v>5</v>
       </c>
       <c r="M189" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N189" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O189" t="n">
         <v>1.36</v>
@@ -34811,10 +34811,10 @@
         <v>3</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R189" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S189" t="n">
         <v>1.44</v>
@@ -34832,13 +34832,13 @@
         <v>6</v>
       </c>
       <c r="X189" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y189" t="n">
         <v>9</v>
       </c>
       <c r="Z189" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA189" t="n">
         <v>17</v>
@@ -34862,10 +34862,10 @@
         <v>351</v>
       </c>
       <c r="AH189" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI189" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ189" t="n">
         <v>15</v>
@@ -34880,10 +34880,10 @@
         <v>41</v>
       </c>
       <c r="AN189" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP189" t="n">
         <v>23</v>
@@ -34898,7 +34898,7 @@
         <v>201</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU189" t="n">
         <v>9</v>
@@ -34910,7 +34910,7 @@
         <v>81</v>
       </c>
       <c r="AX189" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY189" t="n">
         <v>26</v>
@@ -34919,7 +34919,7 @@
         <v>34</v>
       </c>
       <c r="BA189" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB189" t="n">
         <v>126</v>
@@ -34963,22 +34963,22 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J190" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K190" t="n">
         <v>1.91</v>
       </c>
       <c r="L190" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M190" t="n">
         <v>1.1</v>
@@ -35014,7 +35014,7 @@
         <v>6.5</v>
       </c>
       <c r="X190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y190" t="n">
         <v>11</v>
@@ -35047,7 +35047,7 @@
         <v>7</v>
       </c>
       <c r="AI190" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ190" t="n">
         <v>12</v>
@@ -35065,7 +35065,7 @@
         <v>4.5</v>
       </c>
       <c r="AO190" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP190" t="n">
         <v>29</v>
@@ -35074,7 +35074,7 @@
         <v>51</v>
       </c>
       <c r="AR190" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS190" t="n">
         <v>301</v>
@@ -35095,13 +35095,13 @@
         <v>4.75</v>
       </c>
       <c r="AY190" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ190" t="n">
         <v>34</v>
       </c>
       <c r="BA190" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB190" t="n">
         <v>101</v>
@@ -35145,16 +35145,16 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H191" t="n">
         <v>3.4</v>
       </c>
       <c r="I191" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J191" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K191" t="n">
         <v>2.3</v>
@@ -35187,13 +35187,13 @@
         <v>3.25</v>
       </c>
       <c r="U191" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V191" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W191" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X191" t="n">
         <v>11</v>
@@ -35214,7 +35214,7 @@
         <v>13</v>
       </c>
       <c r="AD191" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE191" t="n">
         <v>12</v>
@@ -35277,7 +35277,7 @@
         <v>5.5</v>
       </c>
       <c r="AY191" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ191" t="n">
         <v>23</v>
@@ -35838,7 +35838,7 @@
         <v>101</v>
       </c>
       <c r="BD194" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195">
@@ -36267,10 +36267,10 @@
         <v>3.5</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R197" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S197" t="n">
         <v>1.4</v>
@@ -36449,10 +36449,10 @@
         <v>3.75</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R198" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S198" t="n">
         <v>1.36</v>
@@ -36601,7 +36601,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H199" t="n">
         <v>4.2</v>
@@ -36813,10 +36813,10 @@
         <v>3.75</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R200" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S200" t="n">
         <v>1.36</v>
@@ -36965,13 +36965,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H201" t="n">
         <v>3.25</v>
       </c>
       <c r="I201" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J201" t="n">
         <v>3.5</v>
@@ -36995,10 +36995,10 @@
         <v>3.5</v>
       </c>
       <c r="Q201" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R201" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S201" t="n">
         <v>1.4</v>
@@ -37189,10 +37189,10 @@
         <v>3.75</v>
       </c>
       <c r="U202" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V202" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W202" t="n">
         <v>13</v>
@@ -37371,7 +37371,7 @@
         <v>3.25</v>
       </c>
       <c r="U203" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V203" t="n">
         <v>2.1</v>
@@ -38254,7 +38254,7 @@
         <v>2.75</v>
       </c>
       <c r="L208" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M208" t="n">
         <v>1.01</v>
@@ -38293,7 +38293,7 @@
         <v>41</v>
       </c>
       <c r="Y208" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z208" t="n">
         <v>67</v>
@@ -38317,7 +38317,7 @@
         <v>41</v>
       </c>
       <c r="AG208" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH208" t="n">
         <v>11</v>
@@ -38326,13 +38326,13 @@
         <v>9</v>
       </c>
       <c r="AJ208" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK208" t="n">
         <v>11</v>
       </c>
       <c r="AL208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM208" t="n">
         <v>19</v>
@@ -38380,7 +38380,7 @@
         <v>17</v>
       </c>
       <c r="BB208" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC208" t="n">
         <v>81</v>
@@ -39149,7 +39149,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H213" t="n">
         <v>3.6</v>
@@ -40059,13 +40059,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H218" t="n">
         <v>3.6</v>
       </c>
       <c r="I218" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J218" t="n">
         <v>2.4</v>
@@ -40080,7 +40080,7 @@
         <v>1.07</v>
       </c>
       <c r="N218" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O218" t="n">
         <v>1.36</v>
@@ -40092,7 +40092,7 @@
         <v>2.2</v>
       </c>
       <c r="R218" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S218" t="n">
         <v>1.44</v>
@@ -40110,7 +40110,7 @@
         <v>6</v>
       </c>
       <c r="X218" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y218" t="n">
         <v>9</v>
@@ -40119,7 +40119,7 @@
         <v>13</v>
       </c>
       <c r="AA218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB218" t="n">
         <v>34</v>
@@ -40131,7 +40131,7 @@
         <v>7</v>
       </c>
       <c r="AE218" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF218" t="n">
         <v>67</v>
@@ -40140,13 +40140,13 @@
         <v>201</v>
       </c>
       <c r="AH218" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI218" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ218" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK218" t="n">
         <v>51</v>
@@ -40155,7 +40155,7 @@
         <v>41</v>
       </c>
       <c r="AM218" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN218" t="n">
         <v>3.6</v>
@@ -40200,7 +40200,7 @@
         <v>101</v>
       </c>
       <c r="BB218" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC218" t="n">
         <v>351</v>
@@ -40271,7 +40271,7 @@
         <v>5.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R219" t="n">
         <v>2.4</v>
@@ -40453,13 +40453,13 @@
         <v>4</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R220" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S220" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T220" t="n">
         <v>3.25</v>
@@ -40605,22 +40605,22 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H221" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I221" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J221" t="n">
         <v>2.5</v>
       </c>
       <c r="K221" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L221" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M221" t="n">
         <v>1.03</v>
@@ -40641,19 +40641,19 @@
         <v>2.5</v>
       </c>
       <c r="S221" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T221" t="n">
         <v>3.75</v>
       </c>
       <c r="U221" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V221" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X221" t="n">
         <v>12</v>
@@ -40671,25 +40671,25 @@
         <v>19</v>
       </c>
       <c r="AC221" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD221" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE221" t="n">
         <v>11</v>
       </c>
       <c r="AF221" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG221" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH221" t="n">
         <v>17</v>
       </c>
       <c r="AI221" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ221" t="n">
         <v>13</v>
@@ -40704,13 +40704,13 @@
         <v>26</v>
       </c>
       <c r="AN221" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO221" t="n">
         <v>10</v>
       </c>
       <c r="AP221" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ221" t="n">
         <v>29</v>
@@ -40731,7 +40731,7 @@
         <v>41</v>
       </c>
       <c r="AW221" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX221" t="n">
         <v>6</v>
@@ -40787,7 +40787,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>6</v>
@@ -40823,7 +40823,7 @@
         <v>3.5</v>
       </c>
       <c r="S222" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="T222" t="n">
         <v>4.5</v>
@@ -40969,13 +40969,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H223" t="n">
         <v>3.5</v>
       </c>
       <c r="I223" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J223" t="n">
         <v>2.88</v>
@@ -41005,7 +41005,7 @@
         <v>2.4</v>
       </c>
       <c r="S223" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T223" t="n">
         <v>3.5</v>
@@ -41151,7 +41151,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H224" t="n">
         <v>4.33</v>
@@ -41706,7 +41706,7 @@
         <v>4</v>
       </c>
       <c r="J227" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K227" t="n">
         <v>2.5</v>
@@ -41727,10 +41727,10 @@
         <v>5.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R227" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S227" t="n">
         <v>1.25</v>
@@ -42789,37 +42789,37 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="H233" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I233" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J233" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="K233" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L233" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M233" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N233" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O233" t="n">
         <v>1.2</v>
       </c>
       <c r="P233" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R233" t="n">
         <v>2.2</v>
@@ -42828,7 +42828,7 @@
         <v>1.3</v>
       </c>
       <c r="T233" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U233" t="n">
         <v>1.55</v>
@@ -42837,28 +42837,28 @@
         <v>2.3</v>
       </c>
       <c r="W233" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X233" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z233" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA233" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB233" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC233" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD233" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE233" t="n">
         <v>12.5</v>
@@ -42870,43 +42870,43 @@
         <v>250</v>
       </c>
       <c r="AH233" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI233" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ233" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK233" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL233" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AM233" t="n">
         <v>24</v>
       </c>
       <c r="AN233" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO233" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AP233" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ233" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR233" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS233" t="n">
         <v>175</v>
       </c>
       <c r="AT233" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU233" t="n">
         <v>6.7</v>
@@ -42918,22 +42918,22 @@
         <v>51</v>
       </c>
       <c r="AX233" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY233" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ233" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA233" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB233" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC233" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD233" t="n">
         <v>51</v>
@@ -43517,46 +43517,46 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H237" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I237" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="J237" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K237" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L237" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="M237" t="n">
         <v>1.05</v>
       </c>
       <c r="N237" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O237" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P237" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R237" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S237" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T237" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="U237" t="n">
         <v>1.72</v>
@@ -43568,28 +43568,28 @@
         <v>7.7</v>
       </c>
       <c r="X237" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y237" t="n">
         <v>8</v>
       </c>
       <c r="Z237" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA237" t="n">
         <v>13</v>
-      </c>
-      <c r="AA237" t="n">
-        <v>12.5</v>
       </c>
       <c r="AB237" t="n">
         <v>23</v>
       </c>
       <c r="AC237" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD237" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE237" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF237" t="n">
         <v>60</v>
@@ -43598,16 +43598,16 @@
         <v>450</v>
       </c>
       <c r="AH237" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ237" t="n">
         <v>14</v>
       </c>
-      <c r="AI237" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ237" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK237" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL237" t="n">
         <v>40</v>
@@ -43616,25 +43616,25 @@
         <v>40</v>
       </c>
       <c r="AN237" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO237" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ237" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR237" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS237" t="n">
         <v>200</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU237" t="n">
         <v>7.4</v>
@@ -43646,10 +43646,10 @@
         <v>51</v>
       </c>
       <c r="AX237" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AY237" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ237" t="n">
         <v>30</v>
@@ -44615,10 +44615,10 @@
         <v>3.15</v>
       </c>
       <c r="I243" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J243" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="K243" t="n">
         <v>2.12</v>
@@ -44651,10 +44651,10 @@
         <v>2.75</v>
       </c>
       <c r="U243" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V243" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W243" t="n">
         <v>7.8</v>
@@ -44741,7 +44741,7 @@
         <v>4.9</v>
       </c>
       <c r="AY243" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ243" t="n">
         <v>23</v>
@@ -44791,151 +44791,151 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H244" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="I244" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="J244" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L244" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P244" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U244" t="n">
         <v>1.87</v>
       </c>
-      <c r="L244" t="n">
-        <v>5</v>
-      </c>
-      <c r="M244" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N244" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O244" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P244" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R244" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S244" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T244" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U244" t="n">
-        <v>1.93</v>
-      </c>
       <c r="V244" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W244" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD244" t="n">
         <v>5.5</v>
       </c>
-      <c r="X244" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y244" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z244" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA244" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB244" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC244" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD244" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AE244" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ244" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF244" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG244" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH244" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI244" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ244" t="n">
-        <v>15</v>
-      </c>
       <c r="AK244" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL244" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM244" t="n">
         <v>60</v>
       </c>
       <c r="AN244" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO244" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP244" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AQ244" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR244" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS244" t="n">
         <v>250</v>
       </c>
       <c r="AT244" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU244" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV244" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW244" t="n">
         <v>51</v>
       </c>
       <c r="AX244" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AY244" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ244" t="n">
         <v>32</v>
       </c>
       <c r="BA244" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB244" t="n">
         <v>200</v>
       </c>
       <c r="BC244" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD244" t="n">
         <v>51</v>
@@ -44994,7 +44994,7 @@
         <v>1.02</v>
       </c>
       <c r="N245" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O245" t="n">
         <v>1.35</v>
@@ -45155,22 +45155,22 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="H246" t="n">
         <v>3.25</v>
       </c>
       <c r="I246" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J246" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K246" t="n">
         <v>2.02</v>
       </c>
       <c r="L246" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M246" t="n">
         <v>1.03</v>
@@ -45182,7 +45182,7 @@
         <v>1.38</v>
       </c>
       <c r="P246" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q246" t="n">
         <v>2.1</v>
@@ -45194,7 +45194,7 @@
         <v>1.44</v>
       </c>
       <c r="T246" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U246" t="n">
         <v>1.88</v>
@@ -45203,22 +45203,22 @@
         <v>1.72</v>
       </c>
       <c r="W246" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="X246" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y246" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z246" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA246" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB246" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC246" t="n">
         <v>8</v>
@@ -45236,34 +45236,34 @@
         <v>900</v>
       </c>
       <c r="AH246" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI246" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ246" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK246" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL246" t="n">
         <v>22</v>
-      </c>
-      <c r="AL246" t="n">
-        <v>21</v>
       </c>
       <c r="AM246" t="n">
         <v>37</v>
       </c>
       <c r="AN246" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AO246" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP246" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ246" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR246" t="n">
         <v>120</v>
@@ -45272,7 +45272,7 @@
         <v>400</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU246" t="n">
         <v>7.6</v>
@@ -45284,16 +45284,16 @@
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AY246" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ246" t="n">
         <v>23</v>
       </c>
       <c r="BA246" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB246" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -944,7 +944,7 @@
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -977,25 +977,25 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
         <v>29</v>
       </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>26</v>
-      </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1055,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX3" t="n">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1147,25 +1147,25 @@
         <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1183,16 +1183,16 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1311,25 +1311,25 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T5" t="n">
         <v>3.75</v>
@@ -1505,13 +1505,13 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T6" t="n">
         <v>3.75</v>
@@ -1687,13 +1687,13 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1804,7 +1804,7 @@
         <v>151</v>
       </c>
       <c r="BD7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1875,16 +1875,16 @@
         <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1971,13 +1971,13 @@
         <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -2209,7 +2209,7 @@
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
@@ -2233,10 +2233,10 @@
         <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
         <v>5.75</v>
@@ -2394,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2532,7 +2532,7 @@
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
         <v>2.4</v>
@@ -2615,7 +2615,7 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>10</v>
@@ -2633,13 +2633,13 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2648,13 +2648,13 @@
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2675,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2693,10 +2693,10 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2767,10 +2767,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2949,10 +2949,10 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -3498,7 +3498,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
         <v>1.08</v>
@@ -3624,7 +3624,7 @@
         <v>101</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -4167,7 +4167,7 @@
         <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4241,10 +4241,10 @@
         <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U21" t="n">
         <v>1.95</v>
@@ -4423,7 +4423,7 @@
         <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
         <v>3.25</v>
@@ -4605,7 +4605,7 @@
         <v>2.35</v>
       </c>
       <c r="S23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T23" t="n">
         <v>3.5</v>
@@ -4787,7 +4787,7 @@
         <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T24" t="n">
         <v>3.4</v>
@@ -5626,7 +5626,7 @@
         <v>201</v>
       </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -5864,7 +5864,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.3</v>
@@ -8591,10 +8591,10 @@
         <v>4.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8755,13 +8755,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -8803,7 +8803,7 @@
         <v>2.1</v>
       </c>
       <c r="W46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X46" t="n">
         <v>11</v>
@@ -8812,7 +8812,7 @@
         <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8857,7 +8857,7 @@
         <v>4.33</v>
       </c>
       <c r="AO46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP46" t="n">
         <v>21</v>
@@ -9519,10 +9519,10 @@
         <v>1.67</v>
       </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -9701,7 +9701,7 @@
         <v>1.65</v>
       </c>
       <c r="S51" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T51" t="n">
         <v>2.5</v>
@@ -9883,10 +9883,10 @@
         <v>1.53</v>
       </c>
       <c r="S52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T52" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U52" t="n">
         <v>2.1</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="n">
         <v>1.91</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.11</v>
@@ -10247,10 +10247,10 @@
         <v>1.44</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U54" t="n">
         <v>2.25</v>
@@ -10277,10 +10277,10 @@
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE54" t="n">
         <v>21</v>
@@ -10292,13 +10292,13 @@
         <v>201</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI54" t="n">
         <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="n">
         <v>41</v>
@@ -10328,7 +10328,7 @@
         <v>301</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU54" t="n">
         <v>9.5</v>
@@ -10411,10 +10411,10 @@
         <v>3.4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -10611,7 +10611,7 @@
         <v>1.62</v>
       </c>
       <c r="S56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T56" t="n">
         <v>2.5</v>
@@ -10793,10 +10793,10 @@
         <v>1.7</v>
       </c>
       <c r="S57" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T57" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U57" t="n">
         <v>1.91</v>
@@ -11324,7 +11324,7 @@
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O60" t="n">
         <v>1.13</v>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>4.75</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J61" t="n">
         <v>1.8</v>
@@ -11515,10 +11515,10 @@
         <v>6</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R61" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S61" t="n">
         <v>1.22</v>
@@ -11533,19 +11533,19 @@
         <v>2.05</v>
       </c>
       <c r="W61" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y61" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y61" t="n">
-        <v>9</v>
-      </c>
       <c r="Z61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA61" t="n">
         <v>10</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>11</v>
       </c>
       <c r="AB61" t="n">
         <v>21</v>
@@ -11554,10 +11554,10 @@
         <v>19</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF61" t="n">
         <v>41</v>
@@ -11575,7 +11575,7 @@
         <v>23</v>
       </c>
       <c r="AK61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL61" t="n">
         <v>51</v>
@@ -11593,7 +11593,7 @@
         <v>15</v>
       </c>
       <c r="AQ61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR61" t="n">
         <v>34</v>
@@ -11605,13 +11605,13 @@
         <v>4</v>
       </c>
       <c r="AU61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV61" t="n">
         <v>41</v>
       </c>
       <c r="AW61" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX61" t="n">
         <v>9</v>
@@ -12613,7 +12613,7 @@
         <v>2.03</v>
       </c>
       <c r="S67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T67" t="n">
         <v>3</v>
@@ -12765,7 +12765,7 @@
         <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J68" t="n">
         <v>1.67</v>
@@ -12780,7 +12780,7 @@
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O68" t="n">
         <v>1.13</v>
@@ -12795,16 +12795,16 @@
         <v>2.7</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T68" t="n">
         <v>4</v>
       </c>
       <c r="U68" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V68" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W68" t="n">
         <v>9.5</v>
@@ -12825,10 +12825,10 @@
         <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE68" t="n">
         <v>21</v>
@@ -12858,10 +12858,10 @@
         <v>51</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP68" t="n">
         <v>15</v>
@@ -12873,7 +12873,7 @@
         <v>34</v>
       </c>
       <c r="AS68" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT68" t="n">
         <v>4</v>
@@ -12903,7 +12903,7 @@
         <v>151</v>
       </c>
       <c r="BC68" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD68" t="n">
         <v>81</v>
@@ -12977,7 +12977,7 @@
         <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -13141,10 +13141,10 @@
         <v>4.33</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
@@ -13669,13 +13669,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
         <v>2.63</v>
@@ -13684,7 +13684,7 @@
         <v>2.25</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
         <v>1.04</v>
@@ -13720,7 +13720,7 @@
         <v>8.5</v>
       </c>
       <c r="X73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y73" t="n">
         <v>9</v>
@@ -13738,7 +13738,7 @@
         <v>12</v>
       </c>
       <c r="AD73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE73" t="n">
         <v>13</v>
@@ -13765,7 +13765,7 @@
         <v>26</v>
       </c>
       <c r="AM73" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN73" t="n">
         <v>4.33</v>
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J76" t="n">
         <v>3.5</v>
@@ -14263,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="W76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X76" t="n">
         <v>15</v>
@@ -14314,10 +14314,10 @@
         <v>29</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP76" t="n">
         <v>23</v>
@@ -14615,7 +14615,7 @@
         <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T78" t="n">
         <v>3.25</v>
@@ -14797,7 +14797,7 @@
         <v>1.62</v>
       </c>
       <c r="S79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T79" t="n">
         <v>2.5</v>
@@ -14979,7 +14979,7 @@
         <v>1.95</v>
       </c>
       <c r="S80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T80" t="n">
         <v>3</v>
@@ -15149,10 +15149,10 @@
         <v>9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P81" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q81" t="n">
         <v>2.1</v>
@@ -15161,10 +15161,10 @@
         <v>1.73</v>
       </c>
       <c r="S81" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T81" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U81" t="n">
         <v>1.83</v>
@@ -15343,7 +15343,7 @@
         <v>2.03</v>
       </c>
       <c r="S82" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T82" t="n">
         <v>3</v>
@@ -15510,7 +15510,7 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
         <v>1.18</v>
@@ -15853,22 +15853,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H85" t="n">
         <v>3.5</v>
       </c>
       <c r="I85" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J85" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K85" t="n">
         <v>2.3</v>
       </c>
       <c r="L85" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -15907,10 +15907,10 @@
         <v>11</v>
       </c>
       <c r="Y85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA85" t="n">
         <v>15</v>
@@ -15937,10 +15937,10 @@
         <v>13</v>
       </c>
       <c r="AI85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK85" t="n">
         <v>41</v>
@@ -15955,7 +15955,7 @@
         <v>4.33</v>
       </c>
       <c r="AO85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP85" t="n">
         <v>19</v>
@@ -15985,7 +15985,7 @@
         <v>5.5</v>
       </c>
       <c r="AY85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ85" t="n">
         <v>23</v>
@@ -16000,7 +16000,7 @@
         <v>151</v>
       </c>
       <c r="BD85" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
@@ -16035,13 +16035,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H86" t="n">
         <v>4.5</v>
       </c>
       <c r="I86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
         <v>1.83</v>
@@ -16056,7 +16056,7 @@
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -16116,7 +16116,7 @@
         <v>201</v>
       </c>
       <c r="AH86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI86" t="n">
         <v>41</v>
@@ -16140,10 +16140,10 @@
         <v>6.5</v>
       </c>
       <c r="AP86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ86" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>19</v>
       </c>
       <c r="AR86" t="n">
         <v>41</v>
@@ -16247,10 +16247,10 @@
         <v>3</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S87" t="n">
         <v>1.44</v>
@@ -16599,10 +16599,10 @@
         <v>5.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O89" t="n">
         <v>1.2</v>
@@ -16763,28 +16763,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J90" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K90" t="n">
         <v>2.1</v>
       </c>
       <c r="L90" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
@@ -16793,10 +16793,10 @@
         <v>3.25</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R90" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S90" t="n">
         <v>1.44</v>
@@ -16805,10 +16805,10 @@
         <v>2.63</v>
       </c>
       <c r="U90" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V90" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W90" t="n">
         <v>11</v>
@@ -16835,16 +16835,16 @@
         <v>6.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF90" t="n">
         <v>51</v>
       </c>
       <c r="AG90" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH90" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI90" t="n">
         <v>8.5</v>
@@ -16856,7 +16856,7 @@
         <v>15</v>
       </c>
       <c r="AL90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM90" t="n">
         <v>29</v>
@@ -17145,10 +17145,10 @@
         <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -17157,10 +17157,10 @@
         <v>3.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R92" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S92" t="n">
         <v>1.44</v>
@@ -17673,127 +17673,127 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.15</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I95" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J95" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="K95" t="n">
         <v>2.25</v>
       </c>
       <c r="L95" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="M95" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="O95" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P95" t="n">
-        <v>3.72</v>
+        <v>3.78</v>
       </c>
       <c r="Q95" t="n">
         <v>1.65</v>
       </c>
       <c r="R95" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T95" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U95" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V95" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X95" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y95" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z95" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF95" t="n">
         <v>50</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>45</v>
       </c>
       <c r="AG95" t="n">
         <v>300</v>
       </c>
       <c r="AH95" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI95" t="n">
         <v>6.8</v>
       </c>
-      <c r="AI95" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AJ95" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK95" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AL95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM95" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN95" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AO95" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP95" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ95" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR95" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS95" t="n">
         <v>350</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU95" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV95" t="n">
         <v>60</v>
@@ -17802,22 +17802,22 @@
         <v>51</v>
       </c>
       <c r="AX95" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY95" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AZ95" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA95" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BB95" t="n">
         <v>50</v>
       </c>
       <c r="BC95" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD95" t="n">
         <v>51</v>
@@ -17882,7 +17882,7 @@
         <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="Q96" t="n">
         <v>1.62</v>
@@ -18037,19 +18037,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H97" t="n">
         <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J97" t="n">
         <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L97" t="n">
         <v>3.4</v>
@@ -18058,7 +18058,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -18079,16 +18079,16 @@
         <v>3</v>
       </c>
       <c r="U97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V97" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W97" t="n">
         <v>9.5</v>
       </c>
       <c r="X97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y97" t="n">
         <v>9.5</v>
@@ -18100,7 +18100,7 @@
         <v>19</v>
       </c>
       <c r="AB97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC97" t="n">
         <v>12</v>
@@ -18109,7 +18109,7 @@
         <v>6.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF97" t="n">
         <v>41</v>
@@ -18172,7 +18172,7 @@
         <v>15</v>
       </c>
       <c r="AZ97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA97" t="n">
         <v>51</v>
@@ -18219,13 +18219,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J98" t="n">
         <v>2.63</v>
@@ -18255,22 +18255,22 @@
         <v>2.15</v>
       </c>
       <c r="S98" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U98" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -18285,7 +18285,7 @@
         <v>21</v>
       </c>
       <c r="AC98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD98" t="n">
         <v>7</v>
@@ -18294,10 +18294,10 @@
         <v>12</v>
       </c>
       <c r="AF98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH98" t="n">
         <v>13</v>
@@ -18312,7 +18312,7 @@
         <v>41</v>
       </c>
       <c r="AL98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM98" t="n">
         <v>29</v>
@@ -18324,7 +18324,7 @@
         <v>11</v>
       </c>
       <c r="AP98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ98" t="n">
         <v>34</v>
@@ -18336,16 +18336,16 @@
         <v>101</v>
       </c>
       <c r="AT98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU98" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV98" t="n">
         <v>41</v>
       </c>
       <c r="AW98" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX98" t="n">
         <v>5.5</v>
@@ -18354,7 +18354,7 @@
         <v>17</v>
       </c>
       <c r="AZ98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA98" t="n">
         <v>51</v>
@@ -18363,7 +18363,7 @@
         <v>67</v>
       </c>
       <c r="BC98" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD98" t="n">
         <v>81</v>
@@ -18765,10 +18765,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H101" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I101" t="n">
         <v>5.5</v>
@@ -18819,7 +18819,7 @@
         <v>10</v>
       </c>
       <c r="Y101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z101" t="n">
         <v>13</v>
@@ -18852,13 +18852,13 @@
         <v>34</v>
       </c>
       <c r="AJ101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK101" t="n">
         <v>51</v>
       </c>
       <c r="AL101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM101" t="n">
         <v>34</v>
@@ -18885,7 +18885,7 @@
         <v>4</v>
       </c>
       <c r="AU101" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV101" t="n">
         <v>41</v>
@@ -18909,7 +18909,7 @@
         <v>67</v>
       </c>
       <c r="BC101" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD101" t="n">
         <v>81</v>
@@ -19329,10 +19329,10 @@
         <v>5.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O104" t="n">
         <v>1.22</v>
@@ -19341,10 +19341,10 @@
         <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R104" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S104" t="n">
         <v>1.33</v>
@@ -19717,10 +19717,10 @@
         <v>3.75</v>
       </c>
       <c r="U106" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V106" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W106" t="n">
         <v>13</v>
@@ -19899,7 +19899,7 @@
         <v>3.25</v>
       </c>
       <c r="U107" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V107" t="n">
         <v>2.1</v>
@@ -20081,10 +20081,10 @@
         <v>3.75</v>
       </c>
       <c r="U108" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V108" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W108" t="n">
         <v>15</v>
@@ -20221,22 +20221,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H109" t="n">
         <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K109" t="n">
         <v>2.38</v>
       </c>
       <c r="L109" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M109" t="n">
         <v>1.03</v>
@@ -20257,13 +20257,13 @@
         <v>2.25</v>
       </c>
       <c r="S109" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U109" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V109" t="n">
         <v>2.5</v>
@@ -20278,13 +20278,13 @@
         <v>10</v>
       </c>
       <c r="Z109" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC109" t="n">
         <v>15</v>
@@ -20305,16 +20305,16 @@
         <v>13</v>
       </c>
       <c r="AI109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ109" t="n">
         <v>11</v>
       </c>
       <c r="AK109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM109" t="n">
         <v>23</v>
@@ -20323,7 +20323,7 @@
         <v>4.75</v>
       </c>
       <c r="AO109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP109" t="n">
         <v>19</v>
@@ -20338,7 +20338,7 @@
         <v>101</v>
       </c>
       <c r="AT109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU109" t="n">
         <v>7</v>
@@ -20353,10 +20353,10 @@
         <v>5</v>
       </c>
       <c r="AY109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA109" t="n">
         <v>41</v>
@@ -20445,10 +20445,10 @@
         <v>2.75</v>
       </c>
       <c r="U110" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V110" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W110" t="n">
         <v>7.5</v>
@@ -20603,19 +20603,19 @@
         <v>3.75</v>
       </c>
       <c r="M111" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N111" t="n">
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P111" t="n">
         <v>4.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R111" t="n">
         <v>2.3</v>
@@ -20785,19 +20785,19 @@
         <v>3.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
         <v>13</v>
       </c>
       <c r="O112" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P112" t="n">
         <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R112" t="n">
         <v>2.1</v>
@@ -20967,19 +20967,19 @@
         <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N113" t="n">
         <v>15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P113" t="n">
         <v>4.33</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R113" t="n">
         <v>2.2</v>
@@ -21149,19 +21149,19 @@
         <v>2.5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N114" t="n">
         <v>15</v>
       </c>
       <c r="O114" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P114" t="n">
         <v>4.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R114" t="n">
         <v>2.25</v>
@@ -21322,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K115" t="n">
         <v>2.3</v>
@@ -21525,10 +21525,10 @@
         <v>4.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R116" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S116" t="n">
         <v>1.3</v>
@@ -22226,19 +22226,19 @@
         <v>1.53</v>
       </c>
       <c r="H120" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I120" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K120" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L120" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M120" t="n">
         <v>1.02</v>
@@ -22247,34 +22247,34 @@
         <v>10</v>
       </c>
       <c r="O120" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P120" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R120" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="S120" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T120" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U120" t="n">
         <v>1.47</v>
       </c>
       <c r="V120" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W120" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X120" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y120" t="n">
         <v>8.5</v>
@@ -22289,13 +22289,13 @@
         <v>16.5</v>
       </c>
       <c r="AC120" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD120" t="n">
         <v>10</v>
       </c>
-      <c r="AD120" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE120" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF120" t="n">
         <v>35</v>
@@ -22304,7 +22304,7 @@
         <v>175</v>
       </c>
       <c r="AH120" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI120" t="n">
         <v>40</v>
@@ -22313,7 +22313,7 @@
         <v>16.5</v>
       </c>
       <c r="AK120" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL120" t="n">
         <v>40</v>
@@ -22322,16 +22322,16 @@
         <v>30</v>
       </c>
       <c r="AN120" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO120" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AP120" t="n">
         <v>12</v>
       </c>
       <c r="AQ120" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR120" t="n">
         <v>32</v>
@@ -22340,10 +22340,10 @@
         <v>100</v>
       </c>
       <c r="AT120" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU120" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV120" t="n">
         <v>37</v>
@@ -22352,19 +22352,19 @@
         <v>450</v>
       </c>
       <c r="AX120" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AY120" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ120" t="n">
         <v>22</v>
       </c>
       <c r="BA120" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB120" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC120" t="n">
         <v>175</v>
@@ -22608,7 +22608,7 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O122" t="n">
         <v>1.3</v>
@@ -22769,13 +22769,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>3.75</v>
       </c>
       <c r="I123" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J123" t="n">
         <v>4</v>
@@ -22784,25 +22784,25 @@
         <v>2.2</v>
       </c>
       <c r="L123" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M123" t="n">
         <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>1.36</v>
@@ -22811,25 +22811,25 @@
         <v>3</v>
       </c>
       <c r="U123" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V123" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB123" t="n">
         <v>34</v>
@@ -22850,10 +22850,10 @@
         <v>251</v>
       </c>
       <c r="AH123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ123" t="n">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>17</v>
       </c>
       <c r="AL123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM123" t="n">
         <v>26</v>
@@ -22871,7 +22871,7 @@
         <v>5.5</v>
       </c>
       <c r="AO123" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP123" t="n">
         <v>26</v>
@@ -22889,7 +22889,7 @@
         <v>3</v>
       </c>
       <c r="AU123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV123" t="n">
         <v>51</v>
@@ -22901,7 +22901,7 @@
         <v>4</v>
       </c>
       <c r="AY123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ123" t="n">
         <v>21</v>
@@ -22951,7 +22951,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H124" t="n">
         <v>3.4</v>
@@ -23139,7 +23139,7 @@
         <v>3.2</v>
       </c>
       <c r="I125" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J125" t="n">
         <v>3</v>
@@ -23154,7 +23154,7 @@
         <v>1.04</v>
       </c>
       <c r="N125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O125" t="n">
         <v>1.22</v>
@@ -23163,10 +23163,10 @@
         <v>4</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R125" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S125" t="n">
         <v>1.33</v>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
@@ -23324,7 +23324,7 @@
         <v>3.1</v>
       </c>
       <c r="J126" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K126" t="n">
         <v>2</v>
@@ -23333,10 +23333,10 @@
         <v>3.75</v>
       </c>
       <c r="M126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N126" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O126" t="n">
         <v>1.36</v>
@@ -23345,10 +23345,10 @@
         <v>3</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R126" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S126" t="n">
         <v>1.5</v>
@@ -23408,7 +23408,7 @@
         <v>34</v>
       </c>
       <c r="AL126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM126" t="n">
         <v>41</v>
@@ -23417,7 +23417,7 @@
         <v>4.33</v>
       </c>
       <c r="AO126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP126" t="n">
         <v>26</v>
@@ -23444,7 +23444,7 @@
         <v>81</v>
       </c>
       <c r="AX126" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY126" t="n">
         <v>17</v>
@@ -23497,7 +23497,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>3.1</v>
@@ -24043,16 +24043,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>3.25</v>
       </c>
       <c r="I130" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K130" t="n">
         <v>2.1</v>
@@ -24064,7 +24064,7 @@
         <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O130" t="n">
         <v>1.3</v>
@@ -24106,10 +24106,10 @@
         <v>23</v>
       </c>
       <c r="AB130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD130" t="n">
         <v>6</v>
@@ -24124,31 +24124,31 @@
         <v>201</v>
       </c>
       <c r="AH130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI130" t="n">
         <v>12</v>
       </c>
       <c r="AJ130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK130" t="n">
         <v>23</v>
       </c>
       <c r="AL130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM130" t="n">
         <v>29</v>
       </c>
       <c r="AN130" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ130" t="n">
         <v>51</v>
@@ -24249,16 +24249,16 @@
         <v>7</v>
       </c>
       <c r="O131" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P131" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q131" t="n">
         <v>2.5</v>
       </c>
       <c r="R131" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S131" t="n">
         <v>1.53</v>
@@ -24425,10 +24425,10 @@
         <v>3.25</v>
       </c>
       <c r="M132" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N132" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O132" t="n">
         <v>1.33</v>
@@ -24440,7 +24440,7 @@
         <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S132" t="n">
         <v>1.44</v>
@@ -24619,10 +24619,10 @@
         <v>4.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R133" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S133" t="n">
         <v>1.3</v>
@@ -25705,10 +25705,10 @@
         <v>13</v>
       </c>
       <c r="O139" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P139" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q139" t="n">
         <v>1.7</v>
@@ -25863,13 +25863,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H140" t="n">
         <v>3.4</v>
       </c>
       <c r="I140" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J140" t="n">
         <v>4.75</v>
@@ -25878,13 +25878,13 @@
         <v>2.1</v>
       </c>
       <c r="L140" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M140" t="n">
         <v>1.07</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O140" t="n">
         <v>1.36</v>
@@ -25947,7 +25947,7 @@
         <v>6.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ140" t="n">
         <v>9</v>
@@ -25995,7 +25995,7 @@
         <v>3.75</v>
       </c>
       <c r="AY140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ140" t="n">
         <v>23</v>
@@ -26051,7 +26051,7 @@
         <v>4.1</v>
       </c>
       <c r="I141" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J141" t="n">
         <v>2.1</v>
@@ -26087,10 +26087,10 @@
         <v>3.4</v>
       </c>
       <c r="U141" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V141" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W141" t="n">
         <v>8.5</v>
@@ -26099,7 +26099,7 @@
         <v>8.5</v>
       </c>
       <c r="Y141" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z141" t="n">
         <v>12</v>
@@ -26171,7 +26171,7 @@
         <v>51</v>
       </c>
       <c r="AW141" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX141" t="n">
         <v>7</v>
@@ -26251,10 +26251,10 @@
         <v>13</v>
       </c>
       <c r="O142" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P142" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q142" t="n">
         <v>1.7</v>
@@ -26269,10 +26269,10 @@
         <v>3.25</v>
       </c>
       <c r="U142" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V142" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W142" t="n">
         <v>17</v>
@@ -26308,13 +26308,13 @@
         <v>201</v>
       </c>
       <c r="AH142" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI142" t="n">
         <v>8</v>
       </c>
       <c r="AJ142" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK142" t="n">
         <v>11</v>
@@ -26326,7 +26326,7 @@
         <v>23</v>
       </c>
       <c r="AN142" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO142" t="n">
         <v>29</v>
@@ -26371,7 +26371,7 @@
         <v>41</v>
       </c>
       <c r="BC142" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD142" t="n">
         <v>151</v>
@@ -26773,13 +26773,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H145" t="n">
         <v>3.5</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J145" t="n">
         <v>2.88</v>
@@ -27322,7 +27322,7 @@
         <v>2.15</v>
       </c>
       <c r="H148" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I148" t="n">
         <v>3.3</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H149" t="n">
         <v>3.2</v>
@@ -27865,7 +27865,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="H151" t="n">
         <v>5.75</v>
@@ -28065,22 +28065,22 @@
         <v>6.5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O152" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R152" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S152" t="n">
         <v>1.2</v>
@@ -28229,13 +28229,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H153" t="n">
         <v>3.75</v>
       </c>
       <c r="I153" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J153" t="n">
         <v>4.33</v>
@@ -28244,7 +28244,7 @@
         <v>2.38</v>
       </c>
       <c r="L153" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M153" t="n">
         <v>1.03</v>
@@ -28611,10 +28611,10 @@
         <v>2.6</v>
       </c>
       <c r="M155" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O155" t="n">
         <v>1.25</v>
@@ -28623,13 +28623,13 @@
         <v>3.75</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T155" t="n">
         <v>3</v>
@@ -28811,7 +28811,7 @@
         <v>2.1</v>
       </c>
       <c r="S156" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T156" t="n">
         <v>3.25</v>
@@ -28993,7 +28993,7 @@
         <v>1.93</v>
       </c>
       <c r="S157" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T157" t="n">
         <v>2.75</v>
@@ -29175,7 +29175,7 @@
         <v>2.25</v>
       </c>
       <c r="S158" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T158" t="n">
         <v>3.4</v>
@@ -29321,19 +29321,19 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I159" t="n">
         <v>2.45</v>
       </c>
       <c r="J159" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K159" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L159" t="n">
         <v>3</v>
@@ -29342,7 +29342,7 @@
         <v>1.04</v>
       </c>
       <c r="N159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O159" t="n">
         <v>1.25</v>
@@ -29357,7 +29357,7 @@
         <v>2.03</v>
       </c>
       <c r="S159" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T159" t="n">
         <v>3</v>
@@ -29384,7 +29384,7 @@
         <v>21</v>
       </c>
       <c r="AB159" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC159" t="n">
         <v>12</v>
@@ -29426,7 +29426,7 @@
         <v>15</v>
       </c>
       <c r="AP159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ159" t="n">
         <v>51</v>
@@ -29539,7 +29539,7 @@
         <v>1.98</v>
       </c>
       <c r="S160" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T160" t="n">
         <v>3</v>
@@ -29715,13 +29715,13 @@
         <v>3.75</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R161" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S161" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T161" t="n">
         <v>3</v>
@@ -30431,10 +30431,10 @@
         <v>5</v>
       </c>
       <c r="M165" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O165" t="n">
         <v>1.29</v>
@@ -30610,13 +30610,13 @@
         <v>2.1</v>
       </c>
       <c r="L166" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M166" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N166" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O166" t="n">
         <v>1.33</v>
@@ -30637,10 +30637,10 @@
         <v>2.63</v>
       </c>
       <c r="U166" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V166" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W166" t="n">
         <v>11</v>
@@ -30661,7 +30661,7 @@
         <v>41</v>
       </c>
       <c r="AC166" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD166" t="n">
         <v>6.5</v>
@@ -30682,10 +30682,10 @@
         <v>8</v>
       </c>
       <c r="AJ166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL166" t="n">
         <v>15</v>
@@ -30709,7 +30709,7 @@
         <v>126</v>
       </c>
       <c r="AS166" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT166" t="n">
         <v>2.63</v>
@@ -30718,7 +30718,7 @@
         <v>8.5</v>
       </c>
       <c r="AV166" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW166" t="n">
         <v>51</v>
@@ -30777,16 +30777,16 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>3.3</v>
       </c>
       <c r="I167" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J167" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K167" t="n">
         <v>2.2</v>
@@ -30813,28 +30813,28 @@
         <v>1.98</v>
       </c>
       <c r="S167" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T167" t="n">
         <v>3</v>
       </c>
       <c r="U167" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V167" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W167" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y167" t="n">
         <v>9</v>
       </c>
       <c r="Z167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA167" t="n">
         <v>17</v>
@@ -30861,16 +30861,16 @@
         <v>12</v>
       </c>
       <c r="AI167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK167" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL167" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM167" t="n">
         <v>34</v>
@@ -30909,7 +30909,7 @@
         <v>5.5</v>
       </c>
       <c r="AY167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ167" t="n">
         <v>26</v>
@@ -30918,7 +30918,7 @@
         <v>51</v>
       </c>
       <c r="BB167" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC167" t="n">
         <v>151</v>
@@ -30959,13 +30959,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H168" t="n">
         <v>3.2</v>
       </c>
       <c r="I168" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J168" t="n">
         <v>3.5</v>
@@ -30977,10 +30977,10 @@
         <v>3</v>
       </c>
       <c r="M168" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N168" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O168" t="n">
         <v>1.33</v>
@@ -30989,16 +30989,16 @@
         <v>3.25</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R168" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S168" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T168" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U168" t="n">
         <v>1.83</v>
@@ -31007,25 +31007,25 @@
         <v>1.83</v>
       </c>
       <c r="W168" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X168" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z168" t="n">
         <v>29</v>
       </c>
       <c r="AA168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB168" t="n">
         <v>34</v>
       </c>
       <c r="AC168" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD168" t="n">
         <v>6.5</v>
@@ -31040,7 +31040,7 @@
         <v>600</v>
       </c>
       <c r="AH168" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI168" t="n">
         <v>11</v>
@@ -31049,16 +31049,16 @@
         <v>10</v>
       </c>
       <c r="AK168" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL168" t="n">
         <v>21</v>
       </c>
       <c r="AM168" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN168" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO168" t="n">
         <v>17</v>
@@ -31079,7 +31079,7 @@
         <v>2.63</v>
       </c>
       <c r="AU168" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV168" t="n">
         <v>51</v>
@@ -31088,13 +31088,13 @@
         <v>81</v>
       </c>
       <c r="AX168" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY168" t="n">
         <v>13</v>
       </c>
       <c r="AZ168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA168" t="n">
         <v>41</v>
@@ -31687,19 +31687,19 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I172" t="n">
         <v>4.33</v>
       </c>
       <c r="J172" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K172" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L172" t="n">
         <v>4.75</v>
@@ -31711,22 +31711,22 @@
         <v>11</v>
       </c>
       <c r="O172" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P172" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R172" t="n">
         <v>1.9</v>
       </c>
-      <c r="R172" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S172" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T172" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172" t="n">
         <v>1.8</v>
@@ -31735,7 +31735,7 @@
         <v>1.95</v>
       </c>
       <c r="W172" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X172" t="n">
         <v>8.5</v>
@@ -31768,16 +31768,16 @@
         <v>251</v>
       </c>
       <c r="AH172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI172" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ172" t="n">
         <v>15</v>
       </c>
       <c r="AK172" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL172" t="n">
         <v>34</v>
@@ -31792,19 +31792,19 @@
         <v>9.5</v>
       </c>
       <c r="AP172" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ172" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR172" t="n">
         <v>51</v>
       </c>
       <c r="AS172" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT172" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU172" t="n">
         <v>8</v>
@@ -32069,22 +32069,22 @@
         <v>3.4</v>
       </c>
       <c r="M174" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N174" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O174" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P174" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R174" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S174" t="n">
         <v>1.44</v>
@@ -34238,7 +34238,7 @@
         <v>1.8</v>
       </c>
       <c r="H186" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I186" t="n">
         <v>4.5</v>
@@ -34253,22 +34253,22 @@
         <v>4.5</v>
       </c>
       <c r="M186" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O186" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P186" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q186" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S186" t="n">
         <v>1.36</v>
@@ -34277,10 +34277,10 @@
         <v>3</v>
       </c>
       <c r="U186" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V186" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W186" t="n">
         <v>8</v>
@@ -34301,10 +34301,10 @@
         <v>23</v>
       </c>
       <c r="AC186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD186" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE186" t="n">
         <v>13</v>
@@ -34325,7 +34325,7 @@
         <v>15</v>
       </c>
       <c r="AK186" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL186" t="n">
         <v>34</v>
@@ -34334,7 +34334,7 @@
         <v>41</v>
       </c>
       <c r="AN186" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO186" t="n">
         <v>9.5</v>
@@ -34367,7 +34367,7 @@
         <v>6</v>
       </c>
       <c r="AY186" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ186" t="n">
         <v>29</v>
@@ -34379,7 +34379,7 @@
         <v>81</v>
       </c>
       <c r="BC186" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD186" t="n">
         <v>51</v>
@@ -34534,7 +34534,7 @@
         <v>151</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU187" t="n">
         <v>8</v>
@@ -34799,10 +34799,10 @@
         <v>5</v>
       </c>
       <c r="M189" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O189" t="n">
         <v>1.36</v>
@@ -34811,10 +34811,10 @@
         <v>3</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R189" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S189" t="n">
         <v>1.44</v>
@@ -34898,7 +34898,7 @@
         <v>201</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU189" t="n">
         <v>9</v>
@@ -35151,7 +35151,7 @@
         <v>3.4</v>
       </c>
       <c r="I191" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J191" t="n">
         <v>2.63</v>
@@ -35223,13 +35223,13 @@
         <v>41</v>
       </c>
       <c r="AG191" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH191" t="n">
         <v>13</v>
       </c>
       <c r="AI191" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ191" t="n">
         <v>13</v>
@@ -35345,10 +35345,10 @@
         <v>6</v>
       </c>
       <c r="M192" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N192" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O192" t="n">
         <v>1.4</v>
@@ -36267,10 +36267,10 @@
         <v>3.5</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R197" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S197" t="n">
         <v>1.4</v>
@@ -36449,10 +36449,10 @@
         <v>3.75</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R198" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S198" t="n">
         <v>1.36</v>
@@ -36601,7 +36601,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>4.2</v>
@@ -36813,10 +36813,10 @@
         <v>3.75</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R200" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S200" t="n">
         <v>1.36</v>
@@ -36965,7 +36965,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>3.25</v>
@@ -36977,10 +36977,10 @@
         <v>3.5</v>
       </c>
       <c r="K201" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L201" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M201" t="n">
         <v>1.06</v>
@@ -36995,10 +36995,10 @@
         <v>3.5</v>
       </c>
       <c r="Q201" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R201" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S201" t="n">
         <v>1.4</v>
@@ -37028,13 +37028,13 @@
         <v>23</v>
       </c>
       <c r="AB201" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC201" t="n">
         <v>10</v>
       </c>
       <c r="AD201" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE201" t="n">
         <v>13</v>
@@ -37067,10 +37067,10 @@
         <v>5</v>
       </c>
       <c r="AO201" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP201" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ201" t="n">
         <v>51</v>
@@ -37085,7 +37085,7 @@
         <v>2.75</v>
       </c>
       <c r="AU201" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV201" t="n">
         <v>51</v>
@@ -37147,7 +37147,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H202" t="n">
         <v>3.8</v>
@@ -37162,7 +37162,7 @@
         <v>2.5</v>
       </c>
       <c r="L202" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M202" t="n">
         <v>1.02</v>
@@ -37189,16 +37189,16 @@
         <v>3.75</v>
       </c>
       <c r="U202" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V202" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W202" t="n">
         <v>13</v>
       </c>
       <c r="X202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y202" t="n">
         <v>9.5</v>
@@ -37231,10 +37231,10 @@
         <v>15</v>
       </c>
       <c r="AI202" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK202" t="n">
         <v>34</v>
@@ -37371,7 +37371,7 @@
         <v>3.25</v>
       </c>
       <c r="U203" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V203" t="n">
         <v>2.1</v>
@@ -38057,22 +38057,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H207" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J207" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K207" t="n">
         <v>2.2</v>
       </c>
       <c r="L207" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M207" t="n">
         <v>1.05</v>
@@ -38087,10 +38087,10 @@
         <v>3.5</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R207" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S207" t="n">
         <v>1.4</v>
@@ -38111,7 +38111,7 @@
         <v>9.5</v>
       </c>
       <c r="Y207" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z207" t="n">
         <v>17</v>
@@ -38138,10 +38138,10 @@
         <v>201</v>
       </c>
       <c r="AH207" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI207" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ207" t="n">
         <v>13</v>
@@ -38159,7 +38159,7 @@
         <v>4</v>
       </c>
       <c r="AO207" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP207" t="n">
         <v>21</v>
@@ -38192,7 +38192,7 @@
         <v>21</v>
       </c>
       <c r="AZ207" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA207" t="n">
         <v>67</v>
@@ -38970,10 +38970,10 @@
         <v>2.7</v>
       </c>
       <c r="H212" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J212" t="n">
         <v>3.4</v>
@@ -38982,7 +38982,7 @@
         <v>2.1</v>
       </c>
       <c r="L212" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M212" t="n">
         <v>1.06</v>
@@ -38997,10 +38997,10 @@
         <v>3.4</v>
       </c>
       <c r="Q212" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R212" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S212" t="n">
         <v>1.4</v>
@@ -39015,16 +39015,16 @@
         <v>2</v>
       </c>
       <c r="W212" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X212" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y212" t="n">
         <v>11</v>
       </c>
       <c r="Z212" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA212" t="n">
         <v>21</v>
@@ -39033,7 +39033,7 @@
         <v>29</v>
       </c>
       <c r="AC212" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD212" t="n">
         <v>6</v>
@@ -39057,7 +39057,7 @@
         <v>10</v>
       </c>
       <c r="AK212" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL212" t="n">
         <v>21</v>
@@ -39099,13 +39099,13 @@
         <v>4.5</v>
       </c>
       <c r="AY212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ212" t="n">
         <v>23</v>
       </c>
       <c r="BA212" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB212" t="n">
         <v>67</v>
@@ -39149,22 +39149,22 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H213" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I213" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J213" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K213" t="n">
         <v>2.25</v>
       </c>
       <c r="L213" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M213" t="n">
         <v>1.05</v>
@@ -39200,13 +39200,13 @@
         <v>7</v>
       </c>
       <c r="X213" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y213" t="n">
         <v>8.5</v>
       </c>
       <c r="Z213" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA213" t="n">
         <v>13</v>
@@ -39218,7 +39218,7 @@
         <v>11</v>
       </c>
       <c r="AD213" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE213" t="n">
         <v>17</v>
@@ -39227,13 +39227,13 @@
         <v>51</v>
       </c>
       <c r="AG213" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH213" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ213" t="n">
         <v>17</v>
@@ -39251,13 +39251,13 @@
         <v>3.6</v>
       </c>
       <c r="AO213" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP213" t="n">
         <v>19</v>
       </c>
       <c r="AQ213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR213" t="n">
         <v>51</v>
@@ -39278,19 +39278,19 @@
         <v>126</v>
       </c>
       <c r="AX213" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ213" t="n">
         <v>34</v>
       </c>
       <c r="BA213" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB213" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC213" t="n">
         <v>251</v>
@@ -39907,10 +39907,10 @@
         <v>3.4</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R217" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S217" t="n">
         <v>1.4</v>
@@ -40092,7 +40092,7 @@
         <v>2.2</v>
       </c>
       <c r="R218" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S218" t="n">
         <v>1.44</v>
@@ -40271,7 +40271,7 @@
         <v>5.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R219" t="n">
         <v>2.4</v>
@@ -40453,10 +40453,10 @@
         <v>4</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R220" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S220" t="n">
         <v>1.33</v>
@@ -40605,7 +40605,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H221" t="n">
         <v>3.75</v>
@@ -40635,10 +40635,10 @@
         <v>5.5</v>
       </c>
       <c r="Q221" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R221" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S221" t="n">
         <v>1.25</v>
@@ -40787,7 +40787,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H222" t="n">
         <v>6</v>
@@ -40808,7 +40808,7 @@
         <v>1.01</v>
       </c>
       <c r="N222" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O222" t="n">
         <v>1.08</v>
@@ -40969,13 +40969,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H223" t="n">
         <v>3.5</v>
       </c>
       <c r="I223" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J223" t="n">
         <v>2.88</v>
@@ -41151,13 +41151,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H224" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I224" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J224" t="n">
         <v>2.2</v>
@@ -41166,7 +41166,7 @@
         <v>2.6</v>
       </c>
       <c r="L224" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M224" t="n">
         <v>1.02</v>
@@ -41235,7 +41235,7 @@
         <v>19</v>
       </c>
       <c r="AI224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ224" t="n">
         <v>15</v>
@@ -41247,7 +41247,7 @@
         <v>29</v>
       </c>
       <c r="AM224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN224" t="n">
         <v>4.33</v>
@@ -41298,7 +41298,7 @@
         <v>101</v>
       </c>
       <c r="BD224" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225">
@@ -41354,7 +41354,7 @@
         <v>1.02</v>
       </c>
       <c r="N225" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O225" t="n">
         <v>1.13</v>
@@ -41662,7 +41662,7 @@
         <v>101</v>
       </c>
       <c r="BD226" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227">
@@ -41706,7 +41706,7 @@
         <v>4</v>
       </c>
       <c r="J227" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K227" t="n">
         <v>2.5</v>
@@ -41727,10 +41727,10 @@
         <v>5.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R227" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S227" t="n">
         <v>1.25</v>
@@ -42449,10 +42449,10 @@
         <v>19</v>
       </c>
       <c r="O231" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P231" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q231" t="n">
         <v>1.48</v>
@@ -43159,52 +43159,52 @@
         <v>3.25</v>
       </c>
       <c r="I235" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J235" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K235" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L235" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M235" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N235" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="O235" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P235" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R235" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S235" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T235" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="U235" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V235" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W235" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X235" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y235" t="n">
         <v>10</v>
@@ -43216,25 +43216,25 @@
         <v>23</v>
       </c>
       <c r="AB235" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC235" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD235" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE235" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF235" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG235" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH235" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI235" t="n">
         <v>11.75</v>
@@ -43252,52 +43252,52 @@
         <v>35</v>
       </c>
       <c r="AN235" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO235" t="n">
         <v>14</v>
       </c>
       <c r="AP235" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ235" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR235" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS235" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU235" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV235" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW235" t="n">
         <v>51</v>
       </c>
       <c r="AX235" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AY235" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ235" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA235" t="n">
         <v>60</v>
       </c>
       <c r="BB235" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC235" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD235" t="n">
         <v>51</v>
@@ -43335,76 +43335,76 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="H236" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I236" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J236" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="K236" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L236" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M236" t="n">
         <v>1.05</v>
       </c>
       <c r="N236" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P236" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W236" t="n">
         <v>8</v>
       </c>
-      <c r="O236" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P236" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R236" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S236" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T236" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U236" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V236" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W236" t="n">
-        <v>8.25</v>
-      </c>
       <c r="X236" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y236" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z236" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA236" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB236" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC236" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD236" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE236" t="n">
         <v>13.5</v>
@@ -43413,61 +43413,61 @@
         <v>55</v>
       </c>
       <c r="AG236" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH236" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI236" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ236" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK236" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM236" t="n">
         <v>35</v>
       </c>
       <c r="AN236" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO236" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AP236" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ236" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR236" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS236" t="n">
         <v>200</v>
       </c>
       <c r="AT236" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AU236" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV236" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW236" t="n">
         <v>51</v>
       </c>
       <c r="AX236" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AY236" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ236" t="n">
         <v>25</v>
@@ -43517,61 +43517,61 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I237" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="J237" t="n">
         <v>2.3</v>
       </c>
       <c r="K237" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L237" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="M237" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N237" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="O237" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P237" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R237" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S237" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="T237" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="U237" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V237" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W237" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X237" t="n">
         <v>8.75</v>
       </c>
       <c r="Y237" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z237" t="n">
         <v>14</v>
@@ -43583,64 +43583,64 @@
         <v>23</v>
       </c>
       <c r="AC237" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AD237" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE237" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF237" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG237" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH237" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI237" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ237" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK237" t="n">
         <v>65</v>
       </c>
       <c r="AL237" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM237" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN237" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO237" t="n">
         <v>8.5</v>
       </c>
       <c r="AP237" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ237" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR237" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS237" t="n">
         <v>200</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU237" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV237" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW237" t="n">
         <v>51</v>
@@ -43649,19 +43649,19 @@
         <v>6.1</v>
       </c>
       <c r="AY237" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ237" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BA237" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB237" t="n">
         <v>150</v>
       </c>
-      <c r="BB237" t="n">
-        <v>175</v>
-      </c>
       <c r="BC237" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BD237" t="n">
         <v>51</v>
@@ -43884,55 +43884,55 @@
         <v>3</v>
       </c>
       <c r="H239" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I239" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J239" t="n">
         <v>3.55</v>
       </c>
       <c r="K239" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L239" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="M239" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N239" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O239" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P239" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R239" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S239" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T239" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U239" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V239" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W239" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X239" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y239" t="n">
         <v>11</v>
@@ -43947,22 +43947,22 @@
         <v>37</v>
       </c>
       <c r="AC239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH239" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AD239" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE239" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF239" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG239" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH239" t="n">
-        <v>7.5</v>
       </c>
       <c r="AI239" t="n">
         <v>10</v>
@@ -43971,22 +43971,22 @@
         <v>9</v>
       </c>
       <c r="AK239" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL239" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM239" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN239" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO239" t="n">
         <v>16.5</v>
       </c>
       <c r="AP239" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ239" t="n">
         <v>80</v>
@@ -43995,16 +43995,16 @@
         <v>120</v>
       </c>
       <c r="AS239" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU239" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV239" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW239" t="n">
         <v>51</v>
@@ -44013,10 +44013,10 @@
         <v>4.05</v>
       </c>
       <c r="AY239" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AZ239" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA239" t="n">
         <v>45</v>
@@ -44025,7 +44025,7 @@
         <v>80</v>
       </c>
       <c r="BC239" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD239" t="n">
         <v>51</v>
@@ -44248,55 +44248,55 @@
         <v>2.18</v>
       </c>
       <c r="H241" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I241" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J241" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K241" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L241" t="n">
         <v>3.75</v>
       </c>
       <c r="M241" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="O241" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P241" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q241" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R241" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S241" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T241" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U241" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V241" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W241" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X241" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y241" t="n">
         <v>8.75</v>
@@ -44305,25 +44305,25 @@
         <v>22</v>
       </c>
       <c r="AA241" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB241" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC241" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD241" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE241" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF241" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG241" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH241" t="n">
         <v>9</v>
@@ -44344,37 +44344,37 @@
         <v>40</v>
       </c>
       <c r="AN241" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO241" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP241" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ241" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR241" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS241" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU241" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV241" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW241" t="n">
         <v>51</v>
       </c>
       <c r="AX241" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AY241" t="n">
         <v>18</v>
@@ -44791,145 +44791,145 @@
         </is>
       </c>
       <c r="G244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L244" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N244" t="n">
+        <v>6</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P244" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U244" t="n">
         <v>1.93</v>
       </c>
-      <c r="H244" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J244" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K244" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L244" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M244" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N244" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O244" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P244" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R244" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S244" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T244" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U244" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V244" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W244" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X244" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y244" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z244" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA244" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AB244" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC244" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD244" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE244" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG244" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH244" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI244" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ244" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK244" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL244" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM244" t="n">
         <v>60</v>
       </c>
       <c r="AN244" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AO244" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AP244" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ244" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR244" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS244" t="n">
         <v>250</v>
       </c>
       <c r="AT244" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AU244" t="n">
         <v>6.7</v>
       </c>
       <c r="AV244" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW244" t="n">
         <v>51</v>
       </c>
       <c r="AX244" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY244" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ244" t="n">
         <v>30</v>
       </c>
-      <c r="AZ244" t="n">
-        <v>32</v>
-      </c>
       <c r="BA244" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB244" t="n">
         <v>200</v>
@@ -44973,139 +44973,139 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H245" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I245" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N245" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P245" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R245" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W245" t="n">
         <v>5.3</v>
       </c>
-      <c r="J245" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K245" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L245" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M245" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N245" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O245" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P245" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R245" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S245" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T245" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U245" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V245" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W245" t="n">
-        <v>5.6</v>
-      </c>
       <c r="X245" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y245" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z245" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AA245" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB245" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC245" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AD245" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE245" t="n">
         <v>19</v>
       </c>
       <c r="AF245" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG245" t="n">
         <v>1000</v>
       </c>
       <c r="AH245" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI245" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ245" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK245" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL245" t="n">
         <v>60</v>
       </c>
       <c r="AM245" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN245" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO245" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AP245" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ245" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AR245" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS245" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT245" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="AU245" t="n">
         <v>7.9</v>
       </c>
       <c r="AV245" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW245" t="n">
         <v>51</v>
       </c>
       <c r="AX245" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AY245" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ245" t="n">
         <v>37</v>
@@ -45155,22 +45155,22 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>3.25</v>
       </c>
       <c r="I246" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="J246" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K246" t="n">
         <v>2.02</v>
       </c>
       <c r="L246" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M246" t="n">
         <v>1.03</v>
@@ -45179,46 +45179,46 @@
         <v>6.9</v>
       </c>
       <c r="O246" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P246" t="n">
         <v>2.57</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R246" t="n">
         <v>1.57</v>
       </c>
       <c r="S246" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T246" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U246" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V246" t="n">
         <v>1.72</v>
       </c>
       <c r="W246" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X246" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y246" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z246" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA246" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB246" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC246" t="n">
         <v>8</v>
@@ -45227,55 +45227,55 @@
         <v>6.3</v>
       </c>
       <c r="AE246" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF246" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG246" t="n">
         <v>900</v>
       </c>
       <c r="AH246" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI246" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ246" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK246" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL246" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM246" t="n">
         <v>37</v>
       </c>
       <c r="AN246" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AO246" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AP246" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ246" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AR246" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS246" t="n">
         <v>400</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AU246" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV246" t="n">
         <v>80</v>
@@ -45284,16 +45284,16 @@
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AY246" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ246" t="n">
         <v>23</v>
       </c>
       <c r="BA246" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB246" t="n">
         <v>100</v>
@@ -45337,64 +45337,64 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H247" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I247" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="J247" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K247" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L247" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="M247" t="n">
         <v>1.03</v>
       </c>
       <c r="N247" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O247" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P247" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q247" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R247" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S247" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T247" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="U247" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V247" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W247" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X247" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y247" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z247" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA247" t="n">
         <v>21</v>
@@ -45403,46 +45403,46 @@
         <v>37</v>
       </c>
       <c r="AC247" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD247" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE247" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF247" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG247" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH247" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI247" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ247" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK247" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL247" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM247" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN247" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AO247" t="n">
         <v>12.5</v>
       </c>
       <c r="AP247" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ247" t="n">
         <v>55</v>
@@ -45454,10 +45454,10 @@
         <v>350</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="AU247" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV247" t="n">
         <v>80</v>
@@ -45466,22 +45466,22 @@
         <v>51</v>
       </c>
       <c r="AX247" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AY247" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ247" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA247" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB247" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC247" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD247" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
         <v>2.75</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
@@ -795,19 +795,19 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -983,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
@@ -1499,16 +1499,16 @@
         <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1517,10 +1517,10 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1544,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1559,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1568,7 +1568,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1845,7 +1845,7 @@
         <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
@@ -2218,7 +2218,7 @@
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,16 +2245,16 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y10" t="n">
         <v>17</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
@@ -2293,7 +2293,7 @@
         <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -2302,7 +2302,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2317,13 +2317,13 @@
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2341,13 +2341,13 @@
         <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB10" t="n">
         <v>51</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
         <v>5.75</v>
@@ -2394,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2409,16 +2409,16 @@
         <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>1.2</v>
@@ -2532,7 +2532,7 @@
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
@@ -2597,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
         <v>4.75</v>
@@ -2758,7 +2758,7 @@
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K13" t="n">
         <v>2.75</v>
@@ -2779,7 +2779,7 @@
         <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R13" t="n">
         <v>3.2</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.75</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O15" t="n">
         <v>1.1</v>
@@ -3155,10 +3155,10 @@
         <v>4.33</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
         <v>13</v>
@@ -3188,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
         <v>81</v>
@@ -3251,10 +3251,10 @@
         <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC15" t="n">
         <v>101</v>
@@ -3313,16 +3313,16 @@
         <v>2.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
         <v>1.67</v>
@@ -3513,10 +3513,10 @@
         <v>3.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -3561,7 +3561,7 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="n">
         <v>23</v>
@@ -3594,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3615,7 +3615,7 @@
         <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>81</v>
@@ -3677,10 +3677,10 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H20" t="n">
         <v>4.75</v>
@@ -4038,7 +4038,7 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4053,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
         <v>1.29</v>
@@ -4071,7 +4071,7 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>7.5</v>
@@ -4092,16 +4092,16 @@
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
@@ -4226,7 +4226,7 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -4247,10 +4247,10 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -4316,7 +4316,7 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
@@ -4396,7 +4396,7 @@
         <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K22" t="n">
         <v>2.4</v>
@@ -4405,10 +4405,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -4438,10 +4438,10 @@
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z22" t="n">
         <v>11</v>
@@ -4516,7 +4516,7 @@
         <v>501</v>
       </c>
       <c r="AX22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4763,7 +4763,7 @@
         <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L24" t="n">
         <v>3.75</v>
@@ -4948,7 +4948,7 @@
         <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -5121,13 +5121,13 @@
         <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J26" t="n">
         <v>4.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L26" t="n">
         <v>2.2</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -5339,13 +5339,13 @@
         <v>3</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
         <v>6.5</v>
@@ -5363,7 +5363,7 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
         <v>8</v>
@@ -5375,13 +5375,13 @@
         <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
         <v>21</v>
@@ -5396,13 +5396,13 @@
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>21</v>
@@ -5417,19 +5417,19 @@
         <v>3</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
       </c>
       <c r="AW27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX27" t="n">
         <v>8</v>
       </c>
       <c r="AY27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
@@ -5497,22 +5497,22 @@
         <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5679,22 +5679,22 @@
         <v>3.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
         <v>1.5</v>
@@ -5861,13 +5861,13 @@
         <v>2.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
         <v>4.5</v>
@@ -6037,19 +6037,19 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L31" t="n">
         <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P31" t="n">
         <v>2.1</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -6237,10 +6237,10 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6395,7 +6395,7 @@
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
@@ -6506,7 +6506,7 @@
         <v>301</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU33" t="n">
         <v>9</v>
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.25</v>
@@ -6789,10 +6789,10 @@
         <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U35" t="n">
         <v>1.62</v>
@@ -6801,7 +6801,7 @@
         <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -6813,13 +6813,13 @@
         <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB35" t="n">
         <v>23</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD35" t="n">
         <v>6.5</v>
@@ -6834,10 +6834,10 @@
         <v>151</v>
       </c>
       <c r="AH35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="n">
         <v>11</v>
@@ -6849,13 +6849,13 @@
         <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
         <v>4.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
@@ -6870,16 +6870,16 @@
         <v>126</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX35" t="n">
         <v>5</v>
@@ -6897,7 +6897,7 @@
         <v>67</v>
       </c>
       <c r="BC35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
         <v>126</v>
@@ -6947,7 +6947,7 @@
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>2.75</v>
@@ -7329,10 +7329,10 @@
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7663,13 +7663,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H40" t="n">
         <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.95</v>
@@ -7678,7 +7678,7 @@
         <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
@@ -7714,7 +7714,7 @@
         <v>9</v>
       </c>
       <c r="X40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y40" t="n">
         <v>8.5</v>
@@ -7729,7 +7729,7 @@
         <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
         <v>9.5</v>
@@ -7744,7 +7744,7 @@
         <v>201</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>34</v>
@@ -7753,7 +7753,7 @@
         <v>17</v>
       </c>
       <c r="AK40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL40" t="n">
         <v>41</v>
@@ -7771,7 +7771,7 @@
         <v>15</v>
       </c>
       <c r="AQ40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR40" t="n">
         <v>41</v>
@@ -7786,13 +7786,13 @@
         <v>8</v>
       </c>
       <c r="AV40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW40" t="n">
         <v>451</v>
       </c>
       <c r="AX40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY40" t="n">
         <v>29</v>
@@ -7887,7 +7887,7 @@
         <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
         <v>2.5</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8069,7 +8069,7 @@
         <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V42" t="n">
         <v>2.05</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
       </c>
       <c r="I43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L43" t="n">
         <v>4.75</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -8239,10 +8239,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8251,16 +8251,16 @@
         <v>3.25</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8275,25 +8275,25 @@
         <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH43" t="n">
         <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ43" t="n">
         <v>15</v>
@@ -8302,10 +8302,10 @@
         <v>51</v>
       </c>
       <c r="AL43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="n">
         <v>3.75</v>
@@ -8314,7 +8314,7 @@
         <v>8.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ43" t="n">
         <v>26</v>
@@ -8323,7 +8323,7 @@
         <v>41</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT43" t="n">
         <v>3.25</v>
@@ -8341,7 +8341,7 @@
         <v>6.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ43" t="n">
         <v>29</v>
@@ -8350,10 +8350,10 @@
         <v>81</v>
       </c>
       <c r="BB43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8415,16 +8415,16 @@
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
         <v>1.33</v>
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>6</v>
@@ -8946,7 +8946,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="n">
         <v>2.75</v>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -9310,7 +9310,7 @@
         <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
         <v>1.5</v>
@@ -9847,28 +9847,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O52" t="n">
         <v>1.44</v>
@@ -9889,25 +9889,25 @@
         <v>2.38</v>
       </c>
       <c r="U52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W52" t="n">
         <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y52" t="n">
         <v>9.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
@@ -9928,10 +9928,10 @@
         <v>1250</v>
       </c>
       <c r="AH52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ52" t="n">
         <v>15</v>
@@ -9940,10 +9940,10 @@
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="n">
         <v>4</v>
@@ -9979,7 +9979,7 @@
         <v>5.5</v>
       </c>
       <c r="AY52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ52" t="n">
         <v>34</v>
@@ -9988,10 +9988,10 @@
         <v>81</v>
       </c>
       <c r="BB52" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC52" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD52" t="n">
         <v>81</v>
@@ -10223,7 +10223,7 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L54" t="n">
         <v>4.5</v>
@@ -11139,16 +11139,16 @@
         <v>2.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q59" t="n">
         <v>2.05</v>
@@ -11315,7 +11315,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>4.75</v>
@@ -11494,13 +11494,13 @@
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K61" t="n">
         <v>2.75</v>
       </c>
       <c r="L61" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M61" t="n">
         <v>1.03</v>
@@ -11515,7 +11515,7 @@
         <v>5.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R61" t="n">
         <v>2.6</v>
@@ -11539,7 +11539,7 @@
         <v>8</v>
       </c>
       <c r="Y61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z61" t="n">
         <v>9.5</v>
@@ -11554,7 +11554,7 @@
         <v>17</v>
       </c>
       <c r="AD61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE61" t="n">
         <v>17</v>
@@ -11566,7 +11566,7 @@
         <v>151</v>
       </c>
       <c r="AH61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI61" t="n">
         <v>41</v>
@@ -11575,16 +11575,16 @@
         <v>23</v>
       </c>
       <c r="AK61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL61" t="n">
         <v>51</v>
       </c>
       <c r="AM61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO61" t="n">
         <v>6.5</v>
@@ -11593,7 +11593,7 @@
         <v>15</v>
       </c>
       <c r="AQ61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR61" t="n">
         <v>34</v>
@@ -11700,7 +11700,7 @@
         <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
         <v>1.44</v>
@@ -11882,7 +11882,7 @@
         <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -12768,7 +12768,7 @@
         <v>9.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K68" t="n">
         <v>2.75</v>
@@ -12795,7 +12795,7 @@
         <v>2.7</v>
       </c>
       <c r="S68" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T68" t="n">
         <v>4</v>
@@ -12977,7 +12977,7 @@
         <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -13153,13 +13153,13 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R70" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S70" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T70" t="n">
         <v>2.75</v>
@@ -13311,7 +13311,7 @@
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J71" t="n">
         <v>4.5</v>
@@ -13320,7 +13320,7 @@
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -13422,7 +13422,7 @@
         <v>251</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU71" t="n">
         <v>8.5</v>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
@@ -13496,7 +13496,7 @@
         <v>12</v>
       </c>
       <c r="J72" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K72" t="n">
         <v>2.75</v>
@@ -13517,10 +13517,10 @@
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R72" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S72" t="n">
         <v>1.29</v>
@@ -13869,10 +13869,10 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
         <v>1.22</v>
@@ -13893,7 +13893,7 @@
         <v>3.25</v>
       </c>
       <c r="U74" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V74" t="n">
         <v>2.2</v>
@@ -14075,10 +14075,10 @@
         <v>2.63</v>
       </c>
       <c r="U75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W75" t="n">
         <v>11</v>
@@ -14257,7 +14257,7 @@
         <v>2.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V76" t="n">
         <v>2</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K77" t="n">
         <v>2.2</v>
@@ -14439,7 +14439,7 @@
         <v>2.75</v>
       </c>
       <c r="U77" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V77" t="n">
         <v>2</v>
@@ -14448,13 +14448,13 @@
         <v>8</v>
       </c>
       <c r="X77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y77" t="n">
         <v>9</v>
       </c>
       <c r="Z77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA77" t="n">
         <v>17</v>
@@ -14463,7 +14463,7 @@
         <v>26</v>
       </c>
       <c r="AC77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
         <v>6.5</v>
@@ -14499,7 +14499,7 @@
         <v>4.33</v>
       </c>
       <c r="AO77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP77" t="n">
         <v>21</v>
@@ -14517,16 +14517,16 @@
         <v>2.75</v>
       </c>
       <c r="AU77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY77" t="n">
         <v>19</v>
@@ -14597,22 +14597,22 @@
         <v>4.75</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R78" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
         <v>1.33</v>
@@ -14621,7 +14621,7 @@
         <v>3.25</v>
       </c>
       <c r="U78" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V78" t="n">
         <v>2</v>
@@ -14770,7 +14770,7 @@
         <v>4.2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K79" t="n">
         <v>2.05</v>
@@ -14791,10 +14791,10 @@
         <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="n">
         <v>1.5</v>
@@ -14943,7 +14943,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H80" t="n">
         <v>3.6</v>
@@ -15125,13 +15125,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H81" t="n">
         <v>3.25</v>
       </c>
       <c r="I81" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J81" t="n">
         <v>3.4</v>
@@ -15155,10 +15155,10 @@
         <v>3.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R81" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15242,7 +15242,7 @@
         <v>201</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU81" t="n">
         <v>8</v>
@@ -15307,7 +15307,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
@@ -15510,22 +15510,22 @@
         <v>1.03</v>
       </c>
       <c r="N83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O83" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R83" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S83" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T83" t="n">
         <v>3.4</v>
@@ -15707,7 +15707,7 @@
         <v>2.25</v>
       </c>
       <c r="S84" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T84" t="n">
         <v>3.4</v>
@@ -15889,7 +15889,7 @@
         <v>2.1</v>
       </c>
       <c r="S85" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T85" t="n">
         <v>3.25</v>
@@ -16044,7 +16044,7 @@
         <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K86" t="n">
         <v>2.6</v>
@@ -16223,7 +16223,7 @@
         <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J87" t="n">
         <v>3.75</v>
@@ -16399,13 +16399,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H88" t="n">
         <v>3.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J88" t="n">
         <v>3.25</v>
@@ -16429,10 +16429,10 @@
         <v>3.25</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S88" t="n">
         <v>1.44</v>
@@ -16581,7 +16581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>4.33</v>
@@ -16769,7 +16769,7 @@
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J90" t="n">
         <v>4.75</v>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H91" t="n">
         <v>3.3</v>
@@ -16963,22 +16963,22 @@
         <v>3.6</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="R91" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S91" t="n">
         <v>1.4</v>
@@ -17133,7 +17133,7 @@
         <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
@@ -17309,7 +17309,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>3.4</v>
@@ -17360,7 +17360,7 @@
         <v>7.5</v>
       </c>
       <c r="X93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y93" t="n">
         <v>9</v>
@@ -17420,7 +17420,7 @@
         <v>41</v>
       </c>
       <c r="AR93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS93" t="n">
         <v>151</v>
@@ -17441,7 +17441,7 @@
         <v>5</v>
       </c>
       <c r="AY93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ93" t="n">
         <v>26</v>
@@ -17518,7 +17518,7 @@
         <v>1.09</v>
       </c>
       <c r="P94" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="n">
         <v>1.55</v>
@@ -17673,22 +17673,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="H95" t="n">
         <v>3.8</v>
       </c>
       <c r="I95" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J95" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K95" t="n">
         <v>2.25</v>
       </c>
       <c r="L95" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M95" t="n">
         <v>1.04</v>
@@ -17700,13 +17700,13 @@
         <v>1.17</v>
       </c>
       <c r="P95" t="n">
-        <v>3.78</v>
+        <v>3.82</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S95" t="n">
         <v>1.32</v>
@@ -17715,85 +17715,85 @@
         <v>3.2</v>
       </c>
       <c r="U95" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V95" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="W95" t="n">
         <v>12</v>
       </c>
       <c r="X95" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA95" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB95" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE95" t="n">
         <v>12</v>
       </c>
-      <c r="AD95" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF95" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI95" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AJ95" t="n">
         <v>6.9</v>
       </c>
       <c r="AK95" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AL95" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM95" t="n">
         <v>18</v>
       </c>
       <c r="AN95" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AO95" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP95" t="n">
         <v>27</v>
       </c>
-      <c r="AP95" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ95" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR95" t="n">
         <v>150</v>
       </c>
-      <c r="AR95" t="n">
-        <v>175</v>
-      </c>
       <c r="AS95" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT95" t="n">
         <v>3</v>
       </c>
       <c r="AU95" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV95" t="n">
         <v>60</v>
@@ -17802,16 +17802,16 @@
         <v>51</v>
       </c>
       <c r="AX95" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AY95" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AZ95" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA95" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB95" t="n">
         <v>50</v>
@@ -17855,19 +17855,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H96" t="n">
         <v>4.65</v>
       </c>
       <c r="I96" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J96" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="K96" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L96" t="n">
         <v>1.75</v>
@@ -17879,46 +17879,46 @@
         <v>12.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P96" t="n">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R96" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S96" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T96" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U96" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="W96" t="n">
         <v>17</v>
       </c>
       <c r="X96" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z96" t="n">
         <v>150</v>
       </c>
       <c r="AA96" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC96" t="n">
         <v>12.5</v>
@@ -17930,19 +17930,19 @@
         <v>18</v>
       </c>
       <c r="AF96" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG96" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH96" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI96" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK96" t="n">
         <v>6.8</v>
@@ -17951,19 +17951,19 @@
         <v>9.25</v>
       </c>
       <c r="AM96" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN96" t="n">
         <v>9</v>
       </c>
       <c r="AO96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP96" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ96" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR96" t="n">
         <v>350</v>
@@ -17972,13 +17972,13 @@
         <v>51</v>
       </c>
       <c r="AT96" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU96" t="n">
         <v>8.75</v>
       </c>
       <c r="AV96" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW96" t="n">
         <v>51</v>
@@ -17990,16 +17990,16 @@
         <v>5.7</v>
       </c>
       <c r="AZ96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BB96" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC96" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD96" t="n">
         <v>51</v>
@@ -18067,7 +18067,7 @@
         <v>4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R97" t="n">
         <v>2</v>
@@ -18249,7 +18249,7 @@
         <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
         <v>2.15</v>
@@ -18431,7 +18431,7 @@
         <v>5.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R99" t="n">
         <v>2.5</v>
@@ -18443,10 +18443,10 @@
         <v>3.75</v>
       </c>
       <c r="U99" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V99" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W99" t="n">
         <v>9</v>
@@ -18613,7 +18613,7 @@
         <v>5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R100" t="n">
         <v>2.35</v>
@@ -18625,10 +18625,10 @@
         <v>3.5</v>
       </c>
       <c r="U100" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V100" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W100" t="n">
         <v>11</v>
@@ -18795,10 +18795,10 @@
         <v>6.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R101" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S101" t="n">
         <v>1.22</v>
@@ -18807,7 +18807,7 @@
         <v>4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V101" t="n">
         <v>2.5</v>
@@ -18947,7 +18947,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
         <v>4.1</v>
@@ -18959,7 +18959,7 @@
         <v>2.1</v>
       </c>
       <c r="K102" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L102" t="n">
         <v>5.5</v>
@@ -19162,7 +19162,7 @@
         <v>2.7</v>
       </c>
       <c r="R103" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S103" t="n">
         <v>1.62</v>
@@ -19341,10 +19341,10 @@
         <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R104" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S104" t="n">
         <v>1.33</v>
@@ -19493,7 +19493,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>3.75</v>
@@ -19523,7 +19523,7 @@
         <v>5</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R105" t="n">
         <v>2.35</v>
@@ -19681,10 +19681,10 @@
         <v>3.5</v>
       </c>
       <c r="I106" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J106" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K106" t="n">
         <v>2.4</v>
@@ -19705,7 +19705,7 @@
         <v>5.5</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R106" t="n">
         <v>2.4</v>
@@ -19863,7 +19863,7 @@
         <v>3.8</v>
       </c>
       <c r="I107" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J107" t="n">
         <v>4.5</v>
@@ -20257,7 +20257,7 @@
         <v>2.25</v>
       </c>
       <c r="S109" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T109" t="n">
         <v>3.4</v>
@@ -20403,7 +20403,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H110" t="n">
         <v>3.4</v>
@@ -20439,7 +20439,7 @@
         <v>1.83</v>
       </c>
       <c r="S110" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T110" t="n">
         <v>2.75</v>
@@ -20609,19 +20609,19 @@
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P111" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R111" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S111" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T111" t="n">
         <v>3.4</v>
@@ -20797,13 +20797,13 @@
         <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R112" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S112" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T112" t="n">
         <v>3.25</v>
@@ -20979,13 +20979,13 @@
         <v>4.33</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R113" t="n">
         <v>2.2</v>
       </c>
       <c r="S113" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T113" t="n">
         <v>3.4</v>
@@ -21161,13 +21161,13 @@
         <v>4.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R114" t="n">
         <v>2.25</v>
       </c>
       <c r="S114" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T114" t="n">
         <v>3.4</v>
@@ -21316,10 +21316,10 @@
         <v>2.3</v>
       </c>
       <c r="H115" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -21328,7 +21328,7 @@
         <v>2.3</v>
       </c>
       <c r="L115" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M115" t="n">
         <v>1.03</v>
@@ -21343,25 +21343,25 @@
         <v>4.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R115" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S115" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T115" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U115" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V115" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X115" t="n">
         <v>13</v>
@@ -21376,25 +21376,25 @@
         <v>17</v>
       </c>
       <c r="AB115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD115" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG115" t="n">
         <v>126</v>
       </c>
       <c r="AH115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI115" t="n">
         <v>17</v>
@@ -21427,13 +21427,13 @@
         <v>51</v>
       </c>
       <c r="AS115" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT115" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV115" t="n">
         <v>41</v>
@@ -21451,7 +21451,7 @@
         <v>21</v>
       </c>
       <c r="BA115" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB115" t="n">
         <v>51</v>
@@ -22405,16 +22405,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H121" t="n">
         <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J121" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K121" t="n">
         <v>2.2</v>
@@ -22423,22 +22423,22 @@
         <v>3.1</v>
       </c>
       <c r="M121" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
         <v>11</v>
       </c>
       <c r="O121" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P121" t="n">
         <v>3.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R121" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S121" t="n">
         <v>1.36</v>
@@ -22456,13 +22456,13 @@
         <v>9.5</v>
       </c>
       <c r="X121" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y121" t="n">
         <v>10</v>
       </c>
       <c r="Z121" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA121" t="n">
         <v>21</v>
@@ -22489,10 +22489,10 @@
         <v>9</v>
       </c>
       <c r="AI121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ121" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK121" t="n">
         <v>23</v>
@@ -22546,7 +22546,7 @@
         <v>41</v>
       </c>
       <c r="BB121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC121" t="n">
         <v>151</v>
@@ -22605,22 +22605,22 @@
         <v>4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N122" t="n">
         <v>10</v>
       </c>
       <c r="O122" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P122" t="n">
         <v>3.4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R122" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="S122" t="n">
         <v>1.4</v>
@@ -22775,7 +22775,7 @@
         <v>3.75</v>
       </c>
       <c r="I123" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J123" t="n">
         <v>4</v>
@@ -22787,22 +22787,22 @@
         <v>2.6</v>
       </c>
       <c r="M123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
         <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R123" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>1.36</v>
@@ -22969,22 +22969,22 @@
         <v>4.33</v>
       </c>
       <c r="M124" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
         <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P124" t="n">
         <v>3.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R124" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S124" t="n">
         <v>1.4</v>
@@ -23151,22 +23151,22 @@
         <v>3.25</v>
       </c>
       <c r="M125" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N125" t="n">
         <v>13</v>
       </c>
       <c r="O125" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P125" t="n">
         <v>4</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R125" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S125" t="n">
         <v>1.33</v>
@@ -23315,19 +23315,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
       </c>
       <c r="I126" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>3.2</v>
       </c>
       <c r="K126" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
         <v>3.6</v>
@@ -23339,16 +23339,16 @@
         <v>8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q126" t="n">
         <v>2.25</v>
       </c>
       <c r="R126" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
         <v>1.5</v>
@@ -23357,10 +23357,10 @@
         <v>2.5</v>
       </c>
       <c r="U126" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V126" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W126" t="n">
         <v>7.5</v>
@@ -23393,19 +23393,19 @@
         <v>51</v>
       </c>
       <c r="AG126" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH126" t="n">
         <v>8.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ126" t="n">
         <v>11</v>
       </c>
       <c r="AK126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL126" t="n">
         <v>26</v>
@@ -23426,7 +23426,7 @@
         <v>51</v>
       </c>
       <c r="AR126" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS126" t="n">
         <v>201</v>
@@ -23459,7 +23459,7 @@
         <v>81</v>
       </c>
       <c r="BC126" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD126" t="n">
         <v>81</v>
@@ -23497,28 +23497,28 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H127" t="n">
         <v>3.1</v>
       </c>
       <c r="I127" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J127" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
       </c>
       <c r="L127" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M127" t="n">
         <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -23527,10 +23527,10 @@
         <v>2.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R127" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S127" t="n">
         <v>1.5</v>
@@ -23539,22 +23539,22 @@
         <v>2.5</v>
       </c>
       <c r="U127" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V127" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W127" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X127" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y127" t="n">
         <v>10</v>
       </c>
-      <c r="Y127" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA127" t="n">
         <v>21</v>
@@ -23563,7 +23563,7 @@
         <v>34</v>
       </c>
       <c r="AC127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD127" t="n">
         <v>6</v>
@@ -23575,10 +23575,10 @@
         <v>51</v>
       </c>
       <c r="AG127" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI127" t="n">
         <v>15</v>
@@ -23599,16 +23599,16 @@
         <v>4.33</v>
       </c>
       <c r="AO127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP127" t="n">
         <v>26</v>
       </c>
       <c r="AQ127" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR127" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS127" t="n">
         <v>201</v>
@@ -23638,7 +23638,7 @@
         <v>67</v>
       </c>
       <c r="BB127" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC127" t="n">
         <v>251</v>
@@ -23796,7 +23796,7 @@
         <v>201</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU128" t="n">
         <v>8</v>
@@ -23864,10 +23864,10 @@
         <v>3.1</v>
       </c>
       <c r="H129" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="I129" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J129" t="n">
         <v>3.75</v>
@@ -24043,13 +24043,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H130" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J130" t="n">
         <v>3.6</v>
@@ -24061,22 +24061,22 @@
         <v>3</v>
       </c>
       <c r="M130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R130" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S130" t="n">
         <v>1.4</v>
@@ -24091,7 +24091,7 @@
         <v>2</v>
       </c>
       <c r="W130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X130" t="n">
         <v>15</v>
@@ -24100,10 +24100,10 @@
         <v>11</v>
       </c>
       <c r="Z130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB130" t="n">
         <v>34</v>
@@ -24133,7 +24133,7 @@
         <v>9.5</v>
       </c>
       <c r="AK130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL130" t="n">
         <v>19</v>
@@ -24157,7 +24157,7 @@
         <v>81</v>
       </c>
       <c r="AS130" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT130" t="n">
         <v>2.75</v>
@@ -24258,7 +24258,7 @@
         <v>2.5</v>
       </c>
       <c r="R131" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S131" t="n">
         <v>1.53</v>
@@ -24440,7 +24440,7 @@
         <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S132" t="n">
         <v>1.44</v>
@@ -24589,7 +24589,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H133" t="n">
         <v>3.8</v>
@@ -24601,16 +24601,16 @@
         <v>2.25</v>
       </c>
       <c r="K133" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L133" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M133" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O133" t="n">
         <v>1.18</v>
@@ -24622,7 +24622,7 @@
         <v>1.62</v>
       </c>
       <c r="R133" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S133" t="n">
         <v>1.3</v>
@@ -24631,22 +24631,22 @@
         <v>3.4</v>
       </c>
       <c r="U133" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V133" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W133" t="n">
         <v>9</v>
       </c>
       <c r="X133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y133" t="n">
         <v>8.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA133" t="n">
         <v>13</v>
@@ -24655,7 +24655,7 @@
         <v>21</v>
       </c>
       <c r="AC133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD133" t="n">
         <v>7.5</v>
@@ -24688,7 +24688,7 @@
         <v>34</v>
       </c>
       <c r="AN133" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO133" t="n">
         <v>8.5</v>
@@ -24727,7 +24727,7 @@
         <v>26</v>
       </c>
       <c r="BA133" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB133" t="n">
         <v>81</v>
@@ -24813,7 +24813,7 @@
         <v>2.75</v>
       </c>
       <c r="U134" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V134" t="n">
         <v>2</v>
@@ -24971,13 +24971,13 @@
         <v>4.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N135" t="n">
         <v>11</v>
       </c>
       <c r="O135" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P135" t="n">
         <v>3.5</v>
@@ -25153,13 +25153,13 @@
         <v>2.25</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N136" t="n">
         <v>11</v>
       </c>
       <c r="O136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P136" t="n">
         <v>3.75</v>
@@ -25335,22 +25335,22 @@
         <v>3.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O137" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R137" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S137" t="n">
         <v>1.4</v>
@@ -25517,13 +25517,13 @@
         <v>3.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N138" t="n">
         <v>11</v>
       </c>
       <c r="O138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P138" t="n">
         <v>3.5</v>
@@ -25681,7 +25681,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H139" t="n">
         <v>3.9</v>
@@ -25699,13 +25699,13 @@
         <v>4.33</v>
       </c>
       <c r="M139" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N139" t="n">
         <v>15</v>
       </c>
       <c r="O139" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P139" t="n">
         <v>4.33</v>
@@ -25723,7 +25723,7 @@
         <v>3.25</v>
       </c>
       <c r="U139" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V139" t="n">
         <v>2.1</v>
@@ -25804,7 +25804,7 @@
         <v>7.5</v>
       </c>
       <c r="AV139" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW139" t="n">
         <v>51</v>
@@ -25884,7 +25884,7 @@
         <v>1.07</v>
       </c>
       <c r="N140" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O140" t="n">
         <v>1.36</v>
@@ -25980,7 +25980,7 @@
         <v>251</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU140" t="n">
         <v>8.5</v>
@@ -26045,94 +26045,94 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H141" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="I141" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="J141" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="K141" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="L141" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M141" t="n">
         <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O141" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P141" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="R141" t="n">
-        <v>2.36</v>
+        <v>2.51</v>
       </c>
       <c r="S141" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="T141" t="n">
-        <v>3.65</v>
+        <v>3.84</v>
       </c>
       <c r="U141" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="V141" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W141" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X141" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Y141" t="n">
         <v>40</v>
       </c>
       <c r="Z141" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AA141" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AB141" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC141" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD141" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE141" t="n">
         <v>28</v>
       </c>
       <c r="AF141" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG141" t="n">
         <v>500</v>
       </c>
       <c r="AH141" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI141" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AJ141" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK141" t="n">
         <v>5.4</v>
@@ -26144,13 +26144,13 @@
         <v>29</v>
       </c>
       <c r="AN141" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO141" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP141" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AQ141" t="n">
         <v>500</v>
@@ -26162,31 +26162,31 @@
         <v>51</v>
       </c>
       <c r="AT141" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AU141" t="n">
         <v>10.75</v>
       </c>
       <c r="AV141" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW141" t="n">
         <v>51</v>
       </c>
       <c r="AX141" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AY141" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AZ141" t="n">
         <v>16.5</v>
       </c>
       <c r="BA141" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BB141" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BC141" t="n">
         <v>250</v>
@@ -26412,43 +26412,43 @@
         <v>5.75</v>
       </c>
       <c r="H143" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J143" t="n">
         <v>5.5</v>
       </c>
       <c r="K143" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L143" t="n">
         <v>2.1</v>
       </c>
       <c r="M143" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N143" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P143" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R143" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S143" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T143" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U143" t="n">
         <v>1.75</v>
@@ -26517,7 +26517,7 @@
         <v>29</v>
       </c>
       <c r="AQ143" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR143" t="n">
         <v>101</v>
@@ -26526,7 +26526,7 @@
         <v>201</v>
       </c>
       <c r="AT143" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU143" t="n">
         <v>8</v>
@@ -26538,7 +26538,7 @@
         <v>501</v>
       </c>
       <c r="AX143" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY143" t="n">
         <v>8</v>
@@ -27137,28 +27137,28 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H147" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I147" t="n">
         <v>3.6</v>
       </c>
       <c r="J147" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="K147" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L147" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M147" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N147" t="n">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="O147" t="n">
         <v>1.19</v>
@@ -27167,61 +27167,61 @@
         <v>3.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R147" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S147" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="T147" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="U147" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V147" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="W147" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="X147" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y147" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z147" t="n">
         <v>16.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD147" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE147" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG147" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH147" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI147" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ147" t="n">
         <v>12.5</v>
@@ -27230,58 +27230,58 @@
         <v>50</v>
       </c>
       <c r="AL147" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM147" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN147" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AO147" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ147" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR147" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS147" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT147" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AU147" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV147" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW147" t="n">
         <v>51</v>
       </c>
       <c r="AX147" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY147" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ147" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA147" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB147" t="n">
         <v>90</v>
       </c>
-      <c r="BB147" t="n">
-        <v>110</v>
-      </c>
       <c r="BC147" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD147" t="n">
         <v>51</v>
@@ -27513,19 +27513,19 @@
         <v>3.1</v>
       </c>
       <c r="K149" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L149" t="n">
         <v>4.33</v>
       </c>
       <c r="M149" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N149" t="n">
         <v>6.5</v>
       </c>
       <c r="O149" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P149" t="n">
         <v>2.5</v>
@@ -27534,7 +27534,7 @@
         <v>2.6</v>
       </c>
       <c r="R149" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S149" t="n">
         <v>1.57</v>
@@ -27546,7 +27546,7 @@
         <v>2.2</v>
       </c>
       <c r="V149" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W149" t="n">
         <v>6</v>
@@ -27695,19 +27695,19 @@
         <v>2.5</v>
       </c>
       <c r="K150" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L150" t="n">
         <v>6</v>
       </c>
       <c r="M150" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N150" t="n">
         <v>6.5</v>
       </c>
       <c r="O150" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P150" t="n">
         <v>2.5</v>
@@ -27716,7 +27716,7 @@
         <v>2.5</v>
       </c>
       <c r="R150" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S150" t="n">
         <v>1.57</v>
@@ -27725,10 +27725,10 @@
         <v>2.25</v>
       </c>
       <c r="U150" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V150" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W150" t="n">
         <v>5</v>
@@ -27883,13 +27883,13 @@
         <v>4.33</v>
       </c>
       <c r="M151" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N151" t="n">
         <v>6</v>
       </c>
       <c r="O151" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P151" t="n">
         <v>2.5</v>
@@ -27910,7 +27910,7 @@
         <v>2.2</v>
       </c>
       <c r="V151" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W151" t="n">
         <v>6</v>
@@ -28047,19 +28047,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H152" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J152" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K152" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="L152" t="n">
         <v>15</v>
@@ -28068,31 +28068,31 @@
         <v>1.03</v>
       </c>
       <c r="N152" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O152" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P152" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R152" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S152" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T152" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U152" t="n">
         <v>3</v>
       </c>
       <c r="V152" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W152" t="n">
         <v>6.5</v>
@@ -28104,7 +28104,7 @@
         <v>12</v>
       </c>
       <c r="Z152" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA152" t="n">
         <v>13</v>
@@ -28113,10 +28113,10 @@
         <v>41</v>
       </c>
       <c r="AC152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE152" t="n">
         <v>41</v>
@@ -28128,13 +28128,13 @@
         <v>101</v>
       </c>
       <c r="AH152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI152" t="n">
         <v>81</v>
       </c>
       <c r="AJ152" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK152" t="n">
         <v>351</v>
@@ -28149,13 +28149,13 @@
         <v>2.88</v>
       </c>
       <c r="AO152" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR152" t="n">
         <v>41</v>
@@ -28164,10 +28164,10 @@
         <v>201</v>
       </c>
       <c r="AT152" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV152" t="n">
         <v>101</v>
@@ -28453,7 +28453,7 @@
         <v>3.4</v>
       </c>
       <c r="U154" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V154" t="n">
         <v>2.2</v>
@@ -28635,10 +28635,10 @@
         <v>2.5</v>
       </c>
       <c r="U155" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V155" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W155" t="n">
         <v>6.5</v>
@@ -28817,7 +28817,7 @@
         <v>3</v>
       </c>
       <c r="U156" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V156" t="n">
         <v>2.1</v>
@@ -28957,22 +28957,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="H157" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J157" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K157" t="n">
         <v>2.6</v>
       </c>
       <c r="L157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -28993,22 +28993,22 @@
         <v>2.1</v>
       </c>
       <c r="S157" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T157" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U157" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V157" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W157" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X157" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y157" t="n">
         <v>10</v>
@@ -29026,34 +29026,34 @@
         <v>11</v>
       </c>
       <c r="AD157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF157" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG157" t="n">
         <v>1000</v>
       </c>
       <c r="AH157" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI157" t="n">
         <v>51</v>
       </c>
       <c r="AJ157" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK157" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL157" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM157" t="n">
         <v>81</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>67</v>
       </c>
       <c r="AN157" t="n">
         <v>3.1</v>
@@ -29062,10 +29062,10 @@
         <v>5.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR157" t="n">
         <v>41</v>
@@ -29074,19 +29074,19 @@
         <v>151</v>
       </c>
       <c r="AT157" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU157" t="n">
         <v>11</v>
       </c>
       <c r="AV157" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW157" t="n">
         <v>126</v>
       </c>
       <c r="AX157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY157" t="n">
         <v>51</v>
@@ -29095,10 +29095,10 @@
         <v>51</v>
       </c>
       <c r="BA157" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB157" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC157" t="n">
         <v>501</v>
@@ -29145,7 +29145,7 @@
         <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J158" t="n">
         <v>3.2</v>
@@ -29157,13 +29157,13 @@
         <v>3.25</v>
       </c>
       <c r="M158" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
         <v>11</v>
       </c>
       <c r="O158" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P158" t="n">
         <v>3.5</v>
@@ -29181,7 +29181,7 @@
         <v>2.75</v>
       </c>
       <c r="U158" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V158" t="n">
         <v>2.05</v>
@@ -29327,25 +29327,25 @@
         <v>3.5</v>
       </c>
       <c r="I159" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K159" t="n">
         <v>2.3</v>
       </c>
       <c r="L159" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M159" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N159" t="n">
         <v>15</v>
       </c>
       <c r="O159" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P159" t="n">
         <v>4.5</v>
@@ -29363,16 +29363,16 @@
         <v>3.4</v>
       </c>
       <c r="U159" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V159" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W159" t="n">
         <v>12</v>
       </c>
       <c r="X159" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y159" t="n">
         <v>11</v>
@@ -29405,7 +29405,7 @@
         <v>11</v>
       </c>
       <c r="AI159" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ159" t="n">
         <v>9.5</v>
@@ -29453,7 +29453,7 @@
         <v>4.75</v>
       </c>
       <c r="AY159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ159" t="n">
         <v>19</v>
@@ -29503,10 +29503,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H160" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I160" t="n">
         <v>2.45</v>
@@ -29515,28 +29515,28 @@
         <v>3.4</v>
       </c>
       <c r="K160" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L160" t="n">
         <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N160" t="n">
         <v>12</v>
       </c>
       <c r="O160" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P160" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R160" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S160" t="n">
         <v>1.36</v>
@@ -29545,7 +29545,7 @@
         <v>3</v>
       </c>
       <c r="U160" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V160" t="n">
         <v>2.2</v>
@@ -29566,7 +29566,7 @@
         <v>21</v>
       </c>
       <c r="AB160" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC160" t="n">
         <v>12</v>
@@ -29608,7 +29608,7 @@
         <v>15</v>
       </c>
       <c r="AP160" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ160" t="n">
         <v>51</v>
@@ -29727,10 +29727,10 @@
         <v>3</v>
       </c>
       <c r="U161" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V161" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W161" t="n">
         <v>7</v>
@@ -29909,7 +29909,7 @@
         <v>3</v>
       </c>
       <c r="U162" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V162" t="n">
         <v>2.1</v>
@@ -30049,22 +30049,22 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I163" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="J163" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K163" t="n">
         <v>2.32</v>
       </c>
       <c r="L163" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
@@ -30073,16 +30073,16 @@
         <v>9</v>
       </c>
       <c r="O163" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P163" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q163" t="n">
         <v>1.57</v>
       </c>
       <c r="R163" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S163" t="n">
         <v>1.3</v>
@@ -30091,25 +30091,25 @@
         <v>3.2</v>
       </c>
       <c r="U163" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V163" t="n">
         <v>2.32</v>
       </c>
       <c r="W163" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X163" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y163" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z163" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA163" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB163" t="n">
         <v>28</v>
@@ -30118,46 +30118,46 @@
         <v>9</v>
       </c>
       <c r="AD163" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE163" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF163" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG163" t="n">
         <v>250</v>
       </c>
       <c r="AH163" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI163" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ163" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK163" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL163" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM163" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN163" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO163" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP163" t="n">
         <v>21</v>
       </c>
       <c r="AQ163" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR163" t="n">
         <v>100</v>
@@ -30169,25 +30169,25 @@
         <v>3.2</v>
       </c>
       <c r="AU163" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV163" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW163" t="n">
         <v>51</v>
       </c>
       <c r="AX163" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AY163" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ163" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA163" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB163" t="n">
         <v>50</v>
@@ -30977,13 +30977,13 @@
         <v>3.75</v>
       </c>
       <c r="M168" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N168" t="n">
         <v>8.5</v>
       </c>
       <c r="O168" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P168" t="n">
         <v>3.75</v>
@@ -31159,13 +31159,13 @@
         <v>3</v>
       </c>
       <c r="M169" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N169" t="n">
         <v>7.5</v>
       </c>
       <c r="O169" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P169" t="n">
         <v>3.25</v>
@@ -31323,7 +31323,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H170" t="n">
         <v>4</v>
@@ -31341,13 +31341,13 @@
         <v>4.33</v>
       </c>
       <c r="M170" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N170" t="n">
         <v>10.5</v>
       </c>
       <c r="O170" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P170" t="n">
         <v>4.5</v>
@@ -31505,7 +31505,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H171" t="n">
         <v>6.5</v>
@@ -31523,22 +31523,22 @@
         <v>8.5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N171" t="n">
         <v>19</v>
       </c>
       <c r="O171" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P171" t="n">
         <v>6</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R171" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S171" t="n">
         <v>1.22</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>3.25</v>
@@ -31899,10 +31899,10 @@
         <v>3.5</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R173" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S173" t="n">
         <v>1.4</v>
@@ -32275,10 +32275,10 @@
         <v>2.63</v>
       </c>
       <c r="U175" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V175" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W175" t="n">
         <v>8.5</v>
@@ -32961,70 +32961,70 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H179" t="n">
         <v>5.5</v>
       </c>
       <c r="I179" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J179" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K179" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L179" t="n">
         <v>6</v>
       </c>
       <c r="M179" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N179" t="n">
         <v>34</v>
-      </c>
-      <c r="N179" t="n">
-        <v>1.01</v>
       </c>
       <c r="O179" t="n">
         <v>1.04</v>
       </c>
       <c r="P179" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R179" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="S179" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="T179" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U179" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V179" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W179" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z179" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA179" t="n">
         <v>10</v>
       </c>
       <c r="AB179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC179" t="n">
         <v>34</v>
@@ -33036,34 +33036,34 @@
         <v>15</v>
       </c>
       <c r="AF179" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG179" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI179" t="n">
         <v>51</v>
       </c>
       <c r="AJ179" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK179" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL179" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN179" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO179" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP179" t="n">
         <v>11</v>
@@ -33072,13 +33072,13 @@
         <v>13</v>
       </c>
       <c r="AR179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS179" t="n">
         <v>51</v>
       </c>
       <c r="AT179" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU179" t="n">
         <v>7.5</v>
@@ -33087,10 +33087,10 @@
         <v>34</v>
       </c>
       <c r="AW179" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX179" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY179" t="n">
         <v>29</v>
@@ -33105,7 +33105,7 @@
         <v>67</v>
       </c>
       <c r="BC179" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD179" t="n">
         <v>51</v>
@@ -33871,34 +33871,34 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I184" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J184" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K184" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L184" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M184" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N184" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O184" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P184" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q184" t="n">
         <v>1.72</v>
@@ -33907,43 +33907,43 @@
         <v>2.05</v>
       </c>
       <c r="S184" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T184" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U184" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V184" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W184" t="n">
         <v>7.2</v>
       </c>
       <c r="X184" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y184" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z184" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA184" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB184" t="n">
         <v>25</v>
       </c>
       <c r="AC184" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD184" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE184" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF184" t="n">
         <v>80</v>
@@ -33952,46 +33952,46 @@
         <v>600</v>
       </c>
       <c r="AH184" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI184" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ184" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK184" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL184" t="n">
         <v>60</v>
       </c>
       <c r="AM184" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN184" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO184" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP184" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ184" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR184" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS184" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU184" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV184" t="n">
         <v>75</v>
@@ -34000,7 +34000,7 @@
         <v>51</v>
       </c>
       <c r="AX184" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AY184" t="n">
         <v>32</v>
@@ -34811,10 +34811,10 @@
         <v>3.75</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R189" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S189" t="n">
         <v>1.36</v>
@@ -34996,7 +34996,7 @@
         <v>2.15</v>
       </c>
       <c r="R190" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S190" t="n">
         <v>1.44</v>
@@ -35145,13 +35145,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H191" t="n">
         <v>3</v>
       </c>
       <c r="I191" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J191" t="n">
         <v>3.6</v>
@@ -35178,7 +35178,7 @@
         <v>2.6</v>
       </c>
       <c r="R191" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S191" t="n">
         <v>1.57</v>
@@ -35205,7 +35205,7 @@
         <v>29</v>
       </c>
       <c r="AA191" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB191" t="n">
         <v>41</v>
@@ -35238,7 +35238,7 @@
         <v>29</v>
       </c>
       <c r="AL191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM191" t="n">
         <v>41</v>
@@ -35250,7 +35250,7 @@
         <v>17</v>
       </c>
       <c r="AP191" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ191" t="n">
         <v>51</v>
@@ -35280,7 +35280,7 @@
         <v>17</v>
       </c>
       <c r="AZ191" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA191" t="n">
         <v>51</v>
@@ -35327,22 +35327,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I192" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J192" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K192" t="n">
         <v>2.3</v>
       </c>
       <c r="L192" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M192" t="n">
         <v>1.04</v>
@@ -35375,19 +35375,19 @@
         <v>2.25</v>
       </c>
       <c r="W192" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y192" t="n">
         <v>9</v>
       </c>
       <c r="Z192" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA192" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB192" t="n">
         <v>23</v>
@@ -35420,7 +35420,7 @@
         <v>34</v>
       </c>
       <c r="AL192" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM192" t="n">
         <v>29</v>
@@ -35435,13 +35435,13 @@
         <v>19</v>
       </c>
       <c r="AQ192" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR192" t="n">
         <v>51</v>
       </c>
       <c r="AS192" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT192" t="n">
         <v>3.25</v>
@@ -35471,7 +35471,7 @@
         <v>67</v>
       </c>
       <c r="BC192" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD192" t="n">
         <v>81</v>
@@ -35694,37 +35694,37 @@
         <v>3</v>
       </c>
       <c r="H194" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I194" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J194" t="n">
         <v>3.75</v>
       </c>
       <c r="K194" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L194" t="n">
         <v>3.5</v>
       </c>
       <c r="M194" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N194" t="n">
         <v>6</v>
       </c>
       <c r="O194" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P194" t="n">
         <v>2.25</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R194" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S194" t="n">
         <v>1.62</v>
@@ -35873,7 +35873,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H195" t="n">
         <v>4</v>
@@ -35882,7 +35882,7 @@
         <v>3.6</v>
       </c>
       <c r="J195" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K195" t="n">
         <v>2.5</v>
@@ -35891,19 +35891,19 @@
         <v>3.75</v>
       </c>
       <c r="M195" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N195" t="n">
         <v>21</v>
       </c>
       <c r="O195" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P195" t="n">
         <v>6</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R195" t="n">
         <v>2.7</v>
@@ -36020,7 +36020,7 @@
         <v>101</v>
       </c>
       <c r="BD195" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196">
@@ -36061,13 +36061,13 @@
         <v>4.2</v>
       </c>
       <c r="I196" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J196" t="n">
         <v>5</v>
       </c>
       <c r="K196" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L196" t="n">
         <v>2.2</v>
@@ -36166,7 +36166,7 @@
         <v>81</v>
       </c>
       <c r="AR196" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS196" t="n">
         <v>151</v>
@@ -36175,7 +36175,7 @@
         <v>3.4</v>
       </c>
       <c r="AU196" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV196" t="n">
         <v>51</v>
@@ -36255,22 +36255,22 @@
         <v>2.6</v>
       </c>
       <c r="M197" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N197" t="n">
         <v>11</v>
       </c>
       <c r="O197" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P197" t="n">
         <v>3.75</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S197" t="n">
         <v>1.36</v>
@@ -36419,13 +36419,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J198" t="n">
         <v>3.4</v>
@@ -36434,25 +36434,25 @@
         <v>2.2</v>
       </c>
       <c r="L198" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M198" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N198" t="n">
         <v>11</v>
       </c>
       <c r="O198" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P198" t="n">
         <v>3.5</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R198" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S198" t="n">
         <v>1.4</v>
@@ -36467,7 +36467,7 @@
         <v>2.05</v>
       </c>
       <c r="W198" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X198" t="n">
         <v>15</v>
@@ -36479,7 +36479,7 @@
         <v>29</v>
       </c>
       <c r="AA198" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB198" t="n">
         <v>29</v>
@@ -36500,7 +36500,7 @@
         <v>201</v>
       </c>
       <c r="AH198" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI198" t="n">
         <v>12</v>
@@ -36619,22 +36619,22 @@
         <v>2.88</v>
       </c>
       <c r="M199" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N199" t="n">
         <v>11</v>
       </c>
       <c r="O199" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P199" t="n">
         <v>3.75</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R199" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S199" t="n">
         <v>1.36</v>
@@ -36783,7 +36783,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>4.2</v>
@@ -36804,7 +36804,7 @@
         <v>1.03</v>
       </c>
       <c r="N200" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O200" t="n">
         <v>1.18</v>
@@ -36813,10 +36813,10 @@
         <v>4.5</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R200" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S200" t="n">
         <v>1.3</v>
@@ -36980,7 +36980,7 @@
         <v>2.2</v>
       </c>
       <c r="L201" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M201" t="n">
         <v>1.04</v>
@@ -37153,7 +37153,7 @@
         <v>3.25</v>
       </c>
       <c r="I202" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J202" t="n">
         <v>3.5</v>
@@ -37177,10 +37177,10 @@
         <v>3.4</v>
       </c>
       <c r="Q202" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R202" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S202" t="n">
         <v>1.4</v>
@@ -37329,16 +37329,16 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H203" t="n">
         <v>3.8</v>
       </c>
       <c r="I203" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J203" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K203" t="n">
         <v>2.5</v>
@@ -37455,7 +37455,7 @@
         <v>41</v>
       </c>
       <c r="AW203" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX203" t="n">
         <v>5.5</v>
@@ -37511,7 +37511,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H204" t="n">
         <v>3.75</v>
@@ -37520,7 +37520,7 @@
         <v>4.33</v>
       </c>
       <c r="J204" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K204" t="n">
         <v>2.3</v>
@@ -37553,7 +37553,7 @@
         <v>3.25</v>
       </c>
       <c r="U204" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V204" t="n">
         <v>2.1</v>
@@ -38057,28 +38057,28 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H207" t="n">
         <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J207" t="n">
         <v>2.75</v>
       </c>
       <c r="K207" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L207" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M207" t="n">
         <v>1.04</v>
       </c>
       <c r="N207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O207" t="n">
         <v>1.22</v>
@@ -38093,28 +38093,28 @@
         <v>2</v>
       </c>
       <c r="S207" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T207" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U207" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V207" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W207" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X207" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y207" t="n">
         <v>9</v>
       </c>
       <c r="Z207" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA207" t="n">
         <v>17</v>
@@ -38123,13 +38123,13 @@
         <v>23</v>
       </c>
       <c r="AC207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD207" t="n">
         <v>7</v>
       </c>
       <c r="AE207" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF207" t="n">
         <v>41</v>
@@ -38141,7 +38141,7 @@
         <v>12</v>
       </c>
       <c r="AI207" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ207" t="n">
         <v>12</v>
@@ -38150,7 +38150,7 @@
         <v>34</v>
       </c>
       <c r="AL207" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM207" t="n">
         <v>29</v>
@@ -38159,7 +38159,7 @@
         <v>4.33</v>
       </c>
       <c r="AO207" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP207" t="n">
         <v>19</v>
@@ -38174,13 +38174,13 @@
         <v>126</v>
       </c>
       <c r="AT207" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU207" t="n">
         <v>7.5</v>
       </c>
       <c r="AV207" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW207" t="n">
         <v>251</v>
@@ -38239,7 +38239,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H208" t="n">
         <v>3.5</v>
@@ -38275,13 +38275,13 @@
         <v>1.93</v>
       </c>
       <c r="S208" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T208" t="n">
         <v>2.75</v>
       </c>
       <c r="U208" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V208" t="n">
         <v>2</v>
@@ -38427,7 +38427,7 @@
         <v>5.5</v>
       </c>
       <c r="I209" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J209" t="n">
         <v>6</v>
@@ -38457,13 +38457,13 @@
         <v>3.1</v>
       </c>
       <c r="S209" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T209" t="n">
         <v>4.33</v>
       </c>
       <c r="U209" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V209" t="n">
         <v>2.25</v>
@@ -38633,19 +38633,19 @@
         <v>3.5</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R210" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S210" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T210" t="n">
         <v>2.75</v>
       </c>
       <c r="U210" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V210" t="n">
         <v>2</v>
@@ -38827,7 +38827,7 @@
         <v>2.63</v>
       </c>
       <c r="U211" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V211" t="n">
         <v>2</v>
@@ -39009,10 +39009,10 @@
         <v>2.63</v>
       </c>
       <c r="U212" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V212" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W212" t="n">
         <v>7</v>
@@ -39191,10 +39191,10 @@
         <v>2.63</v>
       </c>
       <c r="U213" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V213" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W213" t="n">
         <v>8.5</v>
@@ -39361,10 +39361,10 @@
         <v>3.75</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R214" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S214" t="n">
         <v>1.36</v>
@@ -39373,10 +39373,10 @@
         <v>3</v>
       </c>
       <c r="U214" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V214" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W214" t="n">
         <v>7</v>
@@ -39513,28 +39513,28 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H215" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I215" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="J215" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="K215" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L215" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="M215" t="n">
         <v>1.04</v>
       </c>
       <c r="N215" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="O215" t="n">
         <v>1.35</v>
@@ -39543,16 +39543,16 @@
         <v>2.7</v>
       </c>
       <c r="Q215" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R215" t="n">
         <v>1.62</v>
       </c>
       <c r="S215" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T215" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="U215" t="n">
         <v>1.93</v>
@@ -39564,31 +39564,31 @@
         <v>5.8</v>
       </c>
       <c r="X215" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y215" t="n">
         <v>8.25</v>
       </c>
       <c r="Z215" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA215" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB215" t="n">
         <v>32</v>
       </c>
       <c r="AC215" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD215" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE215" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF215" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG215" t="n">
         <v>900</v>
@@ -39597,43 +39597,43 @@
         <v>11.5</v>
       </c>
       <c r="AI215" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ215" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK215" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL215" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM215" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN215" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO215" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP215" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ215" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR215" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS215" t="n">
         <v>300</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU215" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV215" t="n">
         <v>80</v>
@@ -39642,19 +39642,19 @@
         <v>81</v>
       </c>
       <c r="AX215" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AY215" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ215" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA215" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB215" t="n">
         <v>200</v>
-      </c>
-      <c r="BB215" t="n">
-        <v>250</v>
       </c>
       <c r="BC215" t="n">
         <v>500</v>
@@ -39695,7 +39695,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H216" t="n">
         <v>5.8</v>
@@ -39704,7 +39704,7 @@
         <v>1.16</v>
       </c>
       <c r="J216" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K216" t="n">
         <v>2.55</v>
@@ -39725,10 +39725,10 @@
         <v>3.7</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R216" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S216" t="n">
         <v>1.3</v>
@@ -39737,31 +39737,31 @@
         <v>3.32</v>
       </c>
       <c r="U216" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V216" t="n">
         <v>1.4</v>
       </c>
       <c r="W216" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X216" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Y216" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z216" t="n">
         <v>800</v>
       </c>
       <c r="AA216" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AB216" t="n">
         <v>250</v>
       </c>
       <c r="AC216" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD216" t="n">
         <v>13.5</v>
@@ -39776,28 +39776,28 @@
         <v>67</v>
       </c>
       <c r="AH216" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AI216" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AJ216" t="n">
         <v>10.5</v>
       </c>
       <c r="AK216" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AL216" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM216" t="n">
         <v>45</v>
       </c>
       <c r="AN216" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO216" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP216" t="n">
         <v>90</v>
@@ -39812,10 +39812,10 @@
         <v>67</v>
       </c>
       <c r="AT216" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU216" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AV216" t="n">
         <v>150</v>
@@ -39824,13 +39824,13 @@
         <v>81</v>
       </c>
       <c r="AX216" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AY216" t="n">
         <v>4.7</v>
       </c>
       <c r="AZ216" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA216" t="n">
         <v>11.25</v>
@@ -40241,28 +40241,28 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H219" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I219" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J219" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K219" t="n">
         <v>2.1</v>
       </c>
       <c r="L219" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M219" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O219" t="n">
         <v>1.36</v>
@@ -40283,10 +40283,10 @@
         <v>2.63</v>
       </c>
       <c r="U219" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V219" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W219" t="n">
         <v>6</v>
@@ -40298,7 +40298,7 @@
         <v>9</v>
       </c>
       <c r="Z219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA219" t="n">
         <v>17</v>
@@ -40307,7 +40307,7 @@
         <v>34</v>
       </c>
       <c r="AC219" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD219" t="n">
         <v>7</v>
@@ -40343,7 +40343,7 @@
         <v>3.6</v>
       </c>
       <c r="AO219" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP219" t="n">
         <v>23</v>
@@ -40370,13 +40370,13 @@
         <v>51</v>
       </c>
       <c r="AX219" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY219" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ219" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA219" t="n">
         <v>101</v>
@@ -40385,7 +40385,7 @@
         <v>126</v>
       </c>
       <c r="BC219" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD219" t="n">
         <v>51</v>
@@ -40465,10 +40465,10 @@
         <v>3.5</v>
       </c>
       <c r="U220" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V220" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W220" t="n">
         <v>15</v>
@@ -40647,7 +40647,7 @@
         <v>3.25</v>
       </c>
       <c r="U221" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V221" t="n">
         <v>2.2</v>
@@ -40829,7 +40829,7 @@
         <v>3.75</v>
       </c>
       <c r="U222" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V222" t="n">
         <v>2.5</v>
@@ -40978,10 +40978,10 @@
         <v>7</v>
       </c>
       <c r="J223" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K223" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L223" t="n">
         <v>6</v>
@@ -40990,7 +40990,7 @@
         <v>1.01</v>
       </c>
       <c r="N223" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O223" t="n">
         <v>1.08</v>
@@ -41011,10 +41011,10 @@
         <v>4.5</v>
       </c>
       <c r="U223" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V223" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W223" t="n">
         <v>13</v>
@@ -41160,7 +41160,7 @@
         <v>2.88</v>
       </c>
       <c r="J224" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K224" t="n">
         <v>2.4</v>
@@ -41193,10 +41193,10 @@
         <v>3.5</v>
       </c>
       <c r="U224" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V224" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W224" t="n">
         <v>12</v>
@@ -41909,7 +41909,7 @@
         <v>5.5</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R228" t="n">
         <v>2.4</v>
@@ -42091,7 +42091,7 @@
         <v>6</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R229" t="n">
         <v>2.7</v>
@@ -42273,7 +42273,7 @@
         <v>8</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R230" t="n">
         <v>3.4</v>
@@ -42455,7 +42455,7 @@
         <v>7</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R231" t="n">
         <v>3.1</v>
@@ -42637,7 +42637,7 @@
         <v>6</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R232" t="n">
         <v>2.6</v>
@@ -42819,7 +42819,7 @@
         <v>5</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R233" t="n">
         <v>2.35</v>
@@ -42971,34 +42971,34 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H234" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J234" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="K234" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L234" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M234" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N234" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O234" t="n">
         <v>1.2</v>
       </c>
       <c r="P234" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q234" t="n">
         <v>1.62</v>
@@ -43016,70 +43016,70 @@
         <v>1.57</v>
       </c>
       <c r="V234" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W234" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X234" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y234" t="n">
         <v>8.75</v>
       </c>
       <c r="Z234" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA234" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB234" t="n">
         <v>21</v>
       </c>
       <c r="AC234" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD234" t="n">
         <v>7.6</v>
       </c>
       <c r="AE234" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF234" t="n">
         <v>45</v>
       </c>
       <c r="AG234" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH234" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI234" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ234" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK234" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL234" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM234" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN234" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AO234" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP234" t="n">
         <v>16</v>
       </c>
       <c r="AQ234" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR234" t="n">
         <v>55</v>
@@ -43100,16 +43100,16 @@
         <v>51</v>
       </c>
       <c r="AX234" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AY234" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA234" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB234" t="n">
         <v>90</v>
@@ -43517,19 +43517,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H237" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I237" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J237" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K237" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L237" t="n">
         <v>3.95</v>
@@ -43538,67 +43538,67 @@
         <v>1.05</v>
       </c>
       <c r="N237" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O237" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P237" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R237" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S237" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T237" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U237" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V237" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="W237" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X237" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y237" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z237" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA237" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB237" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC237" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD237" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE237" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF237" t="n">
         <v>55</v>
       </c>
       <c r="AG237" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH237" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI237" t="n">
         <v>19.5</v>
@@ -43613,46 +43613,46 @@
         <v>30</v>
       </c>
       <c r="AM237" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN237" t="n">
         <v>3.95</v>
       </c>
       <c r="AO237" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP237" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ237" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR237" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS237" t="n">
         <v>200</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU237" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV237" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW237" t="n">
         <v>51</v>
       </c>
       <c r="AX237" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY237" t="n">
         <v>19</v>
       </c>
       <c r="AZ237" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA237" t="n">
         <v>100</v>
@@ -44988,40 +44988,40 @@
         <v>1.85</v>
       </c>
       <c r="L245" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M245" t="n">
         <v>1.06</v>
       </c>
       <c r="N245" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="O245" t="n">
         <v>1.47</v>
       </c>
       <c r="P245" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R245" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S245" t="n">
         <v>1.5</v>
       </c>
       <c r="T245" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="U245" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V245" t="n">
         <v>1.7</v>
       </c>
       <c r="W245" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X245" t="n">
         <v>9.25</v>
@@ -45039,13 +45039,13 @@
         <v>35</v>
       </c>
       <c r="AC245" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD245" t="n">
         <v>5.3</v>
       </c>
       <c r="AE245" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF245" t="n">
         <v>90</v>
@@ -45060,7 +45060,7 @@
         <v>24</v>
       </c>
       <c r="AJ245" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK245" t="n">
         <v>90</v>
@@ -45069,7 +45069,7 @@
         <v>50</v>
       </c>
       <c r="AM245" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN245" t="n">
         <v>3.8</v>
@@ -45090,7 +45090,7 @@
         <v>250</v>
       </c>
       <c r="AT245" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU245" t="n">
         <v>6.7</v>
@@ -45105,7 +45105,7 @@
         <v>6</v>
       </c>
       <c r="AY245" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ245" t="n">
         <v>30</v>
@@ -45337,22 +45337,22 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H247" t="n">
         <v>3.25</v>
       </c>
       <c r="I247" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J247" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K247" t="n">
         <v>2.02</v>
       </c>
       <c r="L247" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="M247" t="n">
         <v>1.03</v>
@@ -45379,25 +45379,25 @@
         <v>2.4</v>
       </c>
       <c r="U247" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V247" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W247" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X247" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y247" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z247" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA247" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB247" t="n">
         <v>45</v>
@@ -45406,7 +45406,7 @@
         <v>8</v>
       </c>
       <c r="AD247" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE247" t="n">
         <v>17</v>
@@ -45418,28 +45418,28 @@
         <v>900</v>
       </c>
       <c r="AH247" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI247" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ247" t="n">
         <v>9.25</v>
       </c>
       <c r="AK247" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL247" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM247" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN247" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO247" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP247" t="n">
         <v>28</v>
@@ -45451,7 +45451,7 @@
         <v>150</v>
       </c>
       <c r="AS247" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT247" t="n">
         <v>2.37</v>
@@ -45466,16 +45466,16 @@
         <v>51</v>
       </c>
       <c r="AX247" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AY247" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ247" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA247" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB247" t="n">
         <v>90</v>
@@ -45519,22 +45519,22 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H248" t="n">
         <v>3.15</v>
       </c>
       <c r="I248" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J248" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K248" t="n">
         <v>1.98</v>
       </c>
       <c r="L248" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M248" t="n">
         <v>1.04</v>
@@ -45567,19 +45567,19 @@
         <v>1.65</v>
       </c>
       <c r="W248" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X248" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y248" t="n">
         <v>10</v>
       </c>
       <c r="Z248" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA248" t="n">
         <v>24</v>
-      </c>
-      <c r="AA248" t="n">
-        <v>23</v>
       </c>
       <c r="AB248" t="n">
         <v>40</v>
@@ -45588,7 +45588,7 @@
         <v>7.4</v>
       </c>
       <c r="AD248" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE248" t="n">
         <v>17.5</v>
@@ -45600,31 +45600,31 @@
         <v>800</v>
       </c>
       <c r="AH248" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI248" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ248" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK248" t="n">
         <v>32</v>
       </c>
       <c r="AL248" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM248" t="n">
         <v>45</v>
       </c>
       <c r="AN248" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO248" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP248" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ248" t="n">
         <v>60</v>
@@ -45648,16 +45648,16 @@
         <v>51</v>
       </c>
       <c r="AX248" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AY248" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ248" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA248" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB248" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -891,7 +891,7 @@
         <v>81</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1335,16 +1335,16 @@
         <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1487,7 +1487,7 @@
         <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1523,7 +1523,7 @@
         <v>2.5</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1541,10 +1541,10 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1553,13 +1553,13 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1672,13 +1672,13 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1705,7 +1705,7 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1726,13 +1726,13 @@
         <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1881,10 +1881,10 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1971,13 +1971,13 @@
         <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
@@ -2030,7 +2030,7 @@
         <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2108,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -2209,7 +2209,7 @@
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
@@ -2218,7 +2218,7 @@
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H11" t="n">
         <v>5.75</v>
@@ -2394,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2415,7 +2415,7 @@
         <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
@@ -2427,10 +2427,10 @@
         <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2442,7 +2442,7 @@
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
@@ -2466,7 +2466,7 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
         <v>51</v>
@@ -2511,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
@@ -2588,7 +2588,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2597,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2648,7 +2648,7 @@
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H13" t="n">
         <v>4.75</v>
@@ -2758,7 +2758,7 @@
         <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.75</v>
@@ -2779,7 +2779,7 @@
         <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
         <v>3.2</v>
@@ -2943,7 +2943,7 @@
         <v>2.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>4.75</v>
@@ -3003,7 +3003,7 @@
         <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3012,10 +3012,10 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -3039,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3057,7 +3057,7 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX14" t="n">
         <v>6.5</v>
@@ -3304,10 +3304,10 @@
         <v>1.85</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
         <v>2.4</v>
@@ -3325,16 +3325,16 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -3343,7 +3343,7 @@
         <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -3358,13 +3358,13 @@
         <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3376,7 +3376,7 @@
         <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3406,13 +3406,13 @@
         <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
@@ -3421,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
@@ -3513,10 +3513,10 @@
         <v>3.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -3561,7 +3561,7 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
         <v>23</v>
@@ -3594,7 +3594,7 @@
         <v>67</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3615,7 +3615,7 @@
         <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
         <v>81</v>
@@ -3701,7 +3701,7 @@
         <v>3.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V18" t="n">
         <v>2.25</v>
@@ -3779,7 +3779,7 @@
         <v>3.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
@@ -3883,10 +3883,10 @@
         <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W19" t="n">
         <v>9.5</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H20" t="n">
         <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1.83</v>
@@ -4065,10 +4065,10 @@
         <v>3.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V20" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
@@ -4110,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
         <v>81</v>
@@ -4247,22 +4247,22 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
         <v>17</v>
@@ -4316,7 +4316,7 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
@@ -4325,7 +4325,7 @@
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4429,10 +4429,10 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4575,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J23" t="n">
         <v>4.33</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
@@ -4763,7 +4763,7 @@
         <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
         <v>3.75</v>
@@ -4775,10 +4775,10 @@
         <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -4939,7 +4939,7 @@
         <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="J25" t="n">
         <v>6.5</v>
@@ -4948,7 +4948,7 @@
         <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4975,10 +4975,10 @@
         <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>19</v>
@@ -5053,7 +5053,7 @@
         <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
@@ -5062,7 +5062,7 @@
         <v>501</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY25" t="n">
         <v>6.5</v>
@@ -5071,7 +5071,7 @@
         <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>41</v>
@@ -5121,13 +5121,13 @@
         <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="J26" t="n">
         <v>4.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
         <v>2.2</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -5315,10 +5315,10 @@
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
@@ -5345,7 +5345,7 @@
         <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>6.5</v>
@@ -5497,13 +5497,13 @@
         <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
         <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -5521,16 +5521,16 @@
         <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>10</v>
@@ -5545,19 +5545,19 @@
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
         <v>201</v>
@@ -5673,19 +5673,19 @@
         <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
         <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -5709,25 +5709,25 @@
         <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5739,7 +5739,7 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH29" t="n">
         <v>7.5</v>
@@ -5781,10 +5781,10 @@
         <v>2.5</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
         <v>126</v>
@@ -5796,7 +5796,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>51</v>
@@ -5805,7 +5805,7 @@
         <v>81</v>
       </c>
       <c r="BC29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5861,13 +5861,13 @@
         <v>2.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
         <v>4.5</v>
@@ -5927,13 +5927,13 @@
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>12</v>
@@ -6037,19 +6037,19 @@
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L31" t="n">
         <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N31" t="n">
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
         <v>2.1</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -6395,7 +6395,7 @@
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
@@ -6506,7 +6506,7 @@
         <v>301</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU33" t="n">
         <v>9</v>
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -7317,22 +7317,22 @@
         <v>3.25</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
         <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7499,13 +7499,13 @@
         <v>7.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
         <v>21</v>
       </c>
       <c r="O39" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P39" t="n">
         <v>6</v>
@@ -7681,13 +7681,13 @@
         <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -8233,10 +8233,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
         <v>1.7</v>
@@ -8946,7 +8946,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K47" t="n">
         <v>2.75</v>
@@ -8982,7 +8982,7 @@
         <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W47" t="n">
         <v>8</v>
@@ -9164,7 +9164,7 @@
         <v>2.1</v>
       </c>
       <c r="V48" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W48" t="n">
         <v>5.5</v>
@@ -9310,7 +9310,7 @@
         <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K49" t="n">
         <v>2.6</v>
@@ -9343,10 +9343,10 @@
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
         <v>8</v>
@@ -9501,10 +9501,10 @@
         <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -9513,10 +9513,10 @@
         <v>3.2</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
         <v>1.44</v>
@@ -10575,28 +10575,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.4</v>
@@ -10617,25 +10617,25 @@
         <v>2.5</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y56" t="n">
         <v>9.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="n">
         <v>34</v>
@@ -10644,13 +10644,13 @@
         <v>8</v>
       </c>
       <c r="AD56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE56" t="n">
         <v>17</v>
       </c>
       <c r="AF56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="n">
         <v>351</v>
@@ -10665,7 +10665,7 @@
         <v>12</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="n">
         <v>29</v>
@@ -10707,7 +10707,7 @@
         <v>5</v>
       </c>
       <c r="AY56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ56" t="n">
         <v>29</v>
@@ -10781,16 +10781,16 @@
         <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S57" t="n">
         <v>1.44</v>
@@ -10939,13 +10939,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J58" t="n">
         <v>3.4</v>
@@ -10954,7 +10954,7 @@
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -10990,7 +10990,7 @@
         <v>9</v>
       </c>
       <c r="X58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
         <v>11</v>
@@ -10999,10 +10999,10 @@
         <v>29</v>
       </c>
       <c r="AA58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
         <v>9.5</v>
@@ -11023,13 +11023,13 @@
         <v>8.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ58" t="n">
         <v>10</v>
       </c>
       <c r="AK58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL58" t="n">
         <v>21</v>
@@ -11071,13 +11071,13 @@
         <v>4.5</v>
       </c>
       <c r="AY58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ58" t="n">
         <v>23</v>
       </c>
       <c r="BA58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB58" t="n">
         <v>67</v>
@@ -11163,10 +11163,10 @@
         <v>2.63</v>
       </c>
       <c r="U59" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V59" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W59" t="n">
         <v>10</v>
@@ -11315,7 +11315,7 @@
         <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
@@ -11324,7 +11324,7 @@
         <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O60" t="n">
         <v>1.13</v>
@@ -11345,10 +11345,10 @@
         <v>4</v>
       </c>
       <c r="U60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V60" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W60" t="n">
         <v>11</v>
@@ -11494,7 +11494,7 @@
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K61" t="n">
         <v>2.75</v>
@@ -11503,19 +11503,19 @@
         <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O61" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P61" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R61" t="n">
         <v>2.6</v>
@@ -11527,7 +11527,7 @@
         <v>3.75</v>
       </c>
       <c r="U61" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V61" t="n">
         <v>2</v>
@@ -11688,7 +11688,7 @@
         <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -11700,7 +11700,7 @@
         <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
         <v>1.44</v>
@@ -11712,7 +11712,7 @@
         <v>2.25</v>
       </c>
       <c r="V62" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W62" t="n">
         <v>5.5</v>
@@ -11849,28 +11849,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H63" t="n">
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J63" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.36</v>
@@ -11882,7 +11882,7 @@
         <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11891,10 +11891,10 @@
         <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W63" t="n">
         <v>10</v>
@@ -11927,13 +11927,13 @@
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ63" t="n">
         <v>9</v>
@@ -11951,13 +11951,13 @@
         <v>5.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ63" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR63" t="n">
         <v>101</v>
@@ -12577,13 +12577,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J67" t="n">
         <v>3.2</v>
@@ -12628,7 +12628,7 @@
         <v>10</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y67" t="n">
         <v>10</v>
@@ -12661,7 +12661,7 @@
         <v>10</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ67" t="n">
         <v>10</v>
@@ -12709,7 +12709,7 @@
         <v>4.75</v>
       </c>
       <c r="AY67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ67" t="n">
         <v>21</v>
@@ -12718,7 +12718,7 @@
         <v>41</v>
       </c>
       <c r="BB67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC67" t="n">
         <v>151</v>
@@ -12795,7 +12795,7 @@
         <v>2.7</v>
       </c>
       <c r="S68" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T68" t="n">
         <v>4</v>
@@ -12977,7 +12977,7 @@
         <v>2.88</v>
       </c>
       <c r="S69" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T69" t="n">
         <v>4</v>
@@ -13153,13 +13153,13 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R70" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S70" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T70" t="n">
         <v>2.75</v>
@@ -13311,7 +13311,7 @@
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J71" t="n">
         <v>4.5</v>
@@ -13422,7 +13422,7 @@
         <v>251</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU71" t="n">
         <v>8.5</v>
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H72" t="n">
         <v>5.25</v>
@@ -13669,13 +13669,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="n">
         <v>2.63</v>
@@ -13684,7 +13684,7 @@
         <v>2.25</v>
       </c>
       <c r="L73" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>1.04</v>
@@ -13720,7 +13720,7 @@
         <v>8.5</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>9</v>
@@ -13738,7 +13738,7 @@
         <v>12</v>
       </c>
       <c r="AD73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE73" t="n">
         <v>13</v>
@@ -13765,7 +13765,7 @@
         <v>26</v>
       </c>
       <c r="AM73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN73" t="n">
         <v>4.33</v>
@@ -13777,7 +13777,7 @@
         <v>19</v>
       </c>
       <c r="AQ73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR73" t="n">
         <v>51</v>
@@ -13893,7 +13893,7 @@
         <v>3.25</v>
       </c>
       <c r="U74" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V74" t="n">
         <v>2.2</v>
@@ -14075,10 +14075,10 @@
         <v>2.63</v>
       </c>
       <c r="U75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W75" t="n">
         <v>11</v>
@@ -14257,7 +14257,7 @@
         <v>2.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V76" t="n">
         <v>2</v>
@@ -14397,13 +14397,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J77" t="n">
         <v>2.88</v>
@@ -14439,7 +14439,7 @@
         <v>2.75</v>
       </c>
       <c r="U77" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V77" t="n">
         <v>2</v>
@@ -14478,7 +14478,7 @@
         <v>201</v>
       </c>
       <c r="AH77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI77" t="n">
         <v>17</v>
@@ -14523,13 +14523,13 @@
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX77" t="n">
         <v>5</v>
       </c>
       <c r="AY77" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ77" t="n">
         <v>26</v>
@@ -14621,7 +14621,7 @@
         <v>3.25</v>
       </c>
       <c r="U78" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V78" t="n">
         <v>2</v>
@@ -14770,7 +14770,7 @@
         <v>4.2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K79" t="n">
         <v>2.05</v>
@@ -14791,10 +14791,10 @@
         <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S79" t="n">
         <v>1.5</v>
@@ -15155,10 +15155,10 @@
         <v>3.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R81" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15525,7 +15525,7 @@
         <v>2.35</v>
       </c>
       <c r="S83" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T83" t="n">
         <v>3.4</v>
@@ -15707,7 +15707,7 @@
         <v>2.25</v>
       </c>
       <c r="S84" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T84" t="n">
         <v>3.4</v>
@@ -15871,10 +15871,10 @@
         <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O85" t="n">
         <v>1.2</v>
@@ -15883,13 +15883,13 @@
         <v>4.33</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R85" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T85" t="n">
         <v>3.25</v>
@@ -16000,7 +16000,7 @@
         <v>151</v>
       </c>
       <c r="BD85" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86">
@@ -16044,7 +16044,7 @@
         <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K86" t="n">
         <v>2.6</v>
@@ -16605,10 +16605,10 @@
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q89" t="n">
         <v>1.7</v>
@@ -17127,19 +17127,19 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>3.3</v>
       </c>
       <c r="I92" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L92" t="n">
         <v>3</v>
@@ -17157,10 +17157,10 @@
         <v>3.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R92" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="n">
         <v>1.44</v>
@@ -17181,7 +17181,7 @@
         <v>15</v>
       </c>
       <c r="Y92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z92" t="n">
         <v>34</v>
@@ -17208,7 +17208,7 @@
         <v>301</v>
       </c>
       <c r="AH92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI92" t="n">
         <v>10</v>
@@ -17676,16 +17676,16 @@
         <v>4.35</v>
       </c>
       <c r="H95" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J95" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K95" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L95" t="n">
         <v>2.15</v>
@@ -17697,34 +17697,34 @@
         <v>11.9</v>
       </c>
       <c r="O95" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P95" t="n">
-        <v>3.82</v>
+        <v>3.68</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R95" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S95" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T95" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="U95" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V95" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W95" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="X95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y95" t="n">
         <v>12</v>
@@ -17733,16 +17733,16 @@
         <v>55</v>
       </c>
       <c r="AA95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC95" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD95" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE95" t="n">
         <v>12</v>
@@ -17751,10 +17751,10 @@
         <v>45</v>
       </c>
       <c r="AG95" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH95" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI95" t="n">
         <v>7.1</v>
@@ -17763,7 +17763,7 @@
         <v>6.9</v>
       </c>
       <c r="AK95" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AL95" t="n">
         <v>10.25</v>
@@ -17775,22 +17775,22 @@
         <v>6.3</v>
       </c>
       <c r="AO95" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP95" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ95" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR95" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS95" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT95" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU95" t="n">
         <v>7.2</v>
@@ -17805,19 +17805,19 @@
         <v>3.55</v>
       </c>
       <c r="AY95" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AZ95" t="n">
         <v>16</v>
       </c>
       <c r="BA95" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB95" t="n">
         <v>50</v>
       </c>
       <c r="BC95" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD95" t="n">
         <v>51</v>
@@ -17855,55 +17855,55 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="H96" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I96" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="K96" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="L96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V96" t="n">
         <v>1.75</v>
       </c>
-      <c r="M96" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P96" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R96" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T96" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U96" t="n">
-        <v>2</v>
-      </c>
-      <c r="V96" t="n">
-        <v>1.77</v>
-      </c>
       <c r="W96" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X96" t="n">
         <v>40</v>
@@ -17918,49 +17918,49 @@
         <v>70</v>
       </c>
       <c r="AB96" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC96" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD96" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE96" t="n">
         <v>18</v>
       </c>
       <c r="AF96" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG96" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH96" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AI96" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ96" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AK96" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AL96" t="n">
         <v>9.25</v>
       </c>
       <c r="AM96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN96" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO96" t="n">
         <v>45</v>
       </c>
       <c r="AP96" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ96" t="n">
         <v>350</v>
@@ -17972,13 +17972,13 @@
         <v>51</v>
       </c>
       <c r="AT96" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU96" t="n">
         <v>8.75</v>
       </c>
       <c r="AV96" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW96" t="n">
         <v>51</v>
@@ -17987,19 +17987,19 @@
         <v>3.1</v>
       </c>
       <c r="AY96" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AZ96" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA96" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB96" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BC96" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD96" t="n">
         <v>51</v>
@@ -18037,13 +18037,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J97" t="n">
         <v>3</v>
@@ -18052,7 +18052,7 @@
         <v>2.25</v>
       </c>
       <c r="L97" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97" t="n">
         <v>1.04</v>
@@ -18100,7 +18100,7 @@
         <v>19</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC97" t="n">
         <v>12</v>
@@ -18133,7 +18133,7 @@
         <v>21</v>
       </c>
       <c r="AM97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN97" t="n">
         <v>4.5</v>
@@ -18243,16 +18243,16 @@
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P98" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R98" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S98" t="n">
         <v>1.33</v>
@@ -19141,7 +19141,7 @@
         <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L103" t="n">
         <v>4.5</v>
@@ -19162,7 +19162,7 @@
         <v>2.7</v>
       </c>
       <c r="R103" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S103" t="n">
         <v>1.62</v>
@@ -19329,22 +19329,22 @@
         <v>5.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R104" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S104" t="n">
         <v>1.33</v>
@@ -19684,7 +19684,7 @@
         <v>2.63</v>
       </c>
       <c r="J106" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K106" t="n">
         <v>2.4</v>
@@ -20069,10 +20069,10 @@
         <v>5.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R108" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S108" t="n">
         <v>1.25</v>
@@ -20257,7 +20257,7 @@
         <v>2.25</v>
       </c>
       <c r="S109" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T109" t="n">
         <v>3.4</v>
@@ -20439,7 +20439,7 @@
         <v>1.83</v>
       </c>
       <c r="S110" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T110" t="n">
         <v>2.75</v>
@@ -20609,19 +20609,19 @@
         <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R111" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S111" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T111" t="n">
         <v>3.4</v>
@@ -20797,13 +20797,13 @@
         <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R112" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T112" t="n">
         <v>3.25</v>
@@ -20973,19 +20973,19 @@
         <v>15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P113" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S113" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T113" t="n">
         <v>3.4</v>
@@ -21167,7 +21167,7 @@
         <v>2.25</v>
       </c>
       <c r="S114" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T114" t="n">
         <v>3.4</v>
@@ -21319,7 +21319,7 @@
         <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
         <v>2.88</v>
@@ -21328,7 +21328,7 @@
         <v>2.3</v>
       </c>
       <c r="L115" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M115" t="n">
         <v>1.03</v>
@@ -22405,7 +22405,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H121" t="n">
         <v>3.3</v>
@@ -22775,7 +22775,7 @@
         <v>3.75</v>
       </c>
       <c r="I123" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J123" t="n">
         <v>4</v>
@@ -23163,10 +23163,10 @@
         <v>4</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R125" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S125" t="n">
         <v>1.33</v>
@@ -23518,7 +23518,7 @@
         <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -23796,7 +23796,7 @@
         <v>201</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU128" t="n">
         <v>8</v>
@@ -23864,10 +23864,10 @@
         <v>3.1</v>
       </c>
       <c r="H129" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="I129" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J129" t="n">
         <v>3.75</v>
@@ -24049,7 +24049,7 @@
         <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J130" t="n">
         <v>3.6</v>
@@ -24258,7 +24258,7 @@
         <v>2.5</v>
       </c>
       <c r="R131" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S131" t="n">
         <v>1.53</v>
@@ -24440,7 +24440,7 @@
         <v>2.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S132" t="n">
         <v>1.44</v>
@@ -24619,7 +24619,7 @@
         <v>4.5</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R133" t="n">
         <v>2.2</v>
@@ -24771,13 +24771,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>3.4</v>
       </c>
       <c r="I134" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J134" t="n">
         <v>2.75</v>
@@ -24789,10 +24789,10 @@
         <v>4</v>
       </c>
       <c r="M134" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O134" t="n">
         <v>1.29</v>
@@ -24837,7 +24837,7 @@
         <v>26</v>
       </c>
       <c r="AC134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD134" t="n">
         <v>6.5</v>
@@ -24858,7 +24858,7 @@
         <v>19</v>
       </c>
       <c r="AJ134" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK134" t="n">
         <v>41</v>
@@ -24915,7 +24915,7 @@
         <v>81</v>
       </c>
       <c r="BC134" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD134" t="n">
         <v>81</v>
@@ -24971,13 +24971,13 @@
         <v>4.5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
         <v>11</v>
       </c>
       <c r="O135" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P135" t="n">
         <v>3.5</v>
@@ -24995,10 +24995,10 @@
         <v>2.75</v>
       </c>
       <c r="U135" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V135" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W135" t="n">
         <v>7</v>
@@ -25153,13 +25153,13 @@
         <v>2.25</v>
       </c>
       <c r="M136" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
         <v>11</v>
       </c>
       <c r="O136" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P136" t="n">
         <v>3.75</v>
@@ -25177,10 +25177,10 @@
         <v>3</v>
       </c>
       <c r="U136" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V136" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W136" t="n">
         <v>15</v>
@@ -25335,13 +25335,13 @@
         <v>3.5</v>
       </c>
       <c r="M137" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N137" t="n">
         <v>10</v>
       </c>
       <c r="O137" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P137" t="n">
         <v>3.4</v>
@@ -25359,10 +25359,10 @@
         <v>2.75</v>
       </c>
       <c r="U137" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V137" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W137" t="n">
         <v>8.5</v>
@@ -25517,13 +25517,13 @@
         <v>3.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N138" t="n">
         <v>11</v>
       </c>
       <c r="O138" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P138" t="n">
         <v>3.5</v>
@@ -25541,7 +25541,7 @@
         <v>3</v>
       </c>
       <c r="U138" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V138" t="n">
         <v>2</v>
@@ -25699,13 +25699,13 @@
         <v>4.33</v>
       </c>
       <c r="M139" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N139" t="n">
         <v>15</v>
       </c>
       <c r="O139" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P139" t="n">
         <v>4.33</v>
@@ -25723,7 +25723,7 @@
         <v>3.25</v>
       </c>
       <c r="U139" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V139" t="n">
         <v>2.1</v>
@@ -25881,16 +25881,16 @@
         <v>2.6</v>
       </c>
       <c r="M140" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O140" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q140" t="n">
         <v>2.1</v>
@@ -25980,7 +25980,7 @@
         <v>251</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU140" t="n">
         <v>8.5</v>
@@ -26045,109 +26045,109 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="H141" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="I141" t="n">
         <v>1.14</v>
       </c>
       <c r="J141" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="K141" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="L141" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M141" t="n">
         <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O141" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P141" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="R141" t="n">
-        <v>2.51</v>
+        <v>2.39</v>
       </c>
       <c r="S141" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="T141" t="n">
-        <v>3.84</v>
+        <v>3.65</v>
       </c>
       <c r="U141" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V141" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="W141" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X141" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Y141" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z141" t="n">
         <v>450</v>
       </c>
       <c r="AA141" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AB141" t="n">
         <v>120</v>
       </c>
       <c r="AC141" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD141" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE141" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF141" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG141" t="n">
         <v>500</v>
       </c>
       <c r="AH141" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI141" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK141" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AL141" t="n">
         <v>9.25</v>
       </c>
       <c r="AM141" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN141" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO141" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP141" t="n">
         <v>75</v>
@@ -26162,31 +26162,31 @@
         <v>51</v>
       </c>
       <c r="AT141" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AU141" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AV141" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW141" t="n">
         <v>51</v>
       </c>
       <c r="AX141" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AY141" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AZ141" t="n">
         <v>16.5</v>
       </c>
       <c r="BA141" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="BB141" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BC141" t="n">
         <v>250</v>
@@ -26257,10 +26257,10 @@
         <v>4.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R142" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S142" t="n">
         <v>1.3</v>
@@ -26421,7 +26421,7 @@
         <v>5.5</v>
       </c>
       <c r="K143" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L143" t="n">
         <v>2.1</v>
@@ -27158,7 +27158,7 @@
         <v>1.02</v>
       </c>
       <c r="N147" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="O147" t="n">
         <v>1.19</v>
@@ -27319,22 +27319,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H148" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I148" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="J148" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K148" t="n">
         <v>2.32</v>
       </c>
       <c r="L148" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M148" t="n">
         <v>1.03</v>
@@ -27346,7 +27346,7 @@
         <v>1.22</v>
       </c>
       <c r="P148" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q148" t="n">
         <v>1.65</v>
@@ -27355,13 +27355,13 @@
         <v>1.98</v>
       </c>
       <c r="S148" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T148" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="U148" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V148" t="n">
         <v>1.7</v>
@@ -27370,16 +27370,16 @@
         <v>6.8</v>
       </c>
       <c r="X148" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y148" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z148" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA148" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB148" t="n">
         <v>28</v>
@@ -27388,10 +27388,10 @@
         <v>12</v>
       </c>
       <c r="AD148" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE148" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF148" t="n">
         <v>100</v>
@@ -27400,46 +27400,46 @@
         <v>800</v>
       </c>
       <c r="AH148" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI148" t="n">
         <v>50</v>
       </c>
       <c r="AJ148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK148" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL148" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM148" t="n">
         <v>75</v>
       </c>
       <c r="AN148" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO148" t="n">
         <v>6.2</v>
       </c>
       <c r="AP148" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>17.5</v>
       </c>
       <c r="AR148" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS148" t="n">
         <v>250</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU148" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV148" t="n">
         <v>80</v>
@@ -27451,7 +27451,7 @@
         <v>8.25</v>
       </c>
       <c r="AY148" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ148" t="n">
         <v>45</v>
@@ -27501,46 +27501,46 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H149" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I149" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K149" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L149" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M149" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O149" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P149" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R149" t="n">
         <v>1.44</v>
       </c>
       <c r="S149" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T149" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U149" t="n">
         <v>2.2</v>
@@ -27552,28 +27552,28 @@
         <v>6</v>
       </c>
       <c r="X149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y149" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA149" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB149" t="n">
         <v>41</v>
       </c>
       <c r="AC149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD149" t="n">
         <v>6</v>
       </c>
       <c r="AE149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF149" t="n">
         <v>81</v>
@@ -27582,16 +27582,16 @@
         <v>900</v>
       </c>
       <c r="AH149" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ149" t="n">
         <v>13</v>
       </c>
       <c r="AK149" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL149" t="n">
         <v>34</v>
@@ -27600,28 +27600,28 @@
         <v>41</v>
       </c>
       <c r="AN149" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ149" t="n">
         <v>51</v>
       </c>
       <c r="AR149" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS149" t="n">
         <v>301</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU149" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV149" t="n">
         <v>81</v>
@@ -27639,7 +27639,7 @@
         <v>34</v>
       </c>
       <c r="BA149" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB149" t="n">
         <v>126</v>
@@ -27686,7 +27686,7 @@
         <v>1.7</v>
       </c>
       <c r="H150" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I150" t="n">
         <v>4.75</v>
@@ -27695,67 +27695,67 @@
         <v>2.5</v>
       </c>
       <c r="K150" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O150" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P150" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R150" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V150" t="n">
         <v>1.57</v>
       </c>
-      <c r="T150" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U150" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V150" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W150" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X150" t="n">
         <v>7</v>
       </c>
       <c r="Y150" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z150" t="n">
         <v>13</v>
       </c>
       <c r="AA150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB150" t="n">
         <v>41</v>
       </c>
       <c r="AC150" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD150" t="n">
         <v>7</v>
       </c>
       <c r="AE150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF150" t="n">
         <v>81</v>
@@ -27770,13 +27770,13 @@
         <v>23</v>
       </c>
       <c r="AJ150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK150" t="n">
         <v>51</v>
       </c>
       <c r="AL150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM150" t="n">
         <v>51</v>
@@ -27785,7 +27785,7 @@
         <v>3.5</v>
       </c>
       <c r="AO150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP150" t="n">
         <v>26</v>
@@ -27800,10 +27800,10 @@
         <v>251</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV150" t="n">
         <v>81</v>
@@ -27815,7 +27815,7 @@
         <v>6.5</v>
       </c>
       <c r="AY150" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ150" t="n">
         <v>41</v>
@@ -27824,7 +27824,7 @@
         <v>126</v>
       </c>
       <c r="BB150" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC150" t="n">
         <v>51</v>
@@ -27865,58 +27865,58 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H151" t="n">
         <v>2.7</v>
       </c>
       <c r="I151" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J151" t="n">
         <v>3.1</v>
       </c>
       <c r="K151" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L151" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N151" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O151" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P151" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R151" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V151" t="n">
         <v>1.57</v>
       </c>
-      <c r="T151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U151" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V151" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W151" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X151" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y151" t="n">
         <v>10</v>
@@ -27931,16 +27931,16 @@
         <v>41</v>
       </c>
       <c r="AC151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD151" t="n">
         <v>6</v>
       </c>
-      <c r="AD151" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF151" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG151" t="n">
         <v>101</v>
@@ -27958,7 +27958,7 @@
         <v>41</v>
       </c>
       <c r="AL151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM151" t="n">
         <v>51</v>
@@ -27982,7 +27982,7 @@
         <v>301</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU151" t="n">
         <v>9.5</v>
@@ -27994,19 +27994,19 @@
         <v>51</v>
       </c>
       <c r="AX151" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA151" t="n">
         <v>81</v>
       </c>
       <c r="BB151" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC151" t="n">
         <v>351</v>
@@ -28050,7 +28050,7 @@
         <v>1.13</v>
       </c>
       <c r="H152" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I152" t="n">
         <v>21</v>
@@ -28059,34 +28059,34 @@
         <v>1.5</v>
       </c>
       <c r="K152" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M152" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N152" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O152" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P152" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R152" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S152" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T152" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U152" t="n">
         <v>3</v>
@@ -28140,7 +28140,7 @@
         <v>351</v>
       </c>
       <c r="AL152" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AM152" t="n">
         <v>151</v>
@@ -28152,7 +28152,7 @@
         <v>4.75</v>
       </c>
       <c r="AP152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ152" t="n">
         <v>11</v>
@@ -28164,7 +28164,7 @@
         <v>201</v>
       </c>
       <c r="AT152" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU152" t="n">
         <v>15</v>
@@ -28176,13 +28176,13 @@
         <v>51</v>
       </c>
       <c r="AX152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY152" t="n">
         <v>81</v>
       </c>
       <c r="AZ152" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA152" t="n">
         <v>351</v>
@@ -28957,28 +28957,28 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="H157" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J157" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K157" t="n">
         <v>2.6</v>
       </c>
       <c r="L157" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O157" t="n">
         <v>1.22</v>
@@ -28993,22 +28993,22 @@
         <v>2.1</v>
       </c>
       <c r="S157" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U157" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V157" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X157" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y157" t="n">
         <v>10</v>
@@ -29023,37 +29023,37 @@
         <v>34</v>
       </c>
       <c r="AC157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF157" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG157" t="n">
         <v>1000</v>
       </c>
       <c r="AH157" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI157" t="n">
         <v>51</v>
       </c>
       <c r="AJ157" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AK157" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL157" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM157" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN157" t="n">
         <v>3.1</v>
@@ -29062,10 +29062,10 @@
         <v>5.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR157" t="n">
         <v>41</v>
@@ -29074,19 +29074,19 @@
         <v>151</v>
       </c>
       <c r="AT157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU157" t="n">
         <v>11</v>
       </c>
       <c r="AV157" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW157" t="n">
         <v>126</v>
       </c>
       <c r="AX157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY157" t="n">
         <v>51</v>
@@ -29095,10 +29095,10 @@
         <v>51</v>
       </c>
       <c r="BA157" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB157" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC157" t="n">
         <v>501</v>
@@ -29145,7 +29145,7 @@
         <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J158" t="n">
         <v>3.2</v>
@@ -29503,7 +29503,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
@@ -30049,55 +30049,55 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H163" t="n">
         <v>3.75</v>
       </c>
       <c r="I163" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J163" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L163" t="n">
         <v>2.32</v>
       </c>
-      <c r="L163" t="n">
-        <v>2.37</v>
-      </c>
       <c r="M163" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O163" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P163" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q163" t="n">
         <v>1.57</v>
       </c>
       <c r="R163" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S163" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T163" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U163" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V163" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W163" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X163" t="n">
         <v>24</v>
@@ -30109,37 +30109,37 @@
         <v>55</v>
       </c>
       <c r="AA163" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB163" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC163" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD163" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE163" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG163" t="n">
         <v>250</v>
       </c>
       <c r="AH163" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI163" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ163" t="n">
         <v>8.25</v>
       </c>
       <c r="AK163" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL163" t="n">
         <v>13</v>
@@ -30148,46 +30148,46 @@
         <v>19.5</v>
       </c>
       <c r="AN163" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO163" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP163" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ163" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR163" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS163" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT163" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU163" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV163" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW163" t="n">
         <v>51</v>
       </c>
       <c r="AX163" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AY163" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AZ163" t="n">
         <v>15</v>
       </c>
       <c r="BA163" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB163" t="n">
         <v>50</v>
@@ -31141,22 +31141,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H169" t="n">
         <v>3.2</v>
       </c>
       <c r="I169" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J169" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K169" t="n">
         <v>2.05</v>
       </c>
       <c r="L169" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M169" t="n">
         <v>1.07</v>
@@ -31201,7 +31201,7 @@
         <v>29</v>
       </c>
       <c r="AA169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB169" t="n">
         <v>34</v>
@@ -31219,7 +31219,7 @@
         <v>51</v>
       </c>
       <c r="AG169" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH169" t="n">
         <v>7.5</v>
@@ -31323,7 +31323,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H170" t="n">
         <v>4</v>
@@ -31505,7 +31505,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H171" t="n">
         <v>6.5</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H172" t="n">
         <v>3.25</v>
@@ -32597,151 +32597,151 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H177" t="n">
         <v>3.05</v>
       </c>
       <c r="I177" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="J177" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K177" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L177" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="M177" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N177" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="O177" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P177" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="R177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V177" t="n">
         <v>1.65</v>
       </c>
-      <c r="S177" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T177" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U177" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V177" t="n">
-        <v>1.88</v>
-      </c>
       <c r="W177" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X177" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y177" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z177" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA177" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB177" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AC177" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="AD177" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AE177" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AF177" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AG177" t="n">
         <v>600</v>
       </c>
       <c r="AH177" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AI177" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ177" t="n">
         <v>9.75</v>
       </c>
       <c r="AK177" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL177" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM177" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AN177" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="AO177" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AQ177" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AR177" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AS177" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AU177" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV177" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AW177" t="n">
         <v>51</v>
       </c>
       <c r="AX177" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY177" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AZ177" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BA177" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB177" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC177" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BD177" t="n">
         <v>51</v>
@@ -33003,7 +33003,7 @@
         <v>6</v>
       </c>
       <c r="U179" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V179" t="n">
         <v>3</v>
@@ -34417,22 +34417,22 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H187" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I187" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J187" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K187" t="n">
         <v>2.25</v>
       </c>
       <c r="L187" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M187" t="n">
         <v>1.05</v>
@@ -34468,7 +34468,7 @@
         <v>8</v>
       </c>
       <c r="X187" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y187" t="n">
         <v>8.5</v>
@@ -34486,10 +34486,10 @@
         <v>11</v>
       </c>
       <c r="AD187" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE187" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF187" t="n">
         <v>41</v>
@@ -34498,7 +34498,7 @@
         <v>201</v>
       </c>
       <c r="AH187" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI187" t="n">
         <v>23</v>
@@ -34519,7 +34519,7 @@
         <v>3.75</v>
       </c>
       <c r="AO187" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP187" t="n">
         <v>19</v>
@@ -34555,10 +34555,10 @@
         <v>29</v>
       </c>
       <c r="BA187" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB187" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC187" t="n">
         <v>201</v>
@@ -34811,10 +34811,10 @@
         <v>3.75</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R189" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S189" t="n">
         <v>1.36</v>
@@ -35527,10 +35527,10 @@
         <v>6</v>
       </c>
       <c r="M193" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N193" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O193" t="n">
         <v>1.4</v>
@@ -35694,37 +35694,37 @@
         <v>3</v>
       </c>
       <c r="H194" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I194" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J194" t="n">
         <v>3.75</v>
       </c>
       <c r="K194" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L194" t="n">
         <v>3.5</v>
       </c>
       <c r="M194" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N194" t="n">
         <v>6</v>
       </c>
       <c r="O194" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P194" t="n">
         <v>2.25</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R194" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S194" t="n">
         <v>1.62</v>
@@ -35873,7 +35873,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H195" t="n">
         <v>4</v>
@@ -35882,7 +35882,7 @@
         <v>3.6</v>
       </c>
       <c r="J195" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K195" t="n">
         <v>2.5</v>
@@ -35891,19 +35891,19 @@
         <v>3.75</v>
       </c>
       <c r="M195" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N195" t="n">
         <v>21</v>
       </c>
       <c r="O195" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P195" t="n">
         <v>6</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R195" t="n">
         <v>2.7</v>
@@ -36020,7 +36020,7 @@
         <v>101</v>
       </c>
       <c r="BD195" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196">
@@ -36061,31 +36061,31 @@
         <v>4.2</v>
       </c>
       <c r="I196" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J196" t="n">
         <v>5</v>
       </c>
       <c r="K196" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L196" t="n">
         <v>2.2</v>
       </c>
       <c r="M196" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N196" t="n">
         <v>15</v>
       </c>
       <c r="O196" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P196" t="n">
         <v>4.33</v>
       </c>
       <c r="Q196" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R196" t="n">
         <v>2.15</v>
@@ -36267,10 +36267,10 @@
         <v>3.75</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R197" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S197" t="n">
         <v>1.36</v>
@@ -36449,10 +36449,10 @@
         <v>3.5</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R198" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S198" t="n">
         <v>1.4</v>
@@ -36631,10 +36631,10 @@
         <v>3.75</v>
       </c>
       <c r="Q199" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R199" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S199" t="n">
         <v>1.36</v>
@@ -36980,7 +36980,7 @@
         <v>2.2</v>
       </c>
       <c r="L201" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M201" t="n">
         <v>1.04</v>
@@ -37338,7 +37338,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K203" t="n">
         <v>2.5</v>
@@ -37359,7 +37359,7 @@
         <v>5.5</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R203" t="n">
         <v>2.5</v>
@@ -37520,7 +37520,7 @@
         <v>4.33</v>
       </c>
       <c r="J204" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K204" t="n">
         <v>2.3</v>
@@ -37541,10 +37541,10 @@
         <v>4</v>
       </c>
       <c r="Q204" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R204" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S204" t="n">
         <v>1.33</v>
@@ -37553,7 +37553,7 @@
         <v>3.25</v>
       </c>
       <c r="U204" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V204" t="n">
         <v>2.1</v>
@@ -37693,10 +37693,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H205" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I205" t="n">
         <v>3.5</v>
@@ -37705,40 +37705,40 @@
         <v>2.55</v>
       </c>
       <c r="K205" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L205" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M205" t="n">
         <v>1.05</v>
       </c>
       <c r="N205" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O205" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P205" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q205" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R205" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S205" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T205" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="U205" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V205" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W205" t="n">
         <v>8.5</v>
@@ -37759,13 +37759,13 @@
         <v>22</v>
       </c>
       <c r="AC205" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD205" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE205" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF205" t="n">
         <v>50</v>
@@ -37774,10 +37774,10 @@
         <v>350</v>
       </c>
       <c r="AH205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI205" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ205" t="n">
         <v>11.75</v>
@@ -37786,10 +37786,10 @@
         <v>50</v>
       </c>
       <c r="AL205" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM205" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN205" t="n">
         <v>4</v>
@@ -37801,7 +37801,7 @@
         <v>17</v>
       </c>
       <c r="AQ205" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR205" t="n">
         <v>60</v>
@@ -37810,7 +37810,7 @@
         <v>200</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="AU205" t="n">
         <v>6.8</v>
@@ -37825,19 +37825,19 @@
         <v>5.5</v>
       </c>
       <c r="AY205" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ205" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA205" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB205" t="n">
         <v>120</v>
       </c>
       <c r="BC205" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD205" t="n">
         <v>51</v>
@@ -38078,7 +38078,7 @@
         <v>1.04</v>
       </c>
       <c r="N207" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O207" t="n">
         <v>1.22</v>
@@ -38099,7 +38099,7 @@
         <v>3</v>
       </c>
       <c r="U207" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V207" t="n">
         <v>2.1</v>
@@ -38281,7 +38281,7 @@
         <v>2.75</v>
       </c>
       <c r="U208" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V208" t="n">
         <v>2</v>
@@ -38463,7 +38463,7 @@
         <v>4.33</v>
       </c>
       <c r="U209" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V209" t="n">
         <v>2.25</v>
@@ -38633,10 +38633,10 @@
         <v>3.5</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R210" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S210" t="n">
         <v>1.4</v>
@@ -38645,7 +38645,7 @@
         <v>2.75</v>
       </c>
       <c r="U210" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V210" t="n">
         <v>2</v>
@@ -38827,7 +38827,7 @@
         <v>2.63</v>
       </c>
       <c r="U211" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V211" t="n">
         <v>2</v>
@@ -39009,10 +39009,10 @@
         <v>2.63</v>
       </c>
       <c r="U212" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V212" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W212" t="n">
         <v>7</v>
@@ -39191,10 +39191,10 @@
         <v>2.63</v>
       </c>
       <c r="U213" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V213" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W213" t="n">
         <v>8.5</v>
@@ -39361,10 +39361,10 @@
         <v>3.75</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R214" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S214" t="n">
         <v>1.36</v>
@@ -39373,10 +39373,10 @@
         <v>3</v>
       </c>
       <c r="U214" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V214" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W214" t="n">
         <v>7</v>
@@ -40465,10 +40465,10 @@
         <v>3.5</v>
       </c>
       <c r="U220" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V220" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W220" t="n">
         <v>15</v>
@@ -40647,7 +40647,7 @@
         <v>3.25</v>
       </c>
       <c r="U221" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V221" t="n">
         <v>2.2</v>
@@ -40829,7 +40829,7 @@
         <v>3.75</v>
       </c>
       <c r="U222" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V222" t="n">
         <v>2.5</v>
@@ -40978,10 +40978,10 @@
         <v>7</v>
       </c>
       <c r="J223" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K223" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L223" t="n">
         <v>6</v>
@@ -40993,16 +40993,16 @@
         <v>29</v>
       </c>
       <c r="O223" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P223" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R223" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S223" t="n">
         <v>1.18</v>
@@ -41160,7 +41160,7 @@
         <v>2.88</v>
       </c>
       <c r="J224" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K224" t="n">
         <v>2.4</v>
@@ -41333,16 +41333,16 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H225" t="n">
         <v>4.2</v>
       </c>
       <c r="I225" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J225" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K225" t="n">
         <v>2.6</v>
@@ -41375,22 +41375,22 @@
         <v>4</v>
       </c>
       <c r="U225" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V225" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W225" t="n">
         <v>12</v>
       </c>
       <c r="X225" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y225" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA225" t="n">
         <v>12</v>
@@ -41411,7 +41411,7 @@
         <v>34</v>
       </c>
       <c r="AG225" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH225" t="n">
         <v>19</v>
@@ -41420,13 +41420,13 @@
         <v>26</v>
       </c>
       <c r="AJ225" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK225" t="n">
         <v>41</v>
       </c>
       <c r="AL225" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM225" t="n">
         <v>26</v>
@@ -41435,13 +41435,13 @@
         <v>4.33</v>
       </c>
       <c r="AO225" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP225" t="n">
         <v>15</v>
       </c>
       <c r="AQ225" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR225" t="n">
         <v>41</v>
@@ -41465,7 +41465,7 @@
         <v>6.5</v>
       </c>
       <c r="AY225" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ225" t="n">
         <v>21</v>
@@ -41474,7 +41474,7 @@
         <v>51</v>
       </c>
       <c r="BB225" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC225" t="n">
         <v>101</v>
@@ -41557,10 +41557,10 @@
         <v>4</v>
       </c>
       <c r="U226" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V226" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W226" t="n">
         <v>12</v>
@@ -41897,10 +41897,10 @@
         <v>4</v>
       </c>
       <c r="M228" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N228" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O228" t="n">
         <v>1.14</v>
@@ -41912,7 +41912,7 @@
         <v>1.5</v>
       </c>
       <c r="R228" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S228" t="n">
         <v>1.25</v>
@@ -42091,7 +42091,7 @@
         <v>6</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R229" t="n">
         <v>2.7</v>
@@ -42273,7 +42273,7 @@
         <v>8</v>
       </c>
       <c r="Q230" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R230" t="n">
         <v>3.4</v>
@@ -42455,7 +42455,7 @@
         <v>7</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R231" t="n">
         <v>3.1</v>
@@ -42637,7 +42637,7 @@
         <v>6</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R232" t="n">
         <v>2.6</v>
@@ -42819,7 +42819,7 @@
         <v>5</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R233" t="n">
         <v>2.35</v>
@@ -44245,22 +44245,22 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H241" t="n">
         <v>3.2</v>
       </c>
       <c r="I241" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="J241" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K241" t="n">
         <v>2.1</v>
       </c>
       <c r="L241" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M241" t="n">
         <v>1.06</v>
@@ -44278,37 +44278,37 @@
         <v>1.85</v>
       </c>
       <c r="R241" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S241" t="n">
         <v>1.4</v>
       </c>
       <c r="T241" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U241" t="n">
         <v>1.65</v>
       </c>
       <c r="V241" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W241" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X241" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y241" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z241" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA241" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB241" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC241" t="n">
         <v>7.4</v>
@@ -44320,70 +44320,70 @@
         <v>12.5</v>
       </c>
       <c r="AF241" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG241" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH241" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI241" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ241" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK241" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL241" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM241" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN241" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="AO241" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP241" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ241" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR241" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS241" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU241" t="n">
         <v>6.8</v>
       </c>
       <c r="AV241" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA241" t="n">
         <v>55</v>
-      </c>
-      <c r="AW241" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX241" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AY241" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ241" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA241" t="n">
-        <v>50</v>
       </c>
       <c r="BB241" t="n">
         <v>80</v>
@@ -45519,34 +45519,34 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>3.15</v>
       </c>
       <c r="I248" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J248" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K248" t="n">
         <v>1.98</v>
       </c>
       <c r="L248" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M248" t="n">
         <v>1.04</v>
       </c>
       <c r="N248" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="O248" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P248" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q248" t="n">
         <v>2.25</v>
@@ -45567,31 +45567,31 @@
         <v>1.65</v>
       </c>
       <c r="W248" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X248" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y248" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z248" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA248" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB248" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC248" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD248" t="n">
         <v>6.1</v>
       </c>
       <c r="AE248" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF248" t="n">
         <v>110</v>
@@ -45600,34 +45600,34 @@
         <v>800</v>
       </c>
       <c r="AH248" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI248" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ248" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK248" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL248" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM248" t="n">
         <v>45</v>
       </c>
       <c r="AN248" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="AO248" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP248" t="n">
         <v>26</v>
       </c>
       <c r="AQ248" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR248" t="n">
         <v>120</v>
@@ -45648,22 +45648,22 @@
         <v>51</v>
       </c>
       <c r="AX248" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AY248" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AZ248" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA248" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB248" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC248" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD248" t="n">
         <v>51</v>
@@ -45710,13 +45710,13 @@
         <v>3.05</v>
       </c>
       <c r="J249" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="K249" t="n">
         <v>2.02</v>
       </c>
       <c r="L249" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M249" t="n">
         <v>1.01</v>
@@ -45743,28 +45743,28 @@
         <v>2.55</v>
       </c>
       <c r="U249" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V249" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W249" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="X249" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y249" t="n">
         <v>9</v>
       </c>
       <c r="Z249" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA249" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB249" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC249" t="n">
         <v>8.25</v>
@@ -45773,19 +45773,19 @@
         <v>5.8</v>
       </c>
       <c r="AE249" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF249" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG249" t="n">
         <v>500</v>
       </c>
       <c r="AH249" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI249" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ249" t="n">
         <v>10.75</v>
@@ -45794,34 +45794,34 @@
         <v>40</v>
       </c>
       <c r="AL249" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM249" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN249" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO249" t="n">
         <v>12</v>
       </c>
       <c r="AP249" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ249" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR249" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS249" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT249" t="n">
         <v>2.52</v>
       </c>
       <c r="AU249" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV249" t="n">
         <v>55</v>
@@ -45830,22 +45830,22 @@
         <v>51</v>
       </c>
       <c r="AX249" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY249" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ249" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA249" t="n">
         <v>80</v>
       </c>
       <c r="BB249" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC249" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD249" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -947,10 +947,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -977,13 +977,13 @@
         <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>26</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1126,13 +1126,13 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1192,7 +1192,7 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.5</v>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>15</v>
@@ -1377,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
@@ -1386,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
@@ -1419,13 +1419,13 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1523,7 +1523,7 @@
         <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1532,7 +1532,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1541,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1583,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1595,7 +1595,7 @@
         <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
@@ -1839,58 +1839,58 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
         <v>17</v>
@@ -1905,25 +1905,25 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
         <v>8</v>
       </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
@@ -1935,7 +1935,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>6.5</v>
@@ -1950,16 +1950,16 @@
         <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1971,19 +1971,19 @@
         <v>3.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>150</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
@@ -2045,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2069,10 +2069,10 @@
         <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2108,13 +2108,13 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -2257,7 +2257,7 @@
         <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
         <v>67</v>
@@ -2275,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2341,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>41</v>
@@ -2388,13 +2388,13 @@
         <v>1.22</v>
       </c>
       <c r="H11" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I11" t="n">
         <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -2403,10 +2403,10 @@
         <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2415,19 +2415,19 @@
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
@@ -2439,7 +2439,7 @@
         <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
         <v>8.5</v>
@@ -2454,10 +2454,10 @@
         <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,19 +2466,19 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>34</v>
       </c>
-      <c r="AI11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>29</v>
-      </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
@@ -2502,7 +2502,7 @@
         <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -3486,31 +3486,31 @@
         <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O17" t="n">
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.17</v>
@@ -3525,13 +3525,13 @@
         <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -3540,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>29</v>
@@ -3567,10 +3567,10 @@
         <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>41</v>
@@ -3585,13 +3585,13 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3603,10 +3603,10 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
         <v>34</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4074,34 +4074,34 @@
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
         <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -4110,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>81</v>
@@ -4119,19 +4119,19 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4152,7 +4152,7 @@
         <v>501</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4167,7 +4167,7 @@
         <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -4223,16 +4223,16 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="Q21" t="n">
         <v>2.5</v>
@@ -4250,13 +4250,13 @@
         <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9.5</v>
@@ -4268,16 +4268,16 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>67</v>
@@ -4286,19 +4286,19 @@
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4307,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
@@ -4316,7 +4316,7 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>251</v>
@@ -4337,7 +4337,7 @@
         <v>5.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>34</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.25</v>
@@ -4417,25 +4417,25 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
@@ -4450,13 +4450,13 @@
         <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4465,10 +4465,10 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>26</v>
@@ -4489,22 +4489,22 @@
         <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4522,7 +4522,7 @@
         <v>26</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
         <v>81</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4611,19 +4611,19 @@
         <v>3.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
@@ -4659,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4698,7 +4698,7 @@
         <v>351</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY23" t="n">
         <v>11</v>
@@ -4716,7 +4716,7 @@
         <v>101</v>
       </c>
       <c r="BD23" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -5130,7 +5130,7 @@
         <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -5157,19 +5157,19 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
         <v>41</v>
@@ -5214,19 +5214,19 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
@@ -5626,7 +5626,7 @@
         <v>251</v>
       </c>
       <c r="BD28" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -5793,7 +5793,7 @@
         <v>4.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5849,7 +5849,7 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         <v>2.4</v>
       </c>
       <c r="L30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -5873,10 +5873,10 @@
         <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
         <v>1.3</v>
@@ -5885,10 +5885,10 @@
         <v>3.4</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
@@ -5909,7 +5909,7 @@
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
         <v>8.5</v>
@@ -5927,13 +5927,13 @@
         <v>8.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>12</v>
@@ -5945,7 +5945,7 @@
         <v>7</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP30" t="n">
         <v>29</v>
@@ -6049,22 +6049,22 @@
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
         <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U31" t="n">
         <v>2.5</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
         <v>4.75</v>
@@ -6228,7 +6228,7 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -6237,10 +6237,10 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6258,7 +6258,7 @@
         <v>7</v>
       </c>
       <c r="X32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
@@ -6270,7 +6270,7 @@
         <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
         <v>9.5</v>
@@ -6291,16 +6291,16 @@
         <v>12</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
         <v>15</v>
       </c>
       <c r="AK32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -6309,7 +6309,7 @@
         <v>3.75</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
@@ -7314,7 +7314,7 @@
         <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -7323,16 +7323,16 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7341,13 +7341,13 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
@@ -7356,7 +7356,7 @@
         <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>19</v>
@@ -7365,16 +7365,16 @@
         <v>26</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
         <v>7</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
         <v>201</v>
@@ -7395,7 +7395,7 @@
         <v>21</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
         <v>4.5</v>
@@ -7413,7 +7413,7 @@
         <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
         <v>3</v>
@@ -7425,7 +7425,7 @@
         <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX38" t="n">
         <v>5</v>
@@ -7496,7 +7496,7 @@
         <v>2.75</v>
       </c>
       <c r="L39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -7523,16 +7523,16 @@
         <v>3.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -7541,7 +7541,7 @@
         <v>8.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB39" t="n">
         <v>23</v>
@@ -7550,7 +7550,7 @@
         <v>19</v>
       </c>
       <c r="AD39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
         <v>21</v>
@@ -7580,7 +7580,7 @@
         <v>51</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO39" t="n">
         <v>6</v>
@@ -7610,7 +7610,7 @@
         <v>501</v>
       </c>
       <c r="AX39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY39" t="n">
         <v>41</v>
@@ -7625,7 +7625,7 @@
         <v>151</v>
       </c>
       <c r="BC39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7663,22 +7663,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K40" t="n">
         <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7687,28 +7687,28 @@
         <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V40" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W40" t="n">
         <v>8</v>
@@ -7720,19 +7720,19 @@
         <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
         <v>19</v>
@@ -7744,13 +7744,13 @@
         <v>251</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK40" t="n">
         <v>67</v>
@@ -7765,13 +7765,13 @@
         <v>3.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP40" t="n">
         <v>17</v>
       </c>
       <c r="AQ40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR40" t="n">
         <v>41</v>
@@ -7780,7 +7780,7 @@
         <v>101</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU40" t="n">
         <v>8.5</v>
@@ -7792,7 +7792,7 @@
         <v>501</v>
       </c>
       <c r="AX40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY40" t="n">
         <v>34</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L42" t="n">
         <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.33</v>
       </c>
       <c r="M42" t="n">
         <v>1.04</v>
@@ -8057,10 +8057,10 @@
         <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -8069,31 +8069,31 @@
         <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA42" t="n">
         <v>15</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>13</v>
       </c>
       <c r="AB42" t="n">
         <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
         <v>7</v>
@@ -8105,7 +8105,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="n">
         <v>13</v>
@@ -8120,7 +8120,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM42" t="n">
         <v>34</v>
@@ -8129,13 +8129,13 @@
         <v>4</v>
       </c>
       <c r="AO42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP42" t="n">
         <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.9</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J43" t="n">
         <v>2.1</v>
@@ -8224,7 +8224,7 @@
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -8251,16 +8251,16 @@
         <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V43" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W43" t="n">
         <v>7</v>
       </c>
       <c r="X43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8281,7 +8281,7 @@
         <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
@@ -8299,7 +8299,7 @@
         <v>17</v>
       </c>
       <c r="AK43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL43" t="n">
         <v>41</v>
@@ -8338,7 +8338,7 @@
         <v>501</v>
       </c>
       <c r="AX43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY43" t="n">
         <v>29</v>
@@ -8585,16 +8585,16 @@
         <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L45" t="n">
         <v>4.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8603,10 +8603,10 @@
         <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="n">
         <v>1.33</v>
@@ -8773,13 +8773,13 @@
         <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
         <v>3.75</v>
@@ -8949,19 +8949,19 @@
         <v>1.73</v>
       </c>
       <c r="K47" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L47" t="n">
         <v>8</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P47" t="n">
         <v>4.5</v>
@@ -9066,7 +9066,7 @@
         <v>51</v>
       </c>
       <c r="AX47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY47" t="n">
         <v>41</v>
@@ -9075,10 +9075,10 @@
         <v>41</v>
       </c>
       <c r="BA47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC47" t="n">
         <v>301</v>
@@ -9137,22 +9137,22 @@
         <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P48" t="n">
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9319,13 +9319,13 @@
         <v>7.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
@@ -9513,10 +9513,10 @@
         <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S50" t="n">
         <v>1.44</v>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
         <v>3.2</v>
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
         <v>1.5</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
@@ -9880,7 +9880,7 @@
         <v>2.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S52" t="n">
         <v>1.53</v>
@@ -10062,7 +10062,7 @@
         <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10241,10 +10241,10 @@
         <v>2.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R54" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S54" t="n">
         <v>1.67</v>
@@ -10757,40 +10757,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K57" t="n">
         <v>2.1</v>
       </c>
       <c r="L57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
         <v>1.44</v>
@@ -10799,16 +10799,16 @@
         <v>2.63</v>
       </c>
       <c r="U57" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W57" t="n">
         <v>6.5</v>
       </c>
       <c r="X57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y57" t="n">
         <v>9</v>
@@ -10817,19 +10817,19 @@
         <v>15</v>
       </c>
       <c r="AA57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB57" t="n">
         <v>29</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD57" t="n">
         <v>6.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF57" t="n">
         <v>51</v>
@@ -10838,13 +10838,13 @@
         <v>351</v>
       </c>
       <c r="AH57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK57" t="n">
         <v>51</v>
@@ -10859,7 +10859,7 @@
         <v>3.75</v>
       </c>
       <c r="AO57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP57" t="n">
         <v>23</v>
@@ -10880,7 +10880,7 @@
         <v>8.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW57" t="n">
         <v>51</v>
@@ -10889,7 +10889,7 @@
         <v>6</v>
       </c>
       <c r="AY57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ57" t="n">
         <v>34</v>
@@ -10898,10 +10898,10 @@
         <v>81</v>
       </c>
       <c r="BB57" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC57" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD57" t="n">
         <v>51</v>
@@ -10939,40 +10939,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I58" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S58" t="n">
         <v>1.4</v>
@@ -10987,28 +10987,28 @@
         <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB58" t="n">
         <v>29</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
@@ -11020,37 +11020,37 @@
         <v>201</v>
       </c>
       <c r="AH58" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO58" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>15</v>
       </c>
       <c r="AP58" t="n">
         <v>23</v>
       </c>
       <c r="AQ58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS58" t="n">
         <v>151</v>
@@ -11068,19 +11068,19 @@
         <v>126</v>
       </c>
       <c r="AX58" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AY58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA58" t="n">
         <v>51</v>
       </c>
       <c r="BB58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC58" t="n">
         <v>151</v>
@@ -11127,7 +11127,7 @@
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J59" t="n">
         <v>4.33</v>
@@ -11139,13 +11139,13 @@
         <v>2.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P59" t="n">
         <v>3.25</v>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H62" t="n">
         <v>3.9</v>
@@ -11685,22 +11685,22 @@
         <v>6.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R62" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S62" t="n">
         <v>1.44</v>
@@ -11709,10 +11709,10 @@
         <v>2.63</v>
       </c>
       <c r="U62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W62" t="n">
         <v>5.5</v>
@@ -11736,10 +11736,10 @@
         <v>8.5</v>
       </c>
       <c r="AD62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF62" t="n">
         <v>81</v>
@@ -11784,7 +11784,7 @@
         <v>201</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU62" t="n">
         <v>9.5</v>
@@ -11805,7 +11805,7 @@
         <v>41</v>
       </c>
       <c r="BA62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB62" t="n">
         <v>151</v>
@@ -12031,40 +12031,40 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H64" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="J64" t="n">
         <v>6.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="R64" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
         <v>1.4</v>
@@ -12079,37 +12079,37 @@
         <v>1.67</v>
       </c>
       <c r="W64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X64" t="n">
         <v>29</v>
       </c>
       <c r="Y64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z64" t="n">
         <v>67</v>
       </c>
       <c r="AA64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB64" t="n">
         <v>51</v>
       </c>
       <c r="AC64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH64" t="n">
         <v>6</v>
@@ -12121,7 +12121,7 @@
         <v>8.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL64" t="n">
         <v>13</v>
@@ -12130,7 +12130,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO64" t="n">
         <v>34</v>
@@ -12139,7 +12139,7 @@
         <v>41</v>
       </c>
       <c r="AQ64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR64" t="n">
         <v>151</v>
@@ -12163,13 +12163,13 @@
         <v>3.4</v>
       </c>
       <c r="AY64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ64" t="n">
         <v>21</v>
       </c>
       <c r="BA64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB64" t="n">
         <v>51</v>
@@ -12759,46 +12759,46 @@
         </is>
       </c>
       <c r="G68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N68" t="n">
+        <v>17</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S68" t="n">
         <v>1.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L68" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N68" t="n">
-        <v>21</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P68" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R68" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.22</v>
-      </c>
       <c r="T68" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U68" t="n">
         <v>1.95</v>
@@ -12807,31 +12807,31 @@
         <v>1.8</v>
       </c>
       <c r="W68" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X68" t="n">
         <v>7</v>
       </c>
       <c r="Y68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF68" t="n">
         <v>51</v>
@@ -12861,13 +12861,13 @@
         <v>3.4</v>
       </c>
       <c r="AO68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP68" t="n">
         <v>15</v>
       </c>
       <c r="AQ68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR68" t="n">
         <v>34</v>
@@ -12876,7 +12876,7 @@
         <v>101</v>
       </c>
       <c r="AT68" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU68" t="n">
         <v>9</v>
@@ -12888,7 +12888,7 @@
         <v>501</v>
       </c>
       <c r="AX68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY68" t="n">
         <v>41</v>
@@ -12897,7 +12897,7 @@
         <v>41</v>
       </c>
       <c r="BA68" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB68" t="n">
         <v>151</v>
@@ -18583,22 +18583,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>3.75</v>
       </c>
       <c r="I100" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J100" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K100" t="n">
         <v>2.5</v>
       </c>
       <c r="L100" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M100" t="n">
         <v>1.02</v>
@@ -18643,7 +18643,7 @@
         <v>23</v>
       </c>
       <c r="AA100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB100" t="n">
         <v>19</v>
@@ -18712,10 +18712,10 @@
         <v>251</v>
       </c>
       <c r="AX100" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ100" t="n">
         <v>19</v>
@@ -18765,13 +18765,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H101" t="n">
         <v>4.2</v>
       </c>
       <c r="I101" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J101" t="n">
         <v>2.05</v>
@@ -18780,7 +18780,7 @@
         <v>2.63</v>
       </c>
       <c r="L101" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M101" t="n">
         <v>1.02</v>
@@ -18807,10 +18807,10 @@
         <v>4</v>
       </c>
       <c r="U101" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W101" t="n">
         <v>12</v>
@@ -18819,7 +18819,7 @@
         <v>11</v>
       </c>
       <c r="Y101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z101" t="n">
         <v>13</v>
@@ -18843,7 +18843,7 @@
         <v>34</v>
       </c>
       <c r="AG101" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH101" t="n">
         <v>23</v>
@@ -18861,13 +18861,13 @@
         <v>34</v>
       </c>
       <c r="AM101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN101" t="n">
         <v>4</v>
       </c>
       <c r="AO101" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP101" t="n">
         <v>13</v>
@@ -18947,7 +18947,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
         <v>4.33</v>
@@ -18956,7 +18956,7 @@
         <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K102" t="n">
         <v>2.5</v>
@@ -19043,19 +19043,19 @@
         <v>41</v>
       </c>
       <c r="AM102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN102" t="n">
         <v>3.75</v>
       </c>
       <c r="AO102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP102" t="n">
         <v>15</v>
       </c>
       <c r="AQ102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR102" t="n">
         <v>41</v>
@@ -19311,13 +19311,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I104" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J104" t="n">
         <v>2</v>
@@ -19335,22 +19335,22 @@
         <v>13</v>
       </c>
       <c r="O104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="R104" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T104" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U104" t="n">
         <v>1.83</v>
@@ -19374,7 +19374,7 @@
         <v>12</v>
       </c>
       <c r="AB104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC104" t="n">
         <v>13</v>
@@ -19413,7 +19413,7 @@
         <v>3.5</v>
       </c>
       <c r="AO104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP104" t="n">
         <v>17</v>
@@ -19428,7 +19428,7 @@
         <v>126</v>
       </c>
       <c r="AT104" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU104" t="n">
         <v>8.5</v>
@@ -19455,7 +19455,7 @@
         <v>126</v>
       </c>
       <c r="BC104" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD104" t="n">
         <v>81</v>
@@ -20039,16 +20039,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>3.6</v>
       </c>
       <c r="I108" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J108" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K108" t="n">
         <v>2.4</v>
@@ -20057,16 +20057,16 @@
         <v>2.88</v>
       </c>
       <c r="M108" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O108" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P108" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q108" t="n">
         <v>1.53</v>
@@ -20120,13 +20120,13 @@
         <v>101</v>
       </c>
       <c r="AH108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI108" t="n">
         <v>15</v>
       </c>
       <c r="AJ108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK108" t="n">
         <v>23</v>
@@ -20141,7 +20141,7 @@
         <v>5</v>
       </c>
       <c r="AO108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP108" t="n">
         <v>19</v>
@@ -20180,7 +20180,7 @@
         <v>41</v>
       </c>
       <c r="BB108" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC108" t="n">
         <v>81</v>
@@ -21313,16 +21313,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K115" t="n">
         <v>2.2</v>
@@ -21331,13 +21331,13 @@
         <v>3.4</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N115" t="n">
         <v>11</v>
       </c>
       <c r="O115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P115" t="n">
         <v>3.75</v>
@@ -21355,19 +21355,19 @@
         <v>3</v>
       </c>
       <c r="U115" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V115" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W115" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y115" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z115" t="n">
         <v>23</v>
@@ -21385,7 +21385,7 @@
         <v>6.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF115" t="n">
         <v>41</v>
@@ -21394,7 +21394,7 @@
         <v>151</v>
       </c>
       <c r="AH115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI115" t="n">
         <v>15</v>
@@ -21406,7 +21406,7 @@
         <v>29</v>
       </c>
       <c r="AL115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM115" t="n">
         <v>29</v>
@@ -21427,7 +21427,7 @@
         <v>51</v>
       </c>
       <c r="AS115" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT115" t="n">
         <v>3</v>
@@ -21442,7 +21442,7 @@
         <v>351</v>
       </c>
       <c r="AX115" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY115" t="n">
         <v>15</v>
@@ -22223,22 +22223,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I120" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J120" t="n">
         <v>1.93</v>
       </c>
       <c r="K120" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L120" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M120" t="n">
         <v>1.02</v>
@@ -22250,37 +22250,37 @@
         <v>1.11</v>
       </c>
       <c r="P120" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q120" t="n">
         <v>1.36</v>
       </c>
       <c r="R120" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="S120" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T120" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U120" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V120" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="W120" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X120" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y120" t="n">
         <v>8.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA120" t="n">
         <v>10.5</v>
@@ -22292,28 +22292,28 @@
         <v>10.25</v>
       </c>
       <c r="AD120" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE120" t="n">
         <v>13</v>
       </c>
       <c r="AF120" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG120" t="n">
         <v>175</v>
       </c>
       <c r="AH120" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI120" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ120" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK120" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL120" t="n">
         <v>40</v>
@@ -22340,34 +22340,34 @@
         <v>100</v>
       </c>
       <c r="AT120" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU120" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV120" t="n">
         <v>37</v>
       </c>
       <c r="AW120" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AX120" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AY120" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ120" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA120" t="n">
         <v>120</v>
       </c>
       <c r="BB120" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BC120" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD120" t="n">
         <v>51</v>
@@ -22608,7 +22608,7 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.3</v>
@@ -22793,16 +22793,16 @@
         <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P123" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R123" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>1.4</v>
@@ -22951,16 +22951,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I124" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J124" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K124" t="n">
         <v>2.1</v>
@@ -22969,46 +22969,46 @@
         <v>4</v>
       </c>
       <c r="M124" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P124" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R124" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S124" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T124" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V124" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W124" t="n">
         <v>7.5</v>
       </c>
       <c r="X124" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y124" t="n">
         <v>9</v>
       </c>
       <c r="Z124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA124" t="n">
         <v>17</v>
@@ -23017,7 +23017,7 @@
         <v>29</v>
       </c>
       <c r="AC124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD124" t="n">
         <v>6.5</v>
@@ -23032,16 +23032,16 @@
         <v>251</v>
       </c>
       <c r="AH124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI124" t="n">
         <v>17</v>
       </c>
       <c r="AJ124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK124" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL124" t="n">
         <v>29</v>
@@ -23053,10 +23053,10 @@
         <v>4</v>
       </c>
       <c r="AO124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ124" t="n">
         <v>41</v>
@@ -23068,7 +23068,7 @@
         <v>151</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU124" t="n">
         <v>8</v>
@@ -23083,7 +23083,7 @@
         <v>5.5</v>
       </c>
       <c r="AY124" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ124" t="n">
         <v>29</v>
@@ -23133,58 +23133,58 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I125" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J125" t="n">
         <v>3.1</v>
       </c>
       <c r="K125" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L125" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M125" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
+        <v>11</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W125" t="n">
+        <v>10</v>
+      </c>
+      <c r="X125" t="n">
         <v>13</v>
-      </c>
-      <c r="O125" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P125" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R125" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S125" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T125" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U125" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V125" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W125" t="n">
-        <v>11</v>
-      </c>
-      <c r="X125" t="n">
-        <v>15</v>
       </c>
       <c r="Y125" t="n">
         <v>10</v>
@@ -23196,10 +23196,10 @@
         <v>19</v>
       </c>
       <c r="AB125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD125" t="n">
         <v>6.5</v>
@@ -23211,10 +23211,10 @@
         <v>41</v>
       </c>
       <c r="AG125" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI125" t="n">
         <v>15</v>
@@ -23247,16 +23247,16 @@
         <v>51</v>
       </c>
       <c r="AS125" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT125" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU125" t="n">
         <v>7.5</v>
       </c>
       <c r="AV125" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW125" t="n">
         <v>51</v>
@@ -23274,10 +23274,10 @@
         <v>41</v>
       </c>
       <c r="BB125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC125" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD125" t="n">
         <v>51</v>
@@ -24058,7 +24058,7 @@
         <v>2.25</v>
       </c>
       <c r="L130" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M130" t="n">
         <v>1.04</v>
@@ -24085,7 +24085,7 @@
         <v>3.25</v>
       </c>
       <c r="U130" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V130" t="n">
         <v>2.1</v>
@@ -27137,22 +27137,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J147" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K147" t="n">
         <v>2.88</v>
       </c>
       <c r="L147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M147" t="n">
         <v>1.02</v>
@@ -27179,10 +27179,10 @@
         <v>4</v>
       </c>
       <c r="U147" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V147" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W147" t="n">
         <v>9</v>
@@ -27212,10 +27212,10 @@
         <v>26</v>
       </c>
       <c r="AF147" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG147" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH147" t="n">
         <v>34</v>
@@ -27230,13 +27230,13 @@
         <v>201</v>
       </c>
       <c r="AL147" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM147" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN147" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO147" t="n">
         <v>5</v>
@@ -27245,43 +27245,43 @@
         <v>17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR147" t="n">
         <v>34</v>
       </c>
       <c r="AS147" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT147" t="n">
         <v>4</v>
       </c>
       <c r="AU147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV147" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW147" t="n">
         <v>126</v>
       </c>
       <c r="AX147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY147" t="n">
         <v>51</v>
       </c>
       <c r="AZ147" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA147" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB147" t="n">
         <v>251</v>
       </c>
       <c r="BC147" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD147" t="n">
         <v>126</v>
@@ -27340,7 +27340,7 @@
         <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O148" t="n">
         <v>1.22</v>
@@ -27349,10 +27349,10 @@
         <v>4</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R148" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S148" t="n">
         <v>1.33</v>
@@ -28229,52 +28229,52 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H153" t="n">
         <v>2.7</v>
       </c>
       <c r="I153" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J153" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K153" t="n">
         <v>1.83</v>
       </c>
       <c r="L153" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M153" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N153" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O153" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P153" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R153" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S153" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U153" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V153" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W153" t="n">
         <v>5.5</v>
@@ -28331,7 +28331,7 @@
         <v>4</v>
       </c>
       <c r="AO153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP153" t="n">
         <v>34</v>
@@ -28346,7 +28346,7 @@
         <v>351</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU153" t="n">
         <v>10</v>
@@ -28420,7 +28420,7 @@
         <v>23</v>
       </c>
       <c r="J154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K154" t="n">
         <v>2.75</v>
@@ -28429,13 +28429,13 @@
         <v>17</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N154" t="n">
         <v>11</v>
       </c>
       <c r="O154" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P154" t="n">
         <v>4.33</v>
@@ -28510,7 +28510,7 @@
         <v>201</v>
       </c>
       <c r="AN154" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AO154" t="n">
         <v>4.75</v>
@@ -28775,13 +28775,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
         <v>3.6</v>
       </c>
       <c r="I156" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J156" t="n">
         <v>4</v>
@@ -28817,10 +28817,10 @@
         <v>3.25</v>
       </c>
       <c r="U156" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V156" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W156" t="n">
         <v>13</v>
@@ -28856,7 +28856,7 @@
         <v>151</v>
       </c>
       <c r="AH156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI156" t="n">
         <v>10</v>
@@ -28877,16 +28877,16 @@
         <v>6</v>
       </c>
       <c r="AO156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ156" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR156" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS156" t="n">
         <v>151</v>
@@ -28898,10 +28898,10 @@
         <v>7.5</v>
       </c>
       <c r="AV156" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW156" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX156" t="n">
         <v>4</v>
@@ -28957,22 +28957,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>3.1</v>
       </c>
       <c r="I157" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="J157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K157" t="n">
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M157" t="n">
         <v>1.08</v>
@@ -28999,22 +28999,22 @@
         <v>2.5</v>
       </c>
       <c r="U157" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V157" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA157" t="n">
         <v>23</v>
@@ -29038,10 +29038,10 @@
         <v>351</v>
       </c>
       <c r="AH157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ157" t="n">
         <v>11</v>
@@ -29050,7 +29050,7 @@
         <v>29</v>
       </c>
       <c r="AL157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM157" t="n">
         <v>41</v>
@@ -29062,7 +29062,7 @@
         <v>15</v>
       </c>
       <c r="AP157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ157" t="n">
         <v>51</v>
@@ -29071,7 +29071,7 @@
         <v>81</v>
       </c>
       <c r="AS157" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT157" t="n">
         <v>2.5</v>
@@ -29139,16 +29139,16 @@
         </is>
       </c>
       <c r="G158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.4</v>
       </c>
-      <c r="H158" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I158" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="J158" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K158" t="n">
         <v>2.1</v>
@@ -29157,10 +29157,10 @@
         <v>2.75</v>
       </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O158" t="n">
         <v>1.33</v>
@@ -29181,10 +29181,10 @@
         <v>2.63</v>
       </c>
       <c r="U158" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V158" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W158" t="n">
         <v>10</v>
@@ -29193,7 +29193,7 @@
         <v>17</v>
       </c>
       <c r="Y158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z158" t="n">
         <v>41</v>
@@ -29205,7 +29205,7 @@
         <v>41</v>
       </c>
       <c r="AC158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD158" t="n">
         <v>6.5</v>
@@ -29217,19 +29217,19 @@
         <v>51</v>
       </c>
       <c r="AG158" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI158" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ158" t="n">
         <v>9</v>
       </c>
       <c r="AK158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL158" t="n">
         <v>17</v>
@@ -29241,7 +29241,7 @@
         <v>5.5</v>
       </c>
       <c r="AO158" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP158" t="n">
         <v>29</v>
@@ -29250,7 +29250,7 @@
         <v>67</v>
       </c>
       <c r="AR158" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS158" t="n">
         <v>201</v>
@@ -29271,7 +29271,7 @@
         <v>4</v>
       </c>
       <c r="AY158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ158" t="n">
         <v>23</v>
@@ -29321,22 +29321,22 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H159" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I159" t="n">
+        <v>15</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L159" t="n">
         <v>12</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K159" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L159" t="n">
-        <v>10</v>
       </c>
       <c r="M159" t="n">
         <v>1.06</v>
@@ -29345,58 +29345,58 @@
         <v>10</v>
       </c>
       <c r="O159" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P159" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q159" t="n">
         <v>2.05</v>
       </c>
       <c r="R159" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S159" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U159" t="n">
         <v>3</v>
       </c>
-      <c r="U159" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V159" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W159" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X159" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z159" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA159" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB159" t="n">
         <v>41</v>
       </c>
       <c r="AC159" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE159" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF159" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AG159" t="n">
         <v>1000</v>
@@ -29408,25 +29408,25 @@
         <v>51</v>
       </c>
       <c r="AJ159" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK159" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL159" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM159" t="n">
         <v>101</v>
       </c>
       <c r="AN159" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO159" t="n">
         <v>6</v>
       </c>
       <c r="AP159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ159" t="n">
         <v>17</v>
@@ -29435,28 +29435,28 @@
         <v>51</v>
       </c>
       <c r="AS159" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT159" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV159" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW159" t="n">
         <v>126</v>
       </c>
       <c r="AX159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY159" t="n">
         <v>51</v>
       </c>
       <c r="AZ159" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA159" t="n">
         <v>351</v>
@@ -29685,37 +29685,37 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H161" t="n">
         <v>3.6</v>
       </c>
       <c r="I161" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J161" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K161" t="n">
         <v>2.4</v>
       </c>
       <c r="L161" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M161" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N161" t="n">
         <v>17</v>
       </c>
       <c r="O161" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P161" t="n">
         <v>5</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R161" t="n">
         <v>2.4</v>
@@ -29736,7 +29736,7 @@
         <v>12</v>
       </c>
       <c r="X161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y161" t="n">
         <v>9.5</v>
@@ -29745,7 +29745,7 @@
         <v>23</v>
       </c>
       <c r="AA161" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB161" t="n">
         <v>21</v>
@@ -29766,10 +29766,10 @@
         <v>101</v>
       </c>
       <c r="AH161" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI161" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ161" t="n">
         <v>11</v>
@@ -29778,7 +29778,7 @@
         <v>29</v>
       </c>
       <c r="AL161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM161" t="n">
         <v>23</v>
@@ -29796,7 +29796,7 @@
         <v>41</v>
       </c>
       <c r="AR161" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS161" t="n">
         <v>101</v>
@@ -29867,22 +29867,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I162" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J162" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K162" t="n">
         <v>2.2</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M162" t="n">
         <v>1.05</v>
@@ -29918,16 +29918,16 @@
         <v>11</v>
       </c>
       <c r="X162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y162" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z162" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA162" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB162" t="n">
         <v>29</v>
@@ -29939,7 +29939,7 @@
         <v>6.5</v>
       </c>
       <c r="AE162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF162" t="n">
         <v>41</v>
@@ -29948,28 +29948,28 @@
         <v>151</v>
       </c>
       <c r="AH162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ162" t="n">
         <v>9</v>
       </c>
-      <c r="AI162" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ162" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK162" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM162" t="n">
         <v>23</v>
-      </c>
-      <c r="AL162" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM162" t="n">
-        <v>26</v>
       </c>
       <c r="AN162" t="n">
         <v>5</v>
       </c>
       <c r="AO162" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP162" t="n">
         <v>23</v>
@@ -29996,10 +29996,10 @@
         <v>501</v>
       </c>
       <c r="AX162" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY162" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ162" t="n">
         <v>21</v>
@@ -30011,7 +30011,7 @@
         <v>51</v>
       </c>
       <c r="BC162" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD162" t="n">
         <v>81</v>
@@ -30249,13 +30249,13 @@
         <v>5.5</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
         <v>13</v>
       </c>
       <c r="O164" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P164" t="n">
         <v>3.75</v>
@@ -30437,16 +30437,16 @@
         <v>11</v>
       </c>
       <c r="O165" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P165" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R165" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S165" t="n">
         <v>1.36</v>
@@ -30777,22 +30777,22 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H167" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I167" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J167" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K167" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L167" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="M167" t="n">
         <v>1.02</v>
@@ -30807,58 +30807,58 @@
         <v>5.5</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R167" t="n">
         <v>2.87</v>
       </c>
       <c r="S167" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T167" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U167" t="n">
         <v>1.47</v>
       </c>
       <c r="V167" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W167" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X167" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y167" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z167" t="n">
         <v>120</v>
       </c>
       <c r="AA167" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB167" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC167" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD167" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE167" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF167" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG167" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH167" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI167" t="n">
         <v>10.25</v>
@@ -30870,34 +30870,34 @@
         <v>12.5</v>
       </c>
       <c r="AL167" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM167" t="n">
         <v>16</v>
       </c>
       <c r="AN167" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO167" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP167" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ167" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR167" t="n">
         <v>120</v>
       </c>
-      <c r="AR167" t="n">
-        <v>110</v>
-      </c>
       <c r="AS167" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT167" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU167" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV167" t="n">
         <v>37</v>
@@ -30909,16 +30909,16 @@
         <v>3.85</v>
       </c>
       <c r="AY167" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AZ167" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="BA167" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="BB167" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BC167" t="n">
         <v>100</v>
@@ -30959,58 +30959,58 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H168" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I168" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J168" t="n">
         <v>4.35</v>
       </c>
       <c r="K168" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L168" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P168" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R168" t="n">
         <v>2.22</v>
       </c>
-      <c r="M168" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N168" t="n">
-        <v>9</v>
-      </c>
-      <c r="O168" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P168" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R168" t="n">
-        <v>2.3</v>
-      </c>
       <c r="S168" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T168" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U168" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V168" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="W168" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X168" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y168" t="n">
         <v>13.5</v>
@@ -31022,13 +31022,13 @@
         <v>35</v>
       </c>
       <c r="AB168" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC168" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD168" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE168" t="n">
         <v>13</v>
@@ -31037,25 +31037,25 @@
         <v>45</v>
       </c>
       <c r="AG168" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH168" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI168" t="n">
         <v>9.75</v>
       </c>
-      <c r="AI168" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ168" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK168" t="n">
         <v>15</v>
       </c>
       <c r="AL168" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM168" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN168" t="n">
         <v>6.2</v>
@@ -31067,16 +31067,16 @@
         <v>25</v>
       </c>
       <c r="AQ168" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR168" t="n">
         <v>120</v>
       </c>
       <c r="AS168" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT168" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU168" t="n">
         <v>6.8</v>
@@ -31091,16 +31091,16 @@
         <v>3.85</v>
       </c>
       <c r="AY168" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AZ168" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA168" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB168" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC168" t="n">
         <v>150</v>
@@ -31171,10 +31171,10 @@
         <v>3.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R169" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S169" t="n">
         <v>1.4</v>
@@ -31323,22 +31323,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H170" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I170" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="J170" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K170" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M170" t="n">
         <v>1.08</v>
@@ -31353,97 +31353,97 @@
         <v>2.75</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R170" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S170" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T170" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U170" t="n">
         <v>2</v>
       </c>
       <c r="V170" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W170" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X170" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y170" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z170" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AA170" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AB170" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC170" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD170" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF170" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG170" t="n">
         <v>351</v>
       </c>
       <c r="AH170" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI170" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AJ170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK170" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL170" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM170" t="n">
         <v>34</v>
       </c>
       <c r="AN170" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO170" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AP170" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ170" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR170" t="n">
         <v>101</v>
       </c>
-      <c r="AR170" t="n">
-        <v>126</v>
-      </c>
       <c r="AS170" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV170" t="n">
         <v>67</v>
@@ -31452,19 +31452,19 @@
         <v>51</v>
       </c>
       <c r="AX170" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AY170" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ170" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA170" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB170" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC170" t="n">
         <v>201</v>
@@ -31705,13 +31705,13 @@
         <v>3.25</v>
       </c>
       <c r="M172" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N172" t="n">
         <v>7.5</v>
       </c>
       <c r="O172" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P172" t="n">
         <v>3.25</v>
@@ -31869,28 +31869,28 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H173" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I173" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J173" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K173" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L173" t="n">
         <v>4</v>
       </c>
       <c r="M173" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N173" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O173" t="n">
         <v>1.17</v>
@@ -31911,16 +31911,16 @@
         <v>3.5</v>
       </c>
       <c r="U173" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V173" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="W173" t="n">
         <v>10</v>
       </c>
       <c r="X173" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y173" t="n">
         <v>9</v>
@@ -31950,25 +31950,25 @@
         <v>126</v>
       </c>
       <c r="AH173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI173" t="n">
         <v>23</v>
       </c>
       <c r="AJ173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK173" t="n">
         <v>41</v>
       </c>
       <c r="AL173" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM173" t="n">
         <v>29</v>
       </c>
       <c r="AN173" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO173" t="n">
         <v>9</v>
@@ -31998,10 +31998,10 @@
         <v>81</v>
       </c>
       <c r="AX173" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ173" t="n">
         <v>23</v>
@@ -33325,79 +33325,79 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="H181" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I181" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="J181" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="K181" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L181" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="M181" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N181" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="O181" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P181" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R181" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="S181" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="T181" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="U181" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V181" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W181" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="X181" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y181" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA181" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB181" t="n">
         <v>90</v>
       </c>
       <c r="AC181" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AD181" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE181" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF181" t="n">
         <v>110</v>
@@ -33406,34 +33406,34 @@
         <v>900</v>
       </c>
       <c r="AH181" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI181" t="n">
         <v>6</v>
       </c>
       <c r="AJ181" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK181" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AL181" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AM181" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN181" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AO181" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP181" t="n">
         <v>50</v>
       </c>
       <c r="AQ181" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AR181" t="n">
         <v>400</v>
@@ -33442,7 +33442,7 @@
         <v>500</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="AU181" t="n">
         <v>8.75</v>
@@ -33457,19 +33457,19 @@
         <v>3.1</v>
       </c>
       <c r="AY181" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AZ181" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="BA181" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="BB181" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BC181" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD181" t="n">
         <v>51</v>
@@ -34599,22 +34599,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="H188" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I188" t="n">
         <v>1.31</v>
       </c>
       <c r="J188" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="K188" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L188" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M188" t="n">
         <v>1.04</v>
@@ -34623,10 +34623,10 @@
         <v>8.25</v>
       </c>
       <c r="O188" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P188" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q188" t="n">
         <v>1.7</v>
@@ -34635,10 +34635,10 @@
         <v>2.07</v>
       </c>
       <c r="S188" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T188" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="U188" t="n">
         <v>2.1</v>
@@ -34653,7 +34653,7 @@
         <v>65</v>
       </c>
       <c r="Y188" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z188" t="n">
         <v>250</v>
@@ -34668,10 +34668,10 @@
         <v>8.25</v>
       </c>
       <c r="AD188" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE188" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF188" t="n">
         <v>120</v>
@@ -34680,7 +34680,7 @@
         <v>900</v>
       </c>
       <c r="AH188" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI188" t="n">
         <v>6</v>
@@ -34689,7 +34689,7 @@
         <v>8.75</v>
       </c>
       <c r="AK188" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AL188" t="n">
         <v>11.25</v>
@@ -34716,13 +34716,13 @@
         <v>51</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU188" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV188" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW188" t="n">
         <v>51</v>
@@ -34731,13 +34731,13 @@
         <v>3.05</v>
       </c>
       <c r="AY188" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AZ188" t="n">
         <v>17</v>
       </c>
       <c r="BA188" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB188" t="n">
         <v>45</v>
@@ -34784,16 +34784,16 @@
         <v>1.55</v>
       </c>
       <c r="H189" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I189" t="n">
         <v>5.7</v>
       </c>
       <c r="J189" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K189" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L189" t="n">
         <v>5.6</v>
@@ -34820,13 +34820,13 @@
         <v>1.38</v>
       </c>
       <c r="T189" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U189" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V189" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W189" t="n">
         <v>6.1</v>
@@ -34850,10 +34850,10 @@
         <v>7.2</v>
       </c>
       <c r="AD189" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE189" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF189" t="n">
         <v>100</v>
@@ -34862,19 +34862,19 @@
         <v>900</v>
       </c>
       <c r="AH189" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI189" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ189" t="n">
         <v>18</v>
       </c>
       <c r="AK189" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL189" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM189" t="n">
         <v>65</v>
@@ -34883,7 +34883,7 @@
         <v>3.35</v>
       </c>
       <c r="AO189" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AP189" t="n">
         <v>17.5</v>
@@ -34898,13 +34898,13 @@
         <v>250</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU189" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV189" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW189" t="n">
         <v>51</v>
@@ -35873,19 +35873,19 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H195" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I195" t="n">
         <v>3.1</v>
       </c>
       <c r="J195" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K195" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L195" t="n">
         <v>3.4</v>
@@ -35903,10 +35903,10 @@
         <v>4.5</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R195" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S195" t="n">
         <v>1.3</v>
@@ -35915,13 +35915,13 @@
         <v>3.4</v>
       </c>
       <c r="U195" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V195" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W195" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X195" t="n">
         <v>13</v>
@@ -35939,10 +35939,10 @@
         <v>21</v>
       </c>
       <c r="AC195" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD195" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE195" t="n">
         <v>11</v>
@@ -35951,13 +35951,13 @@
         <v>34</v>
       </c>
       <c r="AG195" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH195" t="n">
         <v>13</v>
       </c>
       <c r="AI195" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ195" t="n">
         <v>12</v>
@@ -35966,7 +35966,7 @@
         <v>34</v>
       </c>
       <c r="AL195" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM195" t="n">
         <v>26</v>
@@ -36017,7 +36017,7 @@
         <v>51</v>
       </c>
       <c r="BC195" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD195" t="n">
         <v>81</v>
@@ -36055,40 +36055,40 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>3.4</v>
       </c>
       <c r="I196" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J196" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K196" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L196" t="n">
         <v>5.5</v>
       </c>
       <c r="M196" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N196" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O196" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P196" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R196" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S196" t="n">
         <v>1.5</v>
@@ -36103,10 +36103,10 @@
         <v>1.67</v>
       </c>
       <c r="W196" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X196" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y196" t="n">
         <v>9</v>
@@ -36115,7 +36115,7 @@
         <v>13</v>
       </c>
       <c r="AA196" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB196" t="n">
         <v>34</v>
@@ -36139,10 +36139,10 @@
         <v>12</v>
       </c>
       <c r="AI196" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ196" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK196" t="n">
         <v>51</v>
@@ -36154,10 +36154,10 @@
         <v>51</v>
       </c>
       <c r="AN196" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP196" t="n">
         <v>23</v>
@@ -36187,7 +36187,7 @@
         <v>6.5</v>
       </c>
       <c r="AY196" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ196" t="n">
         <v>41</v>
@@ -36196,7 +36196,7 @@
         <v>101</v>
       </c>
       <c r="BB196" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC196" t="n">
         <v>351</v>
@@ -36237,13 +36237,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I197" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J197" t="n">
         <v>3.5</v>
@@ -36258,7 +36258,7 @@
         <v>1.17</v>
       </c>
       <c r="N197" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O197" t="n">
         <v>1.73</v>
@@ -36270,7 +36270,7 @@
         <v>3.5</v>
       </c>
       <c r="R197" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S197" t="n">
         <v>1.75</v>
@@ -36285,7 +36285,7 @@
         <v>1.44</v>
       </c>
       <c r="W197" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X197" t="n">
         <v>10</v>
@@ -36321,7 +36321,7 @@
         <v>6.5</v>
       </c>
       <c r="AI197" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ197" t="n">
         <v>15</v>
@@ -36783,7 +36783,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
@@ -36801,7 +36801,7 @@
         <v>2.5</v>
       </c>
       <c r="M200" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N200" t="n">
         <v>12</v>
@@ -36810,7 +36810,7 @@
         <v>1.22</v>
       </c>
       <c r="P200" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q200" t="n">
         <v>1.77</v>
@@ -36831,7 +36831,7 @@
         <v>2.05</v>
       </c>
       <c r="W200" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X200" t="n">
         <v>21</v>
@@ -36855,16 +36855,16 @@
         <v>7</v>
       </c>
       <c r="AE200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF200" t="n">
         <v>41</v>
       </c>
       <c r="AG200" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH200" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI200" t="n">
         <v>9.5</v>
@@ -37693,10 +37693,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H205" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I205" t="n">
         <v>2.45</v>
@@ -37723,10 +37723,10 @@
         <v>3.5</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R205" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S205" t="n">
         <v>1.4</v>
@@ -37786,7 +37786,7 @@
         <v>23</v>
       </c>
       <c r="AL205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM205" t="n">
         <v>29</v>
@@ -37813,7 +37813,7 @@
         <v>2.75</v>
       </c>
       <c r="AU205" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV205" t="n">
         <v>51</v>
@@ -37875,28 +37875,28 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H206" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I206" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K206" t="n">
         <v>2.4</v>
-      </c>
-      <c r="K206" t="n">
-        <v>2.5</v>
       </c>
       <c r="L206" t="n">
         <v>3.75</v>
       </c>
       <c r="M206" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N206" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O206" t="n">
         <v>1.14</v>
@@ -37905,16 +37905,16 @@
         <v>5.5</v>
       </c>
       <c r="Q206" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R206" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S206" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T206" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U206" t="n">
         <v>1.5</v>
@@ -37932,19 +37932,19 @@
         <v>9</v>
       </c>
       <c r="Z206" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA206" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB206" t="n">
         <v>19</v>
       </c>
       <c r="AC206" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD206" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE206" t="n">
         <v>12</v>
@@ -37956,19 +37956,19 @@
         <v>101</v>
       </c>
       <c r="AH206" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI206" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL206" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK206" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL206" t="n">
-        <v>26</v>
       </c>
       <c r="AM206" t="n">
         <v>26</v>
@@ -37977,10 +37977,10 @@
         <v>4.33</v>
       </c>
       <c r="AO206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP206" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ206" t="n">
         <v>29</v>
@@ -37992,7 +37992,7 @@
         <v>81</v>
       </c>
       <c r="AT206" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU206" t="n">
         <v>7</v>
@@ -38004,10 +38004,10 @@
         <v>301</v>
       </c>
       <c r="AX206" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY206" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ206" t="n">
         <v>21</v>
@@ -38066,7 +38066,7 @@
         <v>4.2</v>
       </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K207" t="n">
         <v>2.3</v>
@@ -38087,7 +38087,7 @@
         <v>4</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R207" t="n">
         <v>2.05</v>
@@ -38239,22 +38239,22 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H208" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I208" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J208" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="K208" t="n">
         <v>2.2</v>
       </c>
       <c r="L208" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M208" t="n">
         <v>1.05</v>
@@ -38263,7 +38263,7 @@
         <v>8</v>
       </c>
       <c r="O208" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P208" t="n">
         <v>3.7</v>
@@ -38278,28 +38278,28 @@
         <v>1.35</v>
       </c>
       <c r="T208" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U208" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V208" t="n">
         <v>2.18</v>
       </c>
       <c r="W208" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X208" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y208" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z208" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AA208" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB208" t="n">
         <v>22</v>
@@ -38320,43 +38320,43 @@
         <v>300</v>
       </c>
       <c r="AH208" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AI208" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ208" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK208" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL208" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM208" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN208" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO208" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP208" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ208" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR208" t="n">
         <v>60</v>
       </c>
       <c r="AS208" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT208" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU208" t="n">
         <v>6.8</v>
@@ -38368,19 +38368,19 @@
         <v>51</v>
       </c>
       <c r="AX208" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AY208" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ208" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA208" t="n">
         <v>90</v>
       </c>
       <c r="BB208" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC208" t="n">
         <v>250</v>
@@ -38421,22 +38421,22 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H209" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I209" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J209" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K209" t="n">
         <v>2.3</v>
       </c>
       <c r="L209" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="M209" t="n">
         <v>1.03</v>
@@ -38448,7 +38448,7 @@
         <v>1.18</v>
       </c>
       <c r="P209" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q209" t="n">
         <v>1.55</v>
@@ -38457,7 +38457,7 @@
         <v>2.3</v>
       </c>
       <c r="S209" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T209" t="n">
         <v>3.25</v>
@@ -38466,34 +38466,34 @@
         <v>1.5</v>
       </c>
       <c r="V209" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W209" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X209" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y209" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z209" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA209" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB209" t="n">
         <v>25</v>
-      </c>
-      <c r="AB209" t="n">
-        <v>26</v>
       </c>
       <c r="AC209" t="n">
         <v>9</v>
       </c>
       <c r="AD209" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE209" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF209" t="n">
         <v>37</v>
@@ -38502,64 +38502,64 @@
         <v>200</v>
       </c>
       <c r="AH209" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI209" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ209" t="n">
         <v>8.5</v>
       </c>
       <c r="AK209" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL209" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM209" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN209" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO209" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP209" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ209" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR209" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS209" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT209" t="n">
         <v>3.25</v>
       </c>
       <c r="AU209" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV209" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW209" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX209" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AY209" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AZ209" t="n">
         <v>15</v>
       </c>
       <c r="BA209" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB209" t="n">
         <v>50</v>
@@ -38985,10 +38985,10 @@
         <v>2</v>
       </c>
       <c r="M212" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N212" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O212" t="n">
         <v>1.17</v>
@@ -39149,16 +39149,16 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>3.6</v>
       </c>
       <c r="I213" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J213" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K213" t="n">
         <v>2.2</v>
@@ -39191,22 +39191,22 @@
         <v>2.75</v>
       </c>
       <c r="U213" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V213" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W213" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X213" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y213" t="n">
         <v>9</v>
       </c>
       <c r="Z213" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA213" t="n">
         <v>17</v>
@@ -39233,7 +39233,7 @@
         <v>11</v>
       </c>
       <c r="AI213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ213" t="n">
         <v>12</v>
@@ -39242,7 +39242,7 @@
         <v>41</v>
       </c>
       <c r="AL213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM213" t="n">
         <v>34</v>
@@ -39287,13 +39287,13 @@
         <v>26</v>
       </c>
       <c r="BA213" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB213" t="n">
         <v>81</v>
       </c>
       <c r="BC213" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD213" t="n">
         <v>301</v>
@@ -39695,16 +39695,16 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
       </c>
       <c r="I216" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J216" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K216" t="n">
         <v>2.1</v>
@@ -39719,16 +39719,16 @@
         <v>10</v>
       </c>
       <c r="O216" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P216" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q216" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R216" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S216" t="n">
         <v>1.44</v>
@@ -39737,10 +39737,10 @@
         <v>2.63</v>
       </c>
       <c r="U216" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V216" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W216" t="n">
         <v>8.5</v>
@@ -39749,19 +39749,19 @@
         <v>13</v>
       </c>
       <c r="Y216" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z216" t="n">
         <v>26</v>
       </c>
       <c r="AA216" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB216" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC216" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD216" t="n">
         <v>6</v>
@@ -39770,13 +39770,13 @@
         <v>13</v>
       </c>
       <c r="AF216" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG216" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH216" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI216" t="n">
         <v>13</v>
@@ -39785,7 +39785,7 @@
         <v>11</v>
       </c>
       <c r="AK216" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL216" t="n">
         <v>23</v>
@@ -39794,13 +39794,13 @@
         <v>34</v>
       </c>
       <c r="AN216" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO216" t="n">
         <v>15</v>
       </c>
       <c r="AP216" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ216" t="n">
         <v>51</v>
@@ -39809,10 +39809,10 @@
         <v>67</v>
       </c>
       <c r="AS216" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU216" t="n">
         <v>8</v>
@@ -39839,7 +39839,7 @@
         <v>67</v>
       </c>
       <c r="BC216" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD216" t="n">
         <v>126</v>
@@ -39877,16 +39877,16 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H217" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I217" t="n">
         <v>4.75</v>
       </c>
       <c r="J217" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K217" t="n">
         <v>2.25</v>
@@ -39901,16 +39901,16 @@
         <v>11</v>
       </c>
       <c r="O217" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P217" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q217" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R217" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S217" t="n">
         <v>1.36</v>
@@ -39934,7 +39934,7 @@
         <v>8.5</v>
       </c>
       <c r="Z217" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA217" t="n">
         <v>13</v>
@@ -39946,16 +39946,16 @@
         <v>11</v>
       </c>
       <c r="AD217" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE217" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF217" t="n">
         <v>51</v>
       </c>
       <c r="AG217" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH217" t="n">
         <v>13</v>
@@ -39976,16 +39976,16 @@
         <v>41</v>
       </c>
       <c r="AN217" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO217" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP217" t="n">
         <v>19</v>
       </c>
       <c r="AQ217" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR217" t="n">
         <v>51</v>
@@ -40015,13 +40015,13 @@
         <v>34</v>
       </c>
       <c r="BA217" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB217" t="n">
         <v>101</v>
       </c>
       <c r="BC217" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD217" t="n">
         <v>126</v>
@@ -40787,22 +40787,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H222" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I222" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J222" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K222" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L222" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M222" t="n">
         <v>1.08</v>
@@ -40820,7 +40820,7 @@
         <v>2.35</v>
       </c>
       <c r="R222" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S222" t="n">
         <v>1.5</v>
@@ -40847,13 +40847,13 @@
         <v>15</v>
       </c>
       <c r="AA222" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB222" t="n">
         <v>34</v>
       </c>
       <c r="AC222" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD222" t="n">
         <v>7</v>
@@ -40892,7 +40892,7 @@
         <v>11</v>
       </c>
       <c r="AP222" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ222" t="n">
         <v>41</v>
@@ -40919,7 +40919,7 @@
         <v>6</v>
       </c>
       <c r="AY222" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ222" t="n">
         <v>34</v>
@@ -40931,7 +40931,7 @@
         <v>126</v>
       </c>
       <c r="BC222" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD222" t="n">
         <v>51</v>
@@ -40975,7 +40975,7 @@
         <v>3.7</v>
       </c>
       <c r="I223" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J223" t="n">
         <v>3.4</v>
@@ -40999,7 +40999,7 @@
         <v>4.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R223" t="n">
         <v>2.3</v>
@@ -41151,7 +41151,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H224" t="n">
         <v>3.9</v>
@@ -41181,7 +41181,7 @@
         <v>4.33</v>
       </c>
       <c r="Q224" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R224" t="n">
         <v>2.2</v>
@@ -41333,7 +41333,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H225" t="n">
         <v>3.75</v>
@@ -41363,10 +41363,10 @@
         <v>5.5</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R225" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S225" t="n">
         <v>1.25</v>
@@ -41515,7 +41515,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>6</v>
@@ -41697,7 +41697,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H227" t="n">
         <v>3.6</v>
@@ -41727,7 +41727,7 @@
         <v>5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R227" t="n">
         <v>2.35</v>
@@ -41879,7 +41879,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H228" t="n">
         <v>4.33</v>
@@ -41909,7 +41909,7 @@
         <v>6</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R228" t="n">
         <v>2.7</v>
@@ -42061,7 +42061,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
@@ -42091,7 +42091,7 @@
         <v>6</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R229" t="n">
         <v>2.7</v>
@@ -42252,7 +42252,7 @@
         <v>3</v>
       </c>
       <c r="J230" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K230" t="n">
         <v>2.5</v>
@@ -42455,7 +42455,7 @@
         <v>6</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R231" t="n">
         <v>2.7</v>
@@ -42637,10 +42637,10 @@
         <v>7</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R232" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S232" t="n">
         <v>1.22</v>
@@ -42798,7 +42798,7 @@
         <v>10</v>
       </c>
       <c r="J233" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K233" t="n">
         <v>3</v>
@@ -42819,7 +42819,7 @@
         <v>8</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R233" t="n">
         <v>3.5</v>
@@ -43001,10 +43001,10 @@
         <v>6.5</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R234" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S234" t="n">
         <v>1.22</v>
@@ -43153,16 +43153,16 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J235" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K235" t="n">
         <v>2.5</v>
@@ -43174,7 +43174,7 @@
         <v>1.02</v>
       </c>
       <c r="N235" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O235" t="n">
         <v>1.13</v>
@@ -43183,7 +43183,7 @@
         <v>6</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R235" t="n">
         <v>2.6</v>
@@ -43201,7 +43201,7 @@
         <v>2.63</v>
       </c>
       <c r="W235" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X235" t="n">
         <v>13</v>
@@ -43210,10 +43210,10 @@
         <v>9</v>
       </c>
       <c r="Z235" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA235" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB235" t="n">
         <v>19</v>
@@ -43234,7 +43234,7 @@
         <v>81</v>
       </c>
       <c r="AH235" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI235" t="n">
         <v>21</v>
@@ -43261,7 +43261,7 @@
         <v>15</v>
       </c>
       <c r="AQ235" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR235" t="n">
         <v>41</v>
@@ -43285,7 +43285,7 @@
         <v>5.5</v>
       </c>
       <c r="AY235" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ235" t="n">
         <v>19</v>
@@ -43338,7 +43338,7 @@
         <v>1.7</v>
       </c>
       <c r="H236" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I236" t="n">
         <v>4.5</v>
@@ -43347,10 +43347,10 @@
         <v>2.25</v>
       </c>
       <c r="K236" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L236" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M236" t="n">
         <v>1.03</v>
@@ -43365,22 +43365,22 @@
         <v>5.5</v>
       </c>
       <c r="Q236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U236" t="n">
         <v>1.53</v>
       </c>
-      <c r="R236" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S236" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T236" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U236" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V236" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W236" t="n">
         <v>10</v>
@@ -43398,7 +43398,7 @@
         <v>12</v>
       </c>
       <c r="AB236" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC236" t="n">
         <v>17</v>
@@ -43407,13 +43407,13 @@
         <v>8</v>
       </c>
       <c r="AE236" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF236" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG236" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH236" t="n">
         <v>17</v>
@@ -43428,10 +43428,10 @@
         <v>51</v>
       </c>
       <c r="AL236" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM236" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN236" t="n">
         <v>4</v>
@@ -43452,10 +43452,10 @@
         <v>81</v>
       </c>
       <c r="AT236" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU236" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV236" t="n">
         <v>41</v>
@@ -43476,7 +43476,7 @@
         <v>67</v>
       </c>
       <c r="BB236" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC236" t="n">
         <v>126</v>
@@ -43517,22 +43517,22 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="H237" t="n">
         <v>3.65</v>
       </c>
       <c r="I237" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="J237" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="K237" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L237" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M237" t="n">
         <v>1.04</v>
@@ -43541,16 +43541,16 @@
         <v>8.75</v>
       </c>
       <c r="O237" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P237" t="n">
         <v>4</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R237" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S237" t="n">
         <v>1.31</v>
@@ -43565,28 +43565,28 @@
         <v>2.3</v>
       </c>
       <c r="W237" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X237" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y237" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z237" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA237" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB237" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC237" t="n">
         <v>8.75</v>
       </c>
       <c r="AD237" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE237" t="n">
         <v>12.5</v>
@@ -43598,37 +43598,37 @@
         <v>250</v>
       </c>
       <c r="AH237" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI237" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ237" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK237" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL237" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AM237" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN237" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="AO237" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP237" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ237" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR237" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS237" t="n">
         <v>175</v>
@@ -43646,19 +43646,19 @@
         <v>51</v>
       </c>
       <c r="AX237" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AY237" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AZ237" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="BA237" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB237" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC237" t="n">
         <v>200</v>
@@ -43699,28 +43699,28 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="H238" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I238" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="J238" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K238" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L238" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="M238" t="n">
         <v>1.05</v>
       </c>
       <c r="N238" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O238" t="n">
         <v>1.26</v>
@@ -43735,79 +43735,79 @@
         <v>1.95</v>
       </c>
       <c r="S238" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T238" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U238" t="n">
         <v>1.65</v>
       </c>
       <c r="V238" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W238" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X238" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y238" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z238" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA238" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC238" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD238" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE238" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF238" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG238" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH238" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI238" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ238" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK238" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL238" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AM238" t="n">
         <v>27</v>
       </c>
       <c r="AN238" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO238" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP238" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ238" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR238" t="n">
         <v>80</v>
@@ -43816,10 +43816,10 @@
         <v>250</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU238" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV238" t="n">
         <v>55</v>
@@ -43828,19 +43828,19 @@
         <v>51</v>
       </c>
       <c r="AX238" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AY238" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AZ238" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA238" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB238" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC238" t="n">
         <v>250</v>
@@ -44245,34 +44245,34 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H241" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I241" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="J241" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="K241" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L241" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="M241" t="n">
         <v>1.04</v>
       </c>
       <c r="N241" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O241" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P241" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="Q241" t="n">
         <v>1.65</v>
@@ -44281,91 +44281,91 @@
         <v>2.15</v>
       </c>
       <c r="S241" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T241" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U241" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V241" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W241" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X241" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y241" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z241" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA241" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB241" t="n">
         <v>21</v>
       </c>
       <c r="AC241" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD241" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AE241" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF241" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK241" t="n">
         <v>55</v>
       </c>
-      <c r="AG241" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH241" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI241" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ241" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK241" t="n">
-        <v>70</v>
-      </c>
       <c r="AL241" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AM241" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN241" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AO241" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP241" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ241" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AR241" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS241" t="n">
         <v>175</v>
       </c>
       <c r="AT241" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU241" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV241" t="n">
         <v>55</v>
@@ -44374,19 +44374,19 @@
         <v>51</v>
       </c>
       <c r="AX241" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AY241" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ241" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA241" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB241" t="n">
         <v>120</v>
-      </c>
-      <c r="BB241" t="n">
-        <v>150</v>
       </c>
       <c r="BC241" t="n">
         <v>300</v>
@@ -45155,58 +45155,58 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H246" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I246" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J246" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="K246" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L246" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N246" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V246" t="n">
         <v>2.15</v>
       </c>
-      <c r="L246" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M246" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N246" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O246" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P246" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R246" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S246" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T246" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U246" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V246" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W246" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="X246" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y246" t="n">
         <v>8.25</v>
@@ -45215,31 +45215,31 @@
         <v>16</v>
       </c>
       <c r="AA246" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB246" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC246" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AD246" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE246" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH246" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF246" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG246" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH246" t="n">
-        <v>12</v>
-      </c>
       <c r="AI246" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ246" t="n">
         <v>12.5</v>
@@ -45248,37 +45248,37 @@
         <v>55</v>
       </c>
       <c r="AL246" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM246" t="n">
         <v>32</v>
-      </c>
-      <c r="AM246" t="n">
-        <v>35</v>
       </c>
       <c r="AN246" t="n">
         <v>3.85</v>
       </c>
       <c r="AO246" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP246" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ246" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR246" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS246" t="n">
         <v>200</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="AU246" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV246" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW246" t="n">
         <v>51</v>
@@ -45287,19 +45287,19 @@
         <v>5.7</v>
       </c>
       <c r="AY246" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ246" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA246" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB246" t="n">
         <v>120</v>
       </c>
       <c r="BC246" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD246" t="n">
         <v>51</v>
@@ -45525,22 +45525,22 @@
         <v>2.5</v>
       </c>
       <c r="I248" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J248" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K248" t="n">
         <v>1.82</v>
       </c>
       <c r="L248" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M248" t="n">
         <v>1.05</v>
       </c>
       <c r="N248" t="n">
-        <v>5.95</v>
+        <v>6.1</v>
       </c>
       <c r="O248" t="n">
         <v>1.47</v>
@@ -45585,7 +45585,7 @@
         <v>37</v>
       </c>
       <c r="AC248" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD248" t="n">
         <v>5.3</v>
@@ -45606,7 +45606,7 @@
         <v>25</v>
       </c>
       <c r="AJ248" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK248" t="n">
         <v>90</v>
@@ -45621,7 +45621,7 @@
         <v>3.75</v>
       </c>
       <c r="AO248" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP248" t="n">
         <v>21</v>
@@ -45648,16 +45648,16 @@
         <v>51</v>
       </c>
       <c r="AX248" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY248" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ248" t="n">
         <v>35</v>
       </c>
       <c r="BA248" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB248" t="n">
         <v>250</v>
@@ -45701,16 +45701,16 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H249" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I249" t="n">
         <v>6.1</v>
       </c>
       <c r="J249" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K249" t="n">
         <v>2</v>
@@ -45722,7 +45722,7 @@
         <v>1.03</v>
       </c>
       <c r="N249" t="n">
-        <v>6.75</v>
+        <v>6.7</v>
       </c>
       <c r="O249" t="n">
         <v>1.4</v>
@@ -45743,40 +45743,40 @@
         <v>2.37</v>
       </c>
       <c r="U249" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V249" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W249" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X249" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y249" t="n">
         <v>8.25</v>
       </c>
       <c r="Z249" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA249" t="n">
         <v>15.5</v>
       </c>
       <c r="AB249" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC249" t="n">
         <v>7.1</v>
       </c>
       <c r="AD249" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE249" t="n">
         <v>19</v>
       </c>
       <c r="AF249" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG249" t="n">
         <v>1000</v>
@@ -45791,7 +45791,7 @@
         <v>19.5</v>
       </c>
       <c r="AK249" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL249" t="n">
         <v>80</v>
@@ -45800,13 +45800,13 @@
         <v>80</v>
       </c>
       <c r="AN249" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO249" t="n">
         <v>8</v>
       </c>
       <c r="AP249" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ249" t="n">
         <v>28</v>
@@ -45883,13 +45883,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H250" t="n">
         <v>3</v>
       </c>
       <c r="I250" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J250" t="n">
         <v>3.4</v>
@@ -45898,7 +45898,7 @@
         <v>1.98</v>
       </c>
       <c r="L250" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M250" t="n">
         <v>1.03</v>
@@ -45922,28 +45922,28 @@
         <v>1.45</v>
       </c>
       <c r="T250" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="U250" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V250" t="n">
         <v>1.75</v>
       </c>
       <c r="W250" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X250" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y250" t="n">
         <v>10.5</v>
       </c>
       <c r="Z250" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA250" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB250" t="n">
         <v>40</v>
@@ -45952,7 +45952,7 @@
         <v>7.4</v>
       </c>
       <c r="AD250" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE250" t="n">
         <v>15.5</v>
@@ -45964,19 +45964,19 @@
         <v>800</v>
       </c>
       <c r="AH250" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AI250" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ250" t="n">
         <v>9.75</v>
       </c>
       <c r="AK250" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL250" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM250" t="n">
         <v>37</v>
@@ -45985,16 +45985,16 @@
         <v>4.55</v>
       </c>
       <c r="AO250" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP250" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ250" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR250" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS250" t="n">
         <v>350</v>
@@ -46012,7 +46012,7 @@
         <v>51</v>
       </c>
       <c r="AX250" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AY250" t="n">
         <v>13.5</v>
@@ -46024,10 +46024,10 @@
         <v>60</v>
       </c>
       <c r="BB250" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC250" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD250" t="n">
         <v>51</v>
@@ -46065,151 +46065,151 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H251" t="n">
         <v>2.87</v>
       </c>
       <c r="I251" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J251" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K251" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L251" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="M251" t="n">
         <v>1.05</v>
       </c>
       <c r="N251" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P251" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R251" t="n">
         <v>1.45</v>
       </c>
-      <c r="P251" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R251" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S251" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T251" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U251" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V251" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W251" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X251" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y251" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z251" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA251" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB251" t="n">
         <v>40</v>
       </c>
       <c r="AC251" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD251" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE251" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF251" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG251" t="n">
         <v>800</v>
       </c>
       <c r="AH251" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AI251" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ251" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AK251" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL251" t="n">
         <v>40</v>
       </c>
-      <c r="AL251" t="n">
-        <v>32</v>
-      </c>
       <c r="AM251" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AN251" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="AO251" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP251" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ251" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR251" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS251" t="n">
         <v>350</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU251" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV251" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW251" t="n">
         <v>51</v>
       </c>
       <c r="AX251" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AY251" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AZ251" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BA251" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB251" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC251" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BD251" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -1854,25 +1854,25 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
@@ -2218,7 +2218,7 @@
         <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2245,10 +2245,10 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>17</v>
@@ -2272,13 +2272,13 @@
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
@@ -2341,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>41</v>
@@ -2397,7 +2397,7 @@
         <v>1.57</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
         <v>8</v>
@@ -2406,7 +2406,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2415,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R11" t="n">
         <v>3.4</v>
@@ -2427,10 +2427,10 @@
         <v>4.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2442,7 +2442,7 @@
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
@@ -2451,16 +2451,16 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
         <v>151</v>
@@ -2496,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS11" t="n">
         <v>81</v>
@@ -2511,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
@@ -2529,7 +2529,7 @@
         <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -3501,7 +3501,7 @@
         <v>29</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
         <v>9</v>
@@ -3519,19 +3519,19 @@
         <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
         <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -3588,10 +3588,10 @@
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX17" t="n">
         <v>10</v>
@@ -3612,7 +3612,7 @@
         <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -4208,7 +4208,7 @@
         <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
         <v>3.9</v>
@@ -4217,46 +4217,46 @@
         <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.5</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W21" t="n">
         <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>9.5</v>
@@ -4265,13 +4265,13 @@
         <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4283,22 +4283,22 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4319,10 +4319,10 @@
         <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4337,7 +4337,7 @@
         <v>5.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>34</v>
@@ -4346,13 +4346,13 @@
         <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>3.8</v>
@@ -4698,7 +4698,7 @@
         <v>351</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
         <v>11</v>
@@ -4716,7 +4716,7 @@
         <v>101</v>
       </c>
       <c r="BD23" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4751,52 +4751,52 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
         <v>3.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
         <v>9.5</v>
@@ -4805,40 +4805,40 @@
         <v>11</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
       </c>
       <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH24" t="n">
         <v>13</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>41</v>
@@ -4850,25 +4850,25 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS24" t="n">
         <v>101</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
@@ -4877,13 +4877,13 @@
         <v>41</v>
       </c>
       <c r="AW24" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4895,7 +4895,7 @@
         <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J25" t="n">
         <v>7.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7</v>
-      </c>
       <c r="K25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
@@ -4981,22 +4981,22 @@
         <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
         <v>41</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA25" t="n">
         <v>51</v>
       </c>
       <c r="AB25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC25" t="n">
         <v>19</v>
@@ -5023,31 +5023,31 @@
         <v>8.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT25" t="n">
         <v>3.75</v>
@@ -5062,7 +5062,7 @@
         <v>501</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5071,7 +5071,7 @@
         <v>15</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>34</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -5133,13 +5133,13 @@
         <v>2.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -5163,7 +5163,7 @@
         <v>2.05</v>
       </c>
       <c r="W26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
@@ -5214,16 +5214,16 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>81</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -5763,7 +5763,7 @@
         <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5775,7 +5775,7 @@
         <v>81</v>
       </c>
       <c r="AS29" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT29" t="n">
         <v>2.5</v>
@@ -5805,7 +5805,7 @@
         <v>81</v>
       </c>
       <c r="BC29" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
         <v>151</v>
@@ -5843,58 +5843,58 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
         <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
         <v>15</v>
@@ -5912,7 +5912,7 @@
         <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5924,7 +5924,7 @@
         <v>151</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>8.5</v>
@@ -5960,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU30" t="n">
         <v>7.5</v>
@@ -5975,13 +5975,13 @@
         <v>3.75</v>
       </c>
       <c r="AY30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB30" t="n">
         <v>41</v>
@@ -6058,7 +6058,7 @@
         <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
         <v>1.75</v>
@@ -6070,7 +6070,7 @@
         <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W31" t="n">
         <v>5</v>
@@ -6207,28 +6207,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K32" t="n">
         <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -6249,13 +6249,13 @@
         <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
         <v>8</v>
@@ -6264,13 +6264,13 @@
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
         <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>9.5</v>
@@ -6288,7 +6288,7 @@
         <v>301</v>
       </c>
       <c r="AH32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI32" t="n">
         <v>23</v>
@@ -6315,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
@@ -6336,10 +6336,10 @@
         <v>151</v>
       </c>
       <c r="AX32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ32" t="n">
         <v>34</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
         <v>8</v>
@@ -6494,7 +6494,7 @@
         <v>19</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
         <v>67</v>
@@ -6527,13 +6527,13 @@
         <v>26</v>
       </c>
       <c r="BA33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB33" t="n">
         <v>81</v>
       </c>
       <c r="BC33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6574,13 +6574,13 @@
         <v>2.7</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K34" t="n">
         <v>1.73</v>
@@ -6589,37 +6589,37 @@
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -6637,13 +6637,13 @@
         <v>51</v>
       </c>
       <c r="AC34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AD34" t="n">
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>126</v>
@@ -6667,13 +6667,13 @@
         <v>41</v>
       </c>
       <c r="AM34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
         <v>4.33</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>41</v>
@@ -6688,13 +6688,13 @@
         <v>501</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AU34" t="n">
         <v>12</v>
       </c>
       <c r="AV34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW34" t="n">
         <v>126</v>
@@ -6709,10 +6709,10 @@
         <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC34" t="n">
         <v>501</v>
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
         <v>2.1</v>
@@ -8227,10 +8227,10 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8239,10 +8239,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S43" t="n">
         <v>1.36</v>
@@ -8260,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="X43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8278,10 +8278,10 @@
         <v>11</v>
       </c>
       <c r="AD43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
@@ -8299,7 +8299,7 @@
         <v>17</v>
       </c>
       <c r="AK43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL43" t="n">
         <v>41</v>
@@ -8323,7 +8323,7 @@
         <v>41</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -8338,7 +8338,7 @@
         <v>501</v>
       </c>
       <c r="AX43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY43" t="n">
         <v>29</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K45" t="n">
         <v>2.37</v>
@@ -8609,10 +8609,10 @@
         <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
         <v>1.67</v>
@@ -8630,22 +8630,22 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD45" t="n">
         <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>41</v>
@@ -8663,7 +8663,7 @@
         <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
@@ -8675,13 +8675,13 @@
         <v>4</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
@@ -8690,7 +8690,7 @@
         <v>101</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU45" t="n">
         <v>7.5</v>
@@ -8773,7 +8773,7 @@
         <v>3.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
         <v>13</v>
@@ -8782,13 +8782,13 @@
         <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R46" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8937,40 +8937,40 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H47" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J47" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S47" t="n">
         <v>1.29</v>
@@ -8994,7 +8994,7 @@
         <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>11</v>
@@ -9003,34 +9003,34 @@
         <v>26</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE47" t="n">
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>51</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK47" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="n">
         <v>67</v>
@@ -9039,7 +9039,7 @@
         <v>3.25</v>
       </c>
       <c r="AO47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP47" t="n">
         <v>17</v>
@@ -9057,7 +9057,7 @@
         <v>3.5</v>
       </c>
       <c r="AU47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV47" t="n">
         <v>51</v>
@@ -9081,7 +9081,7 @@
         <v>201</v>
       </c>
       <c r="BC47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD47" t="n">
         <v>51</v>
@@ -9137,22 +9137,22 @@
         <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9319,13 +9319,13 @@
         <v>7.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -9483,40 +9483,40 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K50" t="n">
         <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q50" t="n">
         <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
         <v>1.44</v>
@@ -9534,40 +9534,40 @@
         <v>6</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
       </c>
       <c r="Z50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA50" t="n">
         <v>15</v>
       </c>
-      <c r="AA50" t="n">
-        <v>17</v>
-      </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
         <v>67</v>
       </c>
       <c r="AG50" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ50" t="n">
         <v>17</v>
@@ -9582,16 +9582,16 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR50" t="n">
         <v>51</v>
@@ -9612,19 +9612,19 @@
         <v>126</v>
       </c>
       <c r="AX50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA50" t="n">
         <v>101</v>
       </c>
       <c r="BB50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC50" t="n">
         <v>301</v>
@@ -9668,10 +9668,10 @@
         <v>2.15</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
         <v>2.88</v>
@@ -9680,7 +9680,7 @@
         <v>2.05</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -9695,10 +9695,10 @@
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
         <v>1.5</v>
@@ -9716,13 +9716,13 @@
         <v>6.5</v>
       </c>
       <c r="X51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="n">
         <v>19</v>
@@ -9743,7 +9743,7 @@
         <v>51</v>
       </c>
       <c r="AG51" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH51" t="n">
         <v>9</v>
@@ -9758,7 +9758,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
@@ -9800,7 +9800,7 @@
         <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA51" t="n">
         <v>67</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H52" t="n">
         <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>1.1</v>
@@ -9871,22 +9871,22 @@
         <v>7</v>
       </c>
       <c r="O52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T52" t="n">
         <v>2.5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.38</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -9898,19 +9898,19 @@
         <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
         <v>21</v>
       </c>
       <c r="AB52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="n">
         <v>6.5</v>
@@ -9925,16 +9925,16 @@
         <v>67</v>
       </c>
       <c r="AG52" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI52" t="n">
         <v>17</v>
       </c>
       <c r="AJ52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK52" t="n">
         <v>41</v>
@@ -9949,7 +9949,7 @@
         <v>4</v>
       </c>
       <c r="AO52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP52" t="n">
         <v>26</v>
@@ -9961,13 +9961,13 @@
         <v>67</v>
       </c>
       <c r="AS52" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV52" t="n">
         <v>67</v>
@@ -9976,7 +9976,7 @@
         <v>81</v>
       </c>
       <c r="AX52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY52" t="n">
         <v>21</v>
@@ -9985,7 +9985,7 @@
         <v>34</v>
       </c>
       <c r="BA52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB52" t="n">
         <v>101</v>
@@ -10035,7 +10035,7 @@
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -10062,7 +10062,7 @@
         <v>2.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10229,22 +10229,22 @@
         <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P54" t="n">
         <v>2.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R54" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S54" t="n">
         <v>1.67</v>
@@ -10939,40 +10939,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.25</v>
+        <v>2.82</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
         <v>2.1</v>
       </c>
       <c r="L58" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="n">
         <v>1.4</v>
@@ -10987,28 +10987,28 @@
         <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X58" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y58" t="n">
         <v>11</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC58" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>10</v>
-      </c>
       <c r="AD58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
@@ -11020,37 +11020,37 @@
         <v>201</v>
       </c>
       <c r="AH58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>10</v>
       </c>
-      <c r="AI58" t="n">
+      <c r="AK58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO58" t="n">
         <v>15</v>
       </c>
-      <c r="AJ58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>13</v>
-      </c>
       <c r="AP58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS58" t="n">
         <v>151</v>
@@ -11068,19 +11068,19 @@
         <v>126</v>
       </c>
       <c r="AX58" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AY58" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC58" t="n">
         <v>151</v>
@@ -11127,7 +11127,7 @@
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>4.33</v>
@@ -11139,13 +11139,13 @@
         <v>2.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
         <v>10</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P59" t="n">
         <v>3.25</v>
@@ -11667,16 +11667,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="n">
         <v>2.1</v>
@@ -11685,10 +11685,10 @@
         <v>6.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -11724,7 +11724,7 @@
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA62" t="n">
         <v>15</v>
@@ -11733,7 +11733,7 @@
         <v>34</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD62" t="n">
         <v>7.5</v>
@@ -11748,16 +11748,16 @@
         <v>201</v>
       </c>
       <c r="AH62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI62" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="n">
         <v>51</v>
@@ -11769,13 +11769,13 @@
         <v>3.4</v>
       </c>
       <c r="AO62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP62" t="n">
         <v>23</v>
       </c>
       <c r="AQ62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR62" t="n">
         <v>51</v>
@@ -11784,19 +11784,19 @@
         <v>201</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW62" t="n">
         <v>126</v>
       </c>
       <c r="AX62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY62" t="n">
         <v>34</v>
@@ -11805,10 +11805,10 @@
         <v>41</v>
       </c>
       <c r="BA62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB62" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC62" t="n">
         <v>501</v>
@@ -12759,7 +12759,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>5.5</v>
@@ -12789,7 +12789,7 @@
         <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R68" t="n">
         <v>2.4</v>
@@ -13123,22 +13123,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K70" t="n">
         <v>2.2</v>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
@@ -13153,10 +13153,10 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R70" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S70" t="n">
         <v>1.4</v>
@@ -13165,10 +13165,10 @@
         <v>2.75</v>
       </c>
       <c r="U70" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V70" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W70" t="n">
         <v>7.5</v>
@@ -13183,13 +13183,13 @@
         <v>17</v>
       </c>
       <c r="AA70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB70" t="n">
         <v>26</v>
       </c>
       <c r="AC70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
         <v>6.5</v>
@@ -13201,7 +13201,7 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH70" t="n">
         <v>11</v>
@@ -13225,13 +13225,13 @@
         <v>4</v>
       </c>
       <c r="AO70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP70" t="n">
         <v>21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR70" t="n">
         <v>51</v>
@@ -13305,13 +13305,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
@@ -13326,7 +13326,7 @@
         <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -13338,7 +13338,7 @@
         <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13353,16 +13353,16 @@
         <v>1.8</v>
       </c>
       <c r="W71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
         <v>12</v>
       </c>
       <c r="Z71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA71" t="n">
         <v>29</v>
@@ -13389,13 +13389,13 @@
         <v>7</v>
       </c>
       <c r="AI71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ71" t="n">
         <v>9.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL71" t="n">
         <v>19</v>
@@ -13404,10 +13404,10 @@
         <v>34</v>
       </c>
       <c r="AN71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP71" t="n">
         <v>29</v>
@@ -13416,7 +13416,7 @@
         <v>67</v>
       </c>
       <c r="AR71" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS71" t="n">
         <v>251</v>
@@ -13487,37 +13487,37 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H72" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J72" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K72" t="n">
         <v>2.75</v>
       </c>
       <c r="L72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P72" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R72" t="n">
         <v>2.4</v>
@@ -13529,13 +13529,13 @@
         <v>3.75</v>
       </c>
       <c r="U72" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X72" t="n">
         <v>6.5</v>
@@ -13544,7 +13544,7 @@
         <v>10</v>
       </c>
       <c r="Z72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA72" t="n">
         <v>11</v>
@@ -13553,13 +13553,13 @@
         <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF72" t="n">
         <v>67</v>
@@ -13577,16 +13577,16 @@
         <v>34</v>
       </c>
       <c r="AK72" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL72" t="n">
         <v>81</v>
       </c>
       <c r="AM72" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO72" t="n">
         <v>5.5</v>
@@ -13598,7 +13598,7 @@
         <v>13</v>
       </c>
       <c r="AR72" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS72" t="n">
         <v>126</v>
@@ -13610,7 +13610,7 @@
         <v>10</v>
       </c>
       <c r="AV72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW72" t="n">
         <v>51</v>
@@ -13619,16 +13619,16 @@
         <v>11</v>
       </c>
       <c r="AY72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ72" t="n">
         <v>41</v>
       </c>
       <c r="BA72" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB72" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC72" t="n">
         <v>351</v>
@@ -19311,7 +19311,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H104" t="n">
         <v>4.1</v>
@@ -19329,10 +19329,10 @@
         <v>6</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O104" t="n">
         <v>1.2</v>
@@ -19341,16 +19341,16 @@
         <v>4.33</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T104" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U104" t="n">
         <v>1.83</v>
@@ -19428,7 +19428,7 @@
         <v>126</v>
       </c>
       <c r="AT104" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU104" t="n">
         <v>8.5</v>
@@ -19455,7 +19455,7 @@
         <v>126</v>
       </c>
       <c r="BC104" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD104" t="n">
         <v>81</v>
@@ -20039,76 +20039,76 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>3.6</v>
       </c>
       <c r="I108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K108" t="n">
         <v>2.38</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L108" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M108" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O108" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P108" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R108" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S108" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T108" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W108" t="n">
         <v>13</v>
       </c>
       <c r="X108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE108" t="n">
         <v>11</v>
@@ -20120,31 +20120,31 @@
         <v>101</v>
       </c>
       <c r="AH108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI108" t="n">
         <v>13</v>
       </c>
-      <c r="AI108" t="n">
+      <c r="AJ108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL108" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>17</v>
       </c>
       <c r="AM108" t="n">
         <v>21</v>
       </c>
       <c r="AN108" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ108" t="n">
         <v>41</v>
@@ -20156,7 +20156,7 @@
         <v>101</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU108" t="n">
         <v>7</v>
@@ -20165,25 +20165,25 @@
         <v>41</v>
       </c>
       <c r="AW108" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ108" t="n">
         <v>17</v>
       </c>
       <c r="BA108" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB108" t="n">
         <v>51</v>
       </c>
       <c r="BC108" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD108" t="n">
         <v>81</v>
@@ -21495,16 +21495,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I116" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K116" t="n">
         <v>2.2</v>
@@ -21543,16 +21543,16 @@
         <v>2</v>
       </c>
       <c r="W116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y116" t="n">
         <v>9</v>
       </c>
       <c r="Z116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA116" t="n">
         <v>17</v>
@@ -21588,7 +21588,7 @@
         <v>34</v>
       </c>
       <c r="AL116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM116" t="n">
         <v>34</v>
@@ -21597,7 +21597,7 @@
         <v>4.33</v>
       </c>
       <c r="AO116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP116" t="n">
         <v>21</v>
@@ -21609,7 +21609,7 @@
         <v>51</v>
       </c>
       <c r="AS116" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT116" t="n">
         <v>3</v>
@@ -21624,19 +21624,19 @@
         <v>51</v>
       </c>
       <c r="AX116" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA116" t="n">
         <v>51</v>
       </c>
       <c r="BB116" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC116" t="n">
         <v>151</v>
@@ -22405,73 +22405,73 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H121" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I121" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J121" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K121" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L121" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M121" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O121" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P121" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V121" t="n">
         <v>2</v>
-      </c>
-      <c r="S121" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T121" t="n">
-        <v>3</v>
-      </c>
-      <c r="U121" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V121" t="n">
-        <v>2.1</v>
       </c>
       <c r="W121" t="n">
         <v>9.5</v>
       </c>
       <c r="X121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z121" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA121" t="n">
         <v>21</v>
       </c>
       <c r="AB121" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC121" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD121" t="n">
         <v>6.5</v>
@@ -22483,25 +22483,25 @@
         <v>41</v>
       </c>
       <c r="AG121" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ121" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI121" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>10</v>
-      </c>
       <c r="AK121" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM121" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN121" t="n">
         <v>4.75</v>
@@ -22510,10 +22510,10 @@
         <v>15</v>
       </c>
       <c r="AP121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ121" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR121" t="n">
         <v>67</v>
@@ -22522,7 +22522,7 @@
         <v>151</v>
       </c>
       <c r="AT121" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU121" t="n">
         <v>7.5</v>
@@ -22534,19 +22534,19 @@
         <v>501</v>
       </c>
       <c r="AX121" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY121" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA121" t="n">
         <v>41</v>
       </c>
       <c r="BB121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC121" t="n">
         <v>151</v>
@@ -23133,10 +23133,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H125" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I125" t="n">
         <v>2.6</v>
@@ -23145,43 +23145,43 @@
         <v>3.1</v>
       </c>
       <c r="K125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N125" t="n">
+        <v>13</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P125" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T125" t="n">
         <v>3.25</v>
       </c>
-      <c r="M125" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N125" t="n">
+      <c r="U125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W125" t="n">
         <v>11</v>
-      </c>
-      <c r="O125" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P125" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R125" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S125" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T125" t="n">
-        <v>3</v>
-      </c>
-      <c r="U125" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V125" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W125" t="n">
-        <v>10</v>
       </c>
       <c r="X125" t="n">
         <v>13</v>
@@ -23196,10 +23196,10 @@
         <v>19</v>
       </c>
       <c r="AB125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC125" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD125" t="n">
         <v>6.5</v>
@@ -23211,10 +23211,10 @@
         <v>41</v>
       </c>
       <c r="AG125" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI125" t="n">
         <v>15</v>
@@ -23247,16 +23247,16 @@
         <v>51</v>
       </c>
       <c r="AS125" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU125" t="n">
         <v>7.5</v>
       </c>
       <c r="AV125" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW125" t="n">
         <v>51</v>
@@ -23274,10 +23274,10 @@
         <v>41</v>
       </c>
       <c r="BB125" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC125" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD125" t="n">
         <v>51</v>
@@ -26985,10 +26985,10 @@
         <v>3.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R146" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S146" t="n">
         <v>1.4</v>
@@ -27337,13 +27337,13 @@
         <v>3.4</v>
       </c>
       <c r="M148" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N148" t="n">
         <v>13</v>
       </c>
       <c r="O148" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P148" t="n">
         <v>4</v>
@@ -27683,28 +27683,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>4.3</v>
       </c>
       <c r="I150" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J150" t="n">
         <v>1.9</v>
       </c>
       <c r="K150" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L150" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M150" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N150" t="n">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="O150" t="n">
         <v>1.19</v>
@@ -27728,19 +27728,19 @@
         <v>1.78</v>
       </c>
       <c r="V150" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W150" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X150" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y150" t="n">
         <v>8</v>
       </c>
       <c r="Z150" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA150" t="n">
         <v>11</v>
@@ -27764,34 +27764,34 @@
         <v>500</v>
       </c>
       <c r="AH150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI150" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK150" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL150" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM150" t="n">
         <v>60</v>
       </c>
       <c r="AN150" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO150" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP150" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ150" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR150" t="n">
         <v>45</v>
@@ -27812,13 +27812,13 @@
         <v>51</v>
       </c>
       <c r="AX150" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY150" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ150" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA150" t="n">
         <v>250</v>
@@ -27827,7 +27827,7 @@
         <v>250</v>
       </c>
       <c r="BC150" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD150" t="n">
         <v>51</v>
@@ -28420,7 +28420,7 @@
         <v>23</v>
       </c>
       <c r="J154" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K154" t="n">
         <v>2.75</v>
@@ -28432,10 +28432,10 @@
         <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O154" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P154" t="n">
         <v>4.33</v>
@@ -28510,7 +28510,7 @@
         <v>201</v>
       </c>
       <c r="AN154" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AO154" t="n">
         <v>4.75</v>
@@ -28957,22 +28957,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>3.1</v>
       </c>
       <c r="I157" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K157" t="n">
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M157" t="n">
         <v>1.08</v>
@@ -28999,10 +28999,10 @@
         <v>2.5</v>
       </c>
       <c r="U157" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V157" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W157" t="n">
         <v>7</v>
@@ -29017,7 +29017,7 @@
         <v>23</v>
       </c>
       <c r="AA157" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB157" t="n">
         <v>34</v>
@@ -29044,10 +29044,10 @@
         <v>13</v>
       </c>
       <c r="AJ157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK157" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL157" t="n">
         <v>26</v>
@@ -29056,7 +29056,7 @@
         <v>41</v>
       </c>
       <c r="AN157" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO157" t="n">
         <v>15</v>
@@ -29139,58 +29139,58 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I158" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="J158" t="n">
         <v>4.33</v>
       </c>
       <c r="K158" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N158" t="n">
+        <v>10</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T158" t="n">
         <v>2.75</v>
-      </c>
-      <c r="M158" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N158" t="n">
-        <v>9</v>
-      </c>
-      <c r="O158" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P158" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R158" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S158" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T158" t="n">
-        <v>2.63</v>
       </c>
       <c r="U158" t="n">
         <v>1.8</v>
       </c>
       <c r="V158" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y158" t="n">
         <v>13</v>
@@ -29205,10 +29205,10 @@
         <v>41</v>
       </c>
       <c r="AC158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD158" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE158" t="n">
         <v>15</v>
@@ -29217,13 +29217,13 @@
         <v>51</v>
       </c>
       <c r="AG158" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH158" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ158" t="n">
         <v>9</v>
@@ -29235,7 +29235,7 @@
         <v>17</v>
       </c>
       <c r="AM158" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN158" t="n">
         <v>5.5</v>
@@ -29250,13 +29250,13 @@
         <v>67</v>
       </c>
       <c r="AR158" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS158" t="n">
         <v>201</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU158" t="n">
         <v>8</v>
@@ -29265,7 +29265,7 @@
         <v>51</v>
       </c>
       <c r="AW158" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX158" t="n">
         <v>4</v>
@@ -29274,10 +29274,10 @@
         <v>11</v>
       </c>
       <c r="AZ158" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA158" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB158" t="n">
         <v>51</v>
@@ -29321,31 +29321,31 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H159" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J159" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K159" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L159" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O159" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P159" t="n">
         <v>3.25</v>
@@ -29363,10 +29363,10 @@
         <v>2.75</v>
       </c>
       <c r="U159" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V159" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W159" t="n">
         <v>5</v>
@@ -29375,10 +29375,10 @@
         <v>5</v>
       </c>
       <c r="Y159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA159" t="n">
         <v>15</v>
@@ -29390,13 +29390,13 @@
         <v>8.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE159" t="n">
         <v>34</v>
       </c>
       <c r="AF159" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG159" t="n">
         <v>1000</v>
@@ -29417,10 +29417,10 @@
         <v>126</v>
       </c>
       <c r="AM159" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN159" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO159" t="n">
         <v>6</v>
@@ -29441,7 +29441,7 @@
         <v>2.75</v>
       </c>
       <c r="AU159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV159" t="n">
         <v>101</v>
@@ -29450,13 +29450,13 @@
         <v>126</v>
       </c>
       <c r="AX159" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY159" t="n">
         <v>51</v>
       </c>
       <c r="AZ159" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA159" t="n">
         <v>351</v>
@@ -29867,22 +29867,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H162" t="n">
         <v>3.4</v>
       </c>
       <c r="I162" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J162" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K162" t="n">
         <v>2.2</v>
       </c>
       <c r="L162" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M162" t="n">
         <v>1.05</v>
@@ -29927,7 +29927,7 @@
         <v>34</v>
       </c>
       <c r="AA162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB162" t="n">
         <v>29</v>
@@ -29948,7 +29948,7 @@
         <v>151</v>
       </c>
       <c r="AH162" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI162" t="n">
         <v>11</v>
@@ -30416,7 +30416,7 @@
         <v>3.6</v>
       </c>
       <c r="H165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -30425,10 +30425,10 @@
         <v>4</v>
       </c>
       <c r="K165" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L165" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="M165" t="n">
         <v>1.05</v>
@@ -30443,10 +30443,10 @@
         <v>3.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R165" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S165" t="n">
         <v>1.36</v>
@@ -30455,13 +30455,13 @@
         <v>3</v>
       </c>
       <c r="U165" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V165" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X165" t="n">
         <v>19</v>
@@ -30479,10 +30479,10 @@
         <v>34</v>
       </c>
       <c r="AC165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD165" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE165" t="n">
         <v>13</v>
@@ -30491,10 +30491,10 @@
         <v>41</v>
       </c>
       <c r="AG165" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH165" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI165" t="n">
         <v>10</v>
@@ -30503,13 +30503,13 @@
         <v>9</v>
       </c>
       <c r="AK165" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL165" t="n">
         <v>17</v>
       </c>
-      <c r="AL165" t="n">
-        <v>15</v>
-      </c>
       <c r="AM165" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN165" t="n">
         <v>5.5</v>
@@ -30521,7 +30521,7 @@
         <v>26</v>
       </c>
       <c r="AQ165" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR165" t="n">
         <v>81</v>
@@ -30533,7 +30533,7 @@
         <v>3</v>
       </c>
       <c r="AU165" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV165" t="n">
         <v>51</v>
@@ -30548,7 +30548,7 @@
         <v>11</v>
       </c>
       <c r="AZ165" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA165" t="n">
         <v>34</v>
@@ -30557,7 +30557,7 @@
         <v>51</v>
       </c>
       <c r="BC165" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD165" t="n">
         <v>81</v>
@@ -31323,34 +31323,34 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
         <v>3.1</v>
       </c>
       <c r="I170" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J170" t="n">
         <v>3.75</v>
       </c>
       <c r="K170" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L170" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M170" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N170" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O170" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P170" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q170" t="n">
         <v>2.35</v>
@@ -31359,10 +31359,10 @@
         <v>1.57</v>
       </c>
       <c r="S170" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T170" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U170" t="n">
         <v>2</v>
@@ -31389,7 +31389,7 @@
         <v>41</v>
       </c>
       <c r="AC170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD170" t="n">
         <v>6</v>
@@ -31398,7 +31398,7 @@
         <v>17</v>
       </c>
       <c r="AF170" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG170" t="n">
         <v>351</v>
@@ -31413,13 +31413,13 @@
         <v>10</v>
       </c>
       <c r="AK170" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL170" t="n">
         <v>21</v>
       </c>
       <c r="AM170" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN170" t="n">
         <v>5</v>
@@ -31440,7 +31440,7 @@
         <v>251</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU170" t="n">
         <v>8.5</v>
@@ -31455,10 +31455,10 @@
         <v>4.33</v>
       </c>
       <c r="AY170" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ170" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA170" t="n">
         <v>51</v>
@@ -31467,7 +31467,7 @@
         <v>81</v>
       </c>
       <c r="BC170" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD170" t="n">
         <v>51</v>
@@ -31869,10 +31869,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H173" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I173" t="n">
         <v>4</v>
@@ -31887,10 +31887,10 @@
         <v>4</v>
       </c>
       <c r="M173" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N173" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O173" t="n">
         <v>1.17</v>
@@ -31983,7 +31983,7 @@
         <v>41</v>
       </c>
       <c r="AS173" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT173" t="n">
         <v>3.5</v>
@@ -34781,37 +34781,37 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H189" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I189" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J189" t="n">
         <v>2.07</v>
       </c>
       <c r="K189" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L189" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M189" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N189" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O189" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P189" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R189" t="n">
         <v>1.8</v>
@@ -34820,10 +34820,10 @@
         <v>1.38</v>
       </c>
       <c r="T189" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U189" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V189" t="n">
         <v>1.75</v>
@@ -34832,37 +34832,37 @@
         <v>6.1</v>
       </c>
       <c r="X189" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Y189" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z189" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA189" t="n">
         <v>13</v>
       </c>
       <c r="AB189" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC189" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD189" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE189" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF189" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG189" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH189" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI189" t="n">
         <v>35</v>
@@ -34874,19 +34874,19 @@
         <v>120</v>
       </c>
       <c r="AL189" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM189" t="n">
         <v>65</v>
       </c>
       <c r="AN189" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO189" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP189" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ189" t="n">
         <v>23</v>
@@ -34895,34 +34895,34 @@
         <v>55</v>
       </c>
       <c r="AS189" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU189" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV189" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW189" t="n">
         <v>51</v>
       </c>
       <c r="AX189" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AY189" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ189" t="n">
         <v>37</v>
       </c>
       <c r="BA189" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB189" t="n">
         <v>200</v>
-      </c>
-      <c r="BB189" t="n">
-        <v>250</v>
       </c>
       <c r="BC189" t="n">
         <v>500</v>
@@ -36237,22 +36237,22 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H197" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I197" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J197" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K197" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L197" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M197" t="n">
         <v>1.17</v>
@@ -36273,10 +36273,10 @@
         <v>1.3</v>
       </c>
       <c r="S197" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T197" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U197" t="n">
         <v>2.63</v>
@@ -36288,16 +36288,16 @@
         <v>5.5</v>
       </c>
       <c r="X197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y197" t="n">
         <v>12</v>
       </c>
       <c r="Z197" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA197" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB197" t="n">
         <v>51</v>
@@ -36312,22 +36312,22 @@
         <v>23</v>
       </c>
       <c r="AF197" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG197" t="n">
         <v>1000</v>
       </c>
       <c r="AH197" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI197" t="n">
         <v>13</v>
       </c>
       <c r="AJ197" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK197" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL197" t="n">
         <v>41</v>
@@ -36339,13 +36339,13 @@
         <v>4.33</v>
       </c>
       <c r="AO197" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP197" t="n">
         <v>41</v>
       </c>
       <c r="AQ197" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR197" t="n">
         <v>126</v>
@@ -36366,10 +36366,10 @@
         <v>81</v>
       </c>
       <c r="AX197" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ197" t="n">
         <v>41</v>
@@ -38057,22 +38057,22 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H207" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I207" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J207" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K207" t="n">
         <v>2.3</v>
       </c>
       <c r="L207" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M207" t="n">
         <v>1.04</v>
@@ -38087,28 +38087,28 @@
         <v>4</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R207" t="n">
         <v>2.05</v>
       </c>
       <c r="S207" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T207" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U207" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V207" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W207" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X207" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y207" t="n">
         <v>8.5</v>
@@ -38117,40 +38117,40 @@
         <v>15</v>
       </c>
       <c r="AA207" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB207" t="n">
         <v>23</v>
       </c>
       <c r="AC207" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD207" t="n">
         <v>7</v>
       </c>
       <c r="AE207" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF207" t="n">
         <v>41</v>
       </c>
       <c r="AG207" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH207" t="n">
         <v>13</v>
       </c>
       <c r="AI207" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ207" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK207" t="n">
         <v>41</v>
       </c>
       <c r="AL207" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM207" t="n">
         <v>34</v>
@@ -38159,13 +38159,13 @@
         <v>4</v>
       </c>
       <c r="AO207" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP207" t="n">
         <v>19</v>
       </c>
       <c r="AQ207" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR207" t="n">
         <v>51</v>
@@ -38174,10 +38174,10 @@
         <v>126</v>
       </c>
       <c r="AT207" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU207" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV207" t="n">
         <v>51</v>
@@ -38189,10 +38189,10 @@
         <v>6</v>
       </c>
       <c r="AY207" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ207" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA207" t="n">
         <v>67</v>
@@ -40787,7 +40787,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H222" t="n">
         <v>3.25</v>
@@ -40820,7 +40820,7 @@
         <v>2.35</v>
       </c>
       <c r="R222" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S222" t="n">
         <v>1.5</v>
@@ -40975,7 +40975,7 @@
         <v>3.7</v>
       </c>
       <c r="I223" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J223" t="n">
         <v>3.4</v>
@@ -40999,7 +40999,7 @@
         <v>4.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R223" t="n">
         <v>2.3</v>
@@ -41151,22 +41151,22 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>3.9</v>
       </c>
       <c r="I224" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J224" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K224" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L224" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M224" t="n">
         <v>1.03</v>
@@ -41181,7 +41181,7 @@
         <v>4.33</v>
       </c>
       <c r="Q224" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R224" t="n">
         <v>2.2</v>
@@ -41193,10 +41193,10 @@
         <v>3.4</v>
       </c>
       <c r="U224" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V224" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W224" t="n">
         <v>9.5</v>
@@ -41205,10 +41205,10 @@
         <v>11</v>
       </c>
       <c r="Y224" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA224" t="n">
         <v>15</v>
@@ -41241,19 +41241,19 @@
         <v>12</v>
       </c>
       <c r="AK224" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL224" t="n">
         <v>23</v>
       </c>
       <c r="AM224" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN224" t="n">
         <v>4.33</v>
       </c>
       <c r="AO224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP224" t="n">
         <v>17</v>
@@ -41262,7 +41262,7 @@
         <v>34</v>
       </c>
       <c r="AR224" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS224" t="n">
         <v>101</v>
@@ -41271,7 +41271,7 @@
         <v>3.4</v>
       </c>
       <c r="AU224" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV224" t="n">
         <v>41</v>
@@ -41283,7 +41283,7 @@
         <v>5.5</v>
       </c>
       <c r="AY224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ224" t="n">
         <v>23</v>
@@ -41333,7 +41333,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>3.75</v>
@@ -41515,7 +41515,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H226" t="n">
         <v>6</v>
@@ -41536,7 +41536,7 @@
         <v>1.01</v>
       </c>
       <c r="N226" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O226" t="n">
         <v>1.07</v>
@@ -41697,7 +41697,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H227" t="n">
         <v>3.6</v>
@@ -41879,7 +41879,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>4.33</v>
@@ -41900,7 +41900,7 @@
         <v>1.02</v>
       </c>
       <c r="N228" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O228" t="n">
         <v>1.13</v>
@@ -42061,7 +42061,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>4</v>
@@ -42243,16 +42243,16 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>3.9</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J230" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K230" t="n">
         <v>2.5</v>
@@ -42264,7 +42264,7 @@
         <v>1.02</v>
       </c>
       <c r="N230" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O230" t="n">
         <v>1.13</v>
@@ -42276,7 +42276,7 @@
         <v>1.44</v>
       </c>
       <c r="R230" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S230" t="n">
         <v>1.25</v>
@@ -42294,10 +42294,10 @@
         <v>13</v>
       </c>
       <c r="X230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z230" t="n">
         <v>21</v>
@@ -42312,10 +42312,10 @@
         <v>21</v>
       </c>
       <c r="AD230" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF230" t="n">
         <v>29</v>
@@ -42327,7 +42327,7 @@
         <v>15</v>
       </c>
       <c r="AI230" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ230" t="n">
         <v>11</v>
@@ -42455,7 +42455,7 @@
         <v>6</v>
       </c>
       <c r="Q231" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R231" t="n">
         <v>2.7</v>
@@ -42637,10 +42637,10 @@
         <v>7</v>
       </c>
       <c r="Q232" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R232" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S232" t="n">
         <v>1.22</v>
@@ -42798,7 +42798,7 @@
         <v>10</v>
       </c>
       <c r="J233" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K233" t="n">
         <v>3</v>
@@ -42819,10 +42819,10 @@
         <v>8</v>
       </c>
       <c r="Q233" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R233" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S233" t="n">
         <v>1.18</v>
@@ -42980,7 +42980,7 @@
         <v>5.75</v>
       </c>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K234" t="n">
         <v>2.63</v>
@@ -43001,10 +43001,10 @@
         <v>6.5</v>
       </c>
       <c r="Q234" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R234" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S234" t="n">
         <v>1.22</v>
@@ -43013,13 +43013,13 @@
         <v>4</v>
       </c>
       <c r="U234" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V234" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X234" t="n">
         <v>10</v>
@@ -43028,13 +43028,13 @@
         <v>8.5</v>
       </c>
       <c r="Z234" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA234" t="n">
         <v>11</v>
       </c>
       <c r="AB234" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC234" t="n">
         <v>21</v>
@@ -43046,13 +43046,13 @@
         <v>13</v>
       </c>
       <c r="AF234" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG234" t="n">
         <v>101</v>
       </c>
       <c r="AH234" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI234" t="n">
         <v>34</v>
@@ -43085,7 +43085,7 @@
         <v>34</v>
       </c>
       <c r="AS234" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT234" t="n">
         <v>4</v>
@@ -43106,7 +43106,7 @@
         <v>26</v>
       </c>
       <c r="AZ234" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA234" t="n">
         <v>81</v>
@@ -43153,22 +43153,22 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H235" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I235" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J235" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K235" t="n">
         <v>2.5</v>
       </c>
       <c r="L235" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M235" t="n">
         <v>1.02</v>
@@ -43183,7 +43183,7 @@
         <v>6</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R235" t="n">
         <v>2.6</v>
@@ -43204,7 +43204,7 @@
         <v>12</v>
       </c>
       <c r="X235" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y235" t="n">
         <v>9</v>
@@ -43228,10 +43228,10 @@
         <v>12</v>
       </c>
       <c r="AF235" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG235" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH235" t="n">
         <v>17</v>
@@ -43243,10 +43243,10 @@
         <v>12</v>
       </c>
       <c r="AK235" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL235" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM235" t="n">
         <v>23</v>
@@ -43255,7 +43255,7 @@
         <v>4.5</v>
       </c>
       <c r="AO235" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP235" t="n">
         <v>15</v>
@@ -43282,13 +43282,13 @@
         <v>251</v>
       </c>
       <c r="AX235" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY235" t="n">
         <v>17</v>
       </c>
       <c r="AZ235" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA235" t="n">
         <v>51</v>
@@ -43300,7 +43300,7 @@
         <v>101</v>
       </c>
       <c r="BD235" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236">
@@ -43335,28 +43335,28 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H236" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I236" t="n">
         <v>4.5</v>
       </c>
       <c r="J236" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K236" t="n">
         <v>2.5</v>
       </c>
       <c r="L236" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M236" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N236" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O236" t="n">
         <v>1.14</v>
@@ -43365,7 +43365,7 @@
         <v>5.5</v>
       </c>
       <c r="Q236" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R236" t="n">
         <v>2.5</v>
@@ -43383,7 +43383,7 @@
         <v>2.38</v>
       </c>
       <c r="W236" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X236" t="n">
         <v>10</v>
@@ -43401,22 +43401,22 @@
         <v>19</v>
       </c>
       <c r="AC236" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD236" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE236" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF236" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG236" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH236" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI236" t="n">
         <v>26</v>
@@ -43443,7 +43443,7 @@
         <v>15</v>
       </c>
       <c r="AQ236" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR236" t="n">
         <v>41</v>
@@ -43517,19 +43517,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H237" t="n">
         <v>3.65</v>
       </c>
       <c r="I237" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J237" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K237" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L237" t="n">
         <v>3</v>
@@ -43544,7 +43544,7 @@
         <v>1.21</v>
       </c>
       <c r="P237" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q237" t="n">
         <v>1.65</v>
@@ -43556,16 +43556,16 @@
         <v>1.31</v>
       </c>
       <c r="T237" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U237" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V237" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W237" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X237" t="n">
         <v>13.5</v>
@@ -43574,7 +43574,7 @@
         <v>9.5</v>
       </c>
       <c r="Z237" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA237" t="n">
         <v>17.5</v>
@@ -43595,13 +43595,13 @@
         <v>45</v>
       </c>
       <c r="AG237" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH237" t="n">
         <v>11</v>
       </c>
       <c r="AI237" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ237" t="n">
         <v>9.75</v>
@@ -43622,19 +43622,19 @@
         <v>12</v>
       </c>
       <c r="AP237" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ237" t="n">
         <v>45</v>
       </c>
       <c r="AR237" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS237" t="n">
         <v>175</v>
       </c>
       <c r="AT237" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU237" t="n">
         <v>6.7</v>
@@ -44245,22 +44245,22 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H241" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I241" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J241" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K241" t="n">
         <v>2.25</v>
       </c>
       <c r="L241" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="M241" t="n">
         <v>1.04</v>
@@ -44272,13 +44272,13 @@
         <v>1.22</v>
       </c>
       <c r="P241" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q241" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R241" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S241" t="n">
         <v>1.34</v>
@@ -44287,25 +44287,25 @@
         <v>3</v>
       </c>
       <c r="U241" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V241" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W241" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X241" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y241" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z241" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA241" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB241" t="n">
         <v>21</v>
@@ -44317,46 +44317,46 @@
         <v>7.3</v>
       </c>
       <c r="AE241" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF241" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG241" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH241" t="n">
         <v>13.5</v>
       </c>
       <c r="AI241" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ241" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK241" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL241" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM241" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN241" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO241" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP241" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ241" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR241" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS241" t="n">
         <v>175</v>
@@ -44365,7 +44365,7 @@
         <v>3</v>
       </c>
       <c r="AU241" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV241" t="n">
         <v>55</v>
@@ -44374,19 +44374,19 @@
         <v>51</v>
       </c>
       <c r="AX241" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AY241" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ241" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA241" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB241" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC241" t="n">
         <v>300</v>
@@ -45519,28 +45519,28 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H248" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="I248" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="J248" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="K248" t="n">
         <v>1.82</v>
       </c>
       <c r="L248" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M248" t="n">
         <v>1.05</v>
       </c>
       <c r="N248" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O248" t="n">
         <v>1.47</v>
@@ -45561,73 +45561,73 @@
         <v>2.18</v>
       </c>
       <c r="U248" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V248" t="n">
         <v>1.7</v>
       </c>
       <c r="W248" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X248" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y248" t="n">
         <v>8.75</v>
       </c>
       <c r="Z248" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA248" t="n">
         <v>20</v>
       </c>
       <c r="AB248" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC248" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD248" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE248" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF248" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG248" t="n">
         <v>900</v>
       </c>
       <c r="AH248" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI248" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ248" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK248" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL248" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM248" t="n">
         <v>55</v>
       </c>
-      <c r="AM248" t="n">
-        <v>60</v>
-      </c>
       <c r="AN248" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO248" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP248" t="n">
         <v>21</v>
       </c>
       <c r="AQ248" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR248" t="n">
         <v>90</v>
@@ -45639,7 +45639,7 @@
         <v>2.15</v>
       </c>
       <c r="AU248" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV248" t="n">
         <v>70</v>
@@ -45648,22 +45648,22 @@
         <v>51</v>
       </c>
       <c r="AX248" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AY248" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ248" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA248" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB248" t="n">
         <v>200</v>
       </c>
-      <c r="BB248" t="n">
-        <v>250</v>
-      </c>
       <c r="BC248" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD248" t="n">
         <v>51</v>
@@ -45701,67 +45701,67 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H249" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I249" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J249" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="K249" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L249" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="M249" t="n">
         <v>1.03</v>
       </c>
       <c r="N249" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O249" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P249" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Q249" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R249" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S249" t="n">
         <v>1.45</v>
       </c>
       <c r="T249" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U249" t="n">
         <v>2.05</v>
       </c>
       <c r="V249" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W249" t="n">
         <v>5.2</v>
       </c>
       <c r="X249" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y249" t="n">
         <v>8.25</v>
       </c>
       <c r="Z249" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA249" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB249" t="n">
         <v>35</v>
@@ -45770,49 +45770,49 @@
         <v>7.1</v>
       </c>
       <c r="AD249" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE249" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF249" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG249" t="n">
         <v>1000</v>
       </c>
       <c r="AH249" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI249" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ249" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK249" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AL249" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM249" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN249" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO249" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AP249" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ249" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR249" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS249" t="n">
         <v>300</v>
@@ -45821,7 +45821,7 @@
         <v>2.35</v>
       </c>
       <c r="AU249" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV249" t="n">
         <v>80</v>
@@ -45830,19 +45830,19 @@
         <v>51</v>
       </c>
       <c r="AX249" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AY249" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ249" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA249" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BB249" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC249" t="n">
         <v>500</v>
@@ -45883,22 +45883,22 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I250" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J250" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K250" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L250" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="M250" t="n">
         <v>1.03</v>
@@ -45910,7 +45910,7 @@
         <v>1.4</v>
       </c>
       <c r="P250" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q250" t="n">
         <v>2.15</v>
@@ -45919,43 +45919,43 @@
         <v>1.55</v>
       </c>
       <c r="S250" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T250" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="U250" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V250" t="n">
         <v>1.75</v>
       </c>
       <c r="W250" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X250" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y250" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z250" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA250" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB250" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC250" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD250" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE250" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF250" t="n">
         <v>90</v>
@@ -45964,34 +45964,34 @@
         <v>800</v>
       </c>
       <c r="AH250" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI250" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AJ250" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK250" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL250" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM250" t="n">
         <v>37</v>
       </c>
       <c r="AN250" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AO250" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP250" t="n">
         <v>25</v>
       </c>
       <c r="AQ250" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR250" t="n">
         <v>120</v>
@@ -46000,7 +46000,7 @@
         <v>350</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AU250" t="n">
         <v>7.2</v>
@@ -46012,19 +46012,19 @@
         <v>51</v>
       </c>
       <c r="AX250" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AY250" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ250" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA250" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB250" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC250" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD252"/>
+  <dimension ref="A1:BD253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L11" t="n">
         <v>6.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -2415,124 +2415,124 @@
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
         <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>26</v>
       </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
       <c r="AK11" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
@@ -4211,16 +4211,16 @@
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
@@ -4229,10 +4229,10 @@
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.3</v>
@@ -4247,19 +4247,19 @@
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>19</v>
@@ -4271,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
@@ -4280,13 +4280,13 @@
         <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
@@ -4310,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4325,7 +4325,7 @@
         <v>2.5</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4343,13 +4343,13 @@
         <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
         <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -5133,22 +5133,22 @@
         <v>2.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5157,13 +5157,13 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
@@ -5181,7 +5181,7 @@
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
         <v>7.5</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
         <v>8.5</v>
@@ -5214,16 +5214,16 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
         <v>81</v>
@@ -5259,7 +5259,7 @@
         <v>51</v>
       </c>
       <c r="BC26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD26" t="n">
         <v>151</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -5852,7 +5852,7 @@
         <v>1.55</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.5</v>
@@ -5864,19 +5864,19 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
         <v>1.29</v>
@@ -5885,10 +5885,10 @@
         <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W30" t="n">
         <v>17</v>
@@ -5903,10 +5903,10 @@
         <v>51</v>
       </c>
       <c r="AA30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
         <v>17</v>
@@ -5915,16 +5915,16 @@
         <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI30" t="n">
         <v>8.5</v>
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO30" t="n">
         <v>26</v>
@@ -5954,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AR30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS30" t="n">
         <v>151</v>
@@ -5963,10 +5963,10 @@
         <v>3.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
         <v>451</v>
@@ -5978,7 +5978,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>21</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>1.8</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.14</v>
@@ -6070,19 +6070,19 @@
         <v>2.5</v>
       </c>
       <c r="V31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
         <v>5</v>
       </c>
       <c r="X31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
         <v>29</v>
@@ -6124,19 +6124,19 @@
         <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO31" t="n">
         <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS31" t="n">
         <v>451</v>
@@ -6145,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="AU31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV31" t="n">
         <v>101</v>
@@ -6207,40 +6207,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
         <v>1.4</v>
@@ -6249,37 +6249,37 @@
         <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
         <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
         <v>13</v>
       </c>
-      <c r="AA32" t="n">
-        <v>15</v>
-      </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>51</v>
@@ -6288,13 +6288,13 @@
         <v>301</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
         <v>51</v>
@@ -6306,16 +6306,16 @@
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP32" t="n">
         <v>21</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
@@ -6336,19 +6336,19 @@
         <v>151</v>
       </c>
       <c r="AX32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ32" t="n">
         <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
         <v>251</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
         <v>8</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -6586,49 +6586,49 @@
         <v>1.73</v>
       </c>
       <c r="L34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N34" t="n">
         <v>4.33</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U34" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
         <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA34" t="n">
         <v>34</v>
@@ -6637,13 +6637,13 @@
         <v>51</v>
       </c>
       <c r="AC34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AD34" t="n">
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF34" t="n">
         <v>126</v>
@@ -6655,7 +6655,7 @@
         <v>6</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
         <v>15</v>
@@ -6667,10 +6667,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO34" t="n">
         <v>19</v>
@@ -6688,31 +6688,31 @@
         <v>501</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU34" t="n">
         <v>12</v>
       </c>
       <c r="AV34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW34" t="n">
         <v>126</v>
       </c>
       <c r="AX34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ34" t="n">
         <v>41</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC34" t="n">
         <v>501</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>1.25</v>
@@ -8251,67 +8251,67 @@
         <v>3</v>
       </c>
       <c r="U43" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V43" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X43" t="n">
         <v>7</v>
-      </c>
-      <c r="X43" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA43" t="n">
         <v>13</v>
       </c>
       <c r="AB43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC43" t="n">
         <v>11</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH43" t="n">
         <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP43" t="n">
         <v>19</v>
@@ -8329,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8338,22 +8338,22 @@
         <v>501</v>
       </c>
       <c r="AX43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA43" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H47" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
         <v>1.67</v>
       </c>
       <c r="K47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8985,25 +8985,25 @@
         <v>1.73</v>
       </c>
       <c r="W47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X47" t="n">
         <v>6.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>11</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
         <v>10</v>
@@ -9012,25 +9012,25 @@
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>29</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>34</v>
       </c>
       <c r="AK47" t="n">
         <v>151</v>
       </c>
       <c r="AL47" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM47" t="n">
         <v>67</v>
@@ -9057,7 +9057,7 @@
         <v>3.5</v>
       </c>
       <c r="AU47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV47" t="n">
         <v>51</v>
@@ -9081,7 +9081,7 @@
         <v>201</v>
       </c>
       <c r="BC47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD47" t="n">
         <v>51</v>
@@ -9143,16 +9143,16 @@
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9483,13 +9483,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J50" t="n">
         <v>2.38</v>
@@ -9504,7 +9504,7 @@
         <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -9534,7 +9534,7 @@
         <v>6</v>
       </c>
       <c r="X50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y50" t="n">
         <v>8.5</v>
@@ -9567,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="AI50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ50" t="n">
         <v>17</v>
@@ -9582,7 +9582,7 @@
         <v>51</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
         <v>9</v>
@@ -9591,13 +9591,13 @@
         <v>21</v>
       </c>
       <c r="AQ50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR50" t="n">
         <v>51</v>
       </c>
       <c r="AS50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT50" t="n">
         <v>2.63</v>
@@ -9618,13 +9618,13 @@
         <v>29</v>
       </c>
       <c r="AZ50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA50" t="n">
         <v>101</v>
       </c>
       <c r="BB50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC50" t="n">
         <v>301</v>
@@ -9665,40 +9665,40 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R51" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
         <v>1.5</v>
@@ -9707,31 +9707,31 @@
         <v>2.5</v>
       </c>
       <c r="U51" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W51" t="n">
         <v>6.5</v>
       </c>
       <c r="X51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB51" t="n">
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD51" t="n">
         <v>6</v>
@@ -9740,13 +9740,13 @@
         <v>17</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI51" t="n">
         <v>17</v>
@@ -9767,10 +9767,10 @@
         <v>4</v>
       </c>
       <c r="AO51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ51" t="n">
         <v>41</v>
@@ -9794,7 +9794,7 @@
         <v>126</v>
       </c>
       <c r="AX51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY51" t="n">
         <v>21</v>
@@ -9809,7 +9809,7 @@
         <v>101</v>
       </c>
       <c r="BC51" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD51" t="n">
         <v>126</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M52" t="n">
         <v>1.1</v>
@@ -9895,25 +9895,25 @@
         <v>1.73</v>
       </c>
       <c r="W52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y52" t="n">
         <v>10</v>
       </c>
       <c r="Z52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA52" t="n">
         <v>21</v>
       </c>
       <c r="AB52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD52" t="n">
         <v>6</v>
@@ -9922,46 +9922,46 @@
         <v>17</v>
       </c>
       <c r="AF52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
         <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP52" t="n">
         <v>26</v>
       </c>
       <c r="AQ52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS52" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT52" t="n">
         <v>2.5</v>
@@ -9976,22 +9976,22 @@
         <v>81</v>
       </c>
       <c r="AX52" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB52" t="n">
         <v>101</v>
       </c>
       <c r="BC52" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD52" t="n">
         <v>81</v>
@@ -10029,16 +10029,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K53" t="n">
         <v>2.05</v>
@@ -10047,10 +10047,10 @@
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -10080,10 +10080,10 @@
         <v>9.5</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
         <v>34</v>
@@ -10125,7 +10125,7 @@
         <v>19</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="n">
         <v>5</v>
@@ -10137,7 +10137,7 @@
         <v>29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR53" t="n">
         <v>81</v>
@@ -10217,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
         <v>3</v>
@@ -10229,13 +10229,13 @@
         <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P54" t="n">
         <v>2.25</v>
@@ -10247,10 +10247,10 @@
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -10328,7 +10328,7 @@
         <v>351</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU54" t="n">
         <v>10</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J59" t="n">
         <v>4.33</v>
@@ -11139,10 +11139,10 @@
         <v>2.75</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O59" t="n">
         <v>1.33</v>
@@ -11151,10 +11151,10 @@
         <v>3.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S59" t="n">
         <v>1.44</v>
@@ -11169,7 +11169,7 @@
         <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X59" t="n">
         <v>19</v>
@@ -11181,7 +11181,7 @@
         <v>41</v>
       </c>
       <c r="AA59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB59" t="n">
         <v>41</v>
@@ -11190,7 +11190,7 @@
         <v>9</v>
       </c>
       <c r="AD59" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE59" t="n">
         <v>15</v>
@@ -11199,13 +11199,13 @@
         <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH59" t="n">
         <v>7</v>
       </c>
       <c r="AI59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ59" t="n">
         <v>9</v>
@@ -11670,7 +11670,7 @@
         <v>1.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I62" t="n">
         <v>6.5</v>
@@ -11724,7 +11724,7 @@
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA62" t="n">
         <v>15</v>
@@ -11757,7 +11757,7 @@
         <v>21</v>
       </c>
       <c r="AK62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL62" t="n">
         <v>51</v>
@@ -11787,10 +11787,10 @@
         <v>2.63</v>
       </c>
       <c r="AU62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW62" t="n">
         <v>126</v>
@@ -13326,7 +13326,7 @@
         <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -13338,7 +13338,7 @@
         <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13508,7 +13508,7 @@
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O72" t="n">
         <v>1.17</v>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R72" t="n">
         <v>2.4</v>
@@ -27337,13 +27337,13 @@
         <v>3.4</v>
       </c>
       <c r="M148" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N148" t="n">
         <v>13</v>
       </c>
       <c r="O148" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P148" t="n">
         <v>4</v>
@@ -27719,10 +27719,10 @@
         <v>2.07</v>
       </c>
       <c r="S150" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T150" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U150" t="n">
         <v>1.78</v>
@@ -29321,31 +29321,31 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I159" t="n">
+        <v>17</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L159" t="n">
         <v>13</v>
       </c>
-      <c r="J159" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K159" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L159" t="n">
-        <v>11</v>
-      </c>
       <c r="M159" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N159" t="n">
         <v>8.5</v>
       </c>
       <c r="O159" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P159" t="n">
         <v>3.25</v>
@@ -29354,7 +29354,7 @@
         <v>2.05</v>
       </c>
       <c r="R159" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S159" t="n">
         <v>1.4</v>
@@ -29363,22 +29363,22 @@
         <v>2.75</v>
       </c>
       <c r="U159" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V159" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W159" t="n">
         <v>5</v>
       </c>
       <c r="X159" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z159" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA159" t="n">
         <v>15</v>
@@ -29390,73 +29390,73 @@
         <v>8.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE159" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF159" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG159" t="n">
         <v>1000</v>
       </c>
       <c r="AH159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI159" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ159" t="n">
         <v>41</v>
       </c>
       <c r="AK159" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL159" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM159" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN159" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO159" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP159" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ159" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR159" t="n">
         <v>51</v>
       </c>
       <c r="AS159" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT159" t="n">
         <v>2.75</v>
       </c>
       <c r="AU159" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV159" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW159" t="n">
         <v>126</v>
       </c>
       <c r="AX159" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY159" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ159" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA159" t="n">
         <v>351</v>
@@ -40969,16 +40969,16 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
         <v>3.7</v>
       </c>
       <c r="I223" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J223" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K223" t="n">
         <v>2.38</v>
@@ -40999,10 +40999,10 @@
         <v>4.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R223" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S223" t="n">
         <v>1.29</v>
@@ -41011,16 +41011,16 @@
         <v>3.5</v>
       </c>
       <c r="U223" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V223" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W223" t="n">
         <v>13</v>
       </c>
       <c r="X223" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y223" t="n">
         <v>11</v>
@@ -41047,7 +41047,7 @@
         <v>34</v>
       </c>
       <c r="AG223" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH223" t="n">
         <v>11</v>
@@ -41101,13 +41101,13 @@
         <v>4.5</v>
       </c>
       <c r="AY223" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ223" t="n">
         <v>17</v>
       </c>
       <c r="BA223" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB223" t="n">
         <v>51</v>
@@ -41151,22 +41151,22 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H224" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J224" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K224" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L224" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M224" t="n">
         <v>1.03</v>
@@ -41175,16 +41175,16 @@
         <v>15</v>
       </c>
       <c r="O224" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P224" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q224" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R224" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S224" t="n">
         <v>1.3</v>
@@ -41205,22 +41205,22 @@
         <v>11</v>
       </c>
       <c r="Y224" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA224" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB224" t="n">
         <v>21</v>
       </c>
       <c r="AC224" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD224" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE224" t="n">
         <v>13</v>
@@ -41235,34 +41235,34 @@
         <v>13</v>
       </c>
       <c r="AI224" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ224" t="n">
         <v>12</v>
       </c>
       <c r="AK224" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL224" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM224" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN224" t="n">
         <v>4.33</v>
       </c>
       <c r="AO224" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP224" t="n">
         <v>17</v>
       </c>
       <c r="AQ224" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR224" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS224" t="n">
         <v>101</v>
@@ -41280,10 +41280,10 @@
         <v>401</v>
       </c>
       <c r="AX224" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ224" t="n">
         <v>23</v>
@@ -41333,28 +41333,28 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H225" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I225" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J225" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K225" t="n">
         <v>2.5</v>
       </c>
       <c r="L225" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M225" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N225" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O225" t="n">
         <v>1.14</v>
@@ -41363,10 +41363,10 @@
         <v>5.5</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R225" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S225" t="n">
         <v>1.25</v>
@@ -41384,13 +41384,13 @@
         <v>11</v>
       </c>
       <c r="X225" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y225" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z225" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA225" t="n">
         <v>13</v>
@@ -41399,13 +41399,13 @@
         <v>19</v>
       </c>
       <c r="AC225" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD225" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE225" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF225" t="n">
         <v>34</v>
@@ -41426,22 +41426,22 @@
         <v>41</v>
       </c>
       <c r="AL225" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM225" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN225" t="n">
         <v>4.33</v>
       </c>
       <c r="AO225" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP225" t="n">
         <v>15</v>
       </c>
       <c r="AQ225" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR225" t="n">
         <v>41</v>
@@ -41462,10 +41462,10 @@
         <v>301</v>
       </c>
       <c r="AX225" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ225" t="n">
         <v>21</v>
@@ -41474,13 +41474,13 @@
         <v>51</v>
       </c>
       <c r="BB225" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC225" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD225" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226">
@@ -41515,22 +41515,22 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I226" t="n">
         <v>6</v>
       </c>
-      <c r="I226" t="n">
-        <v>7</v>
-      </c>
       <c r="J226" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K226" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L226" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M226" t="n">
         <v>1.01</v>
@@ -41557,10 +41557,10 @@
         <v>5</v>
       </c>
       <c r="U226" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V226" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W226" t="n">
         <v>15</v>
@@ -41569,10 +41569,10 @@
         <v>11</v>
       </c>
       <c r="Y226" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z226" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA226" t="n">
         <v>10</v>
@@ -41581,31 +41581,31 @@
         <v>17</v>
       </c>
       <c r="AC226" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD226" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE226" t="n">
         <v>15</v>
       </c>
       <c r="AF226" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG226" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH226" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI226" t="n">
         <v>41</v>
       </c>
       <c r="AJ226" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK226" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL226" t="n">
         <v>41</v>
@@ -41638,25 +41638,25 @@
         <v>7.5</v>
       </c>
       <c r="AV226" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW226" t="n">
         <v>201</v>
       </c>
       <c r="AX226" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY226" t="n">
         <v>29</v>
       </c>
       <c r="AZ226" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA226" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB226" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC226" t="n">
         <v>101</v>
@@ -41697,52 +41697,52 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H227" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I227" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J227" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K227" t="n">
         <v>2.4</v>
       </c>
       <c r="L227" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M227" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N227" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O227" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P227" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R227" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S227" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T227" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U227" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V227" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W227" t="n">
         <v>12</v>
@@ -41751,7 +41751,7 @@
         <v>13</v>
       </c>
       <c r="Y227" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z227" t="n">
         <v>21</v>
@@ -41760,19 +41760,19 @@
         <v>15</v>
       </c>
       <c r="AB227" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC227" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD227" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE227" t="n">
         <v>11</v>
       </c>
       <c r="AF227" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG227" t="n">
         <v>101</v>
@@ -41781,7 +41781,7 @@
         <v>15</v>
       </c>
       <c r="AI227" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ227" t="n">
         <v>12</v>
@@ -41811,10 +41811,10 @@
         <v>41</v>
       </c>
       <c r="AS227" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT227" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU227" t="n">
         <v>7</v>
@@ -41829,13 +41829,13 @@
         <v>5.5</v>
       </c>
       <c r="AY227" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ227" t="n">
         <v>19</v>
       </c>
       <c r="BA227" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB227" t="n">
         <v>51</v>
@@ -41879,16 +41879,16 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H228" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I228" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J228" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K228" t="n">
         <v>2.6</v>
@@ -41921,10 +41921,10 @@
         <v>4</v>
       </c>
       <c r="U228" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V228" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W228" t="n">
         <v>12</v>
@@ -41963,19 +41963,19 @@
         <v>19</v>
       </c>
       <c r="AI228" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ228" t="n">
         <v>15</v>
       </c>
       <c r="AK228" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL228" t="n">
         <v>29</v>
       </c>
       <c r="AM228" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN228" t="n">
         <v>4.33</v>
@@ -42026,7 +42026,7 @@
         <v>101</v>
       </c>
       <c r="BD228" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
@@ -42061,28 +42061,28 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I229" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J229" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K229" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L229" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M229" t="n">
         <v>1.02</v>
       </c>
       <c r="N229" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O229" t="n">
         <v>1.13</v>
@@ -42109,19 +42109,19 @@
         <v>2.63</v>
       </c>
       <c r="W229" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X229" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y229" t="n">
         <v>9</v>
       </c>
       <c r="Z229" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA229" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB229" t="n">
         <v>17</v>
@@ -42133,7 +42133,7 @@
         <v>8.5</v>
       </c>
       <c r="AE229" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF229" t="n">
         <v>29</v>
@@ -42145,7 +42145,7 @@
         <v>19</v>
       </c>
       <c r="AI229" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ229" t="n">
         <v>13</v>
@@ -42154,22 +42154,22 @@
         <v>41</v>
       </c>
       <c r="AL229" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM229" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN229" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO229" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP229" t="n">
         <v>15</v>
       </c>
       <c r="AQ229" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR229" t="n">
         <v>41</v>
@@ -42190,13 +42190,13 @@
         <v>251</v>
       </c>
       <c r="AX229" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY229" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ229" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ229" t="n">
-        <v>21</v>
       </c>
       <c r="BA229" t="n">
         <v>51</v>
@@ -42208,7 +42208,7 @@
         <v>101</v>
       </c>
       <c r="BD229" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230">
@@ -42249,7 +42249,7 @@
         <v>3.9</v>
       </c>
       <c r="I230" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J230" t="n">
         <v>2.6</v>
@@ -42264,7 +42264,7 @@
         <v>1.02</v>
       </c>
       <c r="N230" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O230" t="n">
         <v>1.13</v>
@@ -42572,7 +42572,7 @@
         <v>101</v>
       </c>
       <c r="BD231" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="232">
@@ -42804,7 +42804,7 @@
         <v>3</v>
       </c>
       <c r="L233" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M233" t="n">
         <v>1.01</v>
@@ -42813,10 +42813,10 @@
         <v>26</v>
       </c>
       <c r="O233" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P233" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q233" t="n">
         <v>1.33</v>
@@ -42831,16 +42831,16 @@
         <v>4.5</v>
       </c>
       <c r="U233" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V233" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W233" t="n">
         <v>12</v>
       </c>
       <c r="X233" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y233" t="n">
         <v>9.5</v>
@@ -42861,16 +42861,16 @@
         <v>13</v>
       </c>
       <c r="AE233" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG233" t="n">
         <v>151</v>
       </c>
       <c r="AH233" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI233" t="n">
         <v>51</v>
@@ -42888,7 +42888,7 @@
         <v>41</v>
       </c>
       <c r="AN233" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO233" t="n">
         <v>5.5</v>
@@ -42900,10 +42900,10 @@
         <v>12</v>
       </c>
       <c r="AR233" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS233" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT233" t="n">
         <v>4.5</v>
@@ -42915,7 +42915,7 @@
         <v>41</v>
       </c>
       <c r="AW233" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX233" t="n">
         <v>11</v>
@@ -43335,13 +43335,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H236" t="n">
         <v>4.2</v>
       </c>
       <c r="I236" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J236" t="n">
         <v>2.2</v>
@@ -43383,7 +43383,7 @@
         <v>2.38</v>
       </c>
       <c r="W236" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X236" t="n">
         <v>10</v>
@@ -43419,7 +43419,7 @@
         <v>19</v>
       </c>
       <c r="AI236" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ236" t="n">
         <v>15</v>
@@ -43428,7 +43428,7 @@
         <v>51</v>
       </c>
       <c r="AL236" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM236" t="n">
         <v>29</v>
@@ -43455,7 +43455,7 @@
         <v>3.75</v>
       </c>
       <c r="AU236" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV236" t="n">
         <v>41</v>
@@ -43517,22 +43517,22 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="H237" t="n">
         <v>3.65</v>
       </c>
       <c r="I237" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="J237" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="K237" t="n">
         <v>2.32</v>
       </c>
       <c r="L237" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M237" t="n">
         <v>1.04</v>
@@ -43544,7 +43544,7 @@
         <v>1.21</v>
       </c>
       <c r="P237" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q237" t="n">
         <v>1.65</v>
@@ -43556,7 +43556,7 @@
         <v>1.31</v>
       </c>
       <c r="T237" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U237" t="n">
         <v>1.57</v>
@@ -43565,22 +43565,22 @@
         <v>2.27</v>
       </c>
       <c r="W237" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X237" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y237" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z237" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA237" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB237" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC237" t="n">
         <v>8.75</v>
@@ -43598,34 +43598,34 @@
         <v>300</v>
       </c>
       <c r="AH237" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI237" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ237" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK237" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL237" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AM237" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN237" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO237" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP237" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ237" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR237" t="n">
         <v>65</v>
@@ -43634,7 +43634,7 @@
         <v>175</v>
       </c>
       <c r="AT237" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU237" t="n">
         <v>6.7</v>
@@ -43646,19 +43646,19 @@
         <v>51</v>
       </c>
       <c r="AX237" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AY237" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ237" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA237" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB237" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC237" t="n">
         <v>200</v>
@@ -43699,22 +43699,22 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="H238" t="n">
         <v>3.45</v>
       </c>
       <c r="I238" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="J238" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K238" t="n">
         <v>2.2</v>
       </c>
       <c r="L238" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M238" t="n">
         <v>1.05</v>
@@ -43747,19 +43747,19 @@
         <v>2.1</v>
       </c>
       <c r="W238" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X238" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y238" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z238" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA238" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB238" t="n">
         <v>27</v>
@@ -43777,31 +43777,31 @@
         <v>55</v>
       </c>
       <c r="AG238" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH238" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI238" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ238" t="n">
         <v>9.5</v>
       </c>
       <c r="AK238" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL238" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM238" t="n">
         <v>27</v>
       </c>
       <c r="AN238" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO238" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP238" t="n">
         <v>20</v>
@@ -43828,16 +43828,16 @@
         <v>51</v>
       </c>
       <c r="AX238" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AY238" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AZ238" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA238" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB238" t="n">
         <v>80</v>
@@ -43881,148 +43881,148 @@
         </is>
       </c>
       <c r="G239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I239" t="n">
         <v>2.62</v>
       </c>
-      <c r="H239" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>2.55</v>
-      </c>
       <c r="J239" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K239" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L239" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M239" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N239" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O239" t="n">
         <v>1.42</v>
       </c>
       <c r="P239" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R239" t="n">
         <v>1.6</v>
       </c>
       <c r="S239" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T239" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U239" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V239" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W239" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X239" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y239" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z239" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA239" t="n">
         <v>25</v>
       </c>
       <c r="AB239" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC239" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD239" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AE239" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF239" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG239" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH239" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI239" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ239" t="n">
         <v>10</v>
       </c>
       <c r="AK239" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL239" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM239" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN239" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO239" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP239" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ239" t="n">
         <v>70</v>
       </c>
       <c r="AR239" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS239" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU239" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AV239" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA239" t="n">
         <v>75</v>
       </c>
-      <c r="AW239" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX239" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY239" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ239" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA239" t="n">
-        <v>65</v>
-      </c>
       <c r="BB239" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC239" t="n">
         <v>350</v>
@@ -44621,10 +44621,10 @@
         <v>3.85</v>
       </c>
       <c r="K243" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L243" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M243" t="n">
         <v>1.07</v>
@@ -44645,10 +44645,10 @@
         <v>1.75</v>
       </c>
       <c r="S243" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T243" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="U243" t="n">
         <v>1.85</v>
@@ -44714,46 +44714,46 @@
         <v>18.5</v>
       </c>
       <c r="AP243" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ243" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR243" t="n">
         <v>150</v>
       </c>
       <c r="AS243" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT243" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU243" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV243" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW243" t="n">
         <v>51</v>
       </c>
       <c r="AX243" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AY243" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AZ243" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA243" t="n">
         <v>40</v>
       </c>
       <c r="BB243" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC243" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD243" t="n">
         <v>51</v>
@@ -44973,37 +44973,37 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H245" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I245" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J245" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="K245" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L245" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M245" t="n">
         <v>1.08</v>
       </c>
       <c r="N245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O245" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P245" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R245" t="n">
         <v>1.7</v>
@@ -45012,40 +45012,40 @@
         <v>1.42</v>
       </c>
       <c r="T245" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U245" t="n">
         <v>1.82</v>
       </c>
       <c r="V245" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W245" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X245" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y245" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z245" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA245" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB245" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC245" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD245" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE245" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF245" t="n">
         <v>70</v>
@@ -45060,37 +45060,37 @@
         <v>16.5</v>
       </c>
       <c r="AJ245" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK245" t="n">
         <v>45</v>
       </c>
       <c r="AL245" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM245" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN245" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO245" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP245" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ245" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR245" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS245" t="n">
         <v>250</v>
       </c>
       <c r="AT245" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU245" t="n">
         <v>6.9</v>
@@ -45105,16 +45105,16 @@
         <v>5.1</v>
       </c>
       <c r="AY245" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ245" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA245" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB245" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC245" t="n">
         <v>300</v>
@@ -45519,28 +45519,28 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H248" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="I248" t="n">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="J248" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="K248" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L248" t="n">
-        <v>4.75</v>
+        <v>4.35</v>
       </c>
       <c r="M248" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N248" t="n">
-        <v>6</v>
+        <v>7.27</v>
       </c>
       <c r="O248" t="n">
         <v>1.47</v>
@@ -45558,40 +45558,40 @@
         <v>1.53</v>
       </c>
       <c r="T248" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U248" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V248" t="n">
         <v>1.7</v>
       </c>
       <c r="W248" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X248" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y248" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z248" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA248" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB248" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC248" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD248" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AE248" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF248" t="n">
         <v>90</v>
@@ -45600,46 +45600,46 @@
         <v>900</v>
       </c>
       <c r="AH248" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AI248" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AJ248" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK248" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL248" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM248" t="n">
         <v>55</v>
       </c>
       <c r="AN248" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AO248" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP248" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ248" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR248" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS248" t="n">
         <v>300</v>
       </c>
       <c r="AT248" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU248" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV248" t="n">
         <v>70</v>
@@ -45648,16 +45648,16 @@
         <v>51</v>
       </c>
       <c r="AX248" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AY248" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ248" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA248" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB248" t="n">
         <v>200</v>
@@ -45719,10 +45719,10 @@
         <v>6.4</v>
       </c>
       <c r="M249" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N249" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="O249" t="n">
         <v>1.39</v>
@@ -45854,7 +45854,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GzFfD3s3</t>
+          <t>xhAFk0kd</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -45874,160 +45874,160 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Inter de Barinas</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.9</v>
+        <v>1.13</v>
       </c>
       <c r="H250" t="n">
-        <v>3.05</v>
+        <v>6.3</v>
       </c>
       <c r="I250" t="n">
-        <v>2.4</v>
+        <v>23</v>
       </c>
       <c r="J250" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="K250" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L250" t="n">
-        <v>2.95</v>
+        <v>14.5</v>
       </c>
       <c r="M250" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N250" t="n">
-        <v>6.65</v>
+        <v>15.5</v>
       </c>
       <c r="O250" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="P250" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="R250" t="n">
-        <v>1.55</v>
+        <v>2.37</v>
       </c>
       <c r="S250" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T250" t="n">
-        <v>2.42</v>
+        <v>3.61</v>
       </c>
       <c r="U250" t="n">
-        <v>1.87</v>
+        <v>2.37</v>
       </c>
       <c r="V250" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="W250" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X250" t="n">
-        <v>13.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y250" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z250" t="n">
-        <v>35</v>
+        <v>5.9</v>
       </c>
       <c r="AA250" t="n">
-        <v>29</v>
+        <v>11.25</v>
       </c>
       <c r="AB250" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC250" t="n">
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD250" t="n">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="AE250" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AF250" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AG250" t="n">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="AH250" t="n">
-        <v>6.9</v>
+        <v>65</v>
       </c>
       <c r="AI250" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="AJ250" t="n">
-        <v>9.5</v>
+        <v>80</v>
       </c>
       <c r="AK250" t="n">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="AL250" t="n">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="AM250" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AR250" t="n">
         <v>37</v>
       </c>
-      <c r="AN250" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO250" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP250" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ250" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR250" t="n">
-        <v>120</v>
-      </c>
       <c r="AS250" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AU250" t="n">
-        <v>7.2</v>
+        <v>10.75</v>
       </c>
       <c r="AV250" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AW250" t="n">
         <v>51</v>
       </c>
       <c r="AX250" t="n">
-        <v>4.15</v>
+        <v>18</v>
       </c>
       <c r="AY250" t="n">
-        <v>12.5</v>
+        <v>150</v>
       </c>
       <c r="AZ250" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="BA250" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="BB250" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="BC250" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BD250" t="n">
         <v>51</v>
@@ -46036,7 +46036,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4vC7iMKq</t>
+          <t>GzFfD3s3</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -46056,160 +46056,160 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="H251" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="I251" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="J251" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L251" t="n">
         <v>2.9</v>
       </c>
-      <c r="K251" t="n">
+      <c r="M251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N251" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P251" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U251" t="n">
         <v>1.9</v>
       </c>
-      <c r="L251" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M251" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N251" t="n">
-        <v>6</v>
-      </c>
-      <c r="O251" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P251" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R251" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S251" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T251" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U251" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V251" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W251" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="X251" t="n">
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="Y251" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ251" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z251" t="n">
+      <c r="AK251" t="n">
         <v>23</v>
       </c>
-      <c r="AA251" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB251" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC251" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD251" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE251" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF251" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG251" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH251" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI251" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ251" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK251" t="n">
-        <v>50</v>
-      </c>
       <c r="AL251" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AM251" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AN251" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="AO251" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP251" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ251" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AR251" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS251" t="n">
         <v>350</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AU251" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV251" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB251" t="n">
         <v>90</v>
       </c>
-      <c r="AW251" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX251" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY251" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ251" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA251" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB251" t="n">
-        <v>200</v>
-      </c>
       <c r="BC251" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BD251" t="n">
         <v>51</v>
@@ -46218,182 +46218,364 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
+          <t>4vC7iMKq</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>19/10/2024</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J252" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P252" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2</v>
+      </c>
+      <c r="V252" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W252" t="n">
+        <v>6</v>
+      </c>
+      <c r="X252" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
           <t>xURSb4S9</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>19/10/2024</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>Rayo Zuliano</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>Estudiantes Merida</t>
         </is>
       </c>
-      <c r="G252" t="n">
+      <c r="G253" t="n">
         <v>2.35</v>
       </c>
-      <c r="H252" t="n">
+      <c r="H253" t="n">
         <v>3</v>
       </c>
-      <c r="I252" t="n">
+      <c r="I253" t="n">
         <v>3.05</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J253" t="n">
         <v>2.85</v>
       </c>
-      <c r="K252" t="n">
+      <c r="K253" t="n">
         <v>2.02</v>
       </c>
-      <c r="L252" t="n">
+      <c r="L253" t="n">
         <v>3.6</v>
       </c>
-      <c r="M252" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N252" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O252" t="n">
+      <c r="M253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N253" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O253" t="n">
         <v>1.33</v>
       </c>
-      <c r="P252" t="n">
+      <c r="P253" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q252" t="n">
+      <c r="Q253" t="n">
         <v>1.98</v>
       </c>
-      <c r="R252" t="n">
+      <c r="R253" t="n">
         <v>1.65</v>
       </c>
-      <c r="S252" t="n">
+      <c r="S253" t="n">
         <v>1.39</v>
       </c>
-      <c r="T252" t="n">
+      <c r="T253" t="n">
         <v>2.55</v>
       </c>
-      <c r="U252" t="n">
+      <c r="U253" t="n">
         <v>1.7</v>
       </c>
-      <c r="V252" t="n">
+      <c r="V253" t="n">
         <v>1.91</v>
       </c>
-      <c r="W252" t="n">
+      <c r="W253" t="n">
         <v>7.9</v>
       </c>
-      <c r="X252" t="n">
+      <c r="X253" t="n">
         <v>12</v>
       </c>
-      <c r="Y252" t="n">
+      <c r="Y253" t="n">
         <v>9</v>
       </c>
-      <c r="Z252" t="n">
+      <c r="Z253" t="n">
         <v>26</v>
       </c>
-      <c r="AA252" t="n">
+      <c r="AA253" t="n">
         <v>19</v>
       </c>
-      <c r="AB252" t="n">
+      <c r="AB253" t="n">
         <v>28</v>
       </c>
-      <c r="AC252" t="n">
+      <c r="AC253" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD252" t="n">
+      <c r="AD253" t="n">
         <v>5.8</v>
       </c>
-      <c r="AE252" t="n">
+      <c r="AE253" t="n">
         <v>13</v>
       </c>
-      <c r="AF252" t="n">
+      <c r="AF253" t="n">
         <v>60</v>
       </c>
-      <c r="AG252" t="n">
+      <c r="AG253" t="n">
         <v>500</v>
       </c>
-      <c r="AH252" t="n">
+      <c r="AH253" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI252" t="n">
+      <c r="AI253" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ252" t="n">
+      <c r="AJ253" t="n">
         <v>10.75</v>
       </c>
-      <c r="AK252" t="n">
+      <c r="AK253" t="n">
         <v>40</v>
       </c>
-      <c r="AL252" t="n">
+      <c r="AL253" t="n">
         <v>29</v>
       </c>
-      <c r="AM252" t="n">
+      <c r="AM253" t="n">
         <v>37</v>
       </c>
-      <c r="AN252" t="n">
+      <c r="AN253" t="n">
         <v>4.3</v>
       </c>
-      <c r="AO252" t="n">
+      <c r="AO253" t="n">
         <v>12</v>
       </c>
-      <c r="AP252" t="n">
+      <c r="AP253" t="n">
         <v>18</v>
       </c>
-      <c r="AQ252" t="n">
+      <c r="AQ253" t="n">
         <v>45</v>
       </c>
-      <c r="AR252" t="n">
+      <c r="AR253" t="n">
         <v>70</v>
       </c>
-      <c r="AS252" t="n">
+      <c r="AS253" t="n">
         <v>200</v>
       </c>
-      <c r="AT252" t="n">
+      <c r="AT253" t="n">
         <v>2.52</v>
       </c>
-      <c r="AU252" t="n">
+      <c r="AU253" t="n">
         <v>6.5</v>
       </c>
-      <c r="AV252" t="n">
+      <c r="AV253" t="n">
         <v>55</v>
       </c>
-      <c r="AW252" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX252" t="n">
+      <c r="AW253" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX253" t="n">
         <v>5</v>
       </c>
-      <c r="AY252" t="n">
+      <c r="AY253" t="n">
         <v>17</v>
       </c>
-      <c r="AZ252" t="n">
+      <c r="AZ253" t="n">
         <v>23</v>
       </c>
-      <c r="BA252" t="n">
+      <c r="BA253" t="n">
         <v>80</v>
       </c>
-      <c r="BB252" t="n">
+      <c r="BB253" t="n">
         <v>120</v>
       </c>
-      <c r="BC252" t="n">
+      <c r="BC253" t="n">
         <v>300</v>
       </c>
-      <c r="BD252" t="n">
+      <c r="BD253" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -6437,19 +6437,19 @@
         <v>1.75</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="n">
         <v>34</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>29</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
@@ -6458,7 +6458,7 @@
         <v>7.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE33" t="n">
         <v>17</v>
@@ -6473,7 +6473,7 @@
         <v>6.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>9.5</v>
@@ -6488,13 +6488,13 @@
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ33" t="n">
         <v>67</v>
@@ -6503,7 +6503,7 @@
         <v>101</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT33" t="n">
         <v>2.5</v>
@@ -6518,7 +6518,7 @@
         <v>126</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY33" t="n">
         <v>13</v>
@@ -6527,13 +6527,13 @@
         <v>26</v>
       </c>
       <c r="BA33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6589,28 +6589,28 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
         <v>2.75</v>
@@ -9119,16 +9119,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
@@ -9143,22 +9143,22 @@
         <v>8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U48" t="n">
         <v>2.2</v>
@@ -9176,7 +9176,7 @@
         <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
         <v>15</v>
@@ -9200,16 +9200,16 @@
         <v>351</v>
       </c>
       <c r="AH48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ48" t="n">
         <v>19</v>
       </c>
       <c r="AK48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL48" t="n">
         <v>51</v>
@@ -9221,7 +9221,7 @@
         <v>3.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP48" t="n">
         <v>23</v>
@@ -9236,7 +9236,7 @@
         <v>201</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU48" t="n">
         <v>9.5</v>
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>3.3</v>
@@ -11133,7 +11133,7 @@
         <v>4.33</v>
       </c>
       <c r="K59" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L59" t="n">
         <v>2.75</v>
@@ -11142,19 +11142,19 @@
         <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S59" t="n">
         <v>1.44</v>
@@ -11169,10 +11169,10 @@
         <v>1.83</v>
       </c>
       <c r="W59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y59" t="n">
         <v>13</v>
@@ -11187,7 +11187,7 @@
         <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD59" t="n">
         <v>6.5</v>
@@ -11205,16 +11205,16 @@
         <v>7</v>
       </c>
       <c r="AI59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ59" t="n">
         <v>9</v>
       </c>
       <c r="AK59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM59" t="n">
         <v>29</v>
@@ -11235,13 +11235,13 @@
         <v>101</v>
       </c>
       <c r="AS59" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT59" t="n">
         <v>2.63</v>
       </c>
       <c r="AU59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV59" t="n">
         <v>51</v>
@@ -11253,7 +11253,7 @@
         <v>4</v>
       </c>
       <c r="AY59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ59" t="n">
         <v>23</v>
@@ -11262,7 +11262,7 @@
         <v>41</v>
       </c>
       <c r="BB59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC59" t="n">
         <v>151</v>
@@ -11667,28 +11667,28 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K62" t="n">
         <v>2.2</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>1.36</v>
@@ -11709,22 +11709,22 @@
         <v>2.63</v>
       </c>
       <c r="U62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W62" t="n">
         <v>5.5</v>
       </c>
       <c r="X62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y62" t="n">
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA62" t="n">
         <v>15</v>
@@ -11748,25 +11748,25 @@
         <v>201</v>
       </c>
       <c r="AH62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI62" t="n">
         <v>34</v>
       </c>
       <c r="AJ62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK62" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM62" t="n">
         <v>67</v>
       </c>
-      <c r="AL62" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>51</v>
-      </c>
       <c r="AN62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO62" t="n">
         <v>8</v>
@@ -11787,19 +11787,19 @@
         <v>2.63</v>
       </c>
       <c r="AU62" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW62" t="n">
         <v>126</v>
       </c>
       <c r="AX62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ62" t="n">
         <v>41</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H72" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" t="n">
         <v>1.67</v>
@@ -13502,7 +13502,7 @@
         <v>2.75</v>
       </c>
       <c r="L72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
@@ -13517,16 +13517,16 @@
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R72" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S72" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U72" t="n">
         <v>2</v>
@@ -13535,16 +13535,16 @@
         <v>1.73</v>
       </c>
       <c r="W72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X72" t="n">
         <v>6.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA72" t="n">
         <v>11</v>
@@ -13553,7 +13553,7 @@
         <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD72" t="n">
         <v>10</v>
@@ -13595,28 +13595,28 @@
         <v>17</v>
       </c>
       <c r="AQ72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS72" t="n">
         <v>126</v>
       </c>
       <c r="AT72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX72" t="n">
         <v>10</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>11</v>
       </c>
       <c r="AY72" t="n">
         <v>41</v>
@@ -26955,22 +26955,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H146" t="n">
         <v>3.3</v>
       </c>
       <c r="I146" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J146" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K146" t="n">
         <v>2.1</v>
       </c>
       <c r="L146" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
@@ -26985,34 +26985,34 @@
         <v>3.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U146" t="n">
         <v>1.8</v>
       </c>
-      <c r="S146" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T146" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U146" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V146" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W146" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y146" t="n">
         <v>10</v>
       </c>
       <c r="Z146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA146" t="n">
         <v>21</v>
@@ -27021,19 +27021,19 @@
         <v>29</v>
       </c>
       <c r="AC146" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD146" t="n">
         <v>6</v>
       </c>
       <c r="AE146" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF146" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG146" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH146" t="n">
         <v>9</v>
@@ -27042,19 +27042,19 @@
         <v>13</v>
       </c>
       <c r="AJ146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK146" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL146" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM146" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN146" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO146" t="n">
         <v>15</v>
@@ -27072,7 +27072,7 @@
         <v>151</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU146" t="n">
         <v>8</v>
@@ -27090,7 +27090,7 @@
         <v>15</v>
       </c>
       <c r="AZ146" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA146" t="n">
         <v>51</v>
@@ -27137,22 +27137,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J147" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K147" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M147" t="n">
         <v>1.02</v>
@@ -27179,13 +27179,13 @@
         <v>4</v>
       </c>
       <c r="U147" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V147" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W147" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X147" t="n">
         <v>6.5</v>
@@ -27218,22 +27218,22 @@
         <v>401</v>
       </c>
       <c r="AH147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI147" t="n">
         <v>67</v>
       </c>
       <c r="AJ147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK147" t="n">
         <v>201</v>
       </c>
       <c r="AL147" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM147" t="n">
         <v>81</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>67</v>
       </c>
       <c r="AN147" t="n">
         <v>3.25</v>
@@ -27245,7 +27245,7 @@
         <v>17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR147" t="n">
         <v>34</v>
@@ -27260,28 +27260,28 @@
         <v>10</v>
       </c>
       <c r="AV147" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW147" t="n">
         <v>126</v>
       </c>
       <c r="AX147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY147" t="n">
         <v>51</v>
       </c>
       <c r="AZ147" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA147" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB147" t="n">
         <v>251</v>
       </c>
       <c r="BC147" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD147" t="n">
         <v>126</v>
@@ -27683,22 +27683,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H150" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I150" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J150" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="K150" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L150" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="M150" t="n">
         <v>1.02</v>
@@ -27713,10 +27713,10 @@
         <v>3.7</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R150" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S150" t="n">
         <v>1.29</v>
@@ -27728,13 +27728,13 @@
         <v>1.78</v>
       </c>
       <c r="V150" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W150" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="X150" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Y150" t="n">
         <v>8</v>
@@ -27743,7 +27743,7 @@
         <v>9.5</v>
       </c>
       <c r="AA150" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB150" t="n">
         <v>24</v>
@@ -27755,79 +27755,79 @@
         <v>8.75</v>
       </c>
       <c r="AE150" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF150" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG150" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH150" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI150" t="n">
         <v>50</v>
       </c>
       <c r="AJ150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK150" t="n">
         <v>175</v>
       </c>
       <c r="AL150" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM150" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN150" t="n">
         <v>3.25</v>
       </c>
       <c r="AO150" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AP150" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ150" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR150" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS150" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT150" t="n">
         <v>3.05</v>
       </c>
       <c r="AU150" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV150" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW150" t="n">
         <v>51</v>
       </c>
       <c r="AX150" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY150" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ150" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB150" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC150" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD150" t="n">
         <v>51</v>
@@ -28975,22 +28975,22 @@
         <v>3.75</v>
       </c>
       <c r="M157" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N157" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O157" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P157" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R157" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S157" t="n">
         <v>1.5</v>
@@ -40787,28 +40787,28 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I222" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J222" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K222" t="n">
         <v>2</v>
       </c>
       <c r="L222" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M222" t="n">
         <v>1.08</v>
       </c>
       <c r="N222" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O222" t="n">
         <v>1.44</v>
@@ -40829,16 +40829,16 @@
         <v>2.5</v>
       </c>
       <c r="U222" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V222" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W222" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X222" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y222" t="n">
         <v>9</v>
@@ -40847,7 +40847,7 @@
         <v>15</v>
       </c>
       <c r="AA222" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB222" t="n">
         <v>34</v>
@@ -40859,43 +40859,43 @@
         <v>7</v>
       </c>
       <c r="AE222" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF222" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG222" t="n">
         <v>1250</v>
       </c>
       <c r="AH222" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI222" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ222" t="n">
         <v>15</v>
       </c>
       <c r="AK222" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL222" t="n">
         <v>41</v>
       </c>
       <c r="AM222" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN222" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP222" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ222" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR222" t="n">
         <v>67</v>
@@ -40919,16 +40919,16 @@
         <v>6</v>
       </c>
       <c r="AY222" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ222" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA222" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB222" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC222" t="n">
         <v>351</v>
@@ -41151,22 +41151,22 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I224" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J224" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K224" t="n">
         <v>2.38</v>
       </c>
       <c r="L224" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M224" t="n">
         <v>1.03</v>
@@ -41199,19 +41199,19 @@
         <v>2.25</v>
       </c>
       <c r="W224" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X224" t="n">
         <v>11</v>
       </c>
       <c r="Y224" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB224" t="n">
         <v>21</v>
@@ -41235,19 +41235,19 @@
         <v>13</v>
       </c>
       <c r="AI224" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ224" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK224" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL224" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM224" t="n">
         <v>26</v>
-      </c>
-      <c r="AM224" t="n">
-        <v>29</v>
       </c>
       <c r="AN224" t="n">
         <v>4.33</v>
@@ -41259,7 +41259,7 @@
         <v>17</v>
       </c>
       <c r="AQ224" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR224" t="n">
         <v>41</v>
@@ -41280,13 +41280,13 @@
         <v>401</v>
       </c>
       <c r="AX224" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ224" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA224" t="n">
         <v>51</v>
@@ -41354,19 +41354,19 @@
         <v>1.02</v>
       </c>
       <c r="N225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O225" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P225" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q225" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R225" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S225" t="n">
         <v>1.25</v>
@@ -41375,13 +41375,13 @@
         <v>3.75</v>
       </c>
       <c r="U225" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V225" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W225" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X225" t="n">
         <v>11</v>
@@ -41390,19 +41390,19 @@
         <v>8.5</v>
       </c>
       <c r="Z225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA225" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB225" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC225" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD225" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE225" t="n">
         <v>12</v>
@@ -41414,10 +41414,10 @@
         <v>101</v>
       </c>
       <c r="AH225" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI225" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ225" t="n">
         <v>13</v>
@@ -41429,7 +41429,7 @@
         <v>29</v>
       </c>
       <c r="AM225" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN225" t="n">
         <v>4.33</v>
@@ -41459,13 +41459,13 @@
         <v>41</v>
       </c>
       <c r="AW225" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX225" t="n">
         <v>6.5</v>
       </c>
       <c r="AY225" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ225" t="n">
         <v>21</v>
@@ -41474,10 +41474,10 @@
         <v>51</v>
       </c>
       <c r="BB225" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC225" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD225" t="n">
         <v>176</v>
@@ -41524,7 +41524,7 @@
         <v>6</v>
       </c>
       <c r="J226" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K226" t="n">
         <v>2.88</v>
@@ -41569,19 +41569,19 @@
         <v>11</v>
       </c>
       <c r="Y226" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z226" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA226" t="n">
         <v>10</v>
       </c>
       <c r="AB226" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC226" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD226" t="n">
         <v>12</v>
@@ -41617,13 +41617,13 @@
         <v>4</v>
       </c>
       <c r="AO226" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP226" t="n">
         <v>12</v>
       </c>
       <c r="AQ226" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR226" t="n">
         <v>26</v>
@@ -41647,7 +41647,7 @@
         <v>8.5</v>
       </c>
       <c r="AY226" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ226" t="n">
         <v>23</v>
@@ -41697,28 +41697,28 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H227" t="n">
         <v>3.7</v>
       </c>
       <c r="I227" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J227" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K227" t="n">
         <v>2.4</v>
       </c>
       <c r="L227" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M227" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N227" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O227" t="n">
         <v>1.14</v>
@@ -41727,10 +41727,10 @@
         <v>5.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R227" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S227" t="n">
         <v>1.25</v>
@@ -41772,7 +41772,7 @@
         <v>11</v>
       </c>
       <c r="AF227" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG227" t="n">
         <v>101</v>
@@ -41781,7 +41781,7 @@
         <v>15</v>
       </c>
       <c r="AI227" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ227" t="n">
         <v>12</v>
@@ -41832,7 +41832,7 @@
         <v>17</v>
       </c>
       <c r="AZ227" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA227" t="n">
         <v>51</v>
@@ -41879,13 +41879,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H228" t="n">
         <v>4.2</v>
       </c>
       <c r="I228" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J228" t="n">
         <v>2.25</v>
@@ -41894,13 +41894,13 @@
         <v>2.6</v>
       </c>
       <c r="L228" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M228" t="n">
         <v>1.02</v>
       </c>
       <c r="N228" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O228" t="n">
         <v>1.13</v>
@@ -41915,10 +41915,10 @@
         <v>2.7</v>
       </c>
       <c r="S228" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T228" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U228" t="n">
         <v>1.44</v>
@@ -41936,7 +41936,7 @@
         <v>8.5</v>
       </c>
       <c r="Z228" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA228" t="n">
         <v>12</v>
@@ -41957,7 +41957,7 @@
         <v>34</v>
       </c>
       <c r="AG228" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH228" t="n">
         <v>19</v>
@@ -41981,13 +41981,13 @@
         <v>4.33</v>
       </c>
       <c r="AO228" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP228" t="n">
         <v>15</v>
       </c>
       <c r="AQ228" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR228" t="n">
         <v>41</v>
@@ -41996,7 +41996,7 @@
         <v>81</v>
       </c>
       <c r="AT228" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU228" t="n">
         <v>7</v>
@@ -42011,7 +42011,7 @@
         <v>6.5</v>
       </c>
       <c r="AY228" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ228" t="n">
         <v>21</v>
@@ -42061,22 +42061,22 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H229" t="n">
         <v>3.9</v>
       </c>
       <c r="I229" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J229" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K229" t="n">
         <v>2.5</v>
       </c>
       <c r="L229" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M229" t="n">
         <v>1.02</v>
@@ -42103,10 +42103,10 @@
         <v>4</v>
       </c>
       <c r="U229" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V229" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W229" t="n">
         <v>13</v>
@@ -42142,13 +42142,13 @@
         <v>81</v>
       </c>
       <c r="AH229" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI229" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK229" t="n">
         <v>41</v>
@@ -42163,7 +42163,7 @@
         <v>4.5</v>
       </c>
       <c r="AO229" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP229" t="n">
         <v>15</v>
@@ -42205,10 +42205,10 @@
         <v>51</v>
       </c>
       <c r="BC229" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD229" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
@@ -42297,7 +42297,7 @@
         <v>13</v>
       </c>
       <c r="Y230" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z230" t="n">
         <v>21</v>
@@ -42315,7 +42315,7 @@
         <v>8.5</v>
       </c>
       <c r="AE230" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF230" t="n">
         <v>29</v>
@@ -42792,7 +42792,7 @@
         <v>1.25</v>
       </c>
       <c r="H233" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I233" t="n">
         <v>10</v>
@@ -42813,10 +42813,10 @@
         <v>26</v>
       </c>
       <c r="O233" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P233" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q233" t="n">
         <v>1.33</v>
@@ -42831,10 +42831,10 @@
         <v>4.5</v>
       </c>
       <c r="U233" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V233" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W233" t="n">
         <v>12</v>
@@ -42843,7 +42843,7 @@
         <v>8.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z233" t="n">
         <v>9</v>
@@ -42909,7 +42909,7 @@
         <v>4.5</v>
       </c>
       <c r="AU233" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV233" t="n">
         <v>41</v>
@@ -42933,7 +42933,7 @@
         <v>126</v>
       </c>
       <c r="BC233" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD233" t="n">
         <v>151</v>
@@ -43013,13 +43013,13 @@
         <v>4</v>
       </c>
       <c r="U234" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V234" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W234" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X234" t="n">
         <v>10</v>
@@ -43028,7 +43028,7 @@
         <v>8.5</v>
       </c>
       <c r="Z234" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA234" t="n">
         <v>11</v>
@@ -43085,7 +43085,7 @@
         <v>34</v>
       </c>
       <c r="AS234" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT234" t="n">
         <v>4</v>
@@ -43106,7 +43106,7 @@
         <v>26</v>
       </c>
       <c r="AZ234" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA234" t="n">
         <v>81</v>
@@ -43183,10 +43183,10 @@
         <v>6</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R235" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S235" t="n">
         <v>1.25</v>
@@ -43699,28 +43699,28 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H238" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I238" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J238" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K238" t="n">
         <v>2.2</v>
       </c>
       <c r="L238" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M238" t="n">
         <v>1.05</v>
       </c>
       <c r="N238" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O238" t="n">
         <v>1.26</v>
@@ -43750,22 +43750,22 @@
         <v>9.75</v>
       </c>
       <c r="X238" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y238" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z238" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA238" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB238" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC238" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD238" t="n">
         <v>6.8</v>
@@ -43780,37 +43780,37 @@
         <v>350</v>
       </c>
       <c r="AH238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ238" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI238" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ238" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK238" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL238" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM238" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN238" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO238" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP238" t="n">
         <v>20</v>
       </c>
       <c r="AQ238" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR238" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS238" t="n">
         <v>250</v>
@@ -43828,19 +43828,19 @@
         <v>51</v>
       </c>
       <c r="AX238" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY238" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ238" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA238" t="n">
         <v>50</v>
       </c>
       <c r="BB238" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC238" t="n">
         <v>250</v>
@@ -43881,58 +43881,58 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I239" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J239" t="n">
         <v>3.35</v>
       </c>
       <c r="K239" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="L239" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="M239" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N239" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="O239" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P239" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="R239" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S239" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T239" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="U239" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="V239" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="W239" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X239" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y239" t="n">
         <v>10</v>
@@ -43947,85 +43947,85 @@
         <v>35</v>
       </c>
       <c r="AC239" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AD239" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE239" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF239" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG239" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AH239" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AI239" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ239" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK239" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL239" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AM239" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AN239" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO239" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP239" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ239" t="n">
         <v>70</v>
       </c>
       <c r="AR239" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS239" t="n">
         <v>300</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU239" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV239" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW239" t="n">
         <v>51</v>
       </c>
       <c r="AX239" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AY239" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AZ239" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA239" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BB239" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="BC239" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BD239" t="n">
         <v>51</v>
@@ -44063,22 +44063,22 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I240" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J240" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="K240" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L240" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="M240" t="n">
         <v>1.05</v>
@@ -44090,19 +44090,19 @@
         <v>1.24</v>
       </c>
       <c r="P240" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q240" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R240" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S240" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T240" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U240" t="n">
         <v>1.65</v>
@@ -44114,16 +44114,16 @@
         <v>8.25</v>
       </c>
       <c r="X240" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y240" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z240" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA240" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB240" t="n">
         <v>23</v>
@@ -44141,31 +44141,31 @@
         <v>55</v>
       </c>
       <c r="AG240" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH240" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI240" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ240" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK240" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AL240" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM240" t="n">
         <v>32</v>
       </c>
-      <c r="AM240" t="n">
-        <v>35</v>
-      </c>
       <c r="AN240" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO240" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP240" t="n">
         <v>17</v>
@@ -44180,7 +44180,7 @@
         <v>200</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU240" t="n">
         <v>7</v>
@@ -44192,16 +44192,16 @@
         <v>51</v>
       </c>
       <c r="AX240" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AY240" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AZ240" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA240" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB240" t="n">
         <v>120</v>
@@ -44245,127 +44245,127 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H241" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I241" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="J241" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="K241" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L241" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="M241" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N241" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P241" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W241" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X241" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y241" t="n">
         <v>8.25</v>
       </c>
-      <c r="O241" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P241" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R241" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S241" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T241" t="n">
-        <v>3</v>
-      </c>
-      <c r="U241" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V241" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W241" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X241" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y241" t="n">
-        <v>8</v>
-      </c>
       <c r="Z241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA241" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AB241" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC241" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD241" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AE241" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF241" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG241" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH241" t="n">
         <v>13.5</v>
       </c>
       <c r="AI241" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ241" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK241" t="n">
         <v>65</v>
       </c>
       <c r="AL241" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM241" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ241" t="n">
         <v>37</v>
       </c>
-      <c r="AN241" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO241" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP241" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ241" t="n">
-        <v>27</v>
-      </c>
       <c r="AR241" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AS241" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT241" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AU241" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AV241" t="n">
         <v>55</v>
@@ -44374,22 +44374,22 @@
         <v>51</v>
       </c>
       <c r="AX241" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AY241" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ241" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA241" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB241" t="n">
         <v>120</v>
       </c>
-      <c r="BB241" t="n">
-        <v>150</v>
-      </c>
       <c r="BC241" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD241" t="n">
         <v>51</v>
@@ -44427,7 +44427,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H242" t="n">
         <v>3.6</v>
@@ -44454,34 +44454,34 @@
         <v>1.23</v>
       </c>
       <c r="P242" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R242" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S242" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T242" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U242" t="n">
         <v>1.65</v>
       </c>
       <c r="V242" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W242" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X242" t="n">
         <v>22</v>
       </c>
       <c r="Y242" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z242" t="n">
         <v>55</v>
@@ -44496,22 +44496,22 @@
         <v>8.25</v>
       </c>
       <c r="AD242" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE242" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF242" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG242" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH242" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI242" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ242" t="n">
         <v>8.25</v>
@@ -44532,7 +44532,7 @@
         <v>21</v>
       </c>
       <c r="AP242" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ242" t="n">
         <v>110</v>
@@ -44544,10 +44544,10 @@
         <v>300</v>
       </c>
       <c r="AT242" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU242" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV242" t="n">
         <v>55</v>
@@ -44556,13 +44556,13 @@
         <v>51</v>
       </c>
       <c r="AX242" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AY242" t="n">
         <v>9</v>
       </c>
       <c r="AZ242" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA242" t="n">
         <v>30</v>
@@ -44571,7 +44571,7 @@
         <v>55</v>
       </c>
       <c r="BC242" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD242" t="n">
         <v>51</v>
@@ -45155,22 +45155,22 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H246" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I246" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J246" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K246" t="n">
         <v>2.22</v>
       </c>
       <c r="L246" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="M246" t="n">
         <v>1.04</v>
@@ -45194,28 +45194,28 @@
         <v>1.35</v>
       </c>
       <c r="T246" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U246" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V246" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W246" t="n">
         <v>8.5</v>
       </c>
       <c r="X246" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y246" t="n">
         <v>8.25</v>
       </c>
       <c r="Z246" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA246" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB246" t="n">
         <v>22</v>
@@ -45224,13 +45224,13 @@
         <v>8.25</v>
       </c>
       <c r="AD246" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE246" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF246" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG246" t="n">
         <v>350</v>
@@ -45242,64 +45242,64 @@
         <v>23</v>
       </c>
       <c r="AJ246" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK246" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL246" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM246" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN246" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO246" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP246" t="n">
         <v>17</v>
       </c>
       <c r="AQ246" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR246" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS246" t="n">
         <v>200</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU246" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV246" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW246" t="n">
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AY246" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ246" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA246" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB246" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC246" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD246" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-19.xlsx
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -6586,7 +6586,7 @@
         <v>1.73</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.22</v>
@@ -6607,22 +6607,22 @@
         <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y34" t="n">
         <v>13</v>
@@ -6643,22 +6643,22 @@
         <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="n">
         <v>501</v>
       </c>
       <c r="AH34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
         <v>15</v>
       </c>
       <c r="AJ34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
         <v>41</v>
@@ -6691,7 +6691,7 @@
         <v>1.83</v>
       </c>
       <c r="AU34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV34" t="n">
         <v>126</v>
@@ -6703,10 +6703,10 @@
         <v>5</v>
       </c>
       <c r="AY34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
         <v>101</v>
@@ -9322,19 +9322,19 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
         <v>1.29</v>
@@ -9343,10 +9343,10 @@
         <v>3.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
         <v>8</v>
@@ -11697,10 +11697,10 @@
         <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S62" t="n">
         <v>1.44</v>
@@ -11754,7 +11754,7 @@
         <v>34</v>
       </c>
       <c r="AJ62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK62" t="n">
         <v>81</v>
@@ -13487,19 +13487,19 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H72" t="n">
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J72" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K72" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L72" t="n">
         <v>8.5</v>
@@ -13508,7 +13508,7 @@
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O72" t="n">
         <v>1.17</v>
@@ -13553,7 +13553,7 @@
         <v>29</v>
       </c>
       <c r="AC72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD72" t="n">
         <v>10</v>
@@ -13562,34 +13562,34 @@
         <v>21</v>
       </c>
       <c r="AF72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL72" t="n">
         <v>67</v>
       </c>
-      <c r="AG72" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>81</v>
-      </c>
       <c r="AM72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN72" t="n">
         <v>3.25</v>
       </c>
       <c r="AO72" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP72" t="n">
         <v>17</v>
@@ -13631,7 +13631,7 @@
         <v>201</v>
       </c>
       <c r="BC72" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD72" t="n">
         <v>51</v>
@@ -27137,115 +27137,115 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="H147" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I147" t="n">
+        <v>13</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N147" t="n">
         <v>17</v>
       </c>
-      <c r="J147" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3</v>
-      </c>
-      <c r="L147" t="n">
-        <v>11</v>
-      </c>
-      <c r="M147" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N147" t="n">
-        <v>19</v>
-      </c>
       <c r="O147" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P147" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R147" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S147" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T147" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U147" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V147" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W147" t="n">
         <v>8.5</v>
       </c>
       <c r="X147" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y147" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA147" t="n">
         <v>11</v>
       </c>
       <c r="AB147" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC147" t="n">
         <v>17</v>
       </c>
       <c r="AD147" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE147" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF147" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL147" t="n">
         <v>67</v>
       </c>
-      <c r="AG147" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>101</v>
-      </c>
       <c r="AM147" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN147" t="n">
         <v>3.25</v>
       </c>
       <c r="AO147" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP147" t="n">
         <v>17</v>
       </c>
       <c r="AQ147" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR147" t="n">
         <v>34</v>
@@ -27254,34 +27254,34 @@
         <v>101</v>
       </c>
       <c r="AT147" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV147" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW147" t="n">
         <v>126</v>
       </c>
       <c r="AX147" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY147" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ147" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA147" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC147" t="n">
         <v>301</v>
-      </c>
-      <c r="BB147" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC147" t="n">
-        <v>401</v>
       </c>
       <c r="BD147" t="n">
         <v>126</v>
@@ -27319,13 +27319,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H148" t="n">
         <v>3.4</v>
       </c>
       <c r="I148" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J148" t="n">
         <v>3</v>
@@ -27334,7 +27334,7 @@
         <v>2.25</v>
       </c>
       <c r="L148" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M148" t="n">
         <v>1.04</v>
@@ -27349,10 +27349,10 @@
         <v>4</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R148" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S148" t="n">
         <v>1.33</v>
@@ -27367,7 +27367,7 @@
         <v>2.2</v>
       </c>
       <c r="W148" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X148" t="n">
         <v>13</v>
@@ -27379,7 +27379,7 @@
         <v>23</v>
       </c>
       <c r="AA148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB148" t="n">
         <v>23</v>
@@ -27406,7 +27406,7 @@
         <v>15</v>
       </c>
       <c r="AJ148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK148" t="n">
         <v>29</v>
@@ -27415,7 +27415,7 @@
         <v>21</v>
       </c>
       <c r="AM148" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN148" t="n">
         <v>4.5</v>
@@ -27460,7 +27460,7 @@
         <v>51</v>
       </c>
       <c r="BB148" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC148" t="n">
         <v>126</v>
@@ -27683,28 +27683,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H150" t="n">
         <v>4.35</v>
       </c>
       <c r="I150" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="K150" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L150" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="M150" t="n">
         <v>1.02</v>
       </c>
       <c r="N150" t="n">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="O150" t="n">
         <v>1.19</v>
@@ -27716,13 +27716,13 @@
         <v>1.57</v>
       </c>
       <c r="R150" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S150" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="T150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U150" t="n">
         <v>1.78</v>
@@ -27731,13 +27731,13 @@
         <v>1.83</v>
       </c>
       <c r="W150" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X150" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y150" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z150" t="n">
         <v>9.5</v>
@@ -27746,64 +27746,64 @@
         <v>10.75</v>
       </c>
       <c r="AB150" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC150" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD150" t="n">
         <v>8.75</v>
       </c>
       <c r="AE150" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF150" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG150" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI150" t="n">
         <v>50</v>
       </c>
       <c r="AJ150" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK150" t="n">
         <v>175</v>
       </c>
       <c r="AL150" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM150" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN150" t="n">
         <v>3.25</v>
       </c>
       <c r="AO150" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AP150" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ150" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR150" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS150" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT150" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU150" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV150" t="n">
         <v>70</v>
@@ -27812,22 +27812,22 @@
         <v>51</v>
       </c>
       <c r="AX150" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY150" t="n">
         <v>40</v>
       </c>
       <c r="AZ150" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC150" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD150" t="n">
         <v>51</v>
@@ -29321,40 +29321,40 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H159" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I159" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J159" t="n">
         <v>1.73</v>
       </c>
       <c r="K159" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L159" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M159" t="n">
         <v>1.07</v>
       </c>
       <c r="N159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O159" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P159" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R159" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S159" t="n">
         <v>1.4</v>
@@ -29363,100 +29363,100 @@
         <v>2.75</v>
       </c>
       <c r="U159" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="V159" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="W159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X159" t="n">
         <v>5</v>
       </c>
-      <c r="X159" t="n">
-        <v>4.75</v>
-      </c>
       <c r="Y159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z159" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB159" t="n">
         <v>41</v>
       </c>
       <c r="AC159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE159" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AF159" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG159" t="n">
         <v>1000</v>
       </c>
       <c r="AH159" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP159" t="n">
         <v>23</v>
       </c>
-      <c r="AI159" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK159" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL159" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM159" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AO159" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP159" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ159" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR159" t="n">
         <v>51</v>
       </c>
       <c r="AS159" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT159" t="n">
         <v>2.75</v>
       </c>
       <c r="AU159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV159" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW159" t="n">
         <v>126</v>
       </c>
       <c r="AX159" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY159" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ159" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA159" t="n">
         <v>351</v>
@@ -42243,22 +42243,22 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="n">
         <v>3.9</v>
       </c>
       <c r="I230" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J230" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K230" t="n">
         <v>2.5</v>
       </c>
       <c r="L230" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230" t="n">
         <v>1.02</v>
@@ -42291,19 +42291,19 @@
         <v>2.63</v>
       </c>
       <c r="W230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X230" t="n">
         <v>13</v>
       </c>
       <c r="Y230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z230" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA230" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB230" t="n">
         <v>19</v>
@@ -42315,7 +42315,7 @@
         <v>8.5</v>
       </c>
       <c r="AE230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF230" t="n">
         <v>29</v>
@@ -42324,13 +42324,13 @@
         <v>81</v>
       </c>
       <c r="AH230" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI230" t="n">
         <v>21</v>
       </c>
       <c r="AJ230" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK230" t="n">
         <v>34</v>
@@ -42339,19 +42339,19 @@
         <v>21</v>
       </c>
       <c r="AM230" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN230" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO230" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP230" t="n">
         <v>15</v>
       </c>
       <c r="AQ230" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR230" t="n">
         <v>41</v>
@@ -42375,13 +42375,13 @@
         <v>5.5</v>
       </c>
       <c r="AY230" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ230" t="n">
         <v>19</v>
       </c>
       <c r="BA230" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB230" t="n">
         <v>51</v>
@@ -42437,7 +42437,7 @@
         <v>2.25</v>
       </c>
       <c r="K231" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L231" t="n">
         <v>4</v>
@@ -42446,7 +42446,7 @@
         <v>1.02</v>
       </c>
       <c r="N231" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O231" t="n">
         <v>1.13</v>
@@ -42461,10 +42461,10 @@
         <v>2.7</v>
       </c>
       <c r="S231" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T231" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U231" t="n">
         <v>1.44</v>
@@ -42476,13 +42476,13 @@
         <v>12</v>
       </c>
       <c r="X231" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y231" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA231" t="n">
         <v>12</v>
@@ -42497,13 +42497,13 @@
         <v>8.5</v>
       </c>
       <c r="AE231" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF231" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG231" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH231" t="n">
         <v>19</v>
@@ -42542,7 +42542,7 @@
         <v>81</v>
       </c>
       <c r="AT231" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU231" t="n">
         <v>7</v>
@@ -42566,7 +42566,7 @@
         <v>51</v>
       </c>
       <c r="BB231" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC231" t="n">
         <v>101</v>
@@ -42607,28 +42607,28 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H232" t="n">
         <v>3.8</v>
       </c>
       <c r="I232" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J232" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K232" t="n">
         <v>2.6</v>
       </c>
       <c r="L232" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M232" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N232" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O232" t="n">
         <v>1.1</v>
@@ -42709,13 +42709,13 @@
         <v>4.75</v>
       </c>
       <c r="AO232" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP232" t="n">
         <v>15</v>
       </c>
       <c r="AQ232" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR232" t="n">
         <v>41</v>
@@ -42736,7 +42736,7 @@
         <v>201</v>
       </c>
       <c r="AX232" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY232" t="n">
         <v>15</v>
@@ -42789,19 +42789,19 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H233" t="n">
         <v>7</v>
       </c>
       <c r="I233" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J233" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K233" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L233" t="n">
         <v>8</v>
@@ -42843,10 +42843,10 @@
         <v>8.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z233" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA233" t="n">
         <v>10</v>
@@ -42870,22 +42870,22 @@
         <v>151</v>
       </c>
       <c r="AH233" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ233" t="n">
         <v>29</v>
       </c>
-      <c r="AI233" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ233" t="n">
-        <v>26</v>
-      </c>
       <c r="AK233" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL233" t="n">
         <v>51</v>
       </c>
       <c r="AM233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN233" t="n">
         <v>3.6</v>
@@ -42900,7 +42900,7 @@
         <v>12</v>
       </c>
       <c r="AR233" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS233" t="n">
         <v>81</v>
@@ -42971,22 +42971,22 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H234" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I234" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J234" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K234" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L234" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M234" t="n">
         <v>1.02</v>
@@ -43037,13 +43037,13 @@
         <v>17</v>
       </c>
       <c r="AC234" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD234" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE234" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF234" t="n">
         <v>34</v>
@@ -43055,13 +43055,13 @@
         <v>23</v>
       </c>
       <c r="AI234" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ234" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK234" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL234" t="n">
         <v>41</v>
@@ -43073,7 +43073,7 @@
         <v>4</v>
       </c>
       <c r="AO234" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP234" t="n">
         <v>13</v>
@@ -43085,7 +43085,7 @@
         <v>34</v>
       </c>
       <c r="AS234" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT234" t="n">
         <v>4</v>
@@ -43100,7 +43100,7 @@
         <v>301</v>
       </c>
       <c r="AX234" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY234" t="n">
         <v>26</v>
@@ -43118,7 +43118,7 @@
         <v>126</v>
       </c>
       <c r="BD234" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235">
@@ -43153,28 +43153,28 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="H235" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I235" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J235" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K235" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L235" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M235" t="n">
         <v>1.02</v>
       </c>
       <c r="N235" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O235" t="n">
         <v>1.13</v>
@@ -43189,43 +43189,43 @@
         <v>2.7</v>
       </c>
       <c r="S235" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T235" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U235" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V235" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W235" t="n">
+        <v>11</v>
+      </c>
+      <c r="X235" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA235" t="n">
         <v>12</v>
       </c>
-      <c r="X235" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y235" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z235" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA235" t="n">
-        <v>13</v>
-      </c>
       <c r="AB235" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC235" t="n">
         <v>21</v>
       </c>
       <c r="AD235" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE235" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF235" t="n">
         <v>34</v>
@@ -43234,43 +43234,43 @@
         <v>101</v>
       </c>
       <c r="AH235" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI235" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ235" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK235" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL235" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM235" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN235" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO235" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AP235" t="n">
         <v>15</v>
       </c>
       <c r="AQ235" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR235" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS235" t="n">
         <v>81</v>
       </c>
       <c r="AT235" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU235" t="n">
         <v>7</v>
@@ -43279,28 +43279,28 @@
         <v>41</v>
       </c>
       <c r="AW235" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX235" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY235" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ235" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA235" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB235" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC235" t="n">
         <v>101</v>
       </c>
       <c r="BD235" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236">
@@ -43335,22 +43335,22 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H236" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I236" t="n">
+        <v>5</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L236" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J236" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K236" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L236" t="n">
-        <v>4.5</v>
       </c>
       <c r="M236" t="n">
         <v>1.02</v>
@@ -43359,22 +43359,22 @@
         <v>19</v>
       </c>
       <c r="O236" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P236" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q236" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R236" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S236" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T236" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U236" t="n">
         <v>1.53</v>
@@ -43383,7 +43383,7 @@
         <v>2.38</v>
       </c>
       <c r="W236" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X236" t="n">
         <v>10</v>
@@ -43392,37 +43392,37 @@
         <v>8.5</v>
       </c>
       <c r="Z236" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA236" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB236" t="n">
         <v>19</v>
       </c>
       <c r="AC236" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD236" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE236" t="n">
         <v>13</v>
       </c>
       <c r="AF236" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG236" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH236" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI236" t="n">
         <v>29</v>
       </c>
       <c r="AJ236" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK236" t="n">
         <v>51</v>
@@ -43437,22 +43437,22 @@
         <v>4</v>
       </c>
       <c r="AO236" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP236" t="n">
         <v>15</v>
       </c>
       <c r="AQ236" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR236" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS236" t="n">
         <v>81</v>
       </c>
       <c r="AT236" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU236" t="n">
         <v>7.5</v>
@@ -43461,13 +43461,13 @@
         <v>41</v>
       </c>
       <c r="AW236" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX236" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY236" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ236" t="n">
         <v>23</v>
@@ -43482,7 +43482,7 @@
         <v>126</v>
       </c>
       <c r="BD236" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237">
@@ -44427,127 +44427,127 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="H242" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I242" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="J242" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="K242" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L242" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="M242" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N242" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O242" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P242" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R242" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S242" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T242" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="U242" t="n">
         <v>1.65</v>
       </c>
       <c r="V242" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W242" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="X242" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y242" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE242" t="n">
         <v>13</v>
-      </c>
-      <c r="Z242" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA242" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB242" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC242" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD242" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE242" t="n">
-        <v>14</v>
       </c>
       <c r="AF242" t="n">
         <v>55</v>
       </c>
       <c r="AG242" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH242" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI242" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ242" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK242" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL242" t="n">
         <v>15.5</v>
       </c>
-      <c r="AL242" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AM242" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN242" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO242" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP242" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ242" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR242" t="n">
         <v>110</v>
-      </c>
-      <c r="AR242" t="n">
-        <v>120</v>
       </c>
       <c r="AS242" t="n">
         <v>300</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="AU242" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV242" t="n">
         <v>55</v>
@@ -44556,19 +44556,19 @@
         <v>51</v>
       </c>
       <c r="AX242" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AY242" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AZ242" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BA242" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BB242" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BC242" t="n">
         <v>200</v>
@@ -44609,37 +44609,37 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H243" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I243" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J243" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K243" t="n">
         <v>2.12</v>
       </c>
       <c r="L243" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="M243" t="n">
         <v>1.07</v>
       </c>
       <c r="N243" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O243" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P243" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q243" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R243" t="n">
         <v>1.75</v>
@@ -44648,34 +44648,34 @@
         <v>1.42</v>
       </c>
       <c r="T243" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U243" t="n">
         <v>1.85</v>
       </c>
       <c r="V243" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W243" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X243" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y243" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z243" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA243" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB243" t="n">
         <v>40</v>
       </c>
       <c r="AC243" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD243" t="n">
         <v>6.6</v>
@@ -44693,43 +44693,43 @@
         <v>7</v>
       </c>
       <c r="AI243" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ243" t="n">
         <v>8.75</v>
       </c>
       <c r="AK243" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL243" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AL243" t="n">
-        <v>17</v>
       </c>
       <c r="AM243" t="n">
         <v>30</v>
       </c>
       <c r="AN243" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO243" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP243" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ243" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR243" t="n">
         <v>150</v>
       </c>
       <c r="AS243" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT243" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU243" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV243" t="n">
         <v>75</v>
@@ -44738,13 +44738,13 @@
         <v>51</v>
       </c>
       <c r="AX243" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AY243" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AZ243" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA243" t="n">
         <v>40</v>
@@ -44973,22 +44973,22 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H245" t="n">
         <v>3</v>
       </c>
       <c r="I245" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J245" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K245" t="n">
         <v>2.05</v>
       </c>
       <c r="L245" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="M245" t="n">
         <v>1.08</v>
@@ -45003,10 +45003,10 @@
         <v>2.85</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R245" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S245" t="n">
         <v>1.42</v>
@@ -45015,28 +45015,28 @@
         <v>2.65</v>
       </c>
       <c r="U245" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V245" t="n">
         <v>1.88</v>
       </c>
       <c r="W245" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X245" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y245" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z245" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA245" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AB245" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC245" t="n">
         <v>6.4</v>
@@ -45045,10 +45045,10 @@
         <v>5.9</v>
       </c>
       <c r="AE245" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF245" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG245" t="n">
         <v>600</v>
@@ -45057,34 +45057,34 @@
         <v>9</v>
       </c>
       <c r="AI245" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ245" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK245" t="n">
         <v>45</v>
       </c>
       <c r="AL245" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM245" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN245" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AO245" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ245" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR245" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AS245" t="n">
         <v>250</v>
@@ -45102,19 +45102,19 @@
         <v>51</v>
       </c>
       <c r="AX245" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY245" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ245" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA245" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BB245" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC245" t="n">
         <v>300</v>
@@ -45155,151 +45155,151 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="H246" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3.85</v>
+        <v>4.45</v>
       </c>
       <c r="J246" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="K246" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="L246" t="n">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="M246" t="n">
         <v>1.04</v>
       </c>
       <c r="N246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P246" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3</v>
+      </c>
+      <c r="U246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W246" t="n">
         <v>8.25</v>
       </c>
-      <c r="O246" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P246" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R246" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S246" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T246" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U246" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V246" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W246" t="n">
+      <c r="X246" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X246" t="n">
-        <v>9.25</v>
       </c>
       <c r="Y246" t="n">
         <v>8.25</v>
       </c>
       <c r="Z246" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA246" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB246" t="n">
         <v>22</v>
       </c>
       <c r="AC246" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD246" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AE246" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF246" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG246" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH246" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI246" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AJ246" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK246" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL246" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM246" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN246" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AO246" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AP246" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ246" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AR246" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS246" t="n">
         <v>200</v>
       </c>
       <c r="AT246" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU246" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV246" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW246" t="n">
         <v>51</v>
       </c>
       <c r="AX246" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AY246" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ246" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA246" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BB246" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC246" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD246" t="n">
         <v>51</v>
@@ -45337,22 +45337,22 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H247" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I247" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J247" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K247" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L247" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M247" t="n">
         <v>1.07</v>
@@ -45367,40 +45367,40 @@
         <v>3.05</v>
       </c>
       <c r="Q247" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R247" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S247" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T247" t="n">
         <v>2.75</v>
       </c>
       <c r="U247" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V247" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W247" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X247" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y247" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z247" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA247" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB247" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC247" t="n">
         <v>6.9</v>
@@ -45418,28 +45418,28 @@
         <v>500</v>
       </c>
       <c r="AH247" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI247" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ247" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK247" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL247" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM247" t="n">
         <v>35</v>
       </c>
       <c r="AN247" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AO247" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP247" t="n">
         <v>19</v>
@@ -45466,16 +45466,16 @@
         <v>51</v>
       </c>
       <c r="AX247" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AY247" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ247" t="n">
         <v>23</v>
       </c>
       <c r="BA247" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB247" t="n">
         <v>110</v>
